--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://otagouni-my.sharepoint.com/personal/prana001_student_otago_ac_nz/Documents/Year 3/COSC345/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="884" documentId="8_{EFA227FA-5189-4934-925A-773C6139C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FEE6C26-2A83-4DFC-A668-138482A50FCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88357CA3-329D-4286-9175-88C79487136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="COSC345_Recipes" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,31 +963,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF374151"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1003,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1026,14 +1008,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,20 +1348,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
   <dimension ref="A1:CM229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="53" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="79.5703125" customWidth="1"/>
-    <col min="5" max="5" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="79.5546875" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.75">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="332.25">
+    <row r="3" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="87">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1477,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="201.75">
+    <row r="5" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="318">
+    <row r="6" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1523,7 +1499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="260.25">
+    <row r="7" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="390">
+    <row r="8" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="245.25">
+    <row r="9" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1592,7 +1568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="361.5">
+    <row r="10" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1615,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="216.75">
+    <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1638,7 +1614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="332.25">
+    <row r="12" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="318">
+    <row r="13" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1684,7 +1660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="361.5">
+    <row r="14" spans="1:7" ht="360" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1707,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="216.75">
+    <row r="15" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1730,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.6">
+    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -1753,7 +1729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:91" ht="144.75">
+    <row r="17" spans="1:91" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
@@ -1776,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:91" ht="332.25">
+    <row r="18" spans="1:91" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -1799,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:91" ht="332.25">
+    <row r="19" spans="1:91" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
@@ -1822,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:91" ht="29.25">
+    <row r="20" spans="1:91" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -1845,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:91" ht="154.5" customHeight="1">
+    <row r="21" spans="1:91" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -1868,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:91" ht="169.5" customHeight="1">
+    <row r="22" spans="1:91" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>103</v>
       </c>
@@ -1891,20 +1867,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:91" ht="237" customHeight="1">
+    <row r="23" spans="1:91" ht="237" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="3">
@@ -1914,7 +1890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:91" ht="236.25" customHeight="1">
+    <row r="24" spans="1:91" ht="236.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>113</v>
       </c>
@@ -1927,7 +1903,7 @@
       <c r="D24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F24" s="6">
@@ -1962,7 +1938,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:91" ht="201.75">
+    <row r="25" spans="1:91" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>118</v>
       </c>
@@ -1975,7 +1951,7 @@
       <c r="D25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="1">
@@ -2010,7 +1986,7 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:91" ht="153.75" customHeight="1">
+    <row r="26" spans="1:91" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
@@ -2023,7 +1999,7 @@
       <c r="D26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F26" s="1">
@@ -2117,7 +2093,7 @@
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
     </row>
-    <row r="27" spans="1:91" ht="72.75">
+    <row r="27" spans="1:91" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -2130,7 +2106,7 @@
       <c r="D27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F27" s="1">
@@ -2224,7 +2200,7 @@
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
     </row>
-    <row r="28" spans="1:91" ht="260.25">
+    <row r="28" spans="1:91" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>133</v>
       </c>
@@ -2237,7 +2213,7 @@
       <c r="D28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>137</v>
       </c>
       <c r="F28" s="1">
@@ -2331,7 +2307,7 @@
       <c r="CL28" s="1"/>
       <c r="CM28" s="1"/>
     </row>
-    <row r="29" spans="1:91" ht="130.5">
+    <row r="29" spans="1:91" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -2344,7 +2320,7 @@
       <c r="D29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F29" s="1">
@@ -2438,7 +2414,7 @@
       <c r="CL29" s="1"/>
       <c r="CM29" s="1"/>
     </row>
-    <row r="30" spans="1:91" ht="115.5">
+    <row r="30" spans="1:91" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
@@ -2451,7 +2427,7 @@
       <c r="D30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F30" s="1">
@@ -2545,7 +2521,7 @@
       <c r="CL30" s="1"/>
       <c r="CM30" s="1"/>
     </row>
-    <row r="31" spans="1:91" ht="57.75">
+    <row r="31" spans="1:91" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
@@ -2558,7 +2534,7 @@
       <c r="D31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F31" s="1">
@@ -2652,7 +2628,7 @@
       <c r="CL31" s="1"/>
       <c r="CM31" s="1"/>
     </row>
-    <row r="32" spans="1:91" ht="225" customHeight="1">
+    <row r="32" spans="1:91" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -2665,7 +2641,7 @@
       <c r="D32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>156</v>
       </c>
       <c r="F32" s="1">
@@ -2759,7 +2735,7 @@
       <c r="CL32" s="1"/>
       <c r="CM32" s="1"/>
     </row>
-    <row r="33" spans="1:91" ht="216.75">
+    <row r="33" spans="1:91" ht="216" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
@@ -2772,7 +2748,7 @@
       <c r="D33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F33" s="1">
@@ -2866,7 +2842,7 @@
       <c r="CL33" s="1"/>
       <c r="CM33" s="1"/>
     </row>
-    <row r="34" spans="1:91" ht="231">
+    <row r="34" spans="1:91" ht="216" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -2879,7 +2855,7 @@
       <c r="D34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F34" s="1">
@@ -2973,7 +2949,7 @@
       <c r="CL34" s="1"/>
       <c r="CM34" s="1"/>
     </row>
-    <row r="35" spans="1:91" ht="57.75">
+    <row r="35" spans="1:91" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
@@ -2986,7 +2962,7 @@
       <c r="D35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F35" s="1">
@@ -3080,7 +3056,7 @@
       <c r="CL35" s="1"/>
       <c r="CM35" s="1"/>
     </row>
-    <row r="36" spans="1:91" ht="57.75">
+    <row r="36" spans="1:91" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>170</v>
       </c>
@@ -3093,7 +3069,7 @@
       <c r="D36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F36" s="1">
@@ -3187,7 +3163,7 @@
       <c r="CL36" s="1"/>
       <c r="CM36" s="1"/>
     </row>
-    <row r="37" spans="1:91" ht="274.5">
+    <row r="37" spans="1:91" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>173</v>
       </c>
@@ -3200,7 +3176,7 @@
       <c r="D37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>177</v>
       </c>
       <c r="F37" s="1">
@@ -3294,7 +3270,7 @@
       <c r="CL37" s="1"/>
       <c r="CM37" s="1"/>
     </row>
-    <row r="38" spans="1:91" ht="188.25">
+    <row r="38" spans="1:91" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>178</v>
       </c>
@@ -3307,7 +3283,7 @@
       <c r="D38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F38" s="1">
@@ -3401,7 +3377,7 @@
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
     </row>
-    <row r="39" spans="1:91" ht="159">
+    <row r="39" spans="1:91" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -3414,7 +3390,7 @@
       <c r="D39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F39" s="1">
@@ -3508,7 +3484,7 @@
       <c r="CL39" s="1"/>
       <c r="CM39" s="1"/>
     </row>
-    <row r="40" spans="1:91" ht="144.75">
+    <row r="40" spans="1:91" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>186</v>
       </c>
@@ -3521,7 +3497,7 @@
       <c r="D40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="1">
@@ -3615,7 +3591,7 @@
       <c r="CL40" s="1"/>
       <c r="CM40" s="1"/>
     </row>
-    <row r="41" spans="1:91" ht="130.5">
+    <row r="41" spans="1:91" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>191</v>
       </c>
@@ -3628,7 +3604,7 @@
       <c r="D41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F41" s="1">
@@ -3722,7 +3698,7 @@
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
     </row>
-    <row r="42" spans="1:91" ht="57.75">
+    <row r="42" spans="1:91" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>196</v>
       </c>
@@ -3735,7 +3711,7 @@
       <c r="D42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F42" s="1">
@@ -3829,7 +3805,7 @@
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
     </row>
-    <row r="43" spans="1:91" ht="260.25">
+    <row r="43" spans="1:91" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>201</v>
       </c>
@@ -3842,7 +3818,7 @@
       <c r="D43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F43" s="1">
@@ -3936,7 +3912,7 @@
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
     </row>
-    <row r="44" spans="1:91" ht="260.25">
+    <row r="44" spans="1:91" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
@@ -3949,7 +3925,7 @@
       <c r="D44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>209</v>
       </c>
       <c r="F44" s="1">
@@ -4043,7 +4019,7 @@
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
     </row>
-    <row r="45" spans="1:91" ht="409.6">
+    <row r="45" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>210</v>
       </c>
@@ -4056,7 +4032,7 @@
       <c r="D45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F45" s="1">
@@ -4150,7 +4126,7 @@
       <c r="CL45" s="1"/>
       <c r="CM45" s="1"/>
     </row>
-    <row r="46" spans="1:91" ht="288.75">
+    <row r="46" spans="1:91" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>214</v>
       </c>
@@ -4163,7 +4139,7 @@
       <c r="D46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>217</v>
       </c>
       <c r="F46" s="1">
@@ -4257,7 +4233,7 @@
       <c r="CL46" s="1"/>
       <c r="CM46" s="1"/>
     </row>
-    <row r="47" spans="1:91" ht="231">
+    <row r="47" spans="1:91" ht="216" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -4270,7 +4246,7 @@
       <c r="D47" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F47" s="1">
@@ -4364,7 +4340,7 @@
       <c r="CL47" s="1"/>
       <c r="CM47" s="1"/>
     </row>
-    <row r="48" spans="1:91" ht="409.6">
+    <row r="48" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>222</v>
       </c>
@@ -4377,7 +4353,7 @@
       <c r="D48" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F48" s="1">
@@ -4471,7 +4447,7 @@
       <c r="CL48" s="1"/>
       <c r="CM48" s="1"/>
     </row>
-    <row r="49" spans="1:91" ht="332.25">
+    <row r="49" spans="1:91" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>226</v>
       </c>
@@ -4484,7 +4460,7 @@
       <c r="D49" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F49" s="1">
@@ -4578,7 +4554,7 @@
       <c r="CL49" s="1"/>
       <c r="CM49" s="1"/>
     </row>
-    <row r="50" spans="1:91" ht="409.6">
+    <row r="50" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>230</v>
       </c>
@@ -4591,7 +4567,7 @@
       <c r="D50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>233</v>
       </c>
       <c r="F50" s="1">
@@ -4685,7 +4661,7 @@
       <c r="CL50" s="1"/>
       <c r="CM50" s="1"/>
     </row>
-    <row r="51" spans="1:91" ht="346.5">
+    <row r="51" spans="1:91" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>234</v>
       </c>
@@ -4698,7 +4674,7 @@
       <c r="D51" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>237</v>
       </c>
       <c r="F51" s="1">
@@ -4792,7 +4768,7 @@
       <c r="CL51" s="1"/>
       <c r="CM51" s="1"/>
     </row>
-    <row r="52" spans="1:91" ht="201.75">
+    <row r="52" spans="1:91" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>238</v>
       </c>
@@ -4805,7 +4781,7 @@
       <c r="D52" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>241</v>
       </c>
       <c r="F52" s="1">
@@ -4899,7 +4875,7 @@
       <c r="CL52" s="1"/>
       <c r="CM52" s="1"/>
     </row>
-    <row r="53" spans="1:91" ht="361.5">
+    <row r="53" spans="1:91" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>242</v>
       </c>
@@ -4912,7 +4888,7 @@
       <c r="D53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>245</v>
       </c>
       <c r="F53" s="1">
@@ -5006,7 +4982,7 @@
       <c r="CL53" s="1"/>
       <c r="CM53" s="1"/>
     </row>
-    <row r="54" spans="1:91" ht="409.6">
+    <row r="54" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>246</v>
       </c>
@@ -5019,7 +4995,7 @@
       <c r="D54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F54" s="1">
@@ -5113,7 +5089,7 @@
       <c r="CL54" s="1"/>
       <c r="CM54" s="1"/>
     </row>
-    <row r="55" spans="1:91" ht="409.6">
+    <row r="55" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>250</v>
       </c>
@@ -5126,7 +5102,7 @@
       <c r="D55" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>253</v>
       </c>
       <c r="F55" s="1">
@@ -5220,7 +5196,7 @@
       <c r="CL55" s="1"/>
       <c r="CM55" s="1"/>
     </row>
-    <row r="56" spans="1:91" ht="288.75">
+    <row r="56" spans="1:91" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>254</v>
       </c>
@@ -5233,7 +5209,7 @@
       <c r="D56" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F56" s="1">
@@ -5327,7 +5303,7 @@
       <c r="CL56" s="1"/>
       <c r="CM56" s="1"/>
     </row>
-    <row r="57" spans="1:91" ht="288.75">
+    <row r="57" spans="1:91" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>258</v>
       </c>
@@ -5340,7 +5316,7 @@
       <c r="D57" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>261</v>
       </c>
       <c r="F57" s="1">
@@ -5434,7 +5410,7 @@
       <c r="CL57" s="1"/>
       <c r="CM57" s="1"/>
     </row>
-    <row r="58" spans="1:91" ht="409.6">
+    <row r="58" spans="1:91" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>262</v>
       </c>
@@ -5447,7 +5423,7 @@
       <c r="D58" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>265</v>
       </c>
       <c r="F58" s="1">
@@ -5541,7 +5517,7 @@
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
     </row>
-    <row r="59" spans="1:91" ht="144.75">
+    <row r="59" spans="1:91" ht="144" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>266</v>
       </c>
@@ -5554,7 +5530,7 @@
       <c r="D59" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>269</v>
       </c>
       <c r="F59" s="1">
@@ -5648,7 +5624,7 @@
       <c r="CL59" s="1"/>
       <c r="CM59" s="1"/>
     </row>
-    <row r="60" spans="1:91" ht="245.25">
+    <row r="60" spans="1:91" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>270</v>
       </c>
@@ -5661,7 +5637,7 @@
       <c r="D60" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>273</v>
       </c>
       <c r="F60" s="1">
@@ -5755,7 +5731,7 @@
       <c r="CL60" s="1"/>
       <c r="CM60" s="1"/>
     </row>
-    <row r="61" spans="1:91" ht="332.25">
+    <row r="61" spans="1:91" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>274</v>
       </c>
@@ -5768,7 +5744,7 @@
       <c r="D61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>277</v>
       </c>
       <c r="F61" s="1">
@@ -5862,7 +5838,7 @@
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
     </row>
-    <row r="62" spans="1:91" ht="188.25">
+    <row r="62" spans="1:91" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>278</v>
       </c>
@@ -5875,7 +5851,7 @@
       <c r="D62" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>281</v>
       </c>
       <c r="F62" s="1">
@@ -5969,12 +5945,11 @@
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
     </row>
-    <row r="63" spans="1:91" ht="15">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6062,12 +6037,11 @@
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
     </row>
-    <row r="64" spans="1:91" ht="15">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6155,12 +6129,11 @@
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
     </row>
-    <row r="65" spans="1:91" ht="15">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -6248,12 +6221,11 @@
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
     </row>
-    <row r="66" spans="1:91" ht="15">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -6341,12 +6313,11 @@
       <c r="CL66" s="1"/>
       <c r="CM66" s="1"/>
     </row>
-    <row r="67" spans="1:91" ht="15">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -6434,12 +6405,11 @@
       <c r="CL67" s="1"/>
       <c r="CM67" s="1"/>
     </row>
-    <row r="68" spans="1:91" ht="15">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -6527,12 +6497,11 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
     </row>
-    <row r="69" spans="1:91" ht="15">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -6620,12 +6589,11 @@
       <c r="CL69" s="1"/>
       <c r="CM69" s="1"/>
     </row>
-    <row r="70" spans="1:91" ht="15">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -6713,12 +6681,11 @@
       <c r="CL70" s="1"/>
       <c r="CM70" s="1"/>
     </row>
-    <row r="71" spans="1:91" ht="15">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -6806,12 +6773,11 @@
       <c r="CL71" s="1"/>
       <c r="CM71" s="1"/>
     </row>
-    <row r="72" spans="1:91" ht="15">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6899,12 +6865,11 @@
       <c r="CL72" s="1"/>
       <c r="CM72" s="1"/>
     </row>
-    <row r="73" spans="1:91" ht="15">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -6992,12 +6957,11 @@
       <c r="CL73" s="1"/>
       <c r="CM73" s="1"/>
     </row>
-    <row r="74" spans="1:91" ht="15">
+    <row r="74" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -7085,12 +7049,11 @@
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
     </row>
-    <row r="75" spans="1:91" ht="15">
+    <row r="75" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -7178,12 +7141,11 @@
       <c r="CL75" s="1"/>
       <c r="CM75" s="1"/>
     </row>
-    <row r="76" spans="1:91" ht="15">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -7271,12 +7233,11 @@
       <c r="CL76" s="1"/>
       <c r="CM76" s="1"/>
     </row>
-    <row r="77" spans="1:91" ht="15">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -7364,12 +7325,11 @@
       <c r="CL77" s="1"/>
       <c r="CM77" s="1"/>
     </row>
-    <row r="78" spans="1:91" ht="15">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -7457,12 +7417,11 @@
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
     </row>
-    <row r="79" spans="1:91" ht="15">
+    <row r="79" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -7550,12 +7509,11 @@
       <c r="CL79" s="1"/>
       <c r="CM79" s="1"/>
     </row>
-    <row r="80" spans="1:91" ht="15">
+    <row r="80" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -7643,12 +7601,11 @@
       <c r="CL80" s="1"/>
       <c r="CM80" s="1"/>
     </row>
-    <row r="81" spans="1:91" ht="15">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -7736,12 +7693,11 @@
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
     </row>
-    <row r="82" spans="1:91" ht="15">
+    <row r="82" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -7829,12 +7785,11 @@
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
     </row>
-    <row r="83" spans="1:91" ht="15">
+    <row r="83" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -7922,12 +7877,11 @@
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
     </row>
-    <row r="84" spans="1:91" ht="15">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -8015,12 +7969,11 @@
       <c r="CL84" s="1"/>
       <c r="CM84" s="1"/>
     </row>
-    <row r="85" spans="1:91" ht="15">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -8108,12 +8061,11 @@
       <c r="CL85" s="1"/>
       <c r="CM85" s="1"/>
     </row>
-    <row r="86" spans="1:91" ht="15">
+    <row r="86" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -8201,12 +8153,11 @@
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
     </row>
-    <row r="87" spans="1:91" ht="15">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -8294,12 +8245,11 @@
       <c r="CL87" s="1"/>
       <c r="CM87" s="1"/>
     </row>
-    <row r="88" spans="1:91" ht="15">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -8387,12 +8337,11 @@
       <c r="CL88" s="1"/>
       <c r="CM88" s="1"/>
     </row>
-    <row r="89" spans="1:91" ht="15">
+    <row r="89" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -8480,12 +8429,11 @@
       <c r="CL89" s="1"/>
       <c r="CM89" s="1"/>
     </row>
-    <row r="90" spans="1:91" ht="15">
+    <row r="90" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -8573,12 +8521,11 @@
       <c r="CL90" s="1"/>
       <c r="CM90" s="1"/>
     </row>
-    <row r="91" spans="1:91" ht="15">
+    <row r="91" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -8666,12 +8613,11 @@
       <c r="CL91" s="1"/>
       <c r="CM91" s="1"/>
     </row>
-    <row r="92" spans="1:91" ht="15">
+    <row r="92" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -8759,12 +8705,11 @@
       <c r="CL92" s="1"/>
       <c r="CM92" s="1"/>
     </row>
-    <row r="93" spans="1:91" ht="15">
+    <row r="93" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -8852,12 +8797,11 @@
       <c r="CL93" s="1"/>
       <c r="CM93" s="1"/>
     </row>
-    <row r="94" spans="1:91" ht="15">
+    <row r="94" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -8945,12 +8889,11 @@
       <c r="CL94" s="1"/>
       <c r="CM94" s="1"/>
     </row>
-    <row r="95" spans="1:91" ht="15">
+    <row r="95" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -9038,12 +8981,11 @@
       <c r="CL95" s="1"/>
       <c r="CM95" s="1"/>
     </row>
-    <row r="96" spans="1:91" ht="15">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -9131,12 +9073,11 @@
       <c r="CL96" s="1"/>
       <c r="CM96" s="1"/>
     </row>
-    <row r="97" spans="1:91" ht="15">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -9224,12 +9165,11 @@
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
     </row>
-    <row r="98" spans="1:91" ht="15">
+    <row r="98" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -9317,12 +9257,11 @@
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
     </row>
-    <row r="99" spans="1:91" ht="15">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -9410,12 +9349,11 @@
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
     </row>
-    <row r="100" spans="1:91" ht="15">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -9503,12 +9441,11 @@
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
     </row>
-    <row r="101" spans="1:91" ht="15">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -9596,12 +9533,11 @@
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
     </row>
-    <row r="102" spans="1:91" ht="15">
+    <row r="102" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -9689,12 +9625,11 @@
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
     </row>
-    <row r="103" spans="1:91" ht="15">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -9782,12 +9717,11 @@
       <c r="CL103" s="1"/>
       <c r="CM103" s="1"/>
     </row>
-    <row r="104" spans="1:91" ht="15">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -9875,12 +9809,11 @@
       <c r="CL104" s="1"/>
       <c r="CM104" s="1"/>
     </row>
-    <row r="105" spans="1:91" ht="15">
+    <row r="105" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -9968,12 +9901,11 @@
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
     </row>
-    <row r="106" spans="1:91" ht="15">
+    <row r="106" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -10061,12 +9993,11 @@
       <c r="CL106" s="1"/>
       <c r="CM106" s="1"/>
     </row>
-    <row r="107" spans="1:91" ht="15">
+    <row r="107" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -10154,12 +10085,11 @@
       <c r="CL107" s="1"/>
       <c r="CM107" s="1"/>
     </row>
-    <row r="108" spans="1:91" ht="15">
+    <row r="108" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -10247,12 +10177,11 @@
       <c r="CL108" s="1"/>
       <c r="CM108" s="1"/>
     </row>
-    <row r="109" spans="1:91" ht="15">
+    <row r="109" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -10340,12 +10269,11 @@
       <c r="CL109" s="1"/>
       <c r="CM109" s="1"/>
     </row>
-    <row r="110" spans="1:91" ht="15">
+    <row r="110" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -10433,12 +10361,11 @@
       <c r="CL110" s="1"/>
       <c r="CM110" s="1"/>
     </row>
-    <row r="111" spans="1:91" ht="15">
+    <row r="111" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -10526,12 +10453,11 @@
       <c r="CL111" s="1"/>
       <c r="CM111" s="1"/>
     </row>
-    <row r="112" spans="1:91" ht="15">
+    <row r="112" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -10619,12 +10545,11 @@
       <c r="CL112" s="1"/>
       <c r="CM112" s="1"/>
     </row>
-    <row r="113" spans="1:91" ht="15">
+    <row r="113" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -10712,12 +10637,11 @@
       <c r="CL113" s="1"/>
       <c r="CM113" s="1"/>
     </row>
-    <row r="114" spans="1:91" ht="15">
+    <row r="114" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -10805,12 +10729,11 @@
       <c r="CL114" s="1"/>
       <c r="CM114" s="1"/>
     </row>
-    <row r="115" spans="1:91" ht="15">
+    <row r="115" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -10898,12 +10821,11 @@
       <c r="CL115" s="1"/>
       <c r="CM115" s="1"/>
     </row>
-    <row r="116" spans="1:91" ht="15">
+    <row r="116" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -10991,12 +10913,11 @@
       <c r="CL116" s="1"/>
       <c r="CM116" s="1"/>
     </row>
-    <row r="117" spans="1:91" ht="15">
+    <row r="117" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -11084,12 +11005,11 @@
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
     </row>
-    <row r="118" spans="1:91" ht="15">
+    <row r="118" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -11177,12 +11097,11 @@
       <c r="CL118" s="1"/>
       <c r="CM118" s="1"/>
     </row>
-    <row r="119" spans="1:91" ht="15">
+    <row r="119" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -11270,12 +11189,11 @@
       <c r="CL119" s="1"/>
       <c r="CM119" s="1"/>
     </row>
-    <row r="120" spans="1:91" ht="15">
+    <row r="120" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -11363,12 +11281,11 @@
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
     </row>
-    <row r="121" spans="1:91" ht="15">
+    <row r="121" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -11456,12 +11373,11 @@
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
     </row>
-    <row r="122" spans="1:91" ht="15">
+    <row r="122" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -11549,12 +11465,11 @@
       <c r="CL122" s="1"/>
       <c r="CM122" s="1"/>
     </row>
-    <row r="123" spans="1:91" ht="15">
+    <row r="123" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -11642,12 +11557,11 @@
       <c r="CL123" s="1"/>
       <c r="CM123" s="1"/>
     </row>
-    <row r="124" spans="1:91" ht="15">
+    <row r="124" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -11735,12 +11649,11 @@
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
     </row>
-    <row r="125" spans="1:91" ht="15">
+    <row r="125" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -11828,12 +11741,11 @@
       <c r="CL125" s="1"/>
       <c r="CM125" s="1"/>
     </row>
-    <row r="126" spans="1:91" ht="15">
+    <row r="126" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -11921,12 +11833,11 @@
       <c r="CL126" s="1"/>
       <c r="CM126" s="1"/>
     </row>
-    <row r="127" spans="1:91" ht="15">
+    <row r="127" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -12014,12 +11925,11 @@
       <c r="CL127" s="1"/>
       <c r="CM127" s="1"/>
     </row>
-    <row r="128" spans="1:91" ht="15">
+    <row r="128" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -12107,12 +12017,11 @@
       <c r="CL128" s="1"/>
       <c r="CM128" s="1"/>
     </row>
-    <row r="129" spans="1:91" ht="15">
+    <row r="129" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -12200,12 +12109,11 @@
       <c r="CL129" s="1"/>
       <c r="CM129" s="1"/>
     </row>
-    <row r="130" spans="1:91" ht="15">
+    <row r="130" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -12293,12 +12201,11 @@
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
     </row>
-    <row r="131" spans="1:91" ht="15">
+    <row r="131" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -12386,12 +12293,11 @@
       <c r="CL131" s="1"/>
       <c r="CM131" s="1"/>
     </row>
-    <row r="132" spans="1:91" ht="15">
+    <row r="132" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -12479,12 +12385,11 @@
       <c r="CL132" s="1"/>
       <c r="CM132" s="1"/>
     </row>
-    <row r="133" spans="1:91" ht="15">
+    <row r="133" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -12572,12 +12477,11 @@
       <c r="CL133" s="1"/>
       <c r="CM133" s="1"/>
     </row>
-    <row r="134" spans="1:91" ht="15">
+    <row r="134" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -12665,12 +12569,11 @@
       <c r="CL134" s="1"/>
       <c r="CM134" s="1"/>
     </row>
-    <row r="135" spans="1:91" ht="15">
+    <row r="135" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -12758,12 +12661,11 @@
       <c r="CL135" s="1"/>
       <c r="CM135" s="1"/>
     </row>
-    <row r="136" spans="1:91" ht="15">
+    <row r="136" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -12851,12 +12753,11 @@
       <c r="CL136" s="1"/>
       <c r="CM136" s="1"/>
     </row>
-    <row r="137" spans="1:91" ht="15">
+    <row r="137" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -12944,12 +12845,11 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
     </row>
-    <row r="138" spans="1:91" ht="15">
+    <row r="138" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -13037,12 +12937,11 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
     </row>
-    <row r="139" spans="1:91" ht="15">
+    <row r="139" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -13130,12 +13029,11 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
     </row>
-    <row r="140" spans="1:91" ht="15">
+    <row r="140" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -13223,12 +13121,11 @@
       <c r="CL140" s="1"/>
       <c r="CM140" s="1"/>
     </row>
-    <row r="141" spans="1:91" ht="15">
+    <row r="141" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -13316,12 +13213,11 @@
       <c r="CL141" s="1"/>
       <c r="CM141" s="1"/>
     </row>
-    <row r="142" spans="1:91" ht="15">
+    <row r="142" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -13409,12 +13305,11 @@
       <c r="CL142" s="1"/>
       <c r="CM142" s="1"/>
     </row>
-    <row r="143" spans="1:91" ht="15">
+    <row r="143" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -13502,12 +13397,11 @@
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
     </row>
-    <row r="144" spans="1:91" ht="15">
+    <row r="144" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -13595,12 +13489,11 @@
       <c r="CL144" s="1"/>
       <c r="CM144" s="1"/>
     </row>
-    <row r="145" spans="1:91" ht="15">
+    <row r="145" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -13688,12 +13581,11 @@
       <c r="CL145" s="1"/>
       <c r="CM145" s="1"/>
     </row>
-    <row r="146" spans="1:91" ht="15">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -13781,12 +13673,11 @@
       <c r="CL146" s="1"/>
       <c r="CM146" s="1"/>
     </row>
-    <row r="147" spans="1:91" ht="15">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -13874,12 +13765,11 @@
       <c r="CL147" s="1"/>
       <c r="CM147" s="1"/>
     </row>
-    <row r="148" spans="1:91" ht="15">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -13967,12 +13857,11 @@
       <c r="CL148" s="1"/>
       <c r="CM148" s="1"/>
     </row>
-    <row r="149" spans="1:91" ht="15">
+    <row r="149" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -14060,12 +13949,11 @@
       <c r="CL149" s="1"/>
       <c r="CM149" s="1"/>
     </row>
-    <row r="150" spans="1:91" ht="15">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -14153,12 +14041,11 @@
       <c r="CL150" s="1"/>
       <c r="CM150" s="1"/>
     </row>
-    <row r="151" spans="1:91" ht="15">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -14246,12 +14133,11 @@
       <c r="CL151" s="1"/>
       <c r="CM151" s="1"/>
     </row>
-    <row r="152" spans="1:91" ht="15">
+    <row r="152" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -14339,12 +14225,11 @@
       <c r="CL152" s="1"/>
       <c r="CM152" s="1"/>
     </row>
-    <row r="153" spans="1:91" ht="15">
+    <row r="153" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -14432,12 +14317,11 @@
       <c r="CL153" s="1"/>
       <c r="CM153" s="1"/>
     </row>
-    <row r="154" spans="1:91" ht="15">
+    <row r="154" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -14525,12 +14409,11 @@
       <c r="CL154" s="1"/>
       <c r="CM154" s="1"/>
     </row>
-    <row r="155" spans="1:91" ht="15">
+    <row r="155" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -14618,12 +14501,11 @@
       <c r="CL155" s="1"/>
       <c r="CM155" s="1"/>
     </row>
-    <row r="156" spans="1:91" ht="15">
+    <row r="156" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -14711,12 +14593,11 @@
       <c r="CL156" s="1"/>
       <c r="CM156" s="1"/>
     </row>
-    <row r="157" spans="1:91" ht="15">
+    <row r="157" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -14804,12 +14685,11 @@
       <c r="CL157" s="1"/>
       <c r="CM157" s="1"/>
     </row>
-    <row r="158" spans="1:91" ht="15">
+    <row r="158" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -14897,12 +14777,11 @@
       <c r="CL158" s="1"/>
       <c r="CM158" s="1"/>
     </row>
-    <row r="159" spans="1:91" ht="15">
+    <row r="159" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -14990,12 +14869,11 @@
       <c r="CL159" s="1"/>
       <c r="CM159" s="1"/>
     </row>
-    <row r="160" spans="1:91" ht="15">
+    <row r="160" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -15083,12 +14961,11 @@
       <c r="CL160" s="1"/>
       <c r="CM160" s="1"/>
     </row>
-    <row r="161" spans="1:91" ht="15">
+    <row r="161" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -15176,12 +15053,11 @@
       <c r="CL161" s="1"/>
       <c r="CM161" s="1"/>
     </row>
-    <row r="162" spans="1:91" ht="15">
+    <row r="162" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -15269,12 +15145,11 @@
       <c r="CL162" s="1"/>
       <c r="CM162" s="1"/>
     </row>
-    <row r="163" spans="1:91" ht="15">
+    <row r="163" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -15362,12 +15237,11 @@
       <c r="CL163" s="1"/>
       <c r="CM163" s="1"/>
     </row>
-    <row r="164" spans="1:91" ht="15">
+    <row r="164" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -15455,12 +15329,11 @@
       <c r="CL164" s="1"/>
       <c r="CM164" s="1"/>
     </row>
-    <row r="165" spans="1:91" ht="15">
+    <row r="165" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -15548,12 +15421,11 @@
       <c r="CL165" s="1"/>
       <c r="CM165" s="1"/>
     </row>
-    <row r="166" spans="1:91" ht="15">
+    <row r="166" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -15641,12 +15513,11 @@
       <c r="CL166" s="1"/>
       <c r="CM166" s="1"/>
     </row>
-    <row r="167" spans="1:91" ht="15">
+    <row r="167" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -15734,12 +15605,11 @@
       <c r="CL167" s="1"/>
       <c r="CM167" s="1"/>
     </row>
-    <row r="168" spans="1:91" ht="15">
+    <row r="168" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -15827,12 +15697,11 @@
       <c r="CL168" s="1"/>
       <c r="CM168" s="1"/>
     </row>
-    <row r="169" spans="1:91" ht="15">
+    <row r="169" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -15920,12 +15789,11 @@
       <c r="CL169" s="1"/>
       <c r="CM169" s="1"/>
     </row>
-    <row r="170" spans="1:91" ht="15">
+    <row r="170" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -16013,12 +15881,11 @@
       <c r="CL170" s="1"/>
       <c r="CM170" s="1"/>
     </row>
-    <row r="171" spans="1:91" ht="15">
+    <row r="171" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -16106,12 +15973,11 @@
       <c r="CL171" s="1"/>
       <c r="CM171" s="1"/>
     </row>
-    <row r="172" spans="1:91" ht="15">
+    <row r="172" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -16199,12 +16065,11 @@
       <c r="CL172" s="1"/>
       <c r="CM172" s="1"/>
     </row>
-    <row r="173" spans="1:91" ht="15">
+    <row r="173" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -16292,12 +16157,11 @@
       <c r="CL173" s="1"/>
       <c r="CM173" s="1"/>
     </row>
-    <row r="174" spans="1:91" ht="15">
+    <row r="174" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -16385,12 +16249,11 @@
       <c r="CL174" s="1"/>
       <c r="CM174" s="1"/>
     </row>
-    <row r="175" spans="1:91" ht="15">
+    <row r="175" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -16478,12 +16341,11 @@
       <c r="CL175" s="1"/>
       <c r="CM175" s="1"/>
     </row>
-    <row r="176" spans="1:91" ht="15">
+    <row r="176" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -16571,12 +16433,11 @@
       <c r="CL176" s="1"/>
       <c r="CM176" s="1"/>
     </row>
-    <row r="177" spans="1:91" ht="15">
+    <row r="177" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -16664,12 +16525,11 @@
       <c r="CL177" s="1"/>
       <c r="CM177" s="1"/>
     </row>
-    <row r="178" spans="1:91" ht="15">
+    <row r="178" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -16757,12 +16617,11 @@
       <c r="CL178" s="1"/>
       <c r="CM178" s="1"/>
     </row>
-    <row r="179" spans="1:91" ht="15">
+    <row r="179" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -16850,12 +16709,11 @@
       <c r="CL179" s="1"/>
       <c r="CM179" s="1"/>
     </row>
-    <row r="180" spans="1:91" ht="15">
+    <row r="180" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -16943,12 +16801,11 @@
       <c r="CL180" s="1"/>
       <c r="CM180" s="1"/>
     </row>
-    <row r="181" spans="1:91" ht="15">
+    <row r="181" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -17036,12 +16893,11 @@
       <c r="CL181" s="1"/>
       <c r="CM181" s="1"/>
     </row>
-    <row r="182" spans="1:91" ht="15">
+    <row r="182" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -17129,12 +16985,11 @@
       <c r="CL182" s="1"/>
       <c r="CM182" s="1"/>
     </row>
-    <row r="183" spans="1:91" ht="15">
+    <row r="183" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -17222,12 +17077,11 @@
       <c r="CL183" s="1"/>
       <c r="CM183" s="1"/>
     </row>
-    <row r="184" spans="1:91" ht="15">
+    <row r="184" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -17315,12 +17169,11 @@
       <c r="CL184" s="1"/>
       <c r="CM184" s="1"/>
     </row>
-    <row r="185" spans="1:91" ht="15">
+    <row r="185" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -17408,12 +17261,11 @@
       <c r="CL185" s="1"/>
       <c r="CM185" s="1"/>
     </row>
-    <row r="186" spans="1:91" ht="15">
+    <row r="186" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -17501,12 +17353,11 @@
       <c r="CL186" s="1"/>
       <c r="CM186" s="1"/>
     </row>
-    <row r="187" spans="1:91" ht="15">
+    <row r="187" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -17594,12 +17445,11 @@
       <c r="CL187" s="1"/>
       <c r="CM187" s="1"/>
     </row>
-    <row r="188" spans="1:91" ht="15">
+    <row r="188" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -17687,12 +17537,11 @@
       <c r="CL188" s="1"/>
       <c r="CM188" s="1"/>
     </row>
-    <row r="189" spans="1:91" ht="15">
+    <row r="189" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -17780,12 +17629,11 @@
       <c r="CL189" s="1"/>
       <c r="CM189" s="1"/>
     </row>
-    <row r="190" spans="1:91" ht="15">
+    <row r="190" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -17873,12 +17721,11 @@
       <c r="CL190" s="1"/>
       <c r="CM190" s="1"/>
     </row>
-    <row r="191" spans="1:91" ht="15">
+    <row r="191" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -17966,12 +17813,11 @@
       <c r="CL191" s="1"/>
       <c r="CM191" s="1"/>
     </row>
-    <row r="192" spans="1:91" ht="15">
+    <row r="192" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -18059,12 +17905,11 @@
       <c r="CL192" s="1"/>
       <c r="CM192" s="1"/>
     </row>
-    <row r="193" spans="1:91" ht="15">
+    <row r="193" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -18152,12 +17997,11 @@
       <c r="CL193" s="1"/>
       <c r="CM193" s="1"/>
     </row>
-    <row r="194" spans="1:91" ht="15">
+    <row r="194" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -18245,12 +18089,11 @@
       <c r="CL194" s="1"/>
       <c r="CM194" s="1"/>
     </row>
-    <row r="195" spans="1:91" ht="15">
+    <row r="195" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -18338,12 +18181,11 @@
       <c r="CL195" s="1"/>
       <c r="CM195" s="1"/>
     </row>
-    <row r="196" spans="1:91" ht="15">
+    <row r="196" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -18431,12 +18273,11 @@
       <c r="CL196" s="1"/>
       <c r="CM196" s="1"/>
     </row>
-    <row r="197" spans="1:91" ht="15">
+    <row r="197" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -18524,12 +18365,11 @@
       <c r="CL197" s="1"/>
       <c r="CM197" s="1"/>
     </row>
-    <row r="198" spans="1:91" ht="15">
+    <row r="198" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -18617,12 +18457,11 @@
       <c r="CL198" s="1"/>
       <c r="CM198" s="1"/>
     </row>
-    <row r="199" spans="1:91" ht="15">
+    <row r="199" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -18710,12 +18549,11 @@
       <c r="CL199" s="1"/>
       <c r="CM199" s="1"/>
     </row>
-    <row r="200" spans="1:91" ht="15">
+    <row r="200" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -18803,12 +18641,11 @@
       <c r="CL200" s="1"/>
       <c r="CM200" s="1"/>
     </row>
-    <row r="201" spans="1:91" ht="15">
+    <row r="201" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -18896,12 +18733,11 @@
       <c r="CL201" s="1"/>
       <c r="CM201" s="1"/>
     </row>
-    <row r="202" spans="1:91" ht="15">
+    <row r="202" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -18989,12 +18825,11 @@
       <c r="CL202" s="1"/>
       <c r="CM202" s="1"/>
     </row>
-    <row r="203" spans="1:91" ht="15">
+    <row r="203" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -19082,12 +18917,11 @@
       <c r="CL203" s="1"/>
       <c r="CM203" s="1"/>
     </row>
-    <row r="204" spans="1:91" ht="15">
+    <row r="204" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -19175,12 +19009,11 @@
       <c r="CL204" s="1"/>
       <c r="CM204" s="1"/>
     </row>
-    <row r="205" spans="1:91" ht="15">
+    <row r="205" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -19268,12 +19101,11 @@
       <c r="CL205" s="1"/>
       <c r="CM205" s="1"/>
     </row>
-    <row r="206" spans="1:91" ht="15">
+    <row r="206" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -19361,12 +19193,11 @@
       <c r="CL206" s="1"/>
       <c r="CM206" s="1"/>
     </row>
-    <row r="207" spans="1:91" ht="15">
+    <row r="207" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -19454,12 +19285,11 @@
       <c r="CL207" s="1"/>
       <c r="CM207" s="1"/>
     </row>
-    <row r="208" spans="1:91" ht="15">
+    <row r="208" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -19547,12 +19377,11 @@
       <c r="CL208" s="1"/>
       <c r="CM208" s="1"/>
     </row>
-    <row r="209" spans="1:91" ht="15">
+    <row r="209" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -19640,12 +19469,11 @@
       <c r="CL209" s="1"/>
       <c r="CM209" s="1"/>
     </row>
-    <row r="210" spans="1:91" ht="15">
+    <row r="210" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -19733,12 +19561,11 @@
       <c r="CL210" s="1"/>
       <c r="CM210" s="1"/>
     </row>
-    <row r="211" spans="1:91" ht="15">
+    <row r="211" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -19826,12 +19653,11 @@
       <c r="CL211" s="1"/>
       <c r="CM211" s="1"/>
     </row>
-    <row r="212" spans="1:91" ht="15">
+    <row r="212" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -19919,12 +19745,11 @@
       <c r="CL212" s="1"/>
       <c r="CM212" s="1"/>
     </row>
-    <row r="213" spans="1:91" ht="15">
+    <row r="213" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -20012,12 +19837,11 @@
       <c r="CL213" s="1"/>
       <c r="CM213" s="1"/>
     </row>
-    <row r="214" spans="1:91" ht="15">
+    <row r="214" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -20105,12 +19929,11 @@
       <c r="CL214" s="1"/>
       <c r="CM214" s="1"/>
     </row>
-    <row r="215" spans="1:91" ht="15">
+    <row r="215" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -20198,12 +20021,11 @@
       <c r="CL215" s="1"/>
       <c r="CM215" s="1"/>
     </row>
-    <row r="216" spans="1:91" ht="15">
+    <row r="216" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -20291,12 +20113,11 @@
       <c r="CL216" s="1"/>
       <c r="CM216" s="1"/>
     </row>
-    <row r="217" spans="1:91" ht="15">
+    <row r="217" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -20384,12 +20205,11 @@
       <c r="CL217" s="1"/>
       <c r="CM217" s="1"/>
     </row>
-    <row r="218" spans="1:91" ht="15">
+    <row r="218" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -20477,12 +20297,11 @@
       <c r="CL218" s="1"/>
       <c r="CM218" s="1"/>
     </row>
-    <row r="219" spans="1:91" ht="15">
+    <row r="219" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -20570,12 +20389,11 @@
       <c r="CL219" s="1"/>
       <c r="CM219" s="1"/>
     </row>
-    <row r="220" spans="1:91" ht="15">
+    <row r="220" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -20663,12 +20481,11 @@
       <c r="CL220" s="1"/>
       <c r="CM220" s="1"/>
     </row>
-    <row r="221" spans="1:91" ht="15">
+    <row r="221" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -20756,12 +20573,11 @@
       <c r="CL221" s="1"/>
       <c r="CM221" s="1"/>
     </row>
-    <row r="222" spans="1:91" ht="15">
+    <row r="222" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -20849,12 +20665,11 @@
       <c r="CL222" s="1"/>
       <c r="CM222" s="1"/>
     </row>
-    <row r="223" spans="1:91" ht="15">
+    <row r="223" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -20942,12 +20757,11 @@
       <c r="CL223" s="1"/>
       <c r="CM223" s="1"/>
     </row>
-    <row r="224" spans="1:91" ht="15">
+    <row r="224" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -21035,12 +20849,11 @@
       <c r="CL224" s="1"/>
       <c r="CM224" s="1"/>
     </row>
-    <row r="225" spans="1:91" ht="15">
+    <row r="225" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -21128,12 +20941,11 @@
       <c r="CL225" s="1"/>
       <c r="CM225" s="1"/>
     </row>
-    <row r="226" spans="1:91" ht="15">
+    <row r="226" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -21221,12 +21033,11 @@
       <c r="CL226" s="1"/>
       <c r="CM226" s="1"/>
     </row>
-    <row r="227" spans="1:91" ht="15">
+    <row r="227" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -21314,12 +21125,11 @@
       <c r="CL227" s="1"/>
       <c r="CM227" s="1"/>
     </row>
-    <row r="228" spans="1:91" ht="15">
+    <row r="228" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -21407,12 +21217,11 @@
       <c r="CL228" s="1"/>
       <c r="CM228" s="1"/>
     </row>
-    <row r="229" spans="1:91" ht="15">
+    <row r="229" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB967377-800A-483F-AA4C-0CEBFDFEF105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016B0B7-B48A-4935-A34A-2D5DFFDFBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="307">
   <si>
     <t>Name</t>
   </si>
@@ -882,13 +882,88 @@
   </si>
   <si>
     <t>1*tablespoon*Butter,1*cup*Bulgur Wheat,1*cup*Whole Milk,1*cups*Water,100*milliliters*Whole Cream,50*grams*Dried Cherries,50*grams*Currants,2*null*Egg Yolks (beaten),4*strands*Saffron,50*grams*Brown Sugar,0.5*tablespoon*Butter (topping),1*tablespoon*Pine Nuts,100*grams*Flaked Almonds,100*milliliter*Whole Cream (topping)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fried Rice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Piece </t>
+  </si>
+  <si>
+    <t>Fried Rice with corned beef you can cook in one frying pan</t>
+  </si>
+  <si>
+    <t>2*cups*Rice (cooked),2*large*Eggs (beaten),50*grams*Corned Beef,1*quarter*Onion,4*small*Brown Mushrooms*1*tablespoon*Vegetable Oil,0.5*teaspoon*Salt,1*sprinkle*Black Pepper,1.5*tablespoon*Soy Sauce,2*null*Green Onions</t>
+  </si>
+  <si>
+    <t>1. Mince the onion, finely slice the mushrooms, and chop the green onions.||2. Oil the frying pan and fry half the minced onion and all the mushrooms, then add the corned beef. ||3. Push the fried ingredients to one side of the pan and apply more oil to the empty space, then pour in the beaten eggs. (A) Add the rice before the egg firms up and mix everything in the pan. Sprinkle salt and pepper, and then add the remaining onion, Drizzle in soy sauce from the side of the pan (B) and mix briefly. When cooked, divide between plates and scatter the chopped green onions on top.</t>
+  </si>
+  <si>
+    <t>Really Really Bad (Good) Staff Soup</t>
+  </si>
+  <si>
+    <t>A Western-style clear soup made with sea bream and kombu kelp</t>
+  </si>
+  <si>
+    <t>1*null*Sea Bream Head,1*sheet*Kombu,2*null*turnips,6*null*Asparagus (pencil spears),0.5*null*Lemon,5*cups*Water,2*teaspoons*Salt,1*dash*Soy Sauce</t>
+  </si>
+  <si>
+    <t>1. Soak the kombu in water for at least 30 minutes. Slice the sea bream head into pieces if necessary and place it in a separate pot of boiling water deep enough to cover the fish head. When the surface becomes white, remove and place in another bowl of cold water, then scrub clean to remove blood and stains ©.||2. Cut turnips into wedges and slice greens finely. Peel the bottom third of asparagus and slice into 2inch (5 cm) pieces. Slice lemon into wheels.|| 3. Pour water from step 1 and sea bream into the same pot and bring to a boil. Skim the scum off the top and lower heat to medium, Add turnip wedges(D) and let simmer, skimming regularly.|| 4. After 10 minutes, add asparagus and simmer for 5 minutes. Add salt, and soy sauce to taste. Transfer to bowls, add lemon slices, and scatter turnip greens on top.</t>
+  </si>
+  <si>
+    <t>Pirate Box Lunches for Crossing the Desert</t>
+  </si>
+  <si>
+    <t>Lightly Breaded Fried Chicken</t>
+  </si>
+  <si>
+    <t>2*boneless*Chicken Thighs (skinless),1*clove*Garlic ( grated),1*teaspoon*Salt,1*tablespoon*sake,1*sprinkle*Black Pepper,4*tablespoons*Flour,4*tablespoons*Vegetable Oil,4*null*Sausages,4*hard-boiled*Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasure Splitting Sandwiches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg and Crab Sandwiches </t>
+  </si>
+  <si>
+    <t>6*Slices*Bread,3*null*Eggs,2*oz*Crab Meat (boiled),2*tablespoons*Mayonnaise*1*stick*Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monstrous Grilled Giant Sandora Dragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast Beef cooked in the frying pan </t>
+  </si>
+  <si>
+    <t>500*grams*Steak (prime whole),0.5*clove*Garlic,1*teaspoon*Salt,1*sprinkle*Black Pepper,1*tablespoon*Vegetable Oil,0.5*null*Onion ,0.6*clove*Garlic (for sauce),3*tablespoons*Sake,2*tablespoons*Soy Sauce,0.5*tablespoons*Butter,1*tablespoon*Vinegar</t>
+  </si>
+  <si>
+    <t>1. Boil eggs whole for 12 minutes until hard-boiled. Let cool. Peel off shells and cut them into thick slices. Tear crab meat by hand. Mince onion, then soak in water, remove, and press the liquid out. Put egg, crab, and onion into a bowl, then mix with mayonnaise (A), Spread butter on the bread slices, then divide the mix to make three sandwiches.</t>
+  </si>
+  <si>
+    <t>1. Trim fat and sinew from the chicken thighs and cut into bite-size pieces—grate garlic. Put the chicken into a bowl, add mix garlic, salt, pepper and sake then marinate for 20-30 minutes.||2. Sprinkle flour over the thighs. Heat vegetable oil in a pan on medium heat, then fry chicken in batches for 4-5 minutes undisturbed on each side.</t>
+  </si>
+  <si>
+    <t>1. Let the beef sit at room temperature for 30 minutes, and grate onion and garlic for sauce. Just before cooking, rub the other garlic half against meat( C), then rub on salt and pepper. Pour oil on a heated frying pan and cook the meat surface on medium heat (D). Cover and heat on low for 6-8 minutes, then turn over and heat for another 4-5 minutes.||2. Remove from pan, wrap in aluminum foil, and let sit for 15 minutes to heat through (E).||3. Add onions, garlic and saké to the meat juice in the frying pan. Once bubbling, mix in soy sauce and butter. Once mixed in, turn off the heat, add vinegar and mix again.||4. Slice meat thinly and transfer to plate, then drizzle sauce from pan, Add mustard or wasabi as desired.</t>
+  </si>
+  <si>
+    <t>Luffy's Favorite Meat on the Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Scotch Egg made with Chicken </t>
+  </si>
+  <si>
+    <t>4*null*Chicken Drumsticks,4*null*Eggs (hard-boiled),0.25*cup*Breadcrumbs,3*tablespoons*Milk,500*grams*Chicken,1*teaspoon*Salt,1*dash*Black Pepper,1*null*Egg,1*spalsh*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>1. Make chicken drumstick “tulips.” Use kitchen scissors to cut the meat loose from the handle end of the drumstick (A). Roll the meat down the bone until it is fully inside-out at the end.||2. Soak the breadcrumbs in milk. Knead ground chicken, salt, pepper and egg in a bowl, then add breadcrumbs and knead again.||3.  Fold the meaty end of the drumstick around a hard-boiled egg (B). If the meat doesn't cover well enough, add cuts to loosen it up. Oil hands lightly and cover drumstick and egg with the breadcrumb mixture from the previous step.||4. Bake at 400 degrees Fahrenheit  (200 degrees Celsius) for 15-20 minutes, watching carefully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,6 +998,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -945,7 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -970,6 +1051,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,6 +2834,144 @@
         <v>12</v>
       </c>
     </row>
+    <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="1">
+        <v>60</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F65" s="1">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="1">
+        <v>70</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="1">
+        <v>40</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016B0B7-B48A-4935-A34A-2D5DFFDFBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFA7CD-4F85-44BE-A0F7-01D8ED3F4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="383">
   <si>
     <t>Name</t>
   </si>
@@ -957,6 +957,236 @@
   </si>
   <si>
     <t>1. Make chicken drumstick “tulips.” Use kitchen scissors to cut the meat loose from the handle end of the drumstick (A). Roll the meat down the bone until it is fully inside-out at the end.||2. Soak the breadcrumbs in milk. Knead ground chicken, salt, pepper and egg in a bowl, then add breadcrumbs and knead again.||3.  Fold the meaty end of the drumstick around a hard-boiled egg (B). If the meat doesn't cover well enough, add cuts to loosen it up. Oil hands lightly and cover drumstick and egg with the breadcrumb mixture from the previous step.||4. Bake at 400 degrees Fahrenheit  (200 degrees Celsius) for 15-20 minutes, watching carefully</t>
+  </si>
+  <si>
+    <t>Yagara Bull's Favourite Steamed Water-Water Meat</t>
+  </si>
+  <si>
+    <t>A steamed spare rib dish</t>
+  </si>
+  <si>
+    <t>500*grams*Pork Spare Ribs,0.5*teaspoon*Salt,1*dash*Black Pepper,1*null*Celery Stalk,0.5*null*Carrot,0.25*null*Daikon Radish (cut lengthwise),0.5*head*Lettuce,0.5*null*Green Onion,1*tablespoon*Sesame Oil,7*tablespoons*Ponzu,1*sprinkle*Garlic (grated)</t>
+  </si>
+  <si>
+    <t>1. Pat spare ribs, salt, and pepper into a plastic bag knead well, and let sit for one hour (A). Peel celery, carrot, and daikon into ribbons (B). Tear lettuce into reasonably-sized pieces.||2. Mince green onion for the tare sauce. Heat sesame oil in a frying pan, then pour over spring onion in a heat-resistant bowl, add ponzu, and mix.||3. Place spare ribs into a steam cooker and steam for 20 minutes, When the meat is tender, add vegetables to steamer (C), and once heated, remove and serve. Drizzle tare sauce as you eat and add grated garlic as desired.</t>
+  </si>
+  <si>
+    <t>Impel Down's Roast Hummingbird</t>
+  </si>
+  <si>
+    <t>Roasted chicken stuffed with special rice pilaf</t>
+  </si>
+  <si>
+    <t>1*large*Chicken,2*teaspoon*Salt,2*sprinkles*Black Pepper,0.5*null*Onion,1*tablespoon*Vegetable Oil,0.25*cup*Water,1.5*null*Cooked Rice,0.5*null*Tomato,1*tablespoon*Parsley (chopped)</t>
+  </si>
+  <si>
+    <t>1. Remove neck and organs if present, and rinse chicken clean. Dry excess liquid and rub salt and pepper onto the exterior and interior.||2. Slice onion thinly and cube tomato. Mix rice, tomato, parsley,1 teaspoon of salt and 1 sprinkle of pepper and stuff chicken (A). Use a large toothpick to pin rear shut so stuffing doesn't spill.Rub vegetable oil onto exterior of chicken.||3. Spread out onion onto a large oven tray and rest chicken on top (C). Add water and chicken neck, split in two. Put into the oven at 400 degrees F (200 degrees C) for 40-50 minutes, rotating the tray partway and occasionally scooping juices back onto the chicken. Once cooked to an internal temperature of 165 degrees F (74 degrees C), extending cook time as needed, turn off the heat and leave in the oven for another 10-15 minutes.||4. Strain juice from the tray and use it as gravy. If the onions are dry and there is little juice, transfer to a small pot, add water (2-3 02./50-80 ml) and boil, then strain. Cut the chicken into servings, then add gravy and sprinkle salt and pepper to taste.</t>
+  </si>
+  <si>
+    <t>Lakeside Campsite Hot Rock Stew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rich pork stew, no roux required </t>
+  </si>
+  <si>
+    <t>600*grams*Pork Butt,1*teaspoon*Salt,1*dash*Black Pepper,1*clove*Garlic,6*null*Mushrooms,0.5*null*White Onion (peeled),1*tablespoon*Vegetable Oil,2*tablespoons*Butter,0.25*cup*Flour,400*ml*Red Wine,400*ml*Chicken Stock,2*null*Bay Leaves,30*grams*Raisins,5*tablespoons*Ketchup</t>
+  </si>
+  <si>
+    <t>1. Cut pork into half-inch (1.5 cm) pieces and place on a tray, then coat with salt, pepper, and flour (A). Cut garlic in half, remove germ, and crush with the flat of your knife. Halve mushrooms and cut onion into 4 wedges.||2. Put vegetable oil and garlic into a pot and cook on medium heat. When fragrant, remove the garlic and add half of butter. When butter is melted, add meat and all the flour from the tray. Cook both sides until you see it start to sear.||3. Add red wine. Once the alcohol has been brought to a boil, add chicken stock (B) cooked garlic from the previous step, and bay leaves. When it boils again and a froth starts to build, remove bay leaves and skim the top (C). Add raisins and ketchup. Cover with pot lid ajar and simmer on low heat for 40 minutes||4. Place the other half of the butter into a heated frying pan. Once melted, add mushrooms and onions to fry until browned, then add to the main pot and cook for another 20 minutes. Add salt to taste.</t>
+  </si>
+  <si>
+    <t>Absalom's Croquettes</t>
+  </si>
+  <si>
+    <t>Potato croquettes, packed with beef</t>
+  </si>
+  <si>
+    <t>4*small*Potatoes,200*grams*Mixed Beef,0.5*null*Onion,1*cup*Vegetable Oil,1*teaspoon*Salt,1*sprinkle*Black Pepper,1*tablespoon*Butter,0.5*cup*Flour,2*large*Eggs,1.5*cups*Panko,1*null*Cabbage (jullienne-cut),1*splat*Worcestershire Sauce</t>
+  </si>
+  <si>
+    <t>1. Steam potatoes in a steam cooker for about 40 minutes until they soften. Cut beef into 3-quarter  inch (2 cm) strips (A) and mince the onion.||2. Pour vegetable oil into a heated frying pan and cook beef on medium heat. Once adequately heated, add onions and cook for 3-4 minutes until translucent, then flavour with salt (half tsp.) and black pepper. Transfer food to a tray to cool.||3. While the potatoes are still hot, peel them and place them in a bowl. Mash with a ladle or spatula, add butter and salt half tsp.) and mix (B). Add beef and onions, mix, then transfer to a tray to cool.||4. Separate the mixture into 10 equal parts and mould it into an oval shape (C). Dip into flour, beaten egg yolks, and panko in that order, then frying oil heated to 360 degrees F (180 degrees C) for three minutes, turning over partway.||5. Remove and place on a cooling rack over a baking sheet with paper towels beneath to catch oil. Transfer to serving plate with cabbage and drizzle sauce over.</t>
+  </si>
+  <si>
+    <t>Davy Back Fight Frankfurters</t>
+  </si>
+  <si>
+    <t>A rich pot-au-feu where the infused oil is the key</t>
+  </si>
+  <si>
+    <t>8*null*Frankfurters,2*large*Idaho Potatoes,1*null*Carrot,0.5*head*Cabbage,2*small*Onions,8*cups*Chicken Stock,2*teaspoon*Salt,1*clove*Garlic,1*tablespoon*Olive Oil,1*sprinkle*Parmesan Cheese,1*dash*Black Pepper</t>
+  </si>
+  <si>
+    <t>1. Lightly split frankfurters to allow flavour to blend. Peel potatoes and cut in half. Peel the carrot and cut it into bite-size quarters. Cut cabbage into four equal wedges and use toothpicks or skewers to hold in place. Peel onions and use whole. Mince garlic.||2. Heat chicken stock, salt, carrots, and onions in a pot. Bring to a boil, then reduce heat to low and let simmer for 20 minutes, Add cabbage and potatoes and simmer for 20 more minutes. When vegetables are soft, add frankfurters and simmer for 10 more minutes.||3. Cook mix garlic and olive oil in a frying pan on medium heat: When garlic begins to brown, add to pot. If flavor is lacking, add extra salt, Parmesan cheese, and black pepper to taste, Once served, remove toothpicks from the cabbage and enjoy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Seafood Extravaganza </t>
+  </si>
+  <si>
+    <t>Shrimp and Scallop Marinade</t>
+  </si>
+  <si>
+    <t>6*fresh*Scallops,10*null*Shrimp (shell on),1*null*Grapefruit,1*null*Celery Stalk (with leaves),0.5*null*Red Onion,1*knob*Ginger Root,1*null*Limes Juice,1*sprinkle*White Pepper,0.5*teaspoon*Salt,1*splash*Olive Oil</t>
+  </si>
+  <si>
+    <t>1. Place scallops in boiling water for 30 seconds, then remove and wash in cold water (A), Cut in half to make coins. Remove the shrimp heads and back vein, then boil with the shell on until they turn pink and pour into a strainer. When they are cool enough to touch, peel off the shell (B) and cut in half if too large. Remove peel and rind from grapefruit, then slice into wedges. Remove strings from celery, then slice diagonally. Slice red onion thinly and peel and cut ginger into julienne strips.||2. Place shrimp and scallops into a bowl. Add lime juice, salt, and white pepper, and mix. Add red onion, celery, and ginger, and mix again. Add grapefruit pieces and chill in refrigerator.||3. After mixing again, transfer to the serving dish and garnish with celery leaves. Add olive oil if desired.</t>
+  </si>
+  <si>
+    <t>Elephant True Bluefin Saute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooked Blue Marlin with a Special Sweet Sauce </t>
+  </si>
+  <si>
+    <t>4*fillets*Blue Marlin,1*dash*Salt,1*sprinkle*White Pepper,1*tablespoon*Olive Oil,0.5*null*Onion,2*tablespoons*Olive Oil (sauce),1*teaspoon*Garlic (grated),2*tablespoons*Water,2*teaspoons*Honey,0.6*teaspoon*Salt (sauce),1*teaspoon*Soy Sauce,3*tablespoons*White Sesame seeds (hulled)</t>
+  </si>
+  <si>
+    <t>1. Sprinkle salt and white pepper on the marlin and mince onion for sauce. Add olive oil to a heated frying pan and cook marlin pieces on both sides. Remove once cooked to 125 degrees F, roughly 5-7 minutes per side for a 1-and-a-half-inch thick steak (A).||2. Using the same frying pan, heat the olive oil for the sauce, then fry the onions until translucent. Add garlic, water, honey, salt, soy sauce, and ground sesame (B).||3. Serve marlin on a plate and drizzle the sauce over it.</t>
+  </si>
+  <si>
+    <t>Sky Fish Saute</t>
+  </si>
+  <si>
+    <t>Fried Horse Mackerel with Melted Cheese</t>
+  </si>
+  <si>
+    <t>4*whole*Horse Mackerel,1*ball*Mozzarella Cheese,1*dash*Salt,1*sprinkle*White Pepper,4*teaspoons*Flour,1*null*Egg,6*tablespoons*Panko,1*splash*Vegetable Oil,1*null*Tomato,0.25*null*Onion,6*tablespoons*Ketchup,2*teaspoons*Vinegar,2*teaspoons*Olive Oil,1*dash*Hot Sauce,1*null*Red Onion,1*bits*Basil</t>
+  </si>
+  <si>
+    <t>1. Split the horse mackerel for frying, leaving a hinge. Cut the mozzarella into halves and third-inch (8 mm) slices.||2. Mince the tomato and onion for the sauce and mix with ketchup, vinegar, olive oil and hot sauce.||3. Sprinkle salt and white pepper on the mackerel, then place mozzarella slices in between the fillets (A). Dip into flour, beaten egg, and panko in order.||4. Fill the frying pan with about half an inch (1 cm) of vegetable oil and heat to 320 degrees F (160 degrees C). Add breaded mackerel (B). Fry for about five minutes total, turning over once. Remove and place on a cooling rack over a paper towel-lined tray to drain oil.||5. Slice red onion thinly and garnish fish with sauce mixture and basil.</t>
+  </si>
+  <si>
+    <t>Roasted Sky Shark</t>
+  </si>
+  <si>
+    <t>Sanji's take on steam-fried Salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3*fillets*Salmon,1*dash*Salt,1*dash*White Pepper,0.25*head*Cabbage,0.5*null*Onion,0.5*null*Carrot,1*splash*Vegetable Oil,1*tablespoon*Sake,1.5*tablespoon*Sugar,3*tablespoons*Miso,1.5*tablespoon*Butter,0.5*tablespoon*Soy Sauce </t>
+  </si>
+  <si>
+    <t>1. Lightly sprinkle salt and white pepper on the salmon. Roughly cut the cabbage, slice the onion into 4-inch (1 cm) pieces, and cut the carrot into short strips.||2.  Pour oil onto a heated frying pan and cook salmon, skin side down, on medium heat for 2-3 minutes, until browned.||3. Turn over the salmon, then add cabbage, onion, and carrot. Swirl in saké, Sprinkle sugar and miso here and there and add dabs of butter on top of the miso clumps (A). Carefully cover with aluminum foil and steam for 6-7 minutes (B).||4. Remove foil, tear salmon into chunks, and mix contents. Add soy sauce and turn off heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliced Octopus </t>
+  </si>
+  <si>
+    <t>Delicious Clams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Savory Octopus Snacks </t>
+  </si>
+  <si>
+    <t>Creamy and steamed clams in wine</t>
+  </si>
+  <si>
+    <t>150*grams*Fresh Octopus (sushi-grade),0.25*null*Onion,0.5*tablespoon*Vinegar,2*pinches*Salt,1*tablespoon*Olive Oil,1*dash*Paprika</t>
+  </si>
+  <si>
+    <t>1. Mince onion and soak in water. Slice the octopus diagonally and arrange it on a plate.||2. Mix salt into vinegar, then mix in olive oil.||3. Pour the sauce on octopus. Dry out the onions and scatter over the octopus. Sprinkle paprika.</t>
+  </si>
+  <si>
+    <t>500*grams*Clams (in shell),0.25*null*Onion*1*clove*Garlic,100*ml*White Wine,1*sprinkle*White Pepper,1*tablespoon*Butter,50*ml*Heavy Cream,1*flat-leaf*Parsley</t>
+  </si>
+  <si>
+    <t>1. Place clams in a bowl of salted water at roughly seawater salinity. Cover with aluminium foil and put in a dark place for 2-3 hours until they have purged grit.||2. Mince onions. Cut garlic in half vertically, remove the stem, and crush with the flat of the knife. Chop parsley roughly.||3. Place clams, onions, garlic, and white wine in a frying pan, turn on the heat and cover. Once the clams open, sprinkle white pepper, add butter, and pour heavy cream. Transfer to a dish and sprinkle parsley. Cook leftover liquid and pour over rice for a risotto if desired.</t>
+  </si>
+  <si>
+    <t>Water-Water Cabbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese style bagna cuada </t>
+  </si>
+  <si>
+    <t>4*leaves*Napa Cabbage,0.5*null*Carrot,0.5*null*Yellow Bell Pepper,6*tablespoons*Mayonnaise,2*tablespoons*Miso Paste,2*tablespoons*Milk,1*sprinkle*Chilli Powder</t>
+  </si>
+  <si>
+    <t>1. Place cabbage, carrot, and bell pepper into a bowl of cold water until they are firm.||2. Dry off cabbage and separate the leaf from the stalk. Cut leaf to bite size, and slice stalk into sticks. Slice carrot into long wedges with the skin on, Remove stem and seeds from bell pepper and cut into long, thin pieces.||3. Mix mayonnaise, miso paste, milk and chilli powder to make a sauce. Then use it as a dip for the vegetables.</t>
+  </si>
+  <si>
+    <t>Laughing Mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushrooms packed with fragrant herbs </t>
+  </si>
+  <si>
+    <t>6*null*Shiitake Mushrooms,1*pack*Shimeji Mushrooms,2*null*King Oyster Mushrooms,3*pieces*Bacon,1*tablespoon*Vegetable Oil,2*sprigs*Rosemary,1*teaspoon*Salt,1*sprinkle*Black Pepper,1*pat*Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Remove the shiitake mushrooms from their base and cut them into half-inch (1 cm) slices. Remove the shimeji mushrooms from their base and separate them into small bunches. Trim king oyster mushrooms to a length of 1 and a half inches (3cm) and slice thinly. Cut bacon into quarter-inch (7 mm) slices.||2. Put vegetable oil and rosemary into a frying pan and heat on medium. When oil is fragrant, fry bacon briefly, then add all mushrooms and mix. Cover and steam on low heat for 4 minutes.||3. Remove the lid, add salt, and mix again. Cover again and continue steaming for 4-5 minutes, stirring occasionally, until the liquid is gone and the bacon is fried and no longer appears pink. If needed, add more salt and pepper for flavour, then add butter, mix, and turn off heat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stir-fried Bean Sprouts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A stir fry with anchovies and garlic </t>
+  </si>
+  <si>
+    <t>2*bags*Bean Sprouts,2*cloves*Garlic (peeled),6*null*Anchovies,1*splash*Olive Oil,1*sprinkle*Black Pepper,1*sprinkle*Salt</t>
+  </si>
+  <si>
+    <t>1. Mince garlic and chop anchovies finely.||2. Put olive oil and garlic into a frying pan on medium heat. When garlic is golden, add bean sprouts and cook on high heat.||3. When bean sprouts are translucent, add anchovies and black pepper and mix. Taste test and add more salt if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pommed Paille </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crispy Shoestring Potatoes </t>
+  </si>
+  <si>
+    <t>3*null*Potatoes (peeled),60*grams*Shredded Cheese,1*splash*Vegetable Oil,1*sprinkle*Salt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Place finely cut shoestring potatoes using a mandoline at a one-third-inch setting if available, and mix with cheese.||2. Pour a generous amount (around a quarter cup) of oil into a frying pan. Pack a quarter of the potatoes tightly and fry on low heat for 7-8 minutes. Turn over and fry another 7-8 minutes, until both sides are crispy. Be careful not to prod too much while frying, as it will come apart. Once cooked, dab dry with paper towels, then sprinkle with salt.||3. Repeat for the other three portions.
+</t>
+  </si>
+  <si>
+    <t>Neptunian Penne Gorgonzola</t>
+  </si>
+  <si>
+    <t>Rich pasta made with two kinds of cheese</t>
+  </si>
+  <si>
+    <t>180*grams*Penne,2*slices*Ham,100*ml*Milk,100*ml*Heavy Cream,50*grams*Blue Cheese,3*tablespoons*Parmesan Cheese (grated),1*dash*Black Pepper,1*flat-leaf*Parsley,7*cups*Water,1*tablespoon*Salt</t>
+  </si>
+  <si>
+    <t>1. Boil about 6-7 cups (1,500 ml) of water, and add 1 tbsp. (15 g) of salt, and boil penne for 1 minute less than indicated on the package. Slice ham into quarter-inch (5 mm) pieces.||2. Starting with a third cup of milk and adding more as needed, heat milk and cream in a pan on medium heat for about 2 minutes before the penne is cooked. Mix in crumbled blue cheese. When it has half melted, add penne and ham and simmer for 1 minute or until sauce has thickened, Add parmesan and mix.||3. Lastly, add pepper to taste, and sprinkle chopped parsley on top.</t>
+  </si>
+  <si>
+    <t>Luffy and Zoro Bread Crusts</t>
+  </si>
+  <si>
+    <t>Stylish Fried Bread Crusts</t>
+  </si>
+  <si>
+    <t>6*slices*Bread (crusts),1*heap*Cinnamon Sugar,1*can*Condensed Milk,1*splash*Frying Oil</t>
+  </si>
+  <si>
+    <t>1. Heat frying oil to 340 degrees F (170 degrees C). Place bread crusts in the pan, frying for about 90 seconds until golden brown. Remove and place on a drying rack over a cooking sheet lined with paper towels to remove oil.||2. Dust with cinnamon sugar as desired, and dip into condensed milk to eat.</t>
+  </si>
+  <si>
+    <t>Exploding Apples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baked Apples you can make in the toaster oven </t>
+  </si>
+  <si>
+    <t>2*null*Apples,2*null*Cinnamon Sticks,2*teaspoons*Lemon Juice,4*null*Cardamon Pods,1.5*tablespoon*Butter,4*teaspoons*Granulated Sugar</t>
+  </si>
+  <si>
+    <t>1. Slice apples in half lengthwise and scoop out seeds and core with a spoon. Break cinnamon sticks into 1-inch (3 cm) pieces and dampen them with water to keep them from burning.||2. Add lemon juice, cardamom, and butter to the apple surface and stick cinnamon into the centre.||3. Scatter granulated sugar on surface liberally, then cover skin side of apple in foil and bake in toaster oven with a sheet pan underneath for 20 minutes.</t>
+  </si>
+  <si>
+    <t>Oda's Favourite Sea Chicken Onigiri</t>
+  </si>
+  <si>
+    <t>The secret treasure of rice balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5*cups*Rice (cooked and warm),1*can* Sea Chicken Tuna,1*tablespoon*Miso Paste,0.5*teaspoon*Sugar,2*null*Green Onion,1*heap*Dried Seaweed Sheets,1*sprinkle*Salt </t>
+  </si>
+  <si>
+    <t>1. Mince green onion, Drain oil briefly from tuna can, then fry in a pan on medium heat, mixing in miso and sugar. Add green onion and mix briefly, then turn off the heat. ||2. Wet hands with water, sprinkle with salt and surround a dab of tuna mixture with the cooked rice to form an onigiri. Cut nori sheet to the appropriate size and wrap it.</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,6 +3202,443 @@
         <v>78</v>
       </c>
     </row>
+    <row r="69" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F69" s="1">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F70" s="1">
+        <v>115</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" s="1">
+        <v>90</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F72" s="1">
+        <v>80</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" s="1">
+        <v>95</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="1">
+        <v>40</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F75" s="1">
+        <v>30</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F76" s="1">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" s="1">
+        <v>25</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" s="1">
+        <v>210</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" s="1">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F81" s="1">
+        <v>35</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="1">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F83" s="1">
+        <v>80</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" s="1">
+        <v>30</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="1">
+        <v>7</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" s="1">
+        <v>35</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F87" s="1">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFA7CD-4F85-44BE-A0F7-01D8ED3F4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C66FD7-9952-4078-8122-E1CEDFBC7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="472">
   <si>
     <t>Name</t>
   </si>
@@ -1187,13 +1187,282 @@
   </si>
   <si>
     <t>1. Mince green onion, Drain oil briefly from tuna can, then fry in a pan on medium heat, mixing in miso and sugar. Add green onion and mix briefly, then turn off the heat. ||2. Wet hands with water, sprinkle with salt and surround a dab of tuna mixture with the cooked rice to form an onigiri. Cut nori sheet to the appropriate size and wrap it.</t>
+  </si>
+  <si>
+    <t>Gudetama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chill Out Chilaquiles </t>
+  </si>
+  <si>
+    <t>Fried corn tortilla pieces simmered in salsa and guac</t>
+  </si>
+  <si>
+    <t>2*teaspoons*Olive Oil (extra virgin),2*large*Eggs (lightly beaten),190*grams*Tortilla Chips,0.25*cup*Salsa,0.25*cup*Cheddar Jack Cheese,1*tablespoon*Green Onions (diced),1*scoop*Guacamole,1*scoop*Sour Cream</t>
+  </si>
+  <si>
+    <t>1. Heat olive oil in a skillet over medium heat and pour in the eggs. Let cook for 30 seconds. ||2. Add the tortilla chips and salsa, tossing with the egg to coat. Cook for 1 minute.||3. Sprinkle in the cheese and toss to coat, cooking until the cheese has melted and the chips are slightly crispy, about 2 to 3 minutes.||4. Top with green onions. Serve with guacamole and sour cream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Wish These Eggs Were Pillows </t>
+  </si>
+  <si>
+    <t>Cheesy Baked Eggs</t>
+  </si>
+  <si>
+    <t>2*large*Eggs,1*tablespoon*Parmesan Chees (grated),1*gram*Salt,1*gram*White Pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Preheat the oven to 450 degrees F (230 degrees C). Prep a baking sheet with parchment paper.||2. Separate the eggs, placing the whites in a large bowl. Set aside the yolks, keeping them intact.||3. Beat the egg whites until stiff peaks form.||4. Fold in the Parmesan cheese, salt, and white pepper.||5. Spoon the whipped whites into two separate mounds and place them onto the prepped baking sheet.||6. With the back of a spoon, create an indentation in the center of each mound.||7. Bake for 2 minutes. Gently pour the egg yolks into the indentations. Return to the oven and cook for another 3 minutes. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Sigh... Pancakes, I guess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delectable Pancakes </t>
+  </si>
+  <si>
+    <t>2*cups*Flour,1.5*tablespoons*Light Brown Sugar (packed),1.5*teaspoons*Baking Powder,0.5*teaspoon*Ground Cinnamon,0.25*teaspoon*Salt,2*large*Eggs,1.5*cups*Buttermilk,1.5*teaspoons*Vanilla Extract,2*tablespoons*Butter (unsalted and melted),1*tablespoon*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>1. In a large bowl, whisk together the flour, brown sugar, baking powder, cinnamon, and salt. Set aside.||2. In a separate bowl, stir together the eggs, buttermilk, and vanilla.||3. Make a well in the center of the dry ingredients and stir in the wet ingredients, just until combined.||4. Stir in the melted butter.||5. In a skillet over medium-low heat, add the oil.||6. Pour a quarter cup circles of batter into the pan.||7. Cook for 3 to 4 minutes. When small bubbles appear and begin to pop, flip the pancakes over and cook for another 2 minutes, until they are cooked through and golden brown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon Blankets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lazy,bacon and egg breakfat </t>
+  </si>
+  <si>
+    <t>2*slices*Bacon,1*teaspoon*Light Brown Sugar (packed),2*large*Eggs,1*tablespoon*Unsalted Butter,0.25*teaspoon*Salt,1*gram*Pepper</t>
+  </si>
+  <si>
+    <t>1. In a nonstick skillet over medium heat, place the bacon and sprinkle the brown sugar on top. Cook until just crisp, about 6 to 8 minutes. Remove from the pan and set aside.||2. Break the eggs that can’t be beat into individual bowls.||3. In the same skillet over medium heat, melt the butter, then slide the eggs into the pan.||4. When the edges start to turn white, cover the pan and lower the heat. Cook 4 to 5 minutes, until the whites firm up. Season with salt and pepper.||5. Lay the bacon blankets over the eggs to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLTExhausted </t>
+  </si>
+  <si>
+    <t>A Gudetama twist on the classic BLT sandwich</t>
+  </si>
+  <si>
+    <t>2*tablespoons*Mayonnaise,1*teaspoon*Pesto,4*slices*Bacon (thick),2*slices* Sourdough Bread,2*slices*Tomato,1*gram*Pepper,3*leaves*Butter Lettuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In a small bowl, stir together the mayonnaise and pesto. Set aside.||2. In a skillet over medium-high heat, cook the bacon for 5 to 6 minutes, until crispy. Drain on paper towels.||3. Lightly toast the bread.||4. Spread the mayonnaise mixture onto both sides of the toast. On one slice, layer the bacon, then the tomato.||5. Season with pepper.||6. Place the lettuce on top, then the remaining slice of toast.||7. Slice in half to serve.
+</t>
+  </si>
+  <si>
+    <t>Slowly Grilled Cheese</t>
+  </si>
+  <si>
+    <t>A Gudetama twist on the classic Grilled Cheese</t>
+  </si>
+  <si>
+    <t>2*slice*Bread (white),2*slices*Swiss Cheese,1*slice*Ham,1*tablespoon*Butter (unsalted and Softened)</t>
+  </si>
+  <si>
+    <t>1. On one slice of bread, layer a slice of cheese, the ham, and the other slice of cheese. Place the second piece of bread on top.||2. Spread half the butter onto the top of the bread.||3. In a skillet over medium heat, place the sandwich butter-side down.||4. Spread the rest of the butter on top of the bread slice facing up. Cook for 2 to 3 minutes, or until golden brown.||5. Flip the sandwich and cook for another 2 to 3 minutes, or until browned and the cheese is melted.||6. Slice in half to serve.</t>
+  </si>
+  <si>
+    <t>Eggistential Crisis Eggs</t>
+  </si>
+  <si>
+    <t>8*large*Eggs,4*tablespoons*Mayonnaise,1*teaspoon*Yellow Mustard,0.25*teaspoon*Onion Powder,0.25*teaspoon*Salt,1*sprinkle*Pepper,8*null*Black Olives (cut in half)</t>
+  </si>
+  <si>
+    <t>A Gudetama Deviled Eggs</t>
+  </si>
+  <si>
+    <t>1. Place the eggs in a pot and cover with 1 to 2 inches (2.5–5 cm) of water. Turn on the heat to medium-high and bring to a boil.||2. Turn off the heat, cover with a lid, and let sit for 10 to 12 minutes.||3. Place the eggs in an ice bath and let cool completely.||4. Peel and slice the eggs in half. Set aside the whites and place the yolks into a bowl.||5. Stir together the egg yolks, mayonnaise, mustard, onion powder, salt, and pepper.||6. Place the mixture into a piping bag and pipe the filling into the egg white centers.||7. Place an olive half on top of each egg to serve.</t>
+  </si>
+  <si>
+    <t>Napping in an Avocado</t>
+  </si>
+  <si>
+    <t>Avocado and Eggs. A Gudetama favourite combo</t>
+  </si>
+  <si>
+    <t>1*large*Avocado,2*small*Eggs,1*tablespoon*Parmesan Cheese,0.25*teaspoon*Salt,1*sprinkle*Pepper,4*dashes*Hot Sauce</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees F (200 degrees C).||2. Slice the avocado in half. Remove a tablespoon (14 g) of avocado out of each hole. Place the avocado halves onto a baking tray with each hole facing up. Crack an egg into each hole.||3. Onto the avocado halves, sprinkle the Parmesan cheese, salt, and pepper.||4. Cook for 12 to 15 minutes, until the eggs are just set.||5. Add the hot sauce to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Is Hard, Lets Make Tacos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some delicious beef tacos </t>
+  </si>
+  <si>
+    <t>1*tablespoon*Chili Powder,1*teaspoon*Ground Cumin,1*teaspoon*Garlic Powder,0.5*teaspoon*Salt,0.25*teaspoon*Cayenne Pepper,450*grams*Groud Beef,8*small*Corn Toritillas,77*grams*Shredded Lettuce,0.5*cup*Cheddar Jack Cheese</t>
+  </si>
+  <si>
+    <t>1.  In a small bowl, stir together the chili powder, cumin, garlic powder, onion powder, salt, and cayenne pepper. Set aside.||2.  In a skillet over medium-high heat, brown the ground beef, about 8 to 10 minutes.||3. Add the seasonings and cook for another 1 to 2 minutes.||4. Serve in tortillas with lettuce and cheese.</t>
+  </si>
+  <si>
+    <t>1. In a small bowl, stir together the mayonnaise, chipotle, adobo sauce, salt, and pepper. Set aside.||2. In a large bowl, mix together the ground beef, breadcrumbs, Worcestershire sauce, salt, and pepper. Form 4 patties.||3. Heat grill to 450 degrees (230 degrees). Brush the onion slices with olive oil, place on the grill, and cook until charred.||4. Place the buns on the grill to lightly toast, then remove and set aside.||5. Place the patties on the grill and cook for 3 to 5 minutes. Flip over and cook for another 3 minutes.||6. Add the cheese slices on top of the patties and cook to melt, approximately 1 minute.||7. To assemble the burgers, spread the chipotle mayo onto the buns. Place each patty on a  bottom bun, then top with grilled onions, lettuce, tomato, and the top bun.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 300 degreesF (150 degrees C).||2. Generously season the flour with salt and pepper, then dredge the short ribs. Set aside.||3. In a Dutch oven, heat the olive oil over medium-high heat. Add the ribs and brown on all sides. Remove from the pot and set aside.||4. Lower the heat to medium and add the onions, carrots, celery, mushrooms, and garlic. Cook until soft, about 8 to 10 minutes.||5. Stir in the brown sugar and tomato paste. Pour in the beef broth and red wine.||6. Place the short ribs back into the pot. Add in the parsley, thyme, rosemary, and bay leaf.||7. Simmer for 10 minutes, then move the Dutch oven to the preheated oven. Cook for 3 hours.||8. Discard the bay leaf and plate to serve.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees F (177 degrees C).||2. On a piece of parchment, place the spinach leaves, then the salmon.||3. In a small bowl, stir together the butter, shallots, and parsley. Spread on top of the salmon.||4. Season with salt and pepper. Top with lemon slices.||5. Fold over and crimp the edges of the parchment paper to seal. Place onto a baking sheet.||6. Bake for 15 minutes, until an instant-read thermometer reads 145 degrees F (63 degrees C).</t>
+  </si>
+  <si>
+    <t>Better Catch Some ZZZs Burgers</t>
+  </si>
+  <si>
+    <t>Gudetama Beef Burger of Dreams</t>
+  </si>
+  <si>
+    <t>0.5*cup*Mayonnaise,1*null*Chipotle (in adobo sauce and minced),1*tablespoon*Adobo Sauce,0.5*teaspoon*Salt,0.25*teaspoon*Pepper,450*grams*Ground Beef,1*tablespoon*Worcestershire Sauce,1*teaspoon*Salt (burgers),1*teaspoon*Pepper (burgers),1*medium*Onion (sliced into rings),2*tablespoons*Olive Oil,4*null*Brioche Buns,4*slices*Swiss Cheese,8*leaves*Iceberg Lettuce,1*null*Tomato (sliced)</t>
+  </si>
+  <si>
+    <t>Slow-Paced Short Ribs</t>
+  </si>
+  <si>
+    <t>Smoky fragrant, fall of the bone rib centered happiness</t>
+  </si>
+  <si>
+    <t>1*cup*Flour,2*teaspoons*Salt,1*teaspoon*Pepper,2*tablespoons*Olive Oil (extra-virgin),1.85*kilograms*Short Ribs,1*large*Onion (diced),2*large*Carrots (diced),2*large*Celery Stalks (diced),200*grams*Mushrooms (quartered),4*cloves*Garlic (minced),1*tablespoon*Light Brown Sugar (packed),1*tablespoon*Tomato Paste,2*cups*Beef Broth,2*cups*Red Wine,1*tablespoon*Dried Parsley,1*tablespoon*Dried Thyme,1*tablespoon*Dried Rosemary,1*null*Bay Leaf</t>
+  </si>
+  <si>
+    <t>0.5*cup*Spinach Leaves (fresh),200*grams*Salmon Filet,1*tablespoon*Butter (unsalted and softened),2*teaspoons*Shallots (sliced),1*teaspoon*Fresh Parsley (chopped),0.5*teaspoon*Salt,0.25*teaspoon*Pepper,3*slices* Lemon (thin)</t>
+  </si>
+  <si>
+    <t>Baked stress free Salmon</t>
+  </si>
+  <si>
+    <t>Who Cares about Salmon</t>
+  </si>
+  <si>
+    <t>1. In a bowl, stir together the graham cracker crumbs, butter, brown sugar, cinnamon, and salt.||2. Press into a 9-inch (23-cm) pie plate, and freeze for 1 hour.||3. Pour in the softened ice cream and spread evenly with a spatula. Place the pie back in the freezer for 4 to 6 hours.||4. In a large bowl, whip together the cream and confectioners’ sugar just until stiff peaks form. Spread onto the pie. Top with fresh strawberries to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the glaze: In a dry skillet over medium-high heat, toast the sesame seeds for 2 to 3 minutes, until fragrant. Use a mortar and pestle or a spice grinder, until it becomes powderlike.||2. In a small bowl, stir together the confectioners’ sugar, the black sesame seed powder, milk, and vanilla. Set aside.||3. To make the doughnuts: Place the biscuits on a cutting board and use a 1-inch (2.5-cm) round cutter to cut holes from the middle of each biscuit.||4. In a Dutch oven, heat the oil to 350 degrees F (177 degrees C). Fry the doughnuts and holes for 1 to 2 minutes on each side, until golden brown. Transfer to a wire rack and let cool.||4. Dip the doughnuts in the glaze and place them back onto the wire rack to let the excess glaze drip off.||5. Once the glaze has set after about 20 minutes, the doughnuts are ready to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the cereal mix: Preheat the oven to 250 degrees F (130 degrees C).||2. In an extra-large bowl, toss together the rice and corn cereal, corn chips, pretzels, cheese crackers, and macadamia nuts. Set aside.||3. To make the sauce: In a saucepan over low heat, stir together the butter, Worcestershire sauce, brown sugar, seasoned salt, garlic powder, chili powder, and onion powder. Cook 4 to 6 minutes until melted, stirring constantly.||4. To assemble: Pour the sauce over the cereal mixture and toss to coat.||5. Spread the mixture onto a baking sheet, lined with a silicone baking mat or parchment paper.||6. Bake for 1 hour, making sure to stir every 15 minutes.||7. Remove from the oven and let cool completely.||8. Scoop into an airtight container.</t>
+  </si>
+  <si>
+    <t>2*cups*Graham Crackers (finely grounded),6*tablespoons*Butter (unsalted and melted),3*tablespoons*Light Brown Sugar (packed),0.5*teaspoon*Ground Cinnamon,0.25*teaspoon*Salt,6*cups*Strawberry Ice Cream (softened),1*cup*Heavy Whipping Cream,2*tablespoons*Confectioners Sugar,5*fresh*Strawberries</t>
+  </si>
+  <si>
+    <t>3*tablespoons*Black Sesame Seeds,1*cup*Confectioners Sugar,3*tablespoons*Whole Milk,0.5*teaspoon*Vanilla Extract,452*grams*Flaky Biscuit Dough,2*cups*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>150*grams*Cake Flour,1*teaspoon*Baking Powder,0.25*teaspoon*Salt,6*tablespoons*Butter (unsalted and softened),1*cup*Granulated Sugar,2*large*Eggs,2*teaspoons*Vanilla Extract,120*ml*Buttermilk,0.5*cup*Unsalted Butter (softened for frosting),2*cups*Confectioners Sugar,2*tablespoons*Heavy Whipping Cream,2*teaspoons*Vanilla Extract (frosting) ,0.25*teaspoon*Salt,1*drop*Red Food Coloring</t>
+  </si>
+  <si>
+    <t>3*cups*Rice Cereal Squares,3*cups*Corn Cereal Squares,2*cups*Corn Chips,1.5*cups*Mini Pretzels,1.5*cups*Small Cheese Crackers,1*cup*Macadamia Nuts,0.5*cup*Unsalted Butter,0.25*cup*Worcestershire Sauce,1*tablespoon*Light Brown Sugar,2*teaspoons*Seasoned Salt,2*teaspoons*Garlic Powder,1*teaspoon*Chili Powder,1*teaspoon*Onion Powder</t>
+  </si>
+  <si>
+    <t>Handy Snack Mix</t>
+  </si>
+  <si>
+    <t>Simply Over It Salty Snack Mix</t>
+  </si>
+  <si>
+    <t>Coulnot Care Less Cupcakes</t>
+  </si>
+  <si>
+    <t>Delish Vanilla Cupcakes with Frosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balck sesame sugar glaze doughnuts </t>
+  </si>
+  <si>
+    <t>Dozing Off Donuts</t>
+  </si>
+  <si>
+    <t>Stress-Free Strawberry Ice Cream Pie</t>
+  </si>
+  <si>
+    <t>Revel in the deliciousness of both pie and ice cream</t>
+  </si>
+  <si>
+    <t>Relaxing Bubble Tea</t>
+  </si>
+  <si>
+    <t>Take it Easy Tumeric Latte</t>
+  </si>
+  <si>
+    <t>Bored by Dalgona Coffee</t>
+  </si>
+  <si>
+    <t>Lounge Around Lychee Slush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep Time Hot Chocolate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm and smoth Hot Chocolate </t>
+  </si>
+  <si>
+    <t>Lychee Citrusy Slush</t>
+  </si>
+  <si>
+    <t>Fluffy Dalgona Coffee</t>
+  </si>
+  <si>
+    <t>Brown sugar,cinnamon and vanilla tumeric latte</t>
+  </si>
+  <si>
+    <t>350*ml*Whole Milk,2*teaspoons*Light Brown Sugar,0.5*teaspoon*Vanilla Extract,0.25*teaspoon*Tumeric Powder,0.125*teaspoon*Ground Cinnamon</t>
+  </si>
+  <si>
+    <t>0.5*cup*Light Brown Sugar (packed),0.5*cup*Granulated Sugar,0.25*cup*Boba Pearls,1*cup*Black Tea (brewed),3*tablespoons*Whole Milk</t>
+  </si>
+  <si>
+    <t>Black Tea Boba Drink</t>
+  </si>
+  <si>
+    <t>Procrastination Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The fragrant pineapple and bubbly soda blend together for a slushy, fruity refreshment.</t>
+  </si>
+  <si>
+    <t>435*grams*Frozen Pineapple Chunks,355*ml*Lemon-Lime Soda,1*cup*Orange Juice,1*tablespoon*Lemon Juice,1*pint*Vanilla Ice Cream,4*null*Cherries (with stems)</t>
+  </si>
+  <si>
+    <t>425*grams*Lychee (drained),3*tablespoons*Granulated Sugar,1*tablespoon*Lemon Juice,2*teaspoons*Orange Zest,0.5*cup*Orange Juice,0.5*cup*Lemon-Lime Soda</t>
+  </si>
+  <si>
+    <t>2*tablespoons*Instant Coffee Granules,2*tablespoons*Granulated Sugar,1*cup*Almond Milk</t>
+  </si>
+  <si>
+    <t>2*cups*Whole Milk,60*grams*Dark Chocolate (chopped),2*tablespoons*Unsweetened Cocoa Powder,2*tablespoons*Granulated Sugar,0.5*teaspoons*Vanilla Extract,0.125*teaspoon*Salt,1*heap*Whipped Cream</t>
+  </si>
+  <si>
+    <t>1. In a saucepan over medium-low heat, place the milk, chocolate, cocoa powder, sugar, vanilla, and salt.||2. Whisk and bring to a low simmer. Cook for 2 minutes until smooth.||3. Serve with whipped cream.</t>
+  </si>
+  <si>
+    <t>1. In a blender, place the frozen pineapple, lemon-lime soda, orange juice, and lemon juice. Blend.||2. Pour into glasses. Add a scoop of ice cream on top.||3. Garnish with cherries to serve.</t>
+  </si>
+  <si>
+    <t>1. In a blender, place the lychee, sugar, lemon juice, and orange zest. Blend until combined. Pour the mixture into ice cube trays and freeze for 8 hours.||2. Place the lychee ice cubes in a blender, along with the orange juice and lemon-lime soda. Blend until slushy.||4. Pour into a glass to serve.</t>
+  </si>
+  <si>
+    <t>1. In a medium bowl, stir together the instant coffee, sugar, and 2 tablespoons (30 ml) boiling water.||2. With a handheld mixer on low, whip the mixture for 30 seconds until it starts to froth.||3. Raise the speed and continue whipping until the mixture fluffs up and soft peaks form, about 4 to 5 minutes.||4. Fill a cup with ice, then pour over the milk.||5. Spoon the whipped coffee mixture over the milk to serve.</t>
+  </si>
+  <si>
+    <t>1. In a saucepan over medium heat, place the milk, brown sugar, vanilla, turmeric, and cinnamon. Cook for 2 to 3 minutes, until warmed through.||2. Pour into a cup through a strainer to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the simple syrup: Combine 1 cup (230 ml) water and the sugars in a small saucepan. Bring to a boil and simmer for 2 minutes, just until the sugar is dissolved. Let cool.||2. To make the boba: In a large saucepan, bring 5 cups (1,180 ml) water to a boil.||3. Add in the boba pearls. When they start to float, turn the heat to low and let them simmer for 25 minutes.||4. Turn off the heat and cover the saucepan. Let sit for 25 minutes.||5. Drain and rinse the boba.||6. In a small bowl, add the cooked boba to the simple syrup and let soak for 30 minutes.||7. Strain the boba and pour it into a tall class.||8. To make the milk tea: Pour the boba over the tea, and then add the milk to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the cupcakes: Preheat the oven to 350 degrees F (177 degrees C). Prep a cupcake pan with paper liners.||2. In a medium bowl, whisk together the cake flour, baking powder, and salt.||3. In the bowl of an electric mixer, cream the butter and sugar until fluffy.||4. Add the eggs and vanilla, stirring until just combined. Stir in the flour mixture, alternating with buttermilk. Spoon the batter into the prepped cupcake pan.||5. Bake for 16 to 17 minutes, or until a toothpick inserted in the center comes out clean.||6. Let cool on a wire rack.||7. To make the frosting: In a large bowl with a handheld mixer on low, cream the butter while slowly adding the confectioners’ sugar. Stir in the heavy whipping cream, vanilla, and salt.Add food coloring and stir, until the frosting becomes a light pink color.||8. Turn the mixer up to medium-high and whip for 10 to 15 seconds, until light and fluffy.||9. To assemble: Pipe the frosting onto the cupcakes to serve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,6 +1503,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1256,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1287,6 +1563,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1623,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,6 +3921,512 @@
         <v>12</v>
       </c>
     </row>
+    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" s="1">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="1">
+        <v>25</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F92" s="1">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F93" s="1">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" s="1">
+        <v>40</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F95" s="1">
+        <v>30</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F96" s="1">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F97" s="1">
+        <v>30</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F98" s="1">
+        <v>220</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F99" s="1">
+        <v>35</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F100" s="1">
+        <v>420</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F101" s="1">
+        <v>50</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F102" s="12">
+        <v>45</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" t="s">
+        <v>439</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F103" s="12">
+        <v>100</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F104" s="1">
+        <v>95</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F105" s="12">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F106" s="12">
+        <v>20</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" t="s">
+        <v>453</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F107" s="12">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C108" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F108" s="12">
+        <v>7</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F109" s="12">
+        <v>10</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C66FD7-9952-4078-8122-E1CEDFBC7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FADF47-F3C9-49E6-B80A-BE6174A05E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="562">
   <si>
     <t>Name</t>
   </si>
@@ -1456,6 +1456,276 @@
   </si>
   <si>
     <t>1. To make the cupcakes: Preheat the oven to 350 degrees F (177 degrees C). Prep a cupcake pan with paper liners.||2. In a medium bowl, whisk together the cake flour, baking powder, and salt.||3. In the bowl of an electric mixer, cream the butter and sugar until fluffy.||4. Add the eggs and vanilla, stirring until just combined. Stir in the flour mixture, alternating with buttermilk. Spoon the batter into the prepped cupcake pan.||5. Bake for 16 to 17 minutes, or until a toothpick inserted in the center comes out clean.||6. Let cool on a wire rack.||7. To make the frosting: In a large bowl with a handheld mixer on low, cream the butter while slowly adding the confectioners’ sugar. Stir in the heavy whipping cream, vanilla, and salt.Add food coloring and stir, until the frosting becomes a light pink color.||8. Turn the mixer up to medium-high and whip for 10 to 15 seconds, until light and fluffy.||9. To assemble: Pipe the frosting onto the cupcakes to serve.</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Skewers</t>
+  </si>
+  <si>
+    <t>Genshin</t>
+  </si>
+  <si>
+    <t>Simple to make chicken skewers</t>
+  </si>
+  <si>
+    <t>1*tablespoon*Dried Oregano,1*tablespoon*Dijon Mustard,0.5*teaspoon*Dried Thyme,1*null*Lemon Juice,3*cloves*Garlic (minced),2*tablespoons*Olive Oil,1*tablespoon*Smoked Paprika,0.25*cup*Soy Sauce,1*tablespoon*Maple Syrup,3*tablespoons*Orange Juice,0.25*cup*Chicken Stock,0.5*teaspoon*Pepper,2*null*Chicken Breasts (boneless and skinless),1*pound*Cremini Mushrooms (whole)</t>
+  </si>
+  <si>
+    <t>1.. In a large bowl, mix together all the ingredients except the chicken and mushrooms to create a marinade.||2. Cut the chicken breasts into bite-size pieces. Place the chicken and mushrooms in the bowl of marinade and stir until thoroughly coated. Cover and refrigerate for 4 to 10 hours, stirring occasionally.||3. If you’re using bamboo skewers, soak them in water for a few minutes right before the chicken and mushrooms are done marinating to keep them from burning when it comes time to cook. Then pat dry.||4. Thread the chicken and mushrooms on the skewers, discarding any remaining marinade. Grill on high heat until cooked, 5 to 7 minutes, or bake in the oven at 430 degrees F for 8 to 10 minutes. Enjoy!</t>
+  </si>
+  <si>
+    <t>Fried Radish on a Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The delicious yet subtle flavour of radishes </t>
+  </si>
+  <si>
+    <t>1*large*Daikon Radish (white),1*pinch*Salt,2*large*Eggs,0.75*cup*Flour,1*null*Green Onion (thinly sliced),1*teaspoon*Vegetable Stock Powder,1*teaspoon*Ginger ( minced),1*teaspoon*Garlic Powder,1*teaspoon*Onion Powder,1*teaspoon*Paprika,1*pinch*Pepper,1*splash*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>1. Using a vegetable peeler, remove the skin from the radish. Then use a grater to shred the radish into a large bowl.||2. Sprinkle the grated radish with a pinch of salt and let sit for a few minutes to draw out the water from the radish. Drain the excess water and use a paper towel to squeeze out any remaining water fromthe radish.||3. Add the eggs, flour, green onion, vegetable stock, ginger, and remaining seasonings. Mix well.||4. Shape the radish mixture into balls. (The smaller the balls, the faster they will cook.)||5. Add vegetable oil to a skillet over medium heat. Gently place the radish balls in the oil and fry all together for 5 minutes or until golden brown, turning them occasionally to ensure all sides are frying evenly. Serve with an aioli or your favorite sauce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crispy Potato-Shrimp Balls </t>
+  </si>
+  <si>
+    <t>These cute and compact balls of fried goodness make this dish the perfect appetizer for your next gathering with friends!</t>
+  </si>
+  <si>
+    <t>20*raw*Shrimp,3*medium*Russet Potatoes (peeled and cut into 1-inch cubes),1*tablespoon*Unsalted Butter,1*null*egg Yolk,1*large*Egg,2*teaspoons*Salt,1.5*teaspoon*Pepper,2*teaspoons*Paprika,0.25*teaspoon*Dried Thyme,2*teaspoons*Garlic Powder,1*cup*Flour,1*cup*Panko Breadcrumbs,1*splash*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>1. Peel off the shrimp shells, leaving the tails on. Season with a pinch of salt and pepper and set aside.||2. Boil the potatoes in water over medium-high heat for 15 to 20 minutes, or until fork tender. Mash them using a potato masher, then add in the unsalted butter and egg yolk. Mix until smooth. Your potatoes should be creamy but not soupy. If they are too soupy, add a little flour until the potatoes are thickened to a creamy texture.||3. Add the 1 and a half teaspoons salt, 1 teaspoon pepper, paprika, thyme, and garlic powder. Mix well.||4. Scoop out a third cup of the potato mixture and use your hands to form it into a ball. Using your thumb, poke a hole in the top of the ball, place a shrimp in the hole, then cover the shrimp with the potatoes until just the shrimp tail is sticking out. Squeeze slightly to tighten everything and make sure the shrimp stays locked inside.||5. Pour 1 cup flour into a shallow dish. Then crack the egg into a separate dish and whisk to combine the yolk and egg white. Add the panko crumbs to another shallow dish.||6. Carefully roll a potato-shrimp ball into the flour, shaking off any excess. Then roll in the egg wash and then the bread crumbs. Make sure the ball is fully covered with all three ingredients. Set aside on a large plate or tray and repeat for the remaining potato-shrimp balls.||7. Fill a medium frying pan halfway with vegetable oil and heat to between 350 degrees F to 375 degrees F over medium heat. Fry the shrimp balls together until the outside is golden brown, about 4 minutes, turning occasionally to ensure all shrimp balls are frying evenly.||8. Remove from the oil and let the potato-shrimp balls cool for a few minutes. Enjoy by themselves or serve with an aioli or your favorite sauce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Cold Cuts </t>
+  </si>
+  <si>
+    <t>A platter of delicious meats</t>
+  </si>
+  <si>
+    <t>1*package*Prosciutto,7*slices*Deli Ham,2*links*Cured Chorizo,1*scoop*Cherry Tomatoes,1*heap*Lettuce Leaves</t>
+  </si>
+  <si>
+    <t>1. On a flat platter or board, arrange the prosciutto slices as light and airy ribbons covering a third of the serving plate.||2. On another third of the platter, fan the ham pieces out like a deck of cards, or fold each piece in half twice so they are easy to grab.||3. Cut the sausages into round slices and arrange on the last third of the platter.||4. Place some cherry tomatoes and a few leaves of lettuce in the middle of the platter. You can also tuck a few lettuce leaves under the meat slices and along the edge of the platter.</t>
+  </si>
+  <si>
+    <t>Elegant Egg Roll</t>
+  </si>
+  <si>
+    <t>Eggs to fluffy perfection and rolling them into a rectangular loaf</t>
+  </si>
+  <si>
+    <t>8*null*Eggs,2.5*tablepoons*Water,1*tablespoon*Soy Sauce,0.75*teaspoon*Sugar,1*tablespoon*Olive Oil</t>
+  </si>
+  <si>
+    <t>1. In a medium bowl, combine the eggs, water, soy sauce, and sugar. Using a whisk, beat until well combined.||2. Heat a tamagoyaki pan (rectangular Japanese omelet pan) or a small frying pan over medium heat. Using a pastry brush, lightly coat the bottom of the pan with olive oil.||3. Pour a thin layer of the egg mixture to cover the surface of the pan. When it’s about 80 percent cooked but still wet on the surface, use chopsticks or wooden tongs to start gently rolling in the edges to form a rolled omelet. Move the rolled omelet to one side of the pan.||4. Brush the pan with oil again and pour in another thin layer of the egg mixture. Using a spoon, gently lift the previously made omelet and spread some of the uncooked egg mixture underneath. This willhelp both omelets stick together. When this next layer of eggs is 80 percent cooked but the surface is still wet, start with the previously made omelet and gently roll it up with the new layer. Set to one side of the pan. Repeat this process until the egg mixture is gone. Your omelet will have 3 to 4 layers.||5. Transfer the rolled omelet onto a cutting board and allow to rest for several minutes. Cut into even 2-inch slices and serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded Baked Potato </t>
+  </si>
+  <si>
+    <t>One-of-a-kind baked potato side dish!</t>
+  </si>
+  <si>
+    <t>3*large*Baking Potatoes,1*teaspoon*Olive Oil,4*tablespoons*Unsalted Butter (cut into cubes),0.5*cup*Green Onions (chopped),5*null*Cremini Mushrooms (chopped),0.5*cup*Half and Half,0.5*cup*Sour Cream,1*sprinkle*Salt,1*spinkle*Pepper,1*cup*Cheddar Cheesew (shredded)</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees F. Pierce the potatoes several times with a fork and rub with olive oil. Bake until tender, 50 to 75 minutes. While baking, you can check if the potatoes are done by sticking a skewer or a fork into them; if soft, they are ready.||2. Remove the potatoes from the oven. When cool enough to handle, slice the top off each potato horizontally (about 1 inch). Scoop out the potato pulp and transfer it to a large mixing bowl, leaving thin potato shells. Set the potato skins aside and reduce the oven temperature to 375 degrees F.||3. In a small skillet, melt the butter over medium-high heat, then add the onions and mushrooms and sauté until tender, about 5 minutes.||4. In the mixing bowl, using a potato masher, mash the potato pulp. Stir in the sauteed onions and mushrooms, half-and-half, sour cream, salt, and pepper. Stuff this mixture into the 3 potato shells and top with cheddar cheese.||5. Place the stuffed potatoes on a baking sheet and bake until heated through, about 20 minutes. Top with extra chopped green onions to serve.</t>
+  </si>
+  <si>
+    <t>Crispy Baked HashBrowns</t>
+  </si>
+  <si>
+    <t>Crispy Baked Hash Browns</t>
+  </si>
+  <si>
+    <t>1*package*Hashbrown Potatoes (frozen,shredded and thawed),2*null*Eggs,1*cup*Cheddar Cheese (shredded),1*pinch*Salt,1*pinch*Pepper,1*teaspoon*Ground Cumin,1*teaspoon*Dried Mint,0.5*teaspoon*Garlic Powder,0.5*teaspoon*Onion Powder,0.5*cup*Unsalted Butter (melted)</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees F. Line a baking sheet with parchment paper and set aside.||2. Pour the shredded potatoes into a large bowl. In a small separate bowl, whisk the eggs. Add the eggs to the potatoes along with the shredded cheese and all the seasonings. Toss to coat everything evenly. Pour the melted butter over the top and toss once again to coat.||3. Spread the potato mixture evenly over the parchment-lined baking sheet. Bake for 40 minutes, or until the potatoes turn a light golden-brown color.||4. Remove from the oven. Using a round cookie cutter, cut the potatoes into individual hash brown circles to serve.</t>
+  </si>
+  <si>
+    <t>Afternoon Tea Pancakes</t>
+  </si>
+  <si>
+    <t>Afternoon Tea Pancakes make the perfect breakfast for your average adventurer</t>
+  </si>
+  <si>
+    <t>2*cups*Flour,0.25*cup*Granulated Sugar,4*teaspoons*Baking Powder,0.25*teaspoon*Baking Soda,0.5*teaspoon*Salt,1.75*cups*Whole Milk,4*tablespoons*Unsalted Butter (melted),2*teaspoons*Pure Vanilla Extract,1*null*Egg,1*dash*Honey,1*bunch*Golden Coloured Berries</t>
+  </si>
+  <si>
+    <t>1. In a large mixing bowl, combine the flour, sugar, baking powder, baking soda, and salt. Mix thoroughly, using a wire whisk.||2. Make a well in the center of your dry ingredients and add the milk, butter, vanilla, and egg. Whisk the wet ingredients together in the well first before slowly folding them into the dry ingredients. Combine until smooth.||3. Heat a nonstick pan over medium-low heat and add a small dollop of butter to lightly grease the pan.||4. Using a ladle, pour about a quarter cup of batter onto the pan and gently spread with the back of the ladle to create a round shape.||5. Cook until bubbles begin to appear on the surface of the pancake and the underside is golden, about 4 minutes. Then flip with a spatula and cook until the other side is golden. Repeat with the remaining batter.||6. Drizzle with honey or maple syrup and decorate with a golden-colored berry on top, if you wish.</t>
+  </si>
+  <si>
+    <t>Jade Dumplings</t>
+  </si>
+  <si>
+    <t>Pork Dumplings</t>
+  </si>
+  <si>
+    <t>1*teaspoon*Salt,1*pound*Ground Pork,1*null*Egg (beaten),13*null*Green Onions,1*tablespoon*Ginger (fresh and minced),2*cloves*Garlic (minced),2*tablespoons*Soy Sauce,1*tablespoon*Sesame Oil,0.25*teapoon*Black pepper,1*tablespoon*Paprika,10*large*Cabbage Leaves (root ends trimmed),2*cups*Pork Bone Broth,1*null*Red Chili Pepper (sliced)</t>
+  </si>
+  <si>
+    <t>1. Fill a large saucepan a third full with water, add a pinch of salt, and bring to a boil over high heat.||2. While the water is coming to a boil, in a large mixing bowl, combine the ground pork, beaten egg, 3 chopped green onions, ginger, garlic, soy sauce, 1 tablespoon toasted sesame oil, crushed red pepper flakes, half a teaspoon salt, pepper, and paprika. Mix to combine thoroughly, then set aside.||3. Place the cabbage leaves and 10 whole green onions in the boiling water for 3 minutes to soften them. Meanwhile, line a baking sheet with paper towels. Transfer the softened leaves and onions to the baking sheet and let cool.||4. Use the paper towels to pat off any excess water. Then spread out a cabbage leaf and place about 1 ½ tablespoons of the pork mixture in the middle of the leaf. Gather the leaf edges together and gently tie with a softened green onion. Repeat until all the cabbage leaves are filled with pork and tied shut.||5. In a pot that can hold a steamer basket, combine the 2 cups broth, the remaining 1 teaspoon sesame oil, and the chili slices. Set the steamer basket on top of the pot. (The pot should be filled to just below your basket so that the broth doesn’t touch the dumplings.)||6. Place the dumplings in the steamer basket and bring the broth to a boil. Then cover with the pot lid and let steam until the pork is cooked through, about 15 minutes. To test, cut a dumpling open and make sure the pork has browned so no pink coloring remains.||7. Using tongs, carefully transfer the dumplings to a serving plate. Pour the chili broth you used for the steaming over the dumplings until they’re sitting in a thin layer of the broth, then serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry Blossom Tempura </t>
+  </si>
+  <si>
+    <t>The subtle floral flavor of cherry blossoms will serve to elevate this classic tempura dish.</t>
+  </si>
+  <si>
+    <t>1*purple*Eggplant (sliced in rounds),10*null*Okra Pods,10*null*Raw Shrimp (peeled and tails on),4*null*Cauliflower Florets,2*null*Button Mushrooms (sliced),1*cup*Cherry Blossom Petals,4*cups*Vegetable Oil,1*cup*Flour,1*cup*Ice Water,1*null*Egg,1*teaspoon*Salt,1*splash*Soy Sauce,1*dash*Wasabi</t>
+  </si>
+  <si>
+    <t>1. Pat all the vegetables and shrimp dry with a paper towel and set aside.||2. Add the oil to a deep fryer or a medium pot on the stovetop and heat to 320 degrees F. (Use a thermometer to check the temperature, or dip the tip of a wooden or bamboo chopstick in the oil. If small bubbles appear around the chopstick, the oil is ready.)||3. While the oil is heating, prepare the tempura batter. Place the all-purpose flour in a large bowl. In a smaller bowl, whisk together the ice water and egg until fully combined. Scoop up and discard any surface foam.||4. Slowly pour the egg mixture into the flour while mixing with chopsticks or a wire whisk. Once all the egg mixture is in, continue whisking gently for about 15 seconds. Be careful not to overmix; it’s okay to leave some lumps in your batter. It’s important to keep the tempura batter cold, so set your bowl of batter inside a larger bowl filled with about 1 inch of ice water.||5. When the oil reaches the right temperature, start by dipping an eggplant slice in the cold batter, letting any excess batter drip off for a few seconds before very gently placing the eggplant in the hot oil. Repeat this with each individual ingredient you’re going to deep fry, but make sure you don’t overcrowd the deep fryer or cooking pot. The ingredients should take up only half of the surface area at any time. (Having too many ingredients in the pot at once will cause the oil temperature to drop.)||6. Deep-fry the vegetables and shrimp for 1 to 2 minutes each and the sakura petals or nettle leaves for 15 to 20 seconds, or until golden. Continue frying in batches until all the ingredients have been cooked, transferring each batch to a baking sheet or plate lined with paper towels to absorb excess oil. Between batches, skim any leftover tempura crumbs from the top of the oil so they don’t burn and change the flavor of the oil.||7. Serve the tempura immediately with wasabi and/or soy sauce for dipping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Soba Noodles </t>
+  </si>
+  <si>
+    <t>The subtle buckwheat flavor of the noodles dunked in a cold soy sauce dip will refresh you in no time and get you ready to travel on to your next quest.</t>
+  </si>
+  <si>
+    <t>1*package*Soba Noodles,2*tablespoons*Sesame Oil,1*null*Nori Sheet (cut into thin strips)1*sprinkle*Pepper,1*splash*Soy Sauce</t>
+  </si>
+  <si>
+    <t>1. Over high heat, bring a medium pot of water to boil. Add the soba noodles and cook until they are chewy but still a little firm, about 4 to 5 minutes.||2. While the noodles are cooking, fill a large bowl with ice water.||3. Once the noodles are done cooking, strain them and place in the prepared ice water. Chill until the noodles are cold, about 3 minutes. Then strain again and toss with the sesame oil.||4. Place equal portions of noodles on serving plates and sprinkle with nori strips and a bit of pepper. Serve with soy sauce for dipping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pork Cutlet Sandwich </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pork Cutlet Sandwich, with its fluffy bread surrounding the crispiest pork cutlet, is the perfect lunch to munch on as you traverse snowy mountains or arid deserts.</t>
+  </si>
+  <si>
+    <t>12*ounce*Boneless Pork Loin (fat trimmed),0.3*cup*Shio Koji Seasoning,2.5*teaspoons*Salt,1*cup*Water,0.5*head*Green Cabbage (core removed and thinly sliced),2*null*Lemons,2*null*Eggs,1*cup*Flour,2*cups*Panko Bread Crumbs,6*cups*Vegetable Oil,2*tablespoons*Japanese Kewpie Mayonnaise,1*splash*Tonkatsu Sauce,8*sliced*Japanaese Milk Bread</t>
+  </si>
+  <si>
+    <t>1. To prepare the pork cutlets, slice the pork loin into 4 equal pieces. Place each slice in a sealed plastic bag with all the air removed or between 2 sheets of plastic wrap. Using a meat tenderizer, gently pound each slice until it is about 6 inches wide and half aninch thick.||2. In a medium bowl, combine the shio koji, 2 teaspoons salt, and 1 cup water; stir well until the salt is fully dissolved. Add the pork pieces, then cover and chill in the refrigerator for 8 hours or overnight.||3. Just before the pork is done chilling, place the cabbage in a medium bowl. Zest both lemons over the cabbage and then add the juice from the lemons. Season with a half teaspoon salt and toss with your hands until the cabbage is fully coated and slightly wilted. Cover and chill until ready to use.||4. After the pork has chilled, remove it from the refrigerator, drain, and set aside. Line a rimmed baking sheet with paper towels, set a wire rack on top, and place near the stovetop.||5. In a shallow dish, whisk together the eggs and 2 tablespoons water. Place the flour and the bread crumbs in 2 more shallow dishes. Working with a single pork cutlet at a time, first coat it in the flour, shaking off any excess. Then dip it in the eggs and finally in the bread crumbs, pressing firmly into the crumbs on both sides to make sure they stick. Transfer to another rimmed baking sheet or a platter.||6. Pour oil into a medium-deep pot so that it comes about 2 inches up the side. Heat over medium-high heat until an instant-read thermometer reads between 350 degrees F and 365 degrees F. Using chopsticks or tongs, lower a cutlet vertically into the pan, letting it slide away into the oil until it lies flat. Use the chopsticks or tongs to keep the pork fully submerged in the oil until the underside is golden brown, about 1 minute. Gently flip and cook the other side until it is also golden brown, about 1 more minute. Then transfer the cutlet to the prepared wire rack over the paper towel–lined baking sheet. Repeat with the remaining pork cutlets.||7. Drizzle tonkatsu sauce over the cutlets and let rest for a few minutes. Then spread Kewpie mayonnaise on half of the bread slices and add a few cabbage leaves. Top with a pork cutlet and a second slice of bread, then cut each sandwich in half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warming Goulash </t>
+  </si>
+  <si>
+    <t>A medley of hearty vegetables, meat, and spices create a phenomenally flavorful dish</t>
+  </si>
+  <si>
+    <t>3*pounds*Boneless Beef Chuck Roast (cut into 1inch cubes),2*teaspoons*Salt,1*teaspoon*Pepper,2*tablespoons*Vegetable Oil,5*cups*Beef Stock,3*large*Carrots (peeled and chopped),2*cups*Fresh Okra Pods,2*null*Onions (diced),2*stalks*Celery (diced),1*null*Red Bell Pepper (diced),1*null*Yellow Bell Pepper (diced),0.25*null*Paprika,4*cloves*Garlic (minced),1*can*Tomato Sauce,1*null*Roma Tomato (diced),1*tablespoon*Soy Sauce,2*null*Bay Leaves,2*sprigs*Fresh Thyme,3*large*Russet Potatoes (peeled and cubed),2*tablespoons*FLour,0.25*cup*Water,1.5*tablespoons*Apple Cider Vinegar</t>
+  </si>
+  <si>
+    <t>1. Move an oven rack to the lower third of the oven. Preheat the oven to 300 degrees F.||2. In a large bowl, season the beef chunks generously with the 2 teaspoons salt and 1 teaspoon pepper and set aside. Add the oil to a Dutch oven or oven-safe stockpot and heat on the stovetop over medium-high heat. Add the seasoned meat and cook until the beef cubes are browning around the edges, about 10 minutes. Transfer the beef back to the bowl and set aside.||3. Reduce the heat to medium-low. Add the sliced carrots and okra to the Dutch oven or stockpot and season to taste with salt and pepper. Cook for about 4 minutes, then transfer to a bowl and set aside. Add the onion, celery, and bell peppers to the pot and cook, stirring occasionally, until the onion and peppers are soft and starting to brown, about 8 minutes.||4. Add the paprika and minced garlic and cook about 1 more minute, until the garlic is fragrant. Pour in the stock, tomato sauce, diced tomatoes, and soy sauce. Sprinkle on the bay leaves and thyme and stir to combine.||5. Add the beef chunks back into the cooking pot and turn the heat up to medium. Stirring well, bring everything to a simmer.||6. Once the mixture is simmering, transfer the pot to the oven, cover it with a lid set slightly off the top, and cook for 1 hour. Adjust the oven temperature if necessary to maintain a low simmer.||7. Remove the goulash from the oven and add the potatoes and the reserved carrots and okra. Return to the oven with the lid partially covering the pot again. Cook until the broth has thickened and the beef and potatoes are fork tender, about 45 minutes. Remove the lid. Using a ladle, skim any excess fat from the surface and discard.||8. In a small bowl, mix together the 2 tablespoons flour and quarter cup water. Pour over the goulash and stir gently until well combined. Cook in the oven for another 5 minutes.||9. Remove from the oven, stir in the vinegar, and season to taste with salt and pepper, if necessary.||10. Serve in individual bowls and top with fresh parsley or cilantro.</t>
+  </si>
+  <si>
+    <t>Honey Glazed Roast</t>
+  </si>
+  <si>
+    <t>Succulent pork roast covered with a sweet-and-savory glaze and accompanied by perfectly seasoned veggies—a superb meal.</t>
+  </si>
+  <si>
+    <t>1*cup*Soy Sauce,0.25*cup*Light Brown Sugar (packed),2.5*tablespoons*Garlic (minced),1*teaspoon*Onion Powder,1*teaspoon*Paprika,0.5*teaspoon*Dried Oregano,2*null*Scallions (chopped),2*pounds*Boneless Pork Shoulder (skin on),5*medium*Yukon Gold Potatoes (chopped into half inch chunks),2*null*Carrots (peeled and sliced),10*cloves*Garlic,2*tablespoon*Olive Oil,1*sprinkle*Salt,1*sprinkle*Pepper,1*cup*Dark Brown Sugar (packed),0.5*cup*Honey</t>
+  </si>
+  <si>
+    <t>1. In a large bowl, combine the 3 quarters of a cup soy sauce with the light brown sugar, minced garlic, onion powder, paprika, oregano, and chopped scallions.||2. Using a sharp knife, score the fat layer of the pork in diamond shapes.||3. Place the pork in the soy sauce marinade and turn to coat evenly. Cover with plastic wrap and place in the fridge to marinate for 1 hour.||4. Preheat the oven to 275 degrees F. Place the potatoes, carrots, and garlic cloves on a rimmed baking sheet and toss with the 2 tablespoons oil, salt, and pepper. Place the marinated pork on top of the veggies in the middle of the baking sheet. Bake for 1 hour, then remove from the oven.||5. Increase the oven temperature to 500 degrees F. In a small bowl, combine the dark brown sugar, honey, and remaining eiighth of a cup soy sauce, stirring until smooth.||6. Spoon the honey glaze over the top of the pork. Return to the oven and bake for 15 to 20 minutes, until the sugar is caramelized and the top of the pork is crispy.||7. Transfer the pork and vegetables to a serving plate. Spoon the reserved pan juices on top of the pork to serve.</t>
+  </si>
+  <si>
+    <t>Fish and Noodle Stir Fry</t>
+  </si>
+  <si>
+    <t>The springy rice noodles add a balance of texture when paired with pieces of soft, flaky tilapia</t>
+  </si>
+  <si>
+    <t>1*package*Rice Tagliatelle Noodles,3*tablespoons*Olive Oil,0.5*null*Onion (sliced),1*null*Green Bell Pepper (sliced),1*null*Red Bell Pepper (sliced),3*cloves*Garlic (minced),1*teaspoon*Hoisin sauce,2*tablespoons*Soy sauce,1*Tilapia Filet (cut into 1inch pieces),1*sprinkle*Salt,1*sprinkle*Pepper</t>
+  </si>
+  <si>
+    <t>1. Cook the rice noodles according to the package instructions. Drain and set aside.||2. Add the oil to a wok or large frying pan over medium-high heat. Heat for about 2 minutes and then add the onion and bell peppers slices. Sauté for 3 minutes, stirring frequently.||3. Stir in the garlic, hoisin sauce, and soy sauce and cook for 1 minute.||4. Season the tilapia pieces with salt and pepper and add to the pan. Cook for 2 to 3 minutes, stirring frequently so the fish doesn’t burn.||5. Add the rice noodles and toss gently so the noodles are thoroughly coated and mixed with the veggies. Serve immediately!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grilled Steak </t>
+  </si>
+  <si>
+    <t>A simple, juicy steak.</t>
+  </si>
+  <si>
+    <t>1*teaspoon*Salt,0.5*teaspoon*Pepper,1*teaspoon*Dried Thyme,1*teaspoon*Garlic Powder,2*null*Boneless Strip steaks (1.5 inches thick),1*tablespoon*Olive Oil</t>
+  </si>
+  <si>
+    <t>1. Combine the dried seasonings in a small bowl. Rub both sides of each steak with olive oil, then generously season all over with your seasoning mixture.||2. Light two of the grill burners and heat on high for 10 minutes, or until the temperature reaches 500 degrees F. Add the steaks to the lit burners, close the grill lid, and sear for 1 to 2 minutes. Then flip the steaks, close the grill lid again, and sear for 1 more minute.||3. Open the grill lid and move the steaks to the unlit portion of the grill. Continue cooking for 7 more minutes, grill lid closed, until the steaks reach medium-rare doneness.||4. Transfer the steaks to a large plate and let rest for at least 5 minutes. Sprinkle with salt and black pepper, if desired, and serve.</t>
+  </si>
+  <si>
+    <t>Fruit Manju</t>
+  </si>
+  <si>
+    <t>Springtime Mochi</t>
+  </si>
+  <si>
+    <t>Colorful Dango</t>
+  </si>
+  <si>
+    <t>Fragrant Rose Custard</t>
+  </si>
+  <si>
+    <t>Sticky Rice Pudding</t>
+  </si>
+  <si>
+    <t>Crispy Lotus Flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fresh fruit encased in a sweet gelatin makes for the perfect bite every time. </t>
+  </si>
+  <si>
+    <t>2*tablespoons*Potato Starch,1*tablespoon*Sugar,0.75*cup*Water,1*null*Banana (sliced)</t>
+  </si>
+  <si>
+    <t>1. In a saucepan over medium-low heat, combine the potato starch, sugar, and 3 quarters of cup water. Using a wire whisk, stir frequently until the liquid becomes a translucent jelly, about 5 minutes.||2. Spoon the warm jelly into a silicone or nonstick mini muffin tin until the cups are about 2 thirds full. Add the sliced banana, then spoon more warm jelly on top. Make sure that no parts of the banana are poking up through the jelly.||3. Refrigerate for 1 hour, then gently pop the manju onto a plate to serve.</t>
+  </si>
+  <si>
+    <t>The color of this Springtime Mochi will remind you of sweet cherry blossoms and make you feel as if you’ve just spent a fine spring morning perched under a sakura tree.</t>
+  </si>
+  <si>
+    <t>6*pickled*Sakura Leaves,1*tablespoon*Rice Flour (glutinous),0.5*cup*Water,6*tablespoons*Flour,1*tablespoons*Sugar,1*packet*Red Food Colouring,4*ounces*Red Bean Paste,1*splash*Oil,1*heap*Sakura Blossoms</t>
+  </si>
+  <si>
+    <t>1. Soak the sakura leaves in a bowl of water for 10 minutes. Pat dry with paper towels and set aside.||2. In a medium bowl, combine the rice flour and a quarter cup + 2 teaspoons water and whisk until well blended. Sift in the all-purpose flour, add sugar, and whisk again until well combined.||3. Add the red food coloring, just enough to make the mixture pink. Begin with 1 drop, mix well, and add another drop if the cooler seems too light.||4. Divide the bean paste into 6 even portions and roll them into half-inch thick logs.||5. Lightly grease a nonstick frying pan with oil and heat over medium-low heat.||6. Using a spoon, gently pour some of the mochi batter into the pan, spreading the mixture with the spoon to form an oval about 5 inches long and 2 inches wide. Cook for 10 to 15 seconds, until the top surface is dry. Immediately flip and cook for 5 to 10 seconds more. Repeat until you have 6 mochi ovals.||7. Roll each mochi oval around a log of red bean paste. Then roll each in a pickled sakura leaf and top each mochi roll with a sakura blossom if you have them. Arrange on a plate to serve.</t>
+  </si>
+  <si>
+    <t>The sweet taste and vibrant colors are the perfect combination, reminding you to savor the easy summer days before the next big adventure begins.</t>
+  </si>
+  <si>
+    <t>0.5*cup*Rice Flour,0.5*cup*Powdered Sugar,1*cup*Rice Flour (sweet and glutinous),1*cup*Soy Milk (cold),2*tablespoons*Milk,2*drops*Red Food Colouring,0.5*teaspoon*Matcha Powder,5*null*Bamboo Skewers</t>
+  </si>
+  <si>
+    <t>1. Soak the bamboo skewers in cold water for at least 30 minutes.||2. In a large bowl, combine the rice flour, powdered sugar, glutinous rice flour, and soy milk. On a flat surface, knead into a smooth dough. Add 1 to 2 tablespoons of milk or water if the dough feels too dry or falls apart.||3. Divide the dough into 3 equal portions. Add 2 drops red food coloring to 1 portion of dough, add the matcha powder to another portion, and leave the third portion white.||4. Knead each piece of dough, making sure the food coloring and matcha powder are evenly distributed. Then divide each portion into 5 equal pieces and roll them into round balls.||5. Bring a medium pot of water to a boil over high heat. Boil the dango balls over medium heat for about 15 minutes, or until they are floating. (You can do this in one batch—the white dango balls won’t be colored by the other balls.)||6. Fill a large bowl with ice water and use a slotted spoon to transfer the cooked dango balls to the bowl. Let them cool in the water until you’re ready to put them onto the skewers.||7. Insert 3 cooled dango balls onto each bamboo skewer in the order of green, white, and pink. Hand them out and enjoy!</t>
+  </si>
+  <si>
+    <t>Sticky Rice Pudding, with its creamy texture and sweet flavor, will give you that extra boost of stamina you may need as you work on becoming the best adventurer you can be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5*cups*Water,0.75*cup*White Rice (uncooked),2*cups*Whole Milk,0.3*cup*Sugar,0.25*teaspoon*Salt,1*null*Egg (beaten),1*tablespoon*Unsalted Butter,0.5*teaspoon*Pure Vanilla Extract,1*dash*Ground Cinnamon,1*null*Mango (sliced),1*bits*Fresh Mint </t>
+  </si>
+  <si>
+    <t>1. In a medium saucepan over medium heat, bring the water to a boil. Once boiling, stir in the rice and immediately reduce the heat to low. Cover and let simmer until the liquid is absorbed, about 20 minutes.||2. Add 1 and a half cups milk to the saucepan along with the sugar and salt. Turn the heat back up to medium and stir until well combined. Continue stirring occasionally and cook until the rice mixture becomesthick and creamy, about 15 minutes.||3. Add the remaining half a cup milk and the beaten egg and cook for 2 minutes, stirring constantly. Remove from the heat and stir in the butter and vanilla until well combined.||4. Divide the rice pudding into 4 bowls. Sprinkle with cinnamon and top with mango slices and fresh mint. Serve warm.</t>
+  </si>
+  <si>
+    <t>The subtle hints of rose elevate your typical creamy custard</t>
+  </si>
+  <si>
+    <t>3*cups*Whole Milk,6*tablespoons*Sugar,3*tablespoons*Vanilla Custard Powder,2*teaspoons*Rose Water,0.25*cup*Fresh Strawberries (pureed),1*scoop*Pistachios (chooped and peeled),1*bunch*Edible FLowers</t>
+  </si>
+  <si>
+    <t>1. In a heavy-bottom pan over medium-high heat, bring 2 cups of milk to a boil. Add the sugar, reduce the heat to medium-low, and stir until the sugar is dissolved.||2. Mix the custard powder into the remaining 1 cup milk, whisking until there are no lumps. Pour the mixture into the boiled milk and continue mixing over medium heat for 5 to 6 minutes, or until the mixture thickens.||3. Remove from the heat and, using a rubber spatula, gently fold in the strawberry puree and rose water until well combined. Pour into 2 medium bowls and refrigerate for at least 1 hour before serving.||4. Top with chopped pistachios and edible flowers to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genshin </t>
+  </si>
+  <si>
+    <t>A deep-fried dessert  that celebrates the beauty of the lotus flower.</t>
+  </si>
+  <si>
+    <t>1.5*cups*All Purpose Flour,4.33*tablespoons*Unsalted Butter,1*tablespoon*Sugar,15*teaspoons*Water,1*packet*Red Food Colouring,1*splash*Vegetable Oil,0.75*cup*Almond Flour,10*tablespoons*Powdered Sugar,0.5*teaspoon*Almong Extract</t>
+  </si>
+  <si>
+    <t>1. To make the white dough, in a medium bowl, mix 3 quarters of a cup of the flour with 2 and 2 thirds tablespoons of the butter. Knead until smooth and cover with plastic wrap. Set aside for 30 minutes.||2. To make the red dough, mix another 3 quarters of a cup flour with 1 and 2thirds  tablespoons butter. Work in 1 tablespoon sugar and the red water mixture. Mix well and knead until a smooth dough is formed. Cover with plastic wrap and set aside for 30 minutes.||3. Add all the marzipan ingredients to a medium bowl and mix until well combined.||4. Divide the white dough, the red dough, and the marzipan each into 9 equal-size balls.||5. Using a rolling pin, flatten the red balls into circles. Wrap a white dough ball with a red dough circle, covering it entirely. Repeat with each red dough circle and white dough ball.||6. Squash down each red/white dough ball and use a rolling pin to flatten it into an oval. Roll up into a ball once again and cover with plastic wrap for 15 minutes.||7. Repeat Step 6, flattening the rolled dough into ovals, rolling them back into balls, then letting them rest for 15 minutes, covered with plastic wrap.||8. After the dough has rested, remove the plastic wrap and use your thumb to press each piece of dough into a bowl shape, letting the edges tilt up and onward the middle. Place a marzipan ball in the middle of each dough bowl, then wrap the dough edges around it to seal in the marzipan and form a ball.||9. Place the sealed side of the ball face down, then cut a star shape in the top surface of the ball, cutting only deep enough so you can just see the marzipan filling.||10. Fill a deep saucepan or fryer halfway with vegetable oil and heat to 300 degrees F. Place a lotus ball in a mesh strainer and lower it into the oil to fry. Cook 1 or 2 lotus balls at a time. Use a ladle to pour hot oil onto the balls, letting it bloom and create some layers. Each ball needs to cook around 3 to 4 minutes in the hot oil.||11. Place the cooked lotus flower crisps on a paper towel-lined plate to drain the oil. Allow to cool fully and then enjoy!</t>
   </si>
 </sst>
 </file>
@@ -1905,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4427,6 +4697,512 @@
         <v>12</v>
       </c>
     </row>
+    <row r="110" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F110" s="12">
+        <v>30</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F111" s="12">
+        <v>30</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F112" s="12">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F113" s="12">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F114" s="12">
+        <v>20</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F115" s="12">
+        <v>105</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F116" s="12">
+        <v>50</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F117" s="12">
+        <v>25</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F118" s="12">
+        <v>45</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F119" s="12">
+        <v>70</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F120" s="12">
+        <v>15</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F121" s="12">
+        <v>30</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="F122" s="12">
+        <v>160</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F123" s="12">
+        <v>150</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F124" s="12">
+        <v>25</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F125" s="12">
+        <v>30</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="F126" s="12">
+        <v>70</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F127" s="12">
+        <v>20</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F128" s="12">
+        <v>50</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F129" s="12">
+        <v>75</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F130" s="12">
+        <v>50</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F131" s="12">
+        <v>30</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FADF47-F3C9-49E6-B80A-BE6174A05E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DEA801-EA36-41FF-9430-B1ADED03A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -908,9 +908,6 @@
     <t>1*null*Sea Bream Head,1*sheet*Kombu,2*null*turnips,6*null*Asparagus (pencil spears),0.5*null*Lemon,5*cups*Water,2*teaspoons*Salt,1*dash*Soy Sauce</t>
   </si>
   <si>
-    <t>1. Soak the kombu in water for at least 30 minutes. Slice the sea bream head into pieces if necessary and place it in a separate pot of boiling water deep enough to cover the fish head. When the surface becomes white, remove and place in another bowl of cold water, then scrub clean to remove blood and stains ©.||2. Cut turnips into wedges and slice greens finely. Peel the bottom third of asparagus and slice into 2inch (5 cm) pieces. Slice lemon into wheels.|| 3. Pour water from step 1 and sea bream into the same pot and bring to a boil. Skim the scum off the top and lower heat to medium, Add turnip wedges(D) and let simmer, skimming regularly.|| 4. After 10 minutes, add asparagus and simmer for 5 minutes. Add salt, and soy sauce to taste. Transfer to bowls, add lemon slices, and scatter turnip greens on top.</t>
-  </si>
-  <si>
     <t>Pirate Box Lunches for Crossing the Desert</t>
   </si>
   <si>
@@ -941,12 +938,6 @@
     <t>1. Boil eggs whole for 12 minutes until hard-boiled. Let cool. Peel off shells and cut them into thick slices. Tear crab meat by hand. Mince onion, then soak in water, remove, and press the liquid out. Put egg, crab, and onion into a bowl, then mix with mayonnaise (A), Spread butter on the bread slices, then divide the mix to make three sandwiches.</t>
   </si>
   <si>
-    <t>1. Trim fat and sinew from the chicken thighs and cut into bite-size pieces—grate garlic. Put the chicken into a bowl, add mix garlic, salt, pepper and sake then marinate for 20-30 minutes.||2. Sprinkle flour over the thighs. Heat vegetable oil in a pan on medium heat, then fry chicken in batches for 4-5 minutes undisturbed on each side.</t>
-  </si>
-  <si>
-    <t>1. Let the beef sit at room temperature for 30 minutes, and grate onion and garlic for sauce. Just before cooking, rub the other garlic half against meat( C), then rub on salt and pepper. Pour oil on a heated frying pan and cook the meat surface on medium heat (D). Cover and heat on low for 6-8 minutes, then turn over and heat for another 4-5 minutes.||2. Remove from pan, wrap in aluminum foil, and let sit for 15 minutes to heat through (E).||3. Add onions, garlic and saké to the meat juice in the frying pan. Once bubbling, mix in soy sauce and butter. Once mixed in, turn off the heat, add vinegar and mix again.||4. Slice meat thinly and transfer to plate, then drizzle sauce from pan, Add mustard or wasabi as desired.</t>
-  </si>
-  <si>
     <t>Luffy's Favorite Meat on the Bone</t>
   </si>
   <si>
@@ -956,9 +947,6 @@
     <t>4*null*Chicken Drumsticks,4*null*Eggs (hard-boiled),0.25*cup*Breadcrumbs,3*tablespoons*Milk,500*grams*Chicken,1*teaspoon*Salt,1*dash*Black Pepper,1*null*Egg,1*spalsh*Vegetable Oil</t>
   </si>
   <si>
-    <t>1. Make chicken drumstick “tulips.” Use kitchen scissors to cut the meat loose from the handle end of the drumstick (A). Roll the meat down the bone until it is fully inside-out at the end.||2. Soak the breadcrumbs in milk. Knead ground chicken, salt, pepper and egg in a bowl, then add breadcrumbs and knead again.||3.  Fold the meaty end of the drumstick around a hard-boiled egg (B). If the meat doesn't cover well enough, add cuts to loosen it up. Oil hands lightly and cover drumstick and egg with the breadcrumb mixture from the previous step.||4. Bake at 400 degrees Fahrenheit  (200 degrees Celsius) for 15-20 minutes, watching carefully</t>
-  </si>
-  <si>
     <t>Yagara Bull's Favourite Steamed Water-Water Meat</t>
   </si>
   <si>
@@ -1064,9 +1052,6 @@
     <t xml:space="preserve">3*fillets*Salmon,1*dash*Salt,1*dash*White Pepper,0.25*head*Cabbage,0.5*null*Onion,0.5*null*Carrot,1*splash*Vegetable Oil,1*tablespoon*Sake,1.5*tablespoon*Sugar,3*tablespoons*Miso,1.5*tablespoon*Butter,0.5*tablespoon*Soy Sauce </t>
   </si>
   <si>
-    <t>1. Lightly sprinkle salt and white pepper on the salmon. Roughly cut the cabbage, slice the onion into 4-inch (1 cm) pieces, and cut the carrot into short strips.||2.  Pour oil onto a heated frying pan and cook salmon, skin side down, on medium heat for 2-3 minutes, until browned.||3. Turn over the salmon, then add cabbage, onion, and carrot. Swirl in saké, Sprinkle sugar and miso here and there and add dabs of butter on top of the miso clumps (A). Carefully cover with aluminum foil and steam for 6-7 minutes (B).||4. Remove foil, tear salmon into chunks, and mix contents. Add soy sauce and turn off heat.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sliced Octopus </t>
   </si>
   <si>
@@ -1112,10 +1097,6 @@
     <t>6*null*Shiitake Mushrooms,1*pack*Shimeji Mushrooms,2*null*King Oyster Mushrooms,3*pieces*Bacon,1*tablespoon*Vegetable Oil,2*sprigs*Rosemary,1*teaspoon*Salt,1*sprinkle*Black Pepper,1*pat*Butter</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Remove the shiitake mushrooms from their base and cut them into half-inch (1 cm) slices. Remove the shimeji mushrooms from their base and separate them into small bunches. Trim king oyster mushrooms to a length of 1 and a half inches (3cm) and slice thinly. Cut bacon into quarter-inch (7 mm) slices.||2. Put vegetable oil and rosemary into a frying pan and heat on medium. When oil is fragrant, fry bacon briefly, then add all mushrooms and mix. Cover and steam on low heat for 4 minutes.||3. Remove the lid, add salt, and mix again. Cover again and continue steaming for 4-5 minutes, stirring occasionally, until the liquid is gone and the bacon is fried and no longer appears pink. If needed, add more salt and pepper for flavour, then add butter, mix, and turn off heat.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stir-fried Bean Sprouts </t>
   </si>
   <si>
@@ -1137,10 +1118,6 @@
     <t>3*null*Potatoes (peeled),60*grams*Shredded Cheese,1*splash*Vegetable Oil,1*sprinkle*Salt</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Place finely cut shoestring potatoes using a mandoline at a one-third-inch setting if available, and mix with cheese.||2. Pour a generous amount (around a quarter cup) of oil into a frying pan. Pack a quarter of the potatoes tightly and fry on low heat for 7-8 minutes. Turn over and fry another 7-8 minutes, until both sides are crispy. Be careful not to prod too much while frying, as it will come apart. Once cooked, dab dry with paper towels, then sprinkle with salt.||3. Repeat for the other three portions.
-</t>
-  </si>
-  <si>
     <t>Neptunian Penne Gorgonzola</t>
   </si>
   <si>
@@ -1213,10 +1190,6 @@
     <t>2*large*Eggs,1*tablespoon*Parmesan Chees (grated),1*gram*Salt,1*gram*White Pepper</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Preheat the oven to 450 degrees F (230 degrees C). Prep a baking sheet with parchment paper.||2. Separate the eggs, placing the whites in a large bowl. Set aside the yolks, keeping them intact.||3. Beat the egg whites until stiff peaks form.||4. Fold in the Parmesan cheese, salt, and white pepper.||5. Spoon the whipped whites into two separate mounds and place them onto the prepped baking sheet.||6. With the back of a spoon, create an indentation in the center of each mound.||7. Bake for 2 minutes. Gently pour the egg yolks into the indentations. Return to the oven and cook for another 3 minutes. Serve immediately.</t>
-  </si>
-  <si>
     <t>Sigh... Pancakes, I guess</t>
   </si>
   <si>
@@ -1238,9 +1211,6 @@
     <t>2*slices*Bacon,1*teaspoon*Light Brown Sugar (packed),2*large*Eggs,1*tablespoon*Unsalted Butter,0.25*teaspoon*Salt,1*gram*Pepper</t>
   </si>
   <si>
-    <t>1. In a nonstick skillet over medium heat, place the bacon and sprinkle the brown sugar on top. Cook until just crisp, about 6 to 8 minutes. Remove from the pan and set aside.||2. Break the eggs that can’t be beat into individual bowls.||3. In the same skillet over medium heat, melt the butter, then slide the eggs into the pan.||4. When the edges start to turn white, cover the pan and lower the heat. Cook 4 to 5 minutes, until the whites firm up. Season with salt and pepper.||5. Lay the bacon blankets over the eggs to serve.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLTExhausted </t>
   </si>
   <si>
@@ -1250,10 +1220,6 @@
     <t>2*tablespoons*Mayonnaise,1*teaspoon*Pesto,4*slices*Bacon (thick),2*slices* Sourdough Bread,2*slices*Tomato,1*gram*Pepper,3*leaves*Butter Lettuce</t>
   </si>
   <si>
-    <t xml:space="preserve">1. In a small bowl, stir together the mayonnaise and pesto. Set aside.||2. In a skillet over medium-high heat, cook the bacon for 5 to 6 minutes, until crispy. Drain on paper towels.||3. Lightly toast the bread.||4. Spread the mayonnaise mixture onto both sides of the toast. On one slice, layer the bacon, then the tomato.||5. Season with pepper.||6. Place the lettuce on top, then the remaining slice of toast.||7. Slice in half to serve.
-</t>
-  </si>
-  <si>
     <t>Slowly Grilled Cheese</t>
   </si>
   <si>
@@ -1275,9 +1241,6 @@
     <t>A Gudetama Deviled Eggs</t>
   </si>
   <si>
-    <t>1. Place the eggs in a pot and cover with 1 to 2 inches (2.5–5 cm) of water. Turn on the heat to medium-high and bring to a boil.||2. Turn off the heat, cover with a lid, and let sit for 10 to 12 minutes.||3. Place the eggs in an ice bath and let cool completely.||4. Peel and slice the eggs in half. Set aside the whites and place the yolks into a bowl.||5. Stir together the egg yolks, mayonnaise, mustard, onion powder, salt, and pepper.||6. Place the mixture into a piping bag and pipe the filling into the egg white centers.||7. Place an olive half on top of each egg to serve.</t>
-  </si>
-  <si>
     <t>Napping in an Avocado</t>
   </si>
   <si>
@@ -1338,12 +1301,6 @@
     <t>Who Cares about Salmon</t>
   </si>
   <si>
-    <t>1. In a bowl, stir together the graham cracker crumbs, butter, brown sugar, cinnamon, and salt.||2. Press into a 9-inch (23-cm) pie plate, and freeze for 1 hour.||3. Pour in the softened ice cream and spread evenly with a spatula. Place the pie back in the freezer for 4 to 6 hours.||4. In a large bowl, whip together the cream and confectioners’ sugar just until stiff peaks form. Spread onto the pie. Top with fresh strawberries to serve.</t>
-  </si>
-  <si>
-    <t>1. To make the glaze: In a dry skillet over medium-high heat, toast the sesame seeds for 2 to 3 minutes, until fragrant. Use a mortar and pestle or a spice grinder, until it becomes powderlike.||2. In a small bowl, stir together the confectioners’ sugar, the black sesame seed powder, milk, and vanilla. Set aside.||3. To make the doughnuts: Place the biscuits on a cutting board and use a 1-inch (2.5-cm) round cutter to cut holes from the middle of each biscuit.||4. In a Dutch oven, heat the oil to 350 degrees F (177 degrees C). Fry the doughnuts and holes for 1 to 2 minutes on each side, until golden brown. Transfer to a wire rack and let cool.||4. Dip the doughnuts in the glaze and place them back onto the wire rack to let the excess glaze drip off.||5. Once the glaze has set after about 20 minutes, the doughnuts are ready to serve.</t>
-  </si>
-  <si>
     <t>1. To make the cereal mix: Preheat the oven to 250 degrees F (130 degrees C).||2. In an extra-large bowl, toss together the rice and corn cereal, corn chips, pretzels, cheese crackers, and macadamia nuts. Set aside.||3. To make the sauce: In a saucepan over low heat, stir together the butter, Worcestershire sauce, brown sugar, seasoned salt, garlic powder, chili powder, and onion powder. Cook 4 to 6 minutes until melted, stirring constantly.||4. To assemble: Pour the sauce over the cereal mixture and toss to coat.||5. Spread the mixture onto a baking sheet, lined with a silicone baking mat or parchment paper.||6. Bake for 1 hour, making sure to stir every 15 minutes.||7. Remove from the oven and let cool completely.||8. Scoop into an airtight container.</t>
   </si>
   <si>
@@ -1455,9 +1412,6 @@
     <t>1. To make the simple syrup: Combine 1 cup (230 ml) water and the sugars in a small saucepan. Bring to a boil and simmer for 2 minutes, just until the sugar is dissolved. Let cool.||2. To make the boba: In a large saucepan, bring 5 cups (1,180 ml) water to a boil.||3. Add in the boba pearls. When they start to float, turn the heat to low and let them simmer for 25 minutes.||4. Turn off the heat and cover the saucepan. Let sit for 25 minutes.||5. Drain and rinse the boba.||6. In a small bowl, add the cooked boba to the simple syrup and let soak for 30 minutes.||7. Strain the boba and pour it into a tall class.||8. To make the milk tea: Pour the boba over the tea, and then add the milk to serve.</t>
   </si>
   <si>
-    <t>1. To make the cupcakes: Preheat the oven to 350 degrees F (177 degrees C). Prep a cupcake pan with paper liners.||2. In a medium bowl, whisk together the cake flour, baking powder, and salt.||3. In the bowl of an electric mixer, cream the butter and sugar until fluffy.||4. Add the eggs and vanilla, stirring until just combined. Stir in the flour mixture, alternating with buttermilk. Spoon the batter into the prepped cupcake pan.||5. Bake for 16 to 17 minutes, or until a toothpick inserted in the center comes out clean.||6. Let cool on a wire rack.||7. To make the frosting: In a large bowl with a handheld mixer on low, cream the butter while slowly adding the confectioners’ sugar. Stir in the heavy whipping cream, vanilla, and salt.Add food coloring and stir, until the frosting becomes a light pink color.||8. Turn the mixer up to medium-high and whip for 10 to 15 seconds, until light and fluffy.||9. To assemble: Pipe the frosting onto the cupcakes to serve.</t>
-  </si>
-  <si>
     <t>Grilled Chicken Skewers</t>
   </si>
   <si>
@@ -1470,9 +1424,6 @@
     <t>1*tablespoon*Dried Oregano,1*tablespoon*Dijon Mustard,0.5*teaspoon*Dried Thyme,1*null*Lemon Juice,3*cloves*Garlic (minced),2*tablespoons*Olive Oil,1*tablespoon*Smoked Paprika,0.25*cup*Soy Sauce,1*tablespoon*Maple Syrup,3*tablespoons*Orange Juice,0.25*cup*Chicken Stock,0.5*teaspoon*Pepper,2*null*Chicken Breasts (boneless and skinless),1*pound*Cremini Mushrooms (whole)</t>
   </si>
   <si>
-    <t>1.. In a large bowl, mix together all the ingredients except the chicken and mushrooms to create a marinade.||2. Cut the chicken breasts into bite-size pieces. Place the chicken and mushrooms in the bowl of marinade and stir until thoroughly coated. Cover and refrigerate for 4 to 10 hours, stirring occasionally.||3. If you’re using bamboo skewers, soak them in water for a few minutes right before the chicken and mushrooms are done marinating to keep them from burning when it comes time to cook. Then pat dry.||4. Thread the chicken and mushrooms on the skewers, discarding any remaining marinade. Grill on high heat until cooked, 5 to 7 minutes, or bake in the oven at 430 degrees F for 8 to 10 minutes. Enjoy!</t>
-  </si>
-  <si>
     <t>Fried Radish on a Stick</t>
   </si>
   <si>
@@ -1518,9 +1469,6 @@
     <t>8*null*Eggs,2.5*tablepoons*Water,1*tablespoon*Soy Sauce,0.75*teaspoon*Sugar,1*tablespoon*Olive Oil</t>
   </si>
   <si>
-    <t>1. In a medium bowl, combine the eggs, water, soy sauce, and sugar. Using a whisk, beat until well combined.||2. Heat a tamagoyaki pan (rectangular Japanese omelet pan) or a small frying pan over medium heat. Using a pastry brush, lightly coat the bottom of the pan with olive oil.||3. Pour a thin layer of the egg mixture to cover the surface of the pan. When it’s about 80 percent cooked but still wet on the surface, use chopsticks or wooden tongs to start gently rolling in the edges to form a rolled omelet. Move the rolled omelet to one side of the pan.||4. Brush the pan with oil again and pour in another thin layer of the egg mixture. Using a spoon, gently lift the previously made omelet and spread some of the uncooked egg mixture underneath. This willhelp both omelets stick together. When this next layer of eggs is 80 percent cooked but the surface is still wet, start with the previously made omelet and gently roll it up with the new layer. Set to one side of the pan. Repeat this process until the egg mixture is gone. Your omelet will have 3 to 4 layers.||5. Transfer the rolled omelet onto a cutting board and allow to rest for several minutes. Cut into even 2-inch slices and serve.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loaded Baked Potato </t>
   </si>
   <si>
@@ -1530,18 +1478,12 @@
     <t>3*large*Baking Potatoes,1*teaspoon*Olive Oil,4*tablespoons*Unsalted Butter (cut into cubes),0.5*cup*Green Onions (chopped),5*null*Cremini Mushrooms (chopped),0.5*cup*Half and Half,0.5*cup*Sour Cream,1*sprinkle*Salt,1*spinkle*Pepper,1*cup*Cheddar Cheesew (shredded)</t>
   </si>
   <si>
-    <t>1. Preheat the oven to 400 degrees F. Pierce the potatoes several times with a fork and rub with olive oil. Bake until tender, 50 to 75 minutes. While baking, you can check if the potatoes are done by sticking a skewer or a fork into them; if soft, they are ready.||2. Remove the potatoes from the oven. When cool enough to handle, slice the top off each potato horizontally (about 1 inch). Scoop out the potato pulp and transfer it to a large mixing bowl, leaving thin potato shells. Set the potato skins aside and reduce the oven temperature to 375 degrees F.||3. In a small skillet, melt the butter over medium-high heat, then add the onions and mushrooms and sauté until tender, about 5 minutes.||4. In the mixing bowl, using a potato masher, mash the potato pulp. Stir in the sauteed onions and mushrooms, half-and-half, sour cream, salt, and pepper. Stuff this mixture into the 3 potato shells and top with cheddar cheese.||5. Place the stuffed potatoes on a baking sheet and bake until heated through, about 20 minutes. Top with extra chopped green onions to serve.</t>
-  </si>
-  <si>
     <t>Crispy Baked HashBrowns</t>
   </si>
   <si>
     <t>Crispy Baked Hash Browns</t>
   </si>
   <si>
-    <t>1*package*Hashbrown Potatoes (frozen,shredded and thawed),2*null*Eggs,1*cup*Cheddar Cheese (shredded),1*pinch*Salt,1*pinch*Pepper,1*teaspoon*Ground Cumin,1*teaspoon*Dried Mint,0.5*teaspoon*Garlic Powder,0.5*teaspoon*Onion Powder,0.5*cup*Unsalted Butter (melted)</t>
-  </si>
-  <si>
     <t>1. Preheat the oven to 400 degrees F. Line a baking sheet with parchment paper and set aside.||2. Pour the shredded potatoes into a large bowl. In a small separate bowl, whisk the eggs. Add the eggs to the potatoes along with the shredded cheese and all the seasonings. Toss to coat everything evenly. Pour the melted butter over the top and toss once again to coat.||3. Spread the potato mixture evenly over the parchment-lined baking sheet. Bake for 40 minutes, or until the potatoes turn a light golden-brown color.||4. Remove from the oven. Using a round cookie cutter, cut the potatoes into individual hash brown circles to serve.</t>
   </si>
   <si>
@@ -1566,9 +1508,6 @@
     <t>1*teaspoon*Salt,1*pound*Ground Pork,1*null*Egg (beaten),13*null*Green Onions,1*tablespoon*Ginger (fresh and minced),2*cloves*Garlic (minced),2*tablespoons*Soy Sauce,1*tablespoon*Sesame Oil,0.25*teapoon*Black pepper,1*tablespoon*Paprika,10*large*Cabbage Leaves (root ends trimmed),2*cups*Pork Bone Broth,1*null*Red Chili Pepper (sliced)</t>
   </si>
   <si>
-    <t>1. Fill a large saucepan a third full with water, add a pinch of salt, and bring to a boil over high heat.||2. While the water is coming to a boil, in a large mixing bowl, combine the ground pork, beaten egg, 3 chopped green onions, ginger, garlic, soy sauce, 1 tablespoon toasted sesame oil, crushed red pepper flakes, half a teaspoon salt, pepper, and paprika. Mix to combine thoroughly, then set aside.||3. Place the cabbage leaves and 10 whole green onions in the boiling water for 3 minutes to soften them. Meanwhile, line a baking sheet with paper towels. Transfer the softened leaves and onions to the baking sheet and let cool.||4. Use the paper towels to pat off any excess water. Then spread out a cabbage leaf and place about 1 ½ tablespoons of the pork mixture in the middle of the leaf. Gather the leaf edges together and gently tie with a softened green onion. Repeat until all the cabbage leaves are filled with pork and tied shut.||5. In a pot that can hold a steamer basket, combine the 2 cups broth, the remaining 1 teaspoon sesame oil, and the chili slices. Set the steamer basket on top of the pot. (The pot should be filled to just below your basket so that the broth doesn’t touch the dumplings.)||6. Place the dumplings in the steamer basket and bring the broth to a boil. Then cover with the pot lid and let steam until the pork is cooked through, about 15 minutes. To test, cut a dumpling open and make sure the pork has browned so no pink coloring remains.||7. Using tongs, carefully transfer the dumplings to a serving plate. Pour the chili broth you used for the steaming over the dumplings until they’re sitting in a thin layer of the broth, then serve.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cherry Blossom Tempura </t>
   </si>
   <si>
@@ -1578,9 +1517,6 @@
     <t>1*purple*Eggplant (sliced in rounds),10*null*Okra Pods,10*null*Raw Shrimp (peeled and tails on),4*null*Cauliflower Florets,2*null*Button Mushrooms (sliced),1*cup*Cherry Blossom Petals,4*cups*Vegetable Oil,1*cup*Flour,1*cup*Ice Water,1*null*Egg,1*teaspoon*Salt,1*splash*Soy Sauce,1*dash*Wasabi</t>
   </si>
   <si>
-    <t>1. Pat all the vegetables and shrimp dry with a paper towel and set aside.||2. Add the oil to a deep fryer or a medium pot on the stovetop and heat to 320 degrees F. (Use a thermometer to check the temperature, or dip the tip of a wooden or bamboo chopstick in the oil. If small bubbles appear around the chopstick, the oil is ready.)||3. While the oil is heating, prepare the tempura batter. Place the all-purpose flour in a large bowl. In a smaller bowl, whisk together the ice water and egg until fully combined. Scoop up and discard any surface foam.||4. Slowly pour the egg mixture into the flour while mixing with chopsticks or a wire whisk. Once all the egg mixture is in, continue whisking gently for about 15 seconds. Be careful not to overmix; it’s okay to leave some lumps in your batter. It’s important to keep the tempura batter cold, so set your bowl of batter inside a larger bowl filled with about 1 inch of ice water.||5. When the oil reaches the right temperature, start by dipping an eggplant slice in the cold batter, letting any excess batter drip off for a few seconds before very gently placing the eggplant in the hot oil. Repeat this with each individual ingredient you’re going to deep fry, but make sure you don’t overcrowd the deep fryer or cooking pot. The ingredients should take up only half of the surface area at any time. (Having too many ingredients in the pot at once will cause the oil temperature to drop.)||6. Deep-fry the vegetables and shrimp for 1 to 2 minutes each and the sakura petals or nettle leaves for 15 to 20 seconds, or until golden. Continue frying in batches until all the ingredients have been cooked, transferring each batch to a baking sheet or plate lined with paper towels to absorb excess oil. Between batches, skim any leftover tempura crumbs from the top of the oil so they don’t burn and change the flavor of the oil.||7. Serve the tempura immediately with wasabi and/or soy sauce for dipping.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cold Soba Noodles </t>
   </si>
   <si>
@@ -1602,9 +1538,6 @@
     <t>12*ounce*Boneless Pork Loin (fat trimmed),0.3*cup*Shio Koji Seasoning,2.5*teaspoons*Salt,1*cup*Water,0.5*head*Green Cabbage (core removed and thinly sliced),2*null*Lemons,2*null*Eggs,1*cup*Flour,2*cups*Panko Bread Crumbs,6*cups*Vegetable Oil,2*tablespoons*Japanese Kewpie Mayonnaise,1*splash*Tonkatsu Sauce,8*sliced*Japanaese Milk Bread</t>
   </si>
   <si>
-    <t>1. To prepare the pork cutlets, slice the pork loin into 4 equal pieces. Place each slice in a sealed plastic bag with all the air removed or between 2 sheets of plastic wrap. Using a meat tenderizer, gently pound each slice until it is about 6 inches wide and half aninch thick.||2. In a medium bowl, combine the shio koji, 2 teaspoons salt, and 1 cup water; stir well until the salt is fully dissolved. Add the pork pieces, then cover and chill in the refrigerator for 8 hours or overnight.||3. Just before the pork is done chilling, place the cabbage in a medium bowl. Zest both lemons over the cabbage and then add the juice from the lemons. Season with a half teaspoon salt and toss with your hands until the cabbage is fully coated and slightly wilted. Cover and chill until ready to use.||4. After the pork has chilled, remove it from the refrigerator, drain, and set aside. Line a rimmed baking sheet with paper towels, set a wire rack on top, and place near the stovetop.||5. In a shallow dish, whisk together the eggs and 2 tablespoons water. Place the flour and the bread crumbs in 2 more shallow dishes. Working with a single pork cutlet at a time, first coat it in the flour, shaking off any excess. Then dip it in the eggs and finally in the bread crumbs, pressing firmly into the crumbs on both sides to make sure they stick. Transfer to another rimmed baking sheet or a platter.||6. Pour oil into a medium-deep pot so that it comes about 2 inches up the side. Heat over medium-high heat until an instant-read thermometer reads between 350 degrees F and 365 degrees F. Using chopsticks or tongs, lower a cutlet vertically into the pan, letting it slide away into the oil until it lies flat. Use the chopsticks or tongs to keep the pork fully submerged in the oil until the underside is golden brown, about 1 minute. Gently flip and cook the other side until it is also golden brown, about 1 more minute. Then transfer the cutlet to the prepared wire rack over the paper towel–lined baking sheet. Repeat with the remaining pork cutlets.||7. Drizzle tonkatsu sauce over the cutlets and let rest for a few minutes. Then spread Kewpie mayonnaise on half of the bread slices and add a few cabbage leaves. Top with a pork cutlet and a second slice of bread, then cut each sandwich in half.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Warming Goulash </t>
   </si>
   <si>
@@ -1620,9 +1553,6 @@
     <t>Honey Glazed Roast</t>
   </si>
   <si>
-    <t>Succulent pork roast covered with a sweet-and-savory glaze and accompanied by perfectly seasoned veggies—a superb meal.</t>
-  </si>
-  <si>
     <t>1*cup*Soy Sauce,0.25*cup*Light Brown Sugar (packed),2.5*tablespoons*Garlic (minced),1*teaspoon*Onion Powder,1*teaspoon*Paprika,0.5*teaspoon*Dried Oregano,2*null*Scallions (chopped),2*pounds*Boneless Pork Shoulder (skin on),5*medium*Yukon Gold Potatoes (chopped into half inch chunks),2*null*Carrots (peeled and sliced),10*cloves*Garlic,2*tablespoon*Olive Oil,1*sprinkle*Salt,1*sprinkle*Pepper,1*cup*Dark Brown Sugar (packed),0.5*cup*Honey</t>
   </si>
   <si>
@@ -1635,12 +1565,6 @@
     <t>The springy rice noodles add a balance of texture when paired with pieces of soft, flaky tilapia</t>
   </si>
   <si>
-    <t>1*package*Rice Tagliatelle Noodles,3*tablespoons*Olive Oil,0.5*null*Onion (sliced),1*null*Green Bell Pepper (sliced),1*null*Red Bell Pepper (sliced),3*cloves*Garlic (minced),1*teaspoon*Hoisin sauce,2*tablespoons*Soy sauce,1*Tilapia Filet (cut into 1inch pieces),1*sprinkle*Salt,1*sprinkle*Pepper</t>
-  </si>
-  <si>
-    <t>1. Cook the rice noodles according to the package instructions. Drain and set aside.||2. Add the oil to a wok or large frying pan over medium-high heat. Heat for about 2 minutes and then add the onion and bell peppers slices. Sauté for 3 minutes, stirring frequently.||3. Stir in the garlic, hoisin sauce, and soy sauce and cook for 1 minute.||4. Season the tilapia pieces with salt and pepper and add to the pan. Cook for 2 to 3 minutes, stirring frequently so the fish doesn’t burn.||5. Add the rice noodles and toss gently so the noodles are thoroughly coated and mixed with the veggies. Serve immediately!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grilled Steak </t>
   </si>
   <si>
@@ -1680,9 +1604,6 @@
     <t>1. In a saucepan over medium-low heat, combine the potato starch, sugar, and 3 quarters of cup water. Using a wire whisk, stir frequently until the liquid becomes a translucent jelly, about 5 minutes.||2. Spoon the warm jelly into a silicone or nonstick mini muffin tin until the cups are about 2 thirds full. Add the sliced banana, then spoon more warm jelly on top. Make sure that no parts of the banana are poking up through the jelly.||3. Refrigerate for 1 hour, then gently pop the manju onto a plate to serve.</t>
   </si>
   <si>
-    <t>The color of this Springtime Mochi will remind you of sweet cherry blossoms and make you feel as if you’ve just spent a fine spring morning perched under a sakura tree.</t>
-  </si>
-  <si>
     <t>6*pickled*Sakura Leaves,1*tablespoon*Rice Flour (glutinous),0.5*cup*Water,6*tablespoons*Flour,1*tablespoons*Sugar,1*packet*Red Food Colouring,4*ounces*Red Bean Paste,1*splash*Oil,1*heap*Sakura Blossoms</t>
   </si>
   <si>
@@ -1695,9 +1616,6 @@
     <t>0.5*cup*Rice Flour,0.5*cup*Powdered Sugar,1*cup*Rice Flour (sweet and glutinous),1*cup*Soy Milk (cold),2*tablespoons*Milk,2*drops*Red Food Colouring,0.5*teaspoon*Matcha Powder,5*null*Bamboo Skewers</t>
   </si>
   <si>
-    <t>1. Soak the bamboo skewers in cold water for at least 30 minutes.||2. In a large bowl, combine the rice flour, powdered sugar, glutinous rice flour, and soy milk. On a flat surface, knead into a smooth dough. Add 1 to 2 tablespoons of milk or water if the dough feels too dry or falls apart.||3. Divide the dough into 3 equal portions. Add 2 drops red food coloring to 1 portion of dough, add the matcha powder to another portion, and leave the third portion white.||4. Knead each piece of dough, making sure the food coloring and matcha powder are evenly distributed. Then divide each portion into 5 equal pieces and roll them into round balls.||5. Bring a medium pot of water to a boil over high heat. Boil the dango balls over medium heat for about 15 minutes, or until they are floating. (You can do this in one batch—the white dango balls won’t be colored by the other balls.)||6. Fill a large bowl with ice water and use a slotted spoon to transfer the cooked dango balls to the bowl. Let them cool in the water until you’re ready to put them onto the skewers.||7. Insert 3 cooled dango balls onto each bamboo skewer in the order of green, white, and pink. Hand them out and enjoy!</t>
-  </si>
-  <si>
     <t>Sticky Rice Pudding, with its creamy texture and sweet flavor, will give you that extra boost of stamina you may need as you work on becoming the best adventurer you can be.</t>
   </si>
   <si>
@@ -1726,6 +1644,84 @@
   </si>
   <si>
     <t>1. To make the white dough, in a medium bowl, mix 3 quarters of a cup of the flour with 2 and 2 thirds tablespoons of the butter. Knead until smooth and cover with plastic wrap. Set aside for 30 minutes.||2. To make the red dough, mix another 3 quarters of a cup flour with 1 and 2thirds  tablespoons butter. Work in 1 tablespoon sugar and the red water mixture. Mix well and knead until a smooth dough is formed. Cover with plastic wrap and set aside for 30 minutes.||3. Add all the marzipan ingredients to a medium bowl and mix until well combined.||4. Divide the white dough, the red dough, and the marzipan each into 9 equal-size balls.||5. Using a rolling pin, flatten the red balls into circles. Wrap a white dough ball with a red dough circle, covering it entirely. Repeat with each red dough circle and white dough ball.||6. Squash down each red/white dough ball and use a rolling pin to flatten it into an oval. Roll up into a ball once again and cover with plastic wrap for 15 minutes.||7. Repeat Step 6, flattening the rolled dough into ovals, rolling them back into balls, then letting them rest for 15 minutes, covered with plastic wrap.||8. After the dough has rested, remove the plastic wrap and use your thumb to press each piece of dough into a bowl shape, letting the edges tilt up and onward the middle. Place a marzipan ball in the middle of each dough bowl, then wrap the dough edges around it to seal in the marzipan and form a ball.||9. Place the sealed side of the ball face down, then cut a star shape in the top surface of the ball, cutting only deep enough so you can just see the marzipan filling.||10. Fill a deep saucepan or fryer halfway with vegetable oil and heat to 300 degrees F. Place a lotus ball in a mesh strainer and lower it into the oil to fry. Cook 1 or 2 lotus balls at a time. Use a ladle to pour hot oil onto the balls, letting it bloom and create some layers. Each ball needs to cook around 3 to 4 minutes in the hot oil.||11. Place the cooked lotus flower crisps on a paper towel-lined plate to drain the oil. Allow to cool fully and then enjoy!</t>
+  </si>
+  <si>
+    <t>1. Soak the kombu in water for at least 30 minutes. Slice the sea bream head into pieces if necessary and place it in a separate pot of boiling water deep enough to cover the fish head. When the surface becomes white, remove and place in another bowl of cold water, then scrub clean to remove blood and stains .||2. Cut turnips into wedges and slice greens finely. Peel the bottom third of asparagus and slice into 2inch (5 cm) pieces. Slice lemon into wheels.|| 3. Pour water from step 1 and sea bream into the same pot and bring to a boil. Skim the scum off the top and lower heat to medium, Add turnip wedges(D) and let simmer, skimming regularly.|| 4. After 10 minutes, add asparagus and simmer for 5 minutes. Add salt, and soy sauce to taste. Transfer to bowls, add lemon slices, and scatter turnip greens on top.</t>
+  </si>
+  <si>
+    <t>1. Trim fat and sinew from the chicken thighs and cut into bite-size pieces-grate garlic. Put the chicken into a bowl, add mix garlic, salt, pepper and sake then marinate for 20-30 minutes.||2. Sprinkle flour over the thighs. Heat vegetable oil in a pan on medium heat, then fry chicken in batches for 4-5 minutes undisturbed on each side.</t>
+  </si>
+  <si>
+    <t>Succulent pork roast covered with a sweet-and-savory glaze and accompanied by perfectly seasoned veggies-a superb meal.</t>
+  </si>
+  <si>
+    <t>1. Let the beef sit at room temperature for 30 minutes, and grate onion and garlic for sauce. Just before cooking, rub the other garlic half against meat( C), then rub on salt and pepper. Pour oil on a heated frying pan and cook the meat surface on medium heat (D). Cover and heat on low for 6-8 minutes, then turn over and heat for another 4-5 minutes.||2. Remove from pan, wrap in aluminum foil, and let sit for 15 minutes to heat through (E).||3. Add onions, garlic and sake to the meat juice in the frying pan. Once bubbling, mix in soy sauce and butter. Once mixed in, turn off the heat, add vinegar and mix again.||4. Slice meat thinly and transfer to plate, then drizzle sauce from pan, Add mustard or wasabi as desired.</t>
+  </si>
+  <si>
+    <t>1. Lightly sprinkle salt and white pepper on the salmon. Roughly cut the cabbage, slice the onion into 4-inch (1 cm) pieces, and cut the carrot into short strips.||2.  Pour oil onto a heated frying pan and cook salmon, skin side down, on medium heat for 2-3 minutes, until browned.||3. Turn over the salmon, then add cabbage, onion, and carrot. Swirl in sake, Sprinkle sugar and miso here and there and add dabs of butter on top of the miso clumps (A). Carefully cover with aluminum foil and steam for 6-7 minutes (B).||4. Remove foil, tear salmon into chunks, and mix contents. Add soy sauce and turn off heat.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees F. Pierce the potatoes several times with a fork and rub with olive oil. Bake until tender, 50 to 75 minutes. While baking, you can check if the potatoes are done by sticking a skewer or a fork into them; if soft, they are ready.||2. Remove the potatoes from the oven. When cool enough to handle, slice the top off each potato horizontally (about 1 inch). Scoop out the potato pulp and transfer it to a large mixing bowl, leaving thin potato shells. Set the potato skins aside and reduce the oven temperature to 375 degrees F.||3. In a small skillet, melt the butter over medium-high heat, then add the onions and mushrooms and saute until tender, about 5 minutes.||4. In the mixing bowl, using a potato masher, mash the potato pulp. Stir in the sauteed onions and mushrooms, half-and-half, sour cream, salt, and pepper. Stuff this mixture into the 3 potato shells and top with cheddar cheese.||5. Place the stuffed potatoes on a baking sheet and bake until heated through, about 20 minutes. Top with extra chopped green onions to serve.</t>
+  </si>
+  <si>
+    <t>1. In a nonstick skillet over medium heat, place the bacon and sprinkle the brown sugar on top. Cook until just crisp, about 6 to 8 minutes. Remove from the pan and set aside.||2. Break the eggs that can't be beat into individual bowls.||3. In the same skillet over medium heat, melt the butter, then slide the eggs into the pan.||4. When the edges start to turn white, cover the pan and lower the heat. Cook 4 to 5 minutes, until the whites firm up. Season with salt and pepper.||5. Lay the bacon blankets over the eggs to serve.</t>
+  </si>
+  <si>
+    <t>1. In a bowl, stir together the graham cracker crumbs, butter, brown sugar, cinnamon, and salt.||2. Press into a 9-inch (23-cm) pie plate, and freeze for 1 hour.||3. Pour in the softened ice cream and spread evenly with a spatula. Place the pie back in the freezer for 4 to 6 hours.||4. In a large bowl, whip together the cream and confectioners' sugar just until stiff peaks form. Spread onto the pie. Top with fresh strawberries to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the glaze: In a dry skillet over medium-high heat, toast the sesame seeds for 2 to 3 minutes, until fragrant. Use a mortar and pestle or a spice grinder, until it becomes powderlike.||2. In a small bowl, stir together the confectioners' sugar, the black sesame seed powder, milk, and vanilla. Set aside.||3. To make the doughnuts: Place the biscuits on a cutting board and use a 1-inch (2.5-cm) round cutter to cut holes from the middle of each biscuit.||4. In a Dutch oven, heat the oil to 350 degrees F (177 degrees C). Fry the doughnuts and holes for 1 to 2 minutes on each side, until golden brown. Transfer to a wire rack and let cool.||4. Dip the doughnuts in the glaze and place them back onto the wire rack to let the excess glaze drip off.||5. Once the glaze has set after about 20 minutes, the doughnuts are ready to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the cupcakes: Preheat the oven to 350 degrees F (177 degrees C). Prep a cupcake pan with paper liners.||2. In a medium bowl, whisk together the cake flour, baking powder, and salt.||3. In the bowl of an electric mixer, cream the butter and sugar until fluffy.||4. Add the eggs and vanilla, stirring until just combined. Stir in the flour mixture, alternating with buttermilk. Spoon the batter into the prepped cupcake pan.||5. Bake for 16 to 17 minutes, or until a toothpick inserted in the center comes out clean.||6. Let cool on a wire rack.||7. To make the frosting: In a large bowl with a handheld mixer on low, cream the butter while slowly adding the confectioners' sugar. Stir in the heavy whipping cream, vanilla, and salt.Add food coloring and stir, until the frosting becomes a light pink color.||8. Turn the mixer up to medium-high and whip for 10 to 15 seconds, until light and fluffy.||9. To assemble: Pipe the frosting onto the cupcakes to serve.</t>
+  </si>
+  <si>
+    <t>1.. In a large bowl, mix together all the ingredients except the chicken and mushrooms to create a marinade.||2. Cut the chicken breasts into bite-size pieces. Place the chicken and mushrooms in the bowl of marinade and stir until thoroughly coated. Cover and refrigerate for 4 to 10 hours, stirring occasionally.||3. If you're using bamboo skewers, soak them in water for a few minutes right before the chicken and mushrooms are done marinating to keep them from burning when it comes time to cook. Then pat dry.||4. Thread the chicken and mushrooms on the skewers, discarding any remaining marinade. Grill on high heat until cooked, 5 to 7 minutes, or bake in the oven at 430 degrees F for 8 to 10 minutes. Enjoy!</t>
+  </si>
+  <si>
+    <t>1. In a medium bowl, combine the eggs, water, soy sauce, and sugar. Using a whisk, beat until well combined.||2. Heat a tamagoyaki pan (rectangular Japanese omelet pan) or a small frying pan over medium heat. Using a pastry brush, lightly coat the bottom of the pan with olive oil.||3. Pour a thin layer of the egg mixture to cover the surface of the pan. When it's about 80 percent cooked but still wet on the surface, use chopsticks or wooden tongs to start gently rolling in the edges to form a rolled omelet. Move the rolled omelet to one side of the pan.||4. Brush the pan with oil again and pour in another thin layer of the egg mixture. Using a spoon, gently lift the previously made omelet and spread some of the uncooked egg mixture underneath. This willhelp both omelets stick together. When this next layer of eggs is 80 percent cooked but the surface is still wet, start with the previously made omelet and gently roll it up with the new layer. Set to one side of the pan. Repeat this process until the egg mixture is gone. Your omelet will have 3 to 4 layers.||5. Transfer the rolled omelet onto a cutting board and allow to rest for several minutes. Cut into even 2-inch slices and serve.</t>
+  </si>
+  <si>
+    <t>1. Pat all the vegetables and shrimp dry with a paper towel and set aside.||2. Add the oil to a deep fryer or a medium pot on the stovetop and heat to 320 degrees F. (Use a thermometer to check the temperature, or dip the tip of a wooden or bamboo chopstick in the oil. If small bubbles appear around the chopstick, the oil is ready.)||3. While the oil is heating, prepare the tempura batter. Place the all-purpose flour in a large bowl. In a smaller bowl, whisk together the ice water and egg until fully combined. Scoop up and discard any surface foam.||4. Slowly pour the egg mixture into the flour while mixing with chopsticks or a wire whisk. Once all the egg mixture is in, continue whisking gently for about 15 seconds. Be careful not to overmix; it's okay to leave some lumps in your batter. It's important to keep the tempura batter cold, so set your bowl of batter inside a larger bowl filled with about 1 inch of ice water.||5. When the oil reaches the right temperature, start by dipping an eggplant slice in the cold batter, letting any excess batter drip off for a few seconds before very gently placing the eggplant in the hot oil. Repeat this with each individual ingredient you're going to deep fry, but make sure you don't overcrowd the deep fryer or cooking pot. The ingredients should take up only half of the surface area at any time. (Having too many ingredients in the pot at once will cause the oil temperature to drop.)||6. Deep-fry the vegetables and shrimp for 1 to 2 minutes each and the sakura petals or nettle leaves for 15 to 20 seconds, or until golden. Continue frying in batches until all the ingredients have been cooked, transferring each batch to a baking sheet or plate lined with paper towels to absorb excess oil. Between batches, skim any leftover tempura crumbs from the top of the oil so they don't burn and change the flavor of the oil.||7. Serve the tempura immediately with wasabi and/or soy sauce for dipping.</t>
+  </si>
+  <si>
+    <t>1. Cook the rice noodles according to the package instructions. Drain and set aside.||2. Add the oil to a wok or large frying pan over medium-high heat. Heat for about 2 minutes and then add the onion and bell peppers slices. Saute for 3 minutes, stirring frequently.||3. Stir in the garlic, hoisin sauce, and soy sauce and cook for 1 minute.||4. Season the tilapia pieces with salt and pepper and add to the pan. Cook for 2 to 3 minutes, stirring frequently so the fish doesn't burn.||5. Add the rice noodles and toss gently so the noodles are thoroughly coated and mixed with the veggies. Serve immediately!</t>
+  </si>
+  <si>
+    <t>The color of this Springtime Mochi will remind you of sweet cherry blossoms and make you feel as if you've just spent a fine spring morning perched under a sakura tree.</t>
+  </si>
+  <si>
+    <t>1. Soak the bamboo skewers in cold water for at least 30 minutes.||2. In a large bowl, combine the rice flour, powdered sugar, glutinous rice flour, and soy milk. On a flat surface, knead into a smooth dough. Add 1 to 2 tablespoons of milk or water if the dough feels too dry or falls apart.||3. Divide the dough into 3 equal portions. Add 2 drops red food coloring to 1 portion of dough, add the matcha powder to another portion, and leave the third portion white.||4. Knead each piece of dough, making sure the food coloring and matcha powder are evenly distributed. Then divide each portion into 5 equal pieces and roll them into round balls.||5. Bring a medium pot of water to a boil over high heat. Boil the dango balls over medium heat for about 15 minutes, or until they are floating. (You can do this in one batch-the white dango balls won't be colored by the other balls.)||6. Fill a large bowl with ice water and use a slotted spoon to transfer the cooked dango balls to the bowl. Let them cool in the water until you're ready to put them onto the skewers.||7. Insert 3 cooled dango balls onto each bamboo skewer in the order of green, white, and pink. Hand them out and enjoy!</t>
+  </si>
+  <si>
+    <t>1. Place the eggs in a pot and cover with 1 to 2 inches (2.5-5 cm) of water. Turn on the heat to medium-high and bring to a boil.||2. Turn off the heat, cover with a lid, and let sit for 10 to 12 minutes.||3. Place the eggs in an ice bath and let cool completely.||4. Peel and slice the eggs in half. Set aside the whites and place the yolks into a bowl.||5. Stir together the egg yolks, mayonnaise, mustard, onion powder, salt, and pepper.||6. Place the mixture into a piping bag and pipe the filling into the egg white centers.||7. Place an olive half on top of each egg to serve.</t>
+  </si>
+  <si>
+    <t>1. To prepare the pork cutlets, slice the pork loin into 4 equal pieces. Place each slice in a sealed plastic bag with all the air removed or between 2 sheets of plastic wrap. Using a meat tenderizer, gently pound each slice until it is about 6 inches wide and half aninch thick.||2. In a medium bowl, combine the shio koji, 2 teaspoons salt, and 1 cup water; stir well until the salt is fully dissolved. Add the pork pieces, then cover and chill in the refrigerator for 8 hours or overnight.||3. Just before the pork is done chilling, place the cabbage in a medium bowl. Zest both lemons over the cabbage and then add the juice from the lemons. Season with a half teaspoon salt and toss with your hands until the cabbage is fully coated and slightly wilted. Cover and chill until ready to use.||4. After the pork has chilled, remove it from the refrigerator, drain, and set aside. Line a rimmed baking sheet with paper towels, set a wire rack on top, and place near the stovetop.||5. In a shallow dish, whisk together the eggs and 2 tablespoons water. Place the flour and the bread crumbs in 2 more shallow dishes. Working with a single pork cutlet at a time, first coat it in the flour, shaking off any excess. Then dip it in the eggs and finally in the bread crumbs, pressing firmly into the crumbs on both sides to make sure they stick. Transfer to another rimmed baking sheet or a platter.||6. Pour oil into a medium-deep pot so that it comes about 2 inches up the side. Heat over medium-high heat until an instant-read thermometer reads between 350 degrees F and 365 degrees F. Using chopsticks or tongs, lower a cutlet vertically into the pan, letting it slide away into the oil until it lies flat. Use the chopsticks or tongs to keep the pork fully submerged in the oil until the underside is golden brown, about 1 minute. Gently flip and cook the other side until it is also golden brown, about 1 more minute. Then transfer the cutlet to the prepared wire rack over the paper towel-lined baking sheet. Repeat with the remaining pork cutlets.||7. Drizzle tonkatsu sauce over the cutlets and let rest for a few minutes. Then spread Kewpie mayonnaise on half of the bread slices and add a few cabbage leaves. Top with a pork cutlet and a second slice of bread, then cut each sandwich in half.</t>
+  </si>
+  <si>
+    <t>1. Fill a large saucepan a third full with water, add a pinch of salt, and bring to a boil over high heat.||2. While the water is coming to a boil, in a large mixing bowl, combine the ground pork, beaten egg, 3 chopped green onions, ginger, garlic, soy sauce, 1 tablespoon toasted sesame oil, crushed red pepper flakes, half a teaspoon salt, pepper, and paprika. Mix to combine thoroughly, then set aside.||3. Place the cabbage leaves and 10 whole green onions in the boiling water for 3 minutes to soften them. Meanwhile, line a baking sheet with paper towels. Transfer the softened leaves and onions to the baking sheet and let cool.||4. Use the paper towels to pat off any excess water. Then spread out a cabbage leaf and place about 1 1/2 tablespoons of the pork mixture in the middle of the leaf. Gather the leaf edges together and gently tie with a softened green onion. Repeat until all the cabbage leaves are filled with pork and tied shut.||5. In a pot that can hold a steamer basket, combine the 2 cups broth, the remaining 1 teaspoon sesame oil, and the chili slices. Set the steamer basket on top of the pot. (The pot should be filled to just below your basket so that the broth doesn't touch the dumplings.)||6. Place the dumplings in the steamer basket and bring the broth to a boil. Then cover with the pot lid and let steam until the pork is cooked through, about 15 minutes. To test, cut a dumpling open and make sure the pork has browned so no pink coloring remains.||7. Using tongs, carefully transfer the dumplings to a serving plate. Pour the chili broth you used for the steaming over the dumplings until they're sitting in a thin layer of the broth, then serve.</t>
+  </si>
+  <si>
+    <t>1. Remove the shiitake mushrooms from their base and cut them into half-inch (1 cm) slices. Remove the shimeji mushrooms from their base and separate them into small bunches. Trim king oyster mushrooms to a length of 1 and a half inches (3cm) and slice thinly. Cut bacon into quarter-inch (7 mm) slices.||2. Put vegetable oil and rosemary into a frying pan and heat on medium. When oil is fragrant, fry bacon briefly, then add all mushrooms and mix. Cover and steam on low heat for 4 minutes.||3. Remove the lid, add salt, and mix again. Cover again and continue steaming for 4-5 minutes, stirring occasionally, until the liquid is gone and the bacon is fried and no longer appears pink. If needed, add more salt and pepper for flavour, then add butter, mix, and turn off heat.</t>
+  </si>
+  <si>
+    <t>1. Place finely cut shoestring potatoes using a mandoline at a one-third-inch setting if available, and mix with cheese.||2. Pour a generous amount (around a quarter cup) of oil into a frying pan. Pack a quarter of the potatoes tightly and fry on low heat for 7-8 minutes. Turn over and fry another 7-8 minutes, until both sides are crispy. Be careful not to prod too much while frying, as it will come apart. Once cooked, dab dry with paper towels, then sprinkle with salt.||3. Repeat for the other three portions.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 450 degrees F (230 degrees C). Prep a baking sheet with parchment paper.||2. Separate the eggs, placing the whites in a large bowl. Set aside the yolks, keeping them intact.||3. Beat the egg whites until stiff peaks form.||4. Fold in the Parmesan cheese, salt, and white pepper.||5. Spoon the whipped whites into two separate mounds and place them onto the prepped baking sheet.||6. With the back of a spoon, create an indentation in the center of each mound.||7. Bake for 2 minutes. Gently pour the egg yolks into the indentations. Return to the oven and cook for another 3 minutes. Serve immediately.</t>
+  </si>
+  <si>
+    <t>1. In a small bowl, stir together the mayonnaise and pesto. Set aside.||2. In a skillet over medium-high heat, cook the bacon for 5 to 6 minutes, until crispy. Drain on paper towels.||3. Lightly toast the bread.||4. Spread the mayonnaise mixture onto both sides of the toast. On one slice, layer the bacon, then the tomato.||5. Season with pepper.||6. Place the lettuce on top, then the remaining slice of toast.||7. Slice in half to serve.</t>
+  </si>
+  <si>
+    <t>1. Make chicken drumstick 'tulips.' Use kitchen scissors to cut the meat loose from the handle end of the drumstick (A). Roll the meat down the bone until it is fully inside-out at the end.||2. Soak the breadcrumbs in milk. Knead ground chicken, salt, pepper and egg in a bowl, then add breadcrumbs and knead again.||3.  Fold the meaty end of the drumstick around a hard-boiled egg (B). If the meat doesn't cover well enough, add cuts to loosen it up. Oil hands lightly and cover drumstick and egg with the breadcrumb mixture from the previous step.||4. Bake at 400 degrees Fahrenheit  (200 degrees Celsius) for 15-20 minutes, watching carefully</t>
+  </si>
+  <si>
+    <t>1*package*Hashbrown Potatoes (frozen and shredded and thawed),2*null*Eggs,1*cup*Cheddar Cheese (shredded),1*pinch*Salt,1*pinch*Pepper,1*teaspoon*Ground Cumin,1*teaspoon*Dried Mint,0.5*teaspoon*Garlic Powder,0.5*teaspoon*Onion Powder,0.5*cup*Unsalted Butter (melted)</t>
+  </si>
+  <si>
+    <t>1*package*Rice Tagliatelle Noodles,3*tablespoons*Olive Oil,0.5*null*Onion (sliced),1*null*Green Bell Pepper (sliced),1*null*Red Bell Pepper (sliced),3*cloves*Garlic (minced),1*teaspoon*Hoisin sauce,2*tablespoons*Soy sauce,1*null*Tilapia Filet (cut into 1inch pieces),1*sprinkle*Salt,1*sprinkle*Pepper</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3653,7 +3649,7 @@
         <v>289</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>290</v>
+        <v>536</v>
       </c>
       <c r="F64" s="1">
         <v>60</v>
@@ -3664,19 +3660,19 @@
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E65" s="10" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="F65" s="1">
         <v>50</v>
@@ -3687,19 +3683,19 @@
     </row>
     <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F66" s="1">
         <v>30</v>
@@ -3710,19 +3706,19 @@
     </row>
     <row r="67" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E67" s="10" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="F67" s="1">
         <v>70</v>
@@ -3733,19 +3729,19 @@
     </row>
     <row r="68" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>306</v>
+        <v>559</v>
       </c>
       <c r="F68" s="1">
         <v>40</v>
@@ -3756,19 +3752,19 @@
     </row>
     <row r="69" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
@@ -3779,19 +3775,19 @@
     </row>
     <row r="70" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F70" s="1">
         <v>115</v>
@@ -3802,19 +3798,19 @@
     </row>
     <row r="71" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F71" s="1">
         <v>90</v>
@@ -3825,19 +3821,19 @@
     </row>
     <row r="72" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F72" s="1">
         <v>80</v>
@@ -3848,19 +3844,19 @@
     </row>
     <row r="73" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F73" s="1">
         <v>95</v>
@@ -3871,19 +3867,19 @@
     </row>
     <row r="74" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F74" s="1">
         <v>40</v>
@@ -3894,19 +3890,19 @@
     </row>
     <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F75" s="1">
         <v>30</v>
@@ -3917,19 +3913,19 @@
     </row>
     <row r="76" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F76" s="1">
         <v>25</v>
@@ -3940,19 +3936,19 @@
     </row>
     <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>342</v>
+        <v>540</v>
       </c>
       <c r="F77" s="1">
         <v>25</v>
@@ -3963,19 +3959,19 @@
     </row>
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F78" s="1">
         <v>10</v>
@@ -3986,19 +3982,19 @@
     </row>
     <row r="79" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F79" s="1">
         <v>210</v>
@@ -4009,19 +4005,19 @@
     </row>
     <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F80" s="1">
         <v>20</v>
@@ -4030,21 +4026,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>358</v>
+        <v>555</v>
       </c>
       <c r="F81" s="1">
         <v>35</v>
@@ -4055,19 +4051,19 @@
     </row>
     <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F82" s="1">
         <v>10</v>
@@ -4076,21 +4072,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>366</v>
+        <v>556</v>
       </c>
       <c r="F83" s="1">
         <v>80</v>
@@ -4101,19 +4097,19 @@
     </row>
     <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F84" s="1">
         <v>30</v>
@@ -4124,19 +4120,19 @@
     </row>
     <row r="85" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F85" s="1">
         <v>7</v>
@@ -4147,19 +4143,19 @@
     </row>
     <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F86" s="1">
         <v>35</v>
@@ -4170,19 +4166,19 @@
     </row>
     <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F87" s="1">
         <v>20</v>
@@ -4193,19 +4189,19 @@
     </row>
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F88" s="1">
         <v>10</v>
@@ -4214,21 +4210,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="E89" s="10" t="s">
-        <v>391</v>
+        <v>557</v>
       </c>
       <c r="F89" s="1">
         <v>20</v>
@@ -4239,19 +4235,19 @@
     </row>
     <row r="90" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F90" s="1">
         <v>45</v>
@@ -4262,19 +4258,19 @@
     </row>
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>399</v>
+        <v>542</v>
       </c>
       <c r="F91" s="1">
         <v>25</v>
@@ -4283,21 +4279,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="F92" s="1">
         <v>15</v>
@@ -4308,19 +4304,19 @@
     </row>
     <row r="93" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F93" s="1">
         <v>10</v>
@@ -4331,19 +4327,19 @@
     </row>
     <row r="94" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>411</v>
+        <v>552</v>
       </c>
       <c r="F94" s="1">
         <v>40</v>
@@ -4354,19 +4350,19 @@
     </row>
     <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F95" s="1">
         <v>30</v>
@@ -4377,19 +4373,19 @@
     </row>
     <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F96" s="1">
         <v>15</v>
@@ -4400,19 +4396,19 @@
     </row>
     <row r="97" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F97" s="1">
         <v>30</v>
@@ -4423,19 +4419,19 @@
     </row>
     <row r="98" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F98" s="1">
         <v>220</v>
@@ -4446,19 +4442,19 @@
     </row>
     <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F99" s="1">
         <v>35</v>
@@ -4469,19 +4465,19 @@
     </row>
     <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="F100" s="1">
         <v>420</v>
@@ -4492,19 +4488,19 @@
     </row>
     <row r="101" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>433</v>
+        <v>544</v>
       </c>
       <c r="F101" s="1">
         <v>50</v>
@@ -4515,19 +4511,19 @@
     </row>
     <row r="102" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="F102" s="12">
         <v>45</v>
@@ -4538,19 +4534,19 @@
     </row>
     <row r="103" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F103" s="12">
         <v>100</v>
@@ -4561,19 +4557,19 @@
     </row>
     <row r="104" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="F104" s="1">
         <v>95</v>
@@ -4584,19 +4580,19 @@
     </row>
     <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="F105" s="12">
         <v>8</v>
@@ -4607,19 +4603,19 @@
     </row>
     <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F106" s="12">
         <v>20</v>
@@ -4630,19 +4626,19 @@
     </row>
     <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C107" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F107" s="12">
         <v>10</v>
@@ -4653,19 +4649,19 @@
     </row>
     <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" t="s">
+        <v>439</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="E108" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="F108" s="12">
         <v>7</v>
@@ -4676,19 +4672,19 @@
     </row>
     <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="F109" s="12">
         <v>10</v>
@@ -4699,19 +4695,19 @@
     </row>
     <row r="110" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="F110" s="12">
         <v>30</v>
@@ -4722,19 +4718,19 @@
     </row>
     <row r="111" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="F111" s="12">
         <v>30</v>
@@ -4745,19 +4741,19 @@
     </row>
     <row r="112" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="F112" s="12">
         <v>40</v>
@@ -4768,19 +4764,19 @@
     </row>
     <row r="113" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="F113" s="12">
         <v>10</v>
@@ -4791,19 +4787,19 @@
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="F114" s="12">
         <v>20</v>
@@ -4814,19 +4810,19 @@
     </row>
     <row r="115" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="F115" s="12">
         <v>105</v>
@@ -4837,19 +4833,19 @@
     </row>
     <row r="116" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F116" s="12">
         <v>50</v>
@@ -4860,19 +4856,19 @@
     </row>
     <row r="117" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="F117" s="12">
         <v>25</v>
@@ -4883,19 +4879,19 @@
     </row>
     <row r="118" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="F118" s="12">
         <v>45</v>
@@ -4906,19 +4902,19 @@
     </row>
     <row r="119" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="F119" s="12">
         <v>70</v>
@@ -4929,19 +4925,19 @@
     </row>
     <row r="120" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="F120" s="12">
         <v>15</v>
@@ -4952,19 +4948,19 @@
     </row>
     <row r="121" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="F121" s="12">
         <v>30</v>
@@ -4975,19 +4971,19 @@
     </row>
     <row r="122" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="F122" s="12">
         <v>160</v>
@@ -4998,19 +4994,19 @@
     </row>
     <row r="123" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F123" s="12">
         <v>150</v>
@@ -5021,19 +5017,19 @@
     </row>
     <row r="124" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="F124" s="12">
         <v>25</v>
@@ -5044,19 +5040,19 @@
     </row>
     <row r="125" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="F125" s="12">
         <v>30</v>
@@ -5067,19 +5063,19 @@
     </row>
     <row r="126" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="F126" s="12">
         <v>70</v>
@@ -5090,19 +5086,19 @@
     </row>
     <row r="127" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="F127" s="12">
         <v>20</v>
@@ -5111,18 +5107,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>551</v>
@@ -5136,19 +5132,19 @@
     </row>
     <row r="129" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="F129" s="12">
         <v>75</v>
@@ -5159,19 +5155,19 @@
     </row>
     <row r="130" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="F130" s="12">
         <v>50</v>
@@ -5182,19 +5178,19 @@
     </row>
     <row r="131" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="F131" s="12">
         <v>30</v>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DEA801-EA36-41FF-9430-B1ADED03A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE41079-2C66-4C86-8EAC-000407BF36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="665">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Ponyo Ramen Noodles</t>
   </si>
   <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
     <t>Simple instant ramen</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Marnie's Thumbprint Cookies</t>
   </si>
   <si>
-    <t xml:space="preserve">When Marnie Was There </t>
-  </si>
-  <si>
     <t>Vanilla and berry sugar cookie</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Calcifer Breakfast of eggs/bacon/cheese/bread</t>
   </si>
   <si>
-    <t>Howl's Moving Castle</t>
-  </si>
-  <si>
     <t>Simple English breakfast</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>Herring Pie or Fish Pie</t>
   </si>
   <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
     <t>Savoury fish pie</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>Bento Box</t>
   </si>
   <si>
-    <t>Totoro</t>
-  </si>
-  <si>
     <t>Japanese lunch box</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Siberia Sponge Cake</t>
   </si>
   <si>
-    <t>The Wind Rises</t>
-  </si>
-  <si>
     <t>Layered vanilla and red bean cake</t>
   </si>
   <si>
@@ -170,9 +152,6 @@
     <t>Spaghetti Bolognese</t>
   </si>
   <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
     <t>Italian beef and tomato pasta</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>Rice Porridge (Okayu)</t>
   </si>
   <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
     <t>Simple and traditional savoury porridge</t>
   </si>
   <si>
@@ -197,9 +173,6 @@
     <t>Soup Dumplings</t>
   </si>
   <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
     <t>Non-poisonous soup dumplings</t>
   </si>
   <si>
@@ -260,9 +233,6 @@
     <t>Aji Fry (Deep-fried Horse Mackerel)</t>
   </si>
   <si>
-    <t>Up on Poppy Hill</t>
-  </si>
-  <si>
     <t>Traditional Japanese deep fried fish</t>
   </si>
   <si>
@@ -305,9 +275,6 @@
     <t>Nabeyaki Udon</t>
   </si>
   <si>
-    <t>Whisper of the Heart</t>
-  </si>
-  <si>
     <t>Flavourful udon noodle soup perfect for winter</t>
   </si>
   <si>
@@ -320,9 +287,6 @@
     <t>Tamago Kake Gohan</t>
   </si>
   <si>
-    <t>Silver Spoon</t>
-  </si>
-  <si>
     <t>Simple raw egg on rice</t>
   </si>
   <si>
@@ -347,9 +311,6 @@
     <t>Cream Stew</t>
   </si>
   <si>
-    <t>Secret World of the Arrietty</t>
-  </si>
-  <si>
     <t>Creamy vegetable stew</t>
   </si>
   <si>
@@ -1722,13 +1683,365 @@
   </si>
   <si>
     <t>1*package*Rice Tagliatelle Noodles,3*tablespoons*Olive Oil,0.5*null*Onion (sliced),1*null*Green Bell Pepper (sliced),1*null*Red Bell Pepper (sliced),3*cloves*Garlic (minced),1*teaspoon*Hoisin sauce,2*tablespoons*Soy sauce,1*null*Tilapia Filet (cut into 1inch pieces),1*sprinkle*Salt,1*sprinkle*Pepper</t>
+  </si>
+  <si>
+    <t>Kakashi's Eggplant -Mixed Miso Soup</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This recipe is said to be a favorite of Kakashi Hatake. Perhaps that’s because, like him, eggplant is a humble ingredient, yet versatile enough to be effective in a variety of situations.</t>
+  </si>
+  <si>
+    <t>4*cups *Dashi,1*small*Japanese Eggplant (cubedd),2*sheets*Aburaage (cut into strips),3*tablespoons*Miso,1*bunch*Green Onions (finely chopped)</t>
+  </si>
+  <si>
+    <t>1. Add the dashi to a small pot over medium heat and bring to a boil. Add the eggplant and aburaage and let simmer for about 10 minutes, until the eggplant is softened.
+Turn the heat down to low, then ladle a small scoop of the broth into a small bowl. Add the miso to the bowl, then stir well with a spoon until the miso is completely dissolved, using the spoon to mash the miso against the sides of the bowl as you go.
+Pour the broth mix back into the pot and stir to combine, taking care not to let the pot reach a boil again. You don’t want your miso to get grainy!
+Just before serving, add the green onions to the pot and let simmer for about 1 minute, then portion into bowls to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savory Snitch Cheese Balls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter </t>
+  </si>
+  <si>
+    <t>Harry Potter inspired cheese balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*8ounces*Cream Cheese Package*2.5*cups*Sharp Cheddar Cheese ( shredded),0.5*cup*Butter (softened),2*tablespoons*Milk,2.5*tablespoons*Barbecue Sauce,1.5*cups*Pecan Chips,120*null*Pretzel sticks </t>
+  </si>
+  <si>
+    <t>1. In a standing mixer, beat the cream cheese, shredded cheddar, and butter together until combined. While beating, add the milk and barbecue sauce a little at a time and continue to beat until the mixture is light and fluffy.||2. Put some plastic wrap over the bowl and chill for 4-24 hours.||3. While you're waiting for the cheese, spread your pecan chips out on a baking sheet and toast at a preheated 350 degrees oven for 5 minutes.||4. When the cheese is semi-firm, take it out of the fridge and roll the cheese into 1 inch balls (if they get a little too soft after being rolled, pop them back in the fridge for another 5 minutes).||5. Roll the cheese balls in the pecans until entirely covered. Don't be afraid to apply a little pressure---that's what gets the nuts to stay stuck!||6. If you've got any extra pecans, you can throw them in a bowl with some dried cranberries and chocolate chips. Instant trail mix!||7. Gather six pretzel sticks for each cheese ball. With a sharp knife, carefully cut two sticks down to 1/3 their original length, another two sticks down to 2/3 length, and leave the last two as they are. Stick 3 pretzels on either side of each cheese ball at an angle, creating two slanted, staggered columns. In short, wings!||8. Cover and chill those little guys until they're ready to serve.</t>
+  </si>
+  <si>
+    <t>Pan-Seared Steak with Mushrooms and Onions</t>
+  </si>
+  <si>
+    <t>A Hogwarts House-Elf Specialty</t>
+  </si>
+  <si>
+    <t>1*pound*Steak (2 inch thick cut),1*medium*Sweet Onion,1*fistful*Shiitake Mushrooms,1*teaspoon*Thyme,1*null*Salt,1*null*Pepper,0.33*cup*Olive Oil,2*tablespoons*Butter</t>
+  </si>
+  <si>
+    <t>1. To start, pour 1/3 cup of olive oil into a cast iron skillet. Set the burner on high, so the oil will get smoking hot. While this heats up, you can slice your onions.||2. Season your steak with salt and pepper right before adding it to the oil (no more than two minutes early!). Be sure to season REALLY well!||3. Using tongs, lay your steak slowly on the hot oil. It should sizzle violently, so watch out for oil splatter!||4. Once your steak starts to develop a brown crust, add 2 tbsp of butter to the oil. This will enhance the colour and add some great flavour.||5. After the butter, add your onions and mushrooms. I sprinkled a little thyme over the onions and mushrooms (but not the meat) for an extra flavour boost.||6. For the final few minutes of cooking, you can baste the steak between flips.</t>
+  </si>
+  <si>
+    <t>||7. When the meat has reached the desired "doneness," remove the steak to a warm plate and allow it to rest for 5 minutes or half its cooking time (whichever is longer). Place the thymed-up onions and mushrooms on top while it rests, to trap heat and infuse a little more flavour.||8. Enjoy this sizzling, succulent miracle while debating house-elf rights with your friends!</t>
+  </si>
+  <si>
+    <t>Leeky Cauldron</t>
+  </si>
+  <si>
+    <t>Leek Soup in Pretzel Bun Bowls</t>
+  </si>
+  <si>
+    <t>3*large*Leeks (white portion only),1*large*Potato,1*pound*Bacon,1*cup*Butter,1*cup*Flour,1*quart*Chicken Stock,1*quart*Half and Half,0.5*teaspoon*Salt,0.25*teaspoon*Pepper,10*large*Pretzel Rolls (round),1*cup*Sharp Cheddar (shredded), 1*bunch* Fresh Chives (snipped)</t>
+  </si>
+  <si>
+    <t>1. Peel and dice your potato into 1/2 inch cubes, then boil it in a pot of water until tender. While this cooks, you can fry your bacon and chop it up.||2. Thoroughly rinse and dry the leeks to remove any dirt. Chop the white portion off the bottom and dice it up. Scoop the diced bits into a bowl with 1/2 cup of water and cook them on high in the microwave for about 2 minutes (or until tender).||3. Now that all the components are ready, it's time to start the base! In a large soup pot, melt the butter. Set the burner on low, then add the flour, stirring it constantly for about 3 minutes. Add the chicken stock 1 cup at a time, constantly stirring it with a wire whisk. Bring it to a boil (still stirring), until the liquid thickens and you begin to feel some resistance against the whisk.||4. Turn the heat back to low and add the cream (stay strong and continue stirring--it will all be over soon, I promise!). Add the leeks, potatoes, bacon, salt, and pepper.||5. Allow the components to heat through, occasionally stirring the soup to prevent it from bubbling or developing skin. Don't let it boil, or the cream will start to separate from the rest of the liquid.||6. While the soup warms cut the middles out of your pretzel buns with a small knife. Cut about 3/4 of the way through the bun (if you cut all the way to the bottom, the soup is more likely to soak through). Spoon the finished soup into the bun bowls and top with sharp cheddar and fresh chives.||7. Enjoy warm while comparing Diagon Alley purchases with your wizarding buddies.</t>
+  </si>
+  <si>
+    <t>English Fried Eggs and a Gammon of Bacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hogwarts Breakfast </t>
+  </si>
+  <si>
+    <t>1*gammon*Bacom,1*tablespoon*Lard,2*large*Eggs,1*sprinkle*Salt,1*sprinkle*Pepper</t>
+  </si>
+  <si>
+    <t>1. To pan-fry the bacon, heat a skillet or saute pan over medium-high heat. Lay the bacon carefully in the pan. Let the bacon cook for 2 minutes; then, using a pair of tongs or a fork, turn the bacon and cook for 2 minutes more. Continue cooking and turning every 30 seconds until the bacon reaches the desired crispness. Remove the bacon and let it drain on paper towels. Drain all but 1 tablespoon of fat from the pan.||2. Reduce the heat to medium low. Break the eggs into a small bowl. When the fat begins to sizzle, add the eggs and season with salt and pepper.||3. Fried eggs are served by a degree of doneness: sunny side up, over-easy, over-medium, or over-hard. For sunny side up, cook the eggs for 4 minutes or until the white is set and firm. For “over” eggs, add the eggs to the pan and let cook for 3 minutes. Carefully flip the eggs using a spatula and cook as follows: over-easy for 2 minutes on the second side; over-medium, for 2 minutes, 15 seconds; over-hard, for 2 minutes, 30 seconds or until the yolk is completely firm. You can also break the yolk before turning for over-hard.</t>
+  </si>
+  <si>
+    <t>Double Chocolate Ice Cream Cones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chilly chocolate treat </t>
+  </si>
+  <si>
+    <t>2*cups*Whole Milk,2*cups*Heavy Cream,0.75*cup*Granulated Sugar,2*tablespoons*Unsweetened Cocoa Powder,5*large*Egg Yolks,8*ounces*Bittersweet Chocolate (melted and cooled),1*teaspoon*Pure Vanilla Extract,1*box*Sugar Cones</t>
+  </si>
+  <si>
+    <t>1. Combine the milk, heavy cream, sugar, and cocoa powder in a medium saucepan and cook, stirring frequently, until hot but not simmering. Whisk the melted chocolate into the egg yolks (it will be thick and difficult to whisk). Temper the egg yolk mixture by slowly pouring 1 cup of the hot milk mixture into the yolks while whisking vigorously. Pour the yolk mixture into the saucepan containing the rest of the milk mixture and cook, stirring constantly, until very hot but not simmering. Do not boil.||2. Pour the mixture through a sieve. Stir in the vanilla extract. Cover the surface with plastic wrap to prevent skin from forming and cool to room temperature, then chill until completely cold, about 6 hours. Freeze in your ice cream maker following the manufacturer's instructions. Transfer to an airtight container and freeze until firm, 8 hours or overnight.||3. To serve, scoop 2 balls of ice cream into each cone and top with your favourite toppings.||4. If the ice cream is rock hard after freezing, allow it to soften at room temperature for 15 minutes before serving. Homemade ice cream keeps for about a week. Also, to keep the cones from leaking, pour melted bittersweet chocolate into the bottom of each one before filling it with the ice cream.</t>
+  </si>
+  <si>
+    <t>Triple Power Icy Lemon Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Lemon Popsicles </t>
+  </si>
+  <si>
+    <t>1*zest*Lemon,3*tablespoons*Lemon Juice,7*tablespoons*Granulated Sugar,1.75*cups*Water,0.5*teaspoon*Lemon Extract</t>
+  </si>
+  <si>
+    <t>1. Place the lemon zest, lemon juice, sugar, and water in a saucepan and heat, stirring frequently, just until beginning to simmer. Remove from the heat and stir in the lemon extract. Pour into ice pop moulds.||2.  Freeze until solid, about 5 hours.||3. These lemon pops get their bright lemon flavour from three sources — grated lemon zest, lemon juice, and lemon extract — hence the name -Triple Power.</t>
+  </si>
+  <si>
+    <t>Knickerbocker Glory</t>
+  </si>
+  <si>
+    <t>Hogwarts Trifle Custard Jello Sundae</t>
+  </si>
+  <si>
+    <t>2*cups*Custard,1*can*Whipped Cream,2*cups*Jell-O (any flavor prepared in advance),1*cup*Nuts (toasted and chopped),2*cups*Fresh Fruit (chopped peaches or berries),1*pint*Vanilla Ice Cream,1*bottle*Chocolate Syrup</t>
+  </si>
+  <si>
+    <t>1. Prepare the custard, whipped cream, and Jell-O in advance; chop and toast the nuts ahead as well.||2. Wash, and if necessary, peel and chop the fruit you are using.</t>
+  </si>
+  <si>
+    <t>||3. Set out six tall sundae glasses. Divide half a pint of the ice cream into the bottom of the six glasses. Evenly divide 1 cup of the fruit into the glasses. Then evenly divide 1 cup of the Jell-O over the fruit and 1 cup of the custard over the Jell-O. Repeat the layering once with the remaining ice cream, fruit, Jell-O, and custard.||4. Top with the whipped cream, toasted nuts, and chocolate syrup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Fashioned Chocolate Buttermilk Sheet Cake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Cake Delicacy </t>
+  </si>
+  <si>
+    <t>2*ounces*Bittersweet Chocolate (chopped),1*tablespoon*Instant Coffee,1.25*cups*Boiling Water,2.75*cups*Flour,2,75*cups*Granulated Sugar,0.75*cup*Unsweetened Cocoa Powder,0.5*teaspoon*Salt,2*teaspoons*Baking Soda,1*teaspoon*Baking Powder,1*cup*Vegetable Oil,1.25*cups*Buttermilk,4*large*Eggs,2*teaspoons*Pure Vanilla Extract</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit. Grease and flour a 9inch × 13inch cake pan.||2. Place the chocolate and coffee in a small bowl. Pour the boiling water over the chocolate and coffee and let it stand for 5 minutes. Whisk until smooth.||3. Using an electric mixer, combine the flour, sugar, cocoa powder, salt, baking soda, and baking powder in a large bowl. Mix on low speed until well combined. Add the oil and buttermilk and mix well, scraping down the sides as needed. Add the eggs one at a time, beating after each until incorporated. Add the chocolate-coffee mixture very carefully, on the lowest speed, as it will slosh around the bowl. Add the vanilla. Finish by scraping the bowl down and mixing all the batter with a rubber spatula.||4. Scrape the batter into the prepared pan and bake for about 45 minutes, until the cake feels firm when touched lightly in the centre or a toothpick inserted in the centre comes out with a few moist crumbs attached. If the toothpick comes out clean, the cake is over baked.</t>
+  </si>
+  <si>
+    <t>Paddington Burgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef Burgers </t>
+  </si>
+  <si>
+    <t>1.5*pounds*Ground Beef (extra-lean),2*large*Eggs,1*null*Onion (chopped and sauteed until well browned),1*cup*Fresh Breadcrumbs,0.5*cup*Tomato Sauce,1*tablespoon*Onion Powder,0.5*teaspoon*Garlic Powder,0.5*teaspoon*Salt,0.25*teaspoon*Freshly Ground Black Pepper,2*sauteed*Sliced Onions,1*bottle*English Mustard,1*small*Lettuce,1*pack*Tomatoes (sliced)</t>
+  </si>
+  <si>
+    <t>1. Combine all the ingredients in a large mixing bowl and mix well.</t>
+  </si>
+  <si>
+    <t>||2. Spray a skillet with cooking spray and heat the skillet. Form the mixture into patties and cook on both sides over medium-high heat until well-browned. Transfer to a paper-towel-lined plate and repeat until the beef mixture is used up. Or cook on a grill until well done.||3. Serve in toasted hamburger buns with sautéed sliced onions, English mustard, lettuce, and tomato.</t>
+  </si>
+  <si>
+    <t>Pumpkin Pasties</t>
+  </si>
+  <si>
+    <t>Hogwarts Pumpkin Pies</t>
+  </si>
+  <si>
+    <t>1*null*Pasty Crust,1.25*cups*FLour,1*tablespoon*Granulated Sugar,0.25*teaspoon*Salt,5*tablespoons*Butter (cold and cut into chunks),3*tablespoons*Vegetable Shortening (chilled and cut into chunks),6*tablespoons*Ice Water,1*cup*Canned Pumpkin,0.25*cup*Granulated Sugar (filling),0.125*teaspoon *Ground Nutmeg,0.125*teaspoon*Ground Cinnamon</t>
+  </si>
+  <si>
+    <t>1. Place the flour, sugar, and salt in the bowl of a food processor. Pulse a few times to combine. Scatter the butter and shortening over the flour mixture. Pulse about 15 times until the mixture resembles a coarse yellow meal, with no white powdery bits remaining.</t>
+  </si>
+  <si>
+    <t>||2. Transfer the mixture to a large mixing bowl. Sprinkle 4 tablespoons of cold water over the mixture. Toss the mixture together with a spatula until it starts clumping together. If it's too dry, add more water 1 tablespoon at a time (better too wet than too dry). Gather the dough into a ball and pat it into a disk. Wrap it in plastic wrap and refrigerate it for at least 1 hour.||3. Combine the pumpkin, sugar, nutmeg, and cinnamon in a mixing bowl. Mix well. Preheat the oven to 400 degrees Fahrenheit. Roll out the dough 1/8-inch thick. Use a saucer to cut out 6-inch circles.||4. Put 2 to 3 tablespoons of filling in the centre of each circle of dough. Moisten the edges with water, fold the dough over the filling, and crimp with a fork to seal the edges. Cut slits to make vents. Bake on an ungreased cookie sheet for 30 minutes or until browned.</t>
+  </si>
+  <si>
+    <t>Roast Pheasant</t>
+  </si>
+  <si>
+    <t>Roasted Succulted Pheasant</t>
+  </si>
+  <si>
+    <t>1*null*Onion (sliced into quarter inch thick slices),2*null*Celery Ribs (cut into chunks),2*null*Carrots (cut into chunks),4*cloves*Garlic,1*null*pheasant,2*tablespoons*Olive Oil,1*sprinkle*Salt,1*sprinkle*Pepper,1*cup*Water</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 375 degrees Fahrenheit. Lay the onion slices in a roasting pan and scatter the celery, carrots, and garlic cloves on top.||2. Rinse the pheasant in cold water and pat it dry with paper towels. Place the pheasant in the roasting pan, breast side up, wings tucked under. Brush the olive oil over the pheasant and sprinkle it with the salt and pepper. Pour the water into the roasting pan.||3. Put the pan in the oven and roast for 45 minutes, or until the juices run clear.||4. Remove the pheasant from the oven and let it rest for 20 minutes before carving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Cakes </t>
+  </si>
+  <si>
+    <t>Hogwarts dried fruit cookies</t>
+  </si>
+  <si>
+    <t>2*cups*Flour,0.5*cup*Granulated Sugar,1*teaspoon*Baking Powder,0.5*teaspoon*Cinnamon,0.25*teaspoon*Salt,8*tablespoons*Butter (cold and cut into chunks),1*large*Egg,0.3*cup*Whole Milk,1*cup*Raisins</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit and grease and flour a large cookie sheet. Combine the flour, sugar, baking powder, cinnamon, and salt in a large mixing bowl. With your fingertips, rub the butter into the dry ingredients until the mixture reaches the consistency of wet sand.||2. Beat the egg together with the milk and pour it into the flour-butter mixture. Fold it together using a spatula to form a stiff dough. Fold in the raisins. Drop dough by rounded tablespoonfuls 2 inches apart on the prepared cookie sheet.||3. Bake for 25 minutes or until the bottoms are golden, rotating the pan midway through baking.||4. For rock-hard rock cakes like Hagrid's, just bake them for too long and eat them a week later at your own risk!</t>
+  </si>
+  <si>
+    <t>Kreaher's French Onion Soup</t>
+  </si>
+  <si>
+    <t>Onion Soup</t>
+  </si>
+  <si>
+    <t>4*medium*Onions,4*tablespoons*Butter (melted),1*null*Baguette,0.5*cup*Parmesan Cheese (grated),1*teaspoon*Salt,0.25*teaspoon*Freshly Ground Black Pepper,0.25*teaspoon*Sugar,1*tablespoon*Flour,6*cups*Beef Stock</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit. Peel the onions, cut them in half from pole to pole, and slice as thinly as possible. In a heavy soup pot, heat the butter. Remove the pot from the heat.||2. Remove one end of the baguette and slice six 1-inch-thick slices for the croutons. Cover the cut end of the bread and save for the end. Dip a pastry brush into the hot butter that is in the pot and brush one side of each slice with the butter. Place the slices butter-side up on a baking sheet and sprinkle with the cheese. Toast the bread in the oven for about 10 minutes or until browned.||3. While the bread toasts, return the pot to the heat and add the onions. Season with salt and pepper. Stir in the sugar and continue to stir over medium-high heat until the onions have browned about 15 minutes.||4. Blend in the flour. Gradually add the stock while stirring and bring the soup to a boil. Reduce the heat to a simmer and cook uncovered for 30 minutes.||5. Ladle the soup into warmed bowls and float a cheesy crouton in the centre, then sprinkle cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> around the crouton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef Stew with Herb Dumplings </t>
+  </si>
+  <si>
+    <t>Stewed beef with a side of dumpling</t>
+  </si>
+  <si>
+    <t>1*cup*FLour,0.25*teaspoon*Salt,1*teaspoon*Baking Powder,0.25*teaspoon*Freshly Ground Black Pepper,0.25*teaspoon*Ground Sage,0.25*teaspoon*Ground Thyme,0.25*teaspoon*Dried Marjoram,2*tablespoons*Fresh Parsley (chopped),4*tablespoons*Butter (chilled and cut into small pieces),2*tablespoons*Milk,1*null*Egg,3*tablespoons*Vegetable Oil,1.5*pounds*Chuck Steak (trimmed and cut into half inch cubes),1*null*Onion (chopped),1*tablespoon*Flour,1*14ounce*Chicken Broth Can,1*sprinkle*Salt,1*sprinkle*Freshly Ground Black Pepper,2*null*Carrots (cut into 1 inch pieces),2*null*Celery Ribs (cut into 1 inch pieces),4*null*Red Skinned Potatoes (unpeeled, scrubbed, and cut into 1 inch cubes)</t>
+  </si>
+  <si>
+    <t>1. To make the dumplings, whisk together the flour, salt, baking powder, black pepper, and herbs. Add the pieces of butter and rub with your fingertips until the mixture resembles a coarse meal and no powdery bits remain.||2. Whisk the milk and egg together and add to the flour mixture. Toss with a rubber spatula until the mixture begins to clump together. Press plastic wrap down on top of the dough and refrigerate until needed.||3. To make the stew, heat 1 tablespoon of the oil in a Dutch oven or wide pot and add the meat in batches, searing on both sides over high heat for 4 to 5 minutes until crusty brown, and transferring each batch to a dinner plate. Add the remaining 2 tablespoons of oil to the skillet. Add the chopped onion and cook over medium-low heat until softened, scraping up the fond (browned bits) from the bottom of the pot with a wooden spoon.||4. Add the flour to the pot and stir until combined. Pour in the chicken broth and stir until well combined. Add the salt and pepper and the meat along with its accumulated juices to the pot and cook over medium-high heat, stirring occasionally, until thickened and bubbling. Reduce to a simmer and simmer the meat for 1 and half hours.||5. Add the carrots, celery, and potatoes to the pot and simmer for 1 hour, stirring occasionally. Remove the dumpling dough from the refrigerator. Wet your hands and form the dumplings into 1-inch balls, dropping them onto the hot stew in the pot as you form them. Wet your hands as needed to prevent sticking. Cover the pot and simmer another 30 minutes until the dumplings have puffed up and feel set when pressed lightly with the fingertips, though they will be very soft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Soda Bread </t>
+  </si>
+  <si>
+    <t>Quick and Easy Bread</t>
+  </si>
+  <si>
+    <t>4*cups*Flour,1.5*teaspoons*Baking Soda,1.5*teaspoons*Cream of Tartar,1*teaspoon*Salt,3*tablespoons*Granulated Sugar,4*tablespoons*Butter,1*large*Egg (beaten),1.5*cups*Buttermilk</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 425 degrees Fahrenheit and grease and flour a 9-inch round baking dish.||2. In a large mixing bowl, whisk together the flour, baking soda, cream of tartar, salt, and sugar. Rub in the butter with your fingertips until it is completely rubbed in. The mixture will still be floury because of the much higher proportion of flour. With a wooden spoon stir or fold in the egg and buttermilk until a dough begins to form. Turn the dough onto a flour-dusted work surface and knead briefly just until the dough comes together. Form the dough into a round and dust the top with the extra flour. Place the dough into the prepared pan and score an X about half-inch deep on the top of the dough.||3.  Bake for 15 minutes. Reduce heat to 350 degrees Fahrenheit and bake another 40 minutes until the bottom is dark golden brown.||4. Cool completely on a wire rack before serving. Irish soda bread tastes best the day it is made but makes the best toast ever after the first day. Serve with soup or stew.</t>
+  </si>
+  <si>
+    <t>Oversized Blueberry Muffins with Crunchy Tops</t>
+  </si>
+  <si>
+    <t>Blueberry Muffins with a Hogwarts Twist</t>
+  </si>
+  <si>
+    <t>2*cups*Flour,2*teaspoons*Baking Soda,0.25*teaspoon*Salt,2*large*Eggs (room temperature),1*cup*Granulated Sugar,8*tablespoons*Butter (melted),1*zest*Lemon,1*teaspoon*Pure Vanilla Extract,1*cup*Sour Cream (room temperature),1*pint*Blueberries (washed and well drained),1*sprinkle*Turbinado Sugar</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit. Grease and flour a 12-cup muffin pan. In a mixing bowl, whisk together the flour, baking soda, and salt. Set aside.||2. In a large mixing bowl, whisk the eggs until smooth. Whisk in the sugar and continue whisking until light and fluffy. Drizzle in the melted butter while whisking vigorously. Whisk in the lemon zest and vanilla. Fold in the flour mixture and sour cream alternately, beginning and ending with the flour. The batter will be very stiff. Fold in the blueberries.||3. Divide the batter among the muffin cups (the batter should reach the rim of each cup). Sprinkle the tops generously with turbinado sugar. Bake the muffins for 25 minutes, rotating the pan halfway through the baking time, until the tops are golden brown.||4. To make apple-cinnamon muffins, add 2 teaspoons of ground cinnamon to the flour in Step 1. Omit the vanilla and lemon zest in Step 2, and substitute 1 cup of diced apples for the blueberries. Bake as directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molly's Meatball with Onion Sauce </t>
+  </si>
+  <si>
+    <t>Beef Meatballs topped with an Onion gravy</t>
+  </si>
+  <si>
+    <t>1*pound*Ground Beed (extra lean),0.5*cup*Breadcrumbs,1*large*Egg,1*null*Onion (chopped),2*tablespoons*Fresh Parsley (chopped),0.5*teaspoon*Salt,0.25*teaspoon*Freshly Ground Black Pepper,0.125*teaspoon*Ground Nutmeg,2*tablespoons*Oil,2*tablespoons*Vegetable Oil (sauce),1*null*Onion (chopped for sauce),1*tablespoon*Flour,1*14ounce*Chicken Broth Can</t>
+  </si>
+  <si>
+    <t>1. For the meatballs, combine the beef, bread crumbs, egg, onion, parsley, salt, black pepper, and nutmeg in a large bowl and mix thoroughly.||2. Heat the oil in a skillet. Form the meat mixture into 1 and half -inch balls, and working in batches, fry the balls on each side until well browned, about 4 minutes per side. Transfer the meatballs to a dinner plate.||3. For the Onion Sauce, add 2 tablespoons oil to the skillet and heat. Add the chopped onion and cook over medium heat, stirring occasionally, until golden brown. Add the flour, and stir to combine. Pour in the chicken broth and cook, stirring constantly, until thickened and bubbling. Return the meatballs to the skillet and simmer for 15 minutes. Serve over rice, mashed potatoes, or wide egg noodles.</t>
+  </si>
+  <si>
+    <t>Brussel Sprouts with Chestnuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar glazed brussels sprouts </t>
+  </si>
+  <si>
+    <t>1*pound*Brussel Sprouts (frozen),1*cup*Water,0.5*teaspoon*Salt,2*tablespoons*Butter,1*cup*Chestnuts (canned and chopped),2*tablespoons*Dark Brown Sugar,1*pinch*Nutmeg</t>
+  </si>
+  <si>
+    <t>1. Bring the sprouts, water, and salt to a boil in a medium saucepan. Reduce to a simmer and cook for about 7 minutes, until sprouts are tender. Drain the sprouts and cut into quarters.||2. Heat the butter in a skillet until foaming. Add the sprouts, chestnuts, brown sugar, and nutmeg. Cook, stirring constantly, just until heated through. Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herby Roast Chicken with Onion Garlic Mashed Potatoes </t>
+  </si>
+  <si>
+    <t>A Hogwarts Sunday Roast with mashed potatoes</t>
+  </si>
+  <si>
+    <t>1*medium*Onion (sliced),6*cloves*Garlic (peeled),1*3pound*Chicken,2*tablespoons*Butter (softened),1*teaspoon*Ground Thyme,0.25*teaspoon*Ground Sage,1*tablespoon*Fresh Parsley (chopped),1*sprinkle*Salt,1*sprinkle*Fresh Ground Pepper,0.5*cup*Water,2.5*pounds*Yukon Gold Potatoes (peeled and quartered),2*tablespoons*Vegetable Oil,1*medium*Onion (chopped for mash),2*cloves*Garlic (minced for mash),0.5*cup*Vegetable Oil,1*cup*Chicken Broth,1*sprinkle*Salt (mash),1*sprinkle*Fresh Ground Pepper (mash)</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 375 degrees Fahrenheit and lay the onion slices and garlic cloves in a baking dish. Rinse the chicken and pat it dry.||2. Mix the butter or margarine with the thyme, sage, and parsley and spread it under the skin of the breasts and thighs; you will need to loosen the skin first by lifting up the flap of the skin and sliding your fingers under it. Lay the chicken in the pan, breast-side up, on top of the onions and garlic and sprinkle with salt and pepper. Pour the water into the pan.||3. Bake for 50 minutes. Rotate the pan, raise the temperature to 450 degrees Fahrenheit, and bake for another 30 minutes or until an instant-read thermometer inserted into the thigh reads 170 degrees Fahrenheit.||4.  While the chicken is roasting, prepare the mashed potatoes. Cover the potatoes with water in a large saucepan and bring to a boil. Reduce the heat and let it simmer until tender, about 25 minutes.||5. Heat the 2 tablespoons oil in a skillet and add the 4 onions. Cook the onions over medium heat, stirring frequently, until nicely browned, about 10 minutes. Add the garlic and cook until fragrant, about 15 seconds. Remove from the heat.||6. Drain the potatoes. Add the onion-garlic mixture, ½ cup oil, chicken broth, and salt and pepper. Mash with a potato masher.</t>
+  </si>
+  <si>
+    <t>Melton Mowbray Pork Pies</t>
+  </si>
+  <si>
+    <t>Delish Prok Pies</t>
+  </si>
+  <si>
+    <t>3*pounds*Pork Bones,3*cups*Water,1*teaspoon*Fresh Sage,1*tablespoon*Fresh Thyme,1*null*Bay Leaf,1*null*Onion (quartered),2*cups*Flour,2*pinches*Kosher Salt,4*tablespoons*Lard,0.25*cup*Whole Milk,0.25*cup*Water (crust),2*pounds*Pork Shoulder (2 thirds lean and a third fat),6*slices*Bacon (diced),1*teaspoon*Fresh Sage (filling),1*null*Anchovy Fillet (minced),0.5*teaspoon*Ground Allspice,1*sprinkle*Salt (filling),1*sprinkle*Pepper (filling),1*null*Egg,1*tablespoon*Unflavoured Gelatin,1*serving*English Mustard</t>
+  </si>
+  <si>
+    <t>1. To make the stock, combine all the stock ingredients in a heavy saucepan. Bring to a boil. Cover and reduce to a simmer for 1 hour. Strain the solids and return the liquid to the pan. Bring to a boil and reduce the total volume to 1 and a quarter cups. Set aside to cool.</t>
+  </si>
+  <si>
+    <t>||2. To make the pastry, combine the flour and salt in a large mixing bowl. Place the lard or vegetable shortening in a saucepan along with the milk and water; set the saucepan over high heat until the fat melts. Bring to a boil. Stir the fat and liquids together and pour into the bowl with the flour. Mix well. Turn the dough out onto a flour dusted work surface. Form the dough into a ball and dust it with flour. Knead for 5 minutes. Wrap in plastic wrap and let rest for 30 minutes.||3. For the filling, dice the pork into quarter-inch pieces or place chunks of pork into a food processor and pulse to coarsely chop. Place the pork in a large mixing bowl with the diced bacon, sage, minced anchovy or anchovy oil, and allspice. Add a quarter cup of the stock and mix well. Test the seasoning by heating a small amount of water in a sauté pan to a boil and cook a small amount of the pork mixture (1 teaspoon) in it. Taste the filling and adjust the salt and pepper as desired.</t>
+  </si>
+  <si>
+    <t>||4. To assemble the pies, preheat the oven to 400 degrees Fahrenheit, then decide on the size of the finished pies desired. This recipe can be made in a muffin pan, popover pan, or 4-ounce ceramic ramekins. Cut off 3 quarters of the dough and place on a flour-dusted work surface. Roll it out 1/8-inch thick. To make the bottom crust, cut 4-inch circles for a muffin or popover pan and 4½-inch circles for the ramekins. Place the dough circles in the cups or ramekins and press the dough into the bottom and sides of each.|5. Fill the pastry-lined moulds up to the rim. Fold any excess dough from the sides onto the top of the filling. Roll out the remaining dough and cut 3-inch circles to fit into the tops of the muffin or popover pan or ramekins. Place the tops onto the filling and press down lightly to seal. Cut a small hole in the centre of each top. Reroll any excess dough. Using small pastry cutters, cut out shapes and decorate the tops. Brush the top of each pie with the beaten egg. Bake the pies for 20 minutes. Reduce the heat to 350 degrees Fahrenheit and bake for 2 hours.||6. Remove the pies from the oven, brush with the beaten egg again, and bake for 10 minutes longer. Remove and let cool in the pan.||7. Bring the reduced stock back to a boil, remove from the heat, add the gelatin, and stir to dissolve. Using a funnel, spoon the stock mixture into the hole at the top of each pie, dividing the stock evenly among the pies. This is a slow process, and all of the liquid should be used. Chill overnight.||8. To serve, remove from the pan and serve with good English mustard.</t>
+  </si>
+  <si>
+    <t>Kippers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grilled Fish </t>
+  </si>
+  <si>
+    <t>4*null*Kippers,1*slice*Butter,1*sprinkle*Salt,1*Sprinkle*Pepper</t>
+  </si>
+  <si>
+    <t>1. Broil or grill the kippers for 5 minutes. Remove them from the oven or grill and brush butter over the kippers. Sprinkle with the salt and pepper.||2. Serve with toast.</t>
+  </si>
+  <si>
+    <t>Blancmange</t>
+  </si>
+  <si>
+    <t>A sweet dessert made of strawberries and milk</t>
+  </si>
+  <si>
+    <t>3*cups*Whole Milk,2*envelopes*Unflavoured Gelatin,1*cup*Heavy Cream,0.5*cup*Granulated Sugar,1*cup*Ground Almonds,0.25*teaspoon*Almond Extract,1*pint*Strawberries,2*tablespoons*Granulated Sugar (sauce)</t>
+  </si>
+  <si>
+    <t>1. Grease 8 tartlet moulds or a muffin pan and set aside. Put half a cup of the milk in a bowl and sprinkle gelatin over it. Set aside.||2. Heat the remaining milk and the cream, sugar, and almonds in a small saucepan until hot but not simmering. Pour the mixture through a sieve and discard the almonds. Stir in the gelatin-milk mixture until gelatin is dissolved (if necessary, place over medium heat and stir until gelatin is dissolved; do not simmer or let boil). Stir in the almond extract.||3. Fill the moulds to the very top and refrigerate until firm, about 2 hours. Place a plate over the mould and invert to unmold. If you're having trouble unmolding, wrap a hot towel around the mould for a few seconds. Serve with Strawberry Sauce.||4. To make the Strawberry Sauce, place the strawberries and sugar in a blender or food processor and pulse until completely blended.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Ponyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio Ghibli: When Marnie Was There </t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Totoro</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: The Wind Rises</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Porco Rosso</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Spirited Away</t>
+  </si>
+  <si>
+    <t>Studio Ghibli:Spirited Away</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Up on Poppy Hill</t>
+  </si>
+  <si>
+    <t>Studio Ghibli:Whisper of the Heart</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Silver Spoon</t>
+  </si>
+  <si>
+    <t>Studio Ghibli: Secret World of the Arrietty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,6 +2089,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1798,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1835,6 +2154,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2171,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,2992 +2545,4308 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="3">
         <v>720</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>655</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3">
         <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="360" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>656</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3">
         <v>720</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>657</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3">
         <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>659</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>659</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>120</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>659</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3">
         <v>150</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>660</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3">
         <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>661</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3">
         <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>661</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3">
         <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>662</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3">
         <v>30</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>663</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>657</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>664</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3">
         <v>30</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F23" s="3">
         <v>80</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="236.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F24" s="6">
         <v>206</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F25" s="1">
         <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F26" s="1">
         <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F27" s="1">
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F28" s="1">
         <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F29" s="1">
         <v>90</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F30" s="1">
         <v>90</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F32" s="1">
         <v>150</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F33" s="1">
         <v>130</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F34" s="1">
         <v>130</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F37" s="1">
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F38" s="1">
         <v>70</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F39" s="1">
         <v>40</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F40" s="1">
         <v>60</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F41" s="1">
         <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F42" s="1">
         <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F43" s="1">
         <v>40</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F44" s="1">
         <v>70</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F45" s="1">
         <v>180</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F46" s="1">
         <v>35</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1">
         <v>40</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F49" s="1">
         <v>80</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F50" s="1">
         <v>180</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F51" s="1">
         <v>60</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F52" s="1">
         <v>55</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F53" s="1">
         <v>45</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F54" s="1">
         <v>170</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F55" s="1">
         <v>185</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F56" s="1">
         <v>50</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F57" s="1">
         <v>50</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F58" s="1">
         <v>55</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F59" s="1">
         <v>15</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F60" s="1">
         <v>45</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1">
         <v>40</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F62" s="1">
         <v>30</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F63" s="1">
         <v>30</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="F64" s="1">
         <v>60</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F65" s="1">
         <v>50</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F66" s="1">
         <v>30</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F67" s="1">
         <v>70</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F68" s="1">
         <v>40</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F70" s="1">
         <v>115</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F71" s="1">
         <v>90</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F72" s="1">
         <v>80</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F73" s="1">
         <v>95</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1">
         <v>40</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F75" s="1">
         <v>30</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F76" s="1">
         <v>25</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F77" s="1">
         <v>25</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F78" s="1">
         <v>10</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F79" s="1">
         <v>210</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F80" s="1">
         <v>20</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F81" s="1">
         <v>35</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F82" s="1">
         <v>10</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F83" s="1">
         <v>80</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F84" s="1">
         <v>30</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F85" s="1">
         <v>7</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F86" s="1">
         <v>35</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F87" s="1">
         <v>20</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F88" s="1">
         <v>10</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F89" s="1">
         <v>20</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F90" s="1">
         <v>45</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="F91" s="1">
         <v>25</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="F92" s="1">
         <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F93" s="1">
         <v>10</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F94" s="1">
         <v>40</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F95" s="1">
         <v>30</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F96" s="1">
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F97" s="1">
         <v>30</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F98" s="1">
         <v>220</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F99" s="1">
         <v>35</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F100" s="1">
         <v>420</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="F101" s="1">
         <v>50</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F102" s="12">
         <v>45</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F103" s="12">
         <v>100</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="F104" s="1">
         <v>95</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="F105" s="12">
         <v>8</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F106" s="12">
         <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F107" s="12">
         <v>10</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C108" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="E108" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="F108" s="12">
         <v>7</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F109" s="12">
         <v>10</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F110" s="12">
         <v>30</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F111" s="12">
         <v>30</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="288" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F112" s="12">
         <v>40</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="E113" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F113" s="12">
         <v>10</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F114" s="12">
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F115" s="12">
         <v>105</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F116" s="12">
         <v>50</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="F117" s="12">
         <v>25</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F118" s="12">
         <v>45</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F119" s="12">
         <v>70</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F120" s="12">
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F121" s="12">
         <v>30</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F122" s="12">
         <v>160</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F123" s="12">
         <v>150</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F124" s="12">
         <v>25</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="F125" s="12">
         <v>30</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F126" s="12">
         <v>70</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F127" s="12">
         <v>20</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F128" s="12">
         <v>50</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F129" s="12">
         <v>75</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F130" s="12">
         <v>50</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F131" s="12">
         <v>30</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="F133" s="14">
+        <v>25</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+    </row>
+    <row r="134" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="F134" s="15">
+        <v>30</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+    </row>
+    <row r="135" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+    </row>
+    <row r="136" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F136" s="14">
+        <v>30</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+    </row>
+    <row r="137" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F137" s="14">
+        <v>15</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+    </row>
+    <row r="138" spans="1:13" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="F138" s="15">
+        <v>25</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+    </row>
+    <row r="141" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="F141" s="14">
+        <v>20</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+    </row>
+    <row r="142" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F142" s="15">
+        <v>10</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+    </row>
+    <row r="143" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+    </row>
+    <row r="144" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F144" s="14">
+        <v>60</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F145" s="15">
+        <v>30</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+    </row>
+    <row r="146" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+    </row>
+    <row r="147" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="F147" s="15">
+        <v>115</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+    </row>
+    <row r="148" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+    </row>
+    <row r="149" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="F149" s="14">
+        <v>80</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+    </row>
+    <row r="150" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F150" s="14">
+        <v>35</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+    </row>
+    <row r="151" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F151" s="15">
+        <v>70</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="16"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+    </row>
+    <row r="153" spans="1:13" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F153" s="15">
+        <v>210</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+    </row>
+    <row r="156" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F156" s="15">
+        <v>90</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+    </row>
+    <row r="159" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="F159" s="15">
+        <v>55</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+    </row>
+    <row r="162" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F162" s="14">
+        <v>40</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+    </row>
+    <row r="163" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="F163" s="15">
+        <v>20</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+    </row>
+    <row r="166" spans="1:13" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="F166" s="15">
+        <v>140</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+    </row>
+    <row r="169" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="F169" s="15">
+        <v>340</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+    </row>
+    <row r="170" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="15"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+    </row>
+    <row r="171" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="15"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+    </row>
+    <row r="172" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="F172" s="14">
+        <v>10</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+    </row>
+    <row r="173" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A173" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="F173" s="14">
+        <v>155</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
+      <c r="K173" s="14"/>
+      <c r="L173" s="14"/>
+      <c r="M173" s="14"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="14"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="14"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="J169:J171"/>
+    <mergeCell ref="K169:K171"/>
+    <mergeCell ref="L169:L171"/>
+    <mergeCell ref="M169:M171"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="L166:L168"/>
+    <mergeCell ref="M166:M168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="M163:M165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="G166:G168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="L163:L165"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="M159:M161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="M156:M158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:I158"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="M153:M155"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="M142:M143"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="M138:M140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="G138:G140"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I140"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="K138:K140"/>
+    <mergeCell ref="L138:L140"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE41079-2C66-4C86-8EAC-000407BF36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF571E9-03AF-430E-AADB-967B05C672D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="753">
   <si>
     <t>Name</t>
   </si>
@@ -1698,12 +1698,6 @@
     <t>4*cups *Dashi,1*small*Japanese Eggplant (cubedd),2*sheets*Aburaage (cut into strips),3*tablespoons*Miso,1*bunch*Green Onions (finely chopped)</t>
   </si>
   <si>
-    <t>1. Add the dashi to a small pot over medium heat and bring to a boil. Add the eggplant and aburaage and let simmer for about 10 minutes, until the eggplant is softened.
-Turn the heat down to low, then ladle a small scoop of the broth into a small bowl. Add the miso to the bowl, then stir well with a spoon until the miso is completely dissolved, using the spoon to mash the miso against the sides of the bowl as you go.
-Pour the broth mix back into the pot and stir to combine, taking care not to let the pot reach a boil again. You don’t want your miso to get grainy!
-Just before serving, add the green onions to the pot and let simmer for about 1 minute, then portion into bowls to serve.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Savory Snitch Cheese Balls </t>
   </si>
   <si>
@@ -2035,6 +2029,280 @@
   </si>
   <si>
     <t>Studio Ghibli: Secret World of the Arrietty</t>
+  </si>
+  <si>
+    <t>1. Add the dashi to a small pot over medium heat and bring to a boil. Add the eggplant and aburaage and let simmer for about 10 minutes, until the eggplant is softened.||2. Turn the heat down to low, then ladle a small scoop of the broth into a small bowl. Add the miso to the bowl, then stir well with a spoon until the miso is completely dissolved, using the spoon to mash the miso against the sides of the bowl as you go.||3. Pour the broth mix back into the pot and stir to combine, taking care not to let the pot reach a boil again. You don’t want your miso to get grainy!||4. Just before serving, add the green onions to the pot and let simmer for about 1 minute, then portion into bowls to serve.</t>
+  </si>
+  <si>
+    <t>Tsunade Healing Zosui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A classic rice soup, a Japanese version of chicken noodle soup</t>
+  </si>
+  <si>
+    <t>6*null*Radishes (sliced and simmered),3.5*cups*Dashi (divided),2*null*Chicken Thighs ( boneless, skinless and chopped),1*null*Carrot (sliced),3*null*Shiitake Mushrooms (chopped),1.5*cups*Japanese Rice (cooked),1*tablespoon*Soy Sauce,1*large*Egg,3*null*Green Onions (chopped),1*teaspoon*Sesame Seeds ( toasted),0.25*teaspoon*Pepper</t>
+  </si>
+  <si>
+    <t>Chojis Chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portable, snackable, calorie-packed chips</t>
+  </si>
+  <si>
+    <t>1*tablespoon*Sea Slat,1*sheet*Nori,1*packet*Instant Ramen Powdered Seasoning,1*tablespoon*Salt,1*tablespoon*Sesame Seeds (toasted),1*teaspoon*Garlic Powder,1*pound*Russet Potatoes,1*quart*Ice Water,1*splash*Vegetable Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Place ingredients for your desired seasoning mix into a spice grinder or food processor and blend until finely ground (not necessary if youre using ramen seasoning). Set aside.||2. Prepare the chips by using a mandoline or the wide edge of a box cutter to slice the potatoes to a thickness of an eighth inch. Place them in a large bowl with enough of ice water to cover them and let them soak for at least 30 minutes. Drain the potatoes using a colander or strainer, then pat dry thoroughly with paper towels.||3. Heat approximately 2 inches of oil in a wide pot to 375 degrees F.||4. Use tongs or a slotted spoon to place a handful of slices in the oil at a time, taking care not to crowd the pan too much to prevent the temperature from dropping. Fry for about 4 minutes, until a golden color is achieved, stirring frequently to ensure even cooking. You know theyre close when the potatoes start bubbling less.||5. Remove the potatoes from the oil with a slotted spoon and transfer to paper towels to dry. If necessary, add more oil and wait for the oil to come back up to temperature before frying another batch. ||6. While the subsequent batches are frying, pat down the freshly fried chips to remove as much oil as possible, then immediately transfer them to a large bowl and sprinkle some of the seasoning on top.||7. Continue adding more chips to the top of the bowl after theyre done frying and have been patted dry, then season them. Letting excess seasoning fall onto the chips below maximises flavour!||8. Repeat until all slices have been cooked, dried, and seasoned.||9. The chips are best enjoyed fresh but can be stored in an airtight container for up to 3 days.</t>
+  </si>
+  <si>
+    <t>1. Cut the radishes into quarter -inch slices, then trim them down into a diamond shape.||2. Place half a  cup of dashi in a small pot over high heat and bring to a boil. When boiling, add the radishes, then turn off the heat and let cool. If preparing in advance, transfer the radishes and liquid to a sealed container, then store in the fridge until ready to use. Otherwise, transfer the radishes to a small bowl and discard the broth.||3. When ready to prepare the soup, place 3 cups of dashi in a wide pot over medium heat and bring to a boil.||4. Add the chicken and carrot to the boiling dashi, then cover and turn the heat down to medium low. Cook for 5 minutes, then add the mushrooms, rice, and soy sauce. Cover and continue cooking for about 10 minutes.||5. Whisk the egg in a small bowl, then slowly drizzle the beaten egg into the pot. Add the green onion, sesame seeds, and pepper on top, then cover and let cook for a few minutes, just enough for the egg to set.||6. When ready to serve, portion out into individual bowls and top each with a simmered radish diamond.</t>
+  </si>
+  <si>
+    <t>Shuriken Senbei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Shuriken shaped rice crackers</t>
+  </si>
+  <si>
+    <t>0.5*cup*Mochiko Rice Flour,1*cup*Japanese Rice (cooked),0.25*tablespoon*Salr,0.25*teaspoon*Baking Powder,1*tablespoon*Sesame Oil,0.25*cup*Water,2*tablespoons*Sesame Seeds,1*splash*Vegetable Oil</t>
+  </si>
+  <si>
+    <t>1. To make the dough, place the rice flour, rice, salt, baking powder and oil in a food processor. Run until finely ground. Add the water, then pulse the processor until the water is fully incorporated. It will still be dry, but the dough should clump together when pressed. If not, add a tablespoon of water at a time until the right consistency is achieved.||2. Scoop out the dough into a small bowl, then add sesame seeds and work them into the dough until they are evenly distributed.||3. Roll the dough out on a sheet of parchment paper to a thickness of about a quarter inch or thinner, then cut into shuriken shapes. A four-pointed star, besides being a favourite of a shinobi, is more likely to hold together than more complex shapes. For bonus points, cut out a hole in the middle using a straw or knife.||4. To fry the senbei, heat about 2 inches of oil to 375 degrees Fahrenheit in a small, deep pot. Once it’s hot, gently place a few crackers at a time in the oil, taking care not to overcrowd the pan. Fry for about 3 to 5 minutes, flipping occasionally to ensure even browning. Once a golden colour is achieved, remove from the oil with a slotted spoon and place it on paper towels to absorb excess oil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portable, easily customized rice snack is a delicious and sensible choice.</t>
+  </si>
+  <si>
+    <t>0.25*cup*Bonito Flakes,2*teaspoons*Soy Sauce,1*null*Tomato (fresh),2*sheets*Nori,4*cups*Japanese Short-Grain Rice (freshly cooked),2*tablespoons*Sesame Seeds (toasted)</t>
+  </si>
+  <si>
+    <t>1. Begin to prepare the filling by mixing the bonito flakes with the soy sauce.||2. Quarter the tomato, remove as much of the pulp as you can, then chop into small pieces.||3. Toast the nori sheets briefly, holding them a few inches over an open flame such as a lighter or a gas stove burner on low, until the color darkens. Then cut into eight squares.||4. To shape the onigiri, place a small bowl of salted water to the side to use for rinsing your hands. Keeping your hands wet, flatten out half a cup of rice in your hands and make an indentation in the middle, placing a small amount of either the okaka or tomatoes in the center.||5. Gently round the rice over the top of the filling, then press together firmly with your hands. Shape it into a ball, or, if you are feeling extra fancy, a flattened triangle.||6. To finish, sprinkle some sesame seeds on top of each onigiri, then place it in a nori square and press the nori firmly into the rice to adhere it to the surface. Set aside and continue with the remaining rice, rewetting your hands as needed.||7. Serve at room temperature for best texture.</t>
+  </si>
+  <si>
+    <t>Sand Village Sekihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beautiful dark beans scattered over rice, this dish somewhat resembles the Sand Village landscape.</t>
+  </si>
+  <si>
+    <t>0.3*cup*Dried Adxuki Beans (soaked in water overnight),4*cups*Water,1*cup*Mochiko Rice,1*cup*Japanese Rice,1*teaspoon*Salt,1*tablespoon*Black Sesame Seeds</t>
+  </si>
+  <si>
+    <t>1. Place the beans and 2 cups of water in a small pot over high heat. Bring to a boil, then cook for about 5 minutes. Strain the beans, discarding the water.||2. Return the beans to the pot and add the remaining 2 cups of water. Cover loosely and bring to a  simmer over high heat. Reduce the heat to low and let simmer for about 30 minutes, until the beans are soft and break when pressed between your fingers.||3. Drain the beans, reserving the cooking liquid in a separate container. Set both the beans and liquid aside.||4. Polish the rice, then place in a small pot along with cooked beans, salt, and 2 cups of the reserved bean liquid. Cover with a tight-fitting lid, then turn the heat to high and bring just to boiling.||4. Immediately turn the heat down to low and leave the rice to steam for about 15 minutes, until you see small, even dimples across the surface of the rice and all the water has been absorbed.||5. Turn the heat to high for 1 more minute to allow any last bit of water to evaporate, then remove from the heat. Cover, leaving the lid cracked open, and leave to rest for 10 minutes.||6. To serve, gently fluff the rice with a spatula or rice paddle, then garnish with the sesame seeds arranged in the shape of the Sand Village logo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tasty pickled onion–topped treats</t>
+  </si>
+  <si>
+    <t>1*small*Red Onion (quartered and thinly sliced),0.5*cup*Rice Vinegar,0.5*cup*Water,2*tablespoons*Sugar,0.5*tablespoon*Salt,8*null*Aburaage Squares,3*tablespoons*Soy Sauce,3*tablespoons*Sugar (inarizushi),1*cup*Dashi,2*cups*Water (inarizushi),3*cups*Sushi Rice,1*tablespoon*Sesame Seeds</t>
+  </si>
+  <si>
+    <t>1. Begin by preparing the pickled onions in advance. Place the onions in a small jar or container. Bring the vinegar, water, sugar, and salt just to a boil in a small pot over high heat, then stir until the sugar is melted. Pour the liquid over the onions, then cover and let sit in the fridge for at least 12 hours.||2. To prepare the inarizushi, bring a small pot of water to a boil over high heat. While it is warming up, prepare the aburaage by cutting along one side of each square to create a pouch. Use your hands or a knife to gently open up the pouch.||3. Boil the cut aburaage in hot water for a minute, then drain well.||4. Place the soy sauce, sugar, dashi, and water in a small pot and bring to a boil over high heat.||5. Once boiling, turn the heat down to medium, add the aburaage, and cook for 10 to 15 minutes. Transfer to an airtight container and place in the fridge until ready to use.||6. To assemble, mix the sushi rice and sesame seeds, then divide into eight portions.||7. Gently squeeze an aburaage pouch to remove excess liquid, then carefully stuff one of the rice portions into the pouch. Repeat for the remaining pouches.||8. Arrange strips of pickled onion in rows on top of the rice, with their arcs facing the center like parentheses. Trim the slices down as needed to match the width of the pouch. Tuck the edges of  the onions into the pouch.</t>
+  </si>
+  <si>
+    <t>Teuchi Udon</t>
+  </si>
+  <si>
+    <t>4*cups*Flour,1*tablespoon*Salt,1.25*cup*Water,1*null*Egg Yolk,1*dust*Starch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homemade  udon noodles </t>
+  </si>
+  <si>
+    <t>1. Combine the flour and salt in a large bowl and mix well to combine.||2. Pour the contents out into the shape of a mound on your work surface, then use your fingers to make a small indentation in the middle.||3. Pour the water and egg yolk into the indentation, then work the liquid into the mixture using your hands. Depending on the flour, you may need to add more water.Add just enough to get the flour to combine but not be too sticky.||4. Knead vigorously until the dough is smooth but firm, like your earlobe being the traditional Japanese guidance.||5. Roll the dough into a ball and wrap with plastic wrap, then set aside for at least 2 hours at room  temperature or 8 hours in the fridge.||6. When ready to cut the noodles, unwrap the dough and place on a lightly floured work surface. Roll out into a rectangular shape eighth inch thick. Dust the top with starch, then, taking the short sides of the rectangle, fold them inward, as if you were folding a letter to fit in an envelope.||7. With the long side of the folded dough facing you, hold a sharp knife or cleaver perpendicular to the long side and cut the dough into strips eigth inch wide, resulting in thin, narrow strips when the pieces are unfolded.||8. Gently loosen the noodles to unfold them, then lightly dust with starch to prevent them from clumping. Divide them into four portions for easier cooking.||9. When ready to cook, bring a large pot of water to a boil, making sure there’s enough water that the noodles won’t be crowded and water can circulate freely. Add the noodles one portion at a time, waiting for the water to reach full boiling again before adding the next portion. Stir constantly to keep the noodles from sticking to the bottom. Once all the noodles are added to the water, cook for 2 to 3 more minutes.||10. Place a colander in the sink and carefully pour the contents of the pot into the colander, then rinse under cool or cold running water briefly to remove any surface starch.||11. Serve immediately in any recipe calling for cooked noodles.</t>
+  </si>
+  <si>
+    <t>Kurama's Nine-Tails Kitsune Udon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This dish piles on the aburaage strips to make quite the tasty feast!</t>
+  </si>
+  <si>
+    <t>1*tablespoon*Soy Sauce,2*tablespoons*Mirin,1*tablespoon*Sugar,0.5*cup*Dashi,2*null*Aburaage Rectangles,4*cups*Dashi (noodles and broth),4*tablespoons*Soy Sauce (noodles and broth),3*tablespoons*Mirin (noodles and broth),1*tablespoon*Sugar (noodles and broth),2*servings*Udon (cooked),2*null*Green Onions (finely chopped)</t>
+  </si>
+  <si>
+    <t>1. To prepare the seasoned aburaage, combine the soy sauce, mirin, sugar, and dashi in a small pot over medium heat. Add the aburaage, then let simmer until all the liquid has been absorbed. Let cool and set aside, then cut each rectangle into nine long strips.||2. In a large pot, bring the dashi just to a boil over medium heat. Add the soy sauce, mirin, and sugar, then cook until the sugar is dissolved.||3. Place the noodles in serving bowls, then divide the broth between the bowls. Arrange the strips of the aburaage on each bowl, fanned out from the center like Kurama’s tails. Sprinkle with the green onions to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the tenkasu, combine the flour and water, then divide into two bowls. Add food coloring to one bowl to create a black batter.||2.  Add a few cups of oil to a small pot over medium heat and bring to 350 degrees Fahrenheit. Using a fork to scoop the batter, let the batter drip off the forks tines and into the oil, creating batter droplets. Once the droplets float to the surface and start browning, remove from the oil and place on paper towels to drain. Continue frying until all the batter is used up.||3. To make the noodles, in a large pot, bring the dashi just to a boil over medium heat. Add the soy sauce, mirin, and sugar, then cook until the sugar is dissolved.||4.Place the noodles in serving bowls, then divide the broth between the bowls. Portion the tenkasu and green onions on top of both bowls, then sprinkle with shichimi togarashi to serve.</t>
+  </si>
+  <si>
+    <t>A recipe that uses colored tempura crumbles, called tenkasu, to bring a new twist on a classic noodle dish.</t>
+  </si>
+  <si>
+    <t>3*tablespoons*Flour,3*tablespoons*Water,1*packet*Black Food Coloring,1*splash*Vegetable Oil,4*cups*Dashi,4*tablespoons*Soy Sauce,3*tablespoons*Mirin,1*tablespoon*Sugar,2*servings*Soba Noodles (cooked),2*null*Green Onions,1*shake*Shichimi Togarashi</t>
+  </si>
+  <si>
+    <t>Shukaku's One Tail Tanuki Soba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madara's Eye Inarizushi </t>
+  </si>
+  <si>
+    <t>Kakashi's Salt-Broiled Saury</t>
+  </si>
+  <si>
+    <t>Kakashi beloved fish based recipe</t>
+  </si>
+  <si>
+    <t>2*whole*Pacific Saury,1*tablespoon*Salt,1*null*Daikon Radish (grated),1*null*Lemon (cut into wedges),1*splash*Soy Sauce</t>
+  </si>
+  <si>
+    <t>1. Rinse the fish briefly under cool water, then pat dry thoroughly. Use your knife to cut a shallow slit lengthwise on either side of the fish, following the line formed by the colouration of the skin. Sprinkle the fish heavily on all sides with salt, then let sit for 15 minutes.||2. Preheat the oven on the broiler setting, on high, then place the saury on a baking sheet and place it directly under the broiler. Let cook for 8 to 10 minutes on each side, turning the fish over once a nice char develops on the skin.||3. To serve, plate each fish alongside individual small bowls of grated daikon, lemon, and soy sauce.</t>
+  </si>
+  <si>
+    <t>Sea Monster Tempura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A versatile technique that works well with a wide variety of fish (and vegetables, meats, and pretty much anything else), this tempura recipe will give you perfection in fried form.</t>
+  </si>
+  <si>
+    <t>0.75*cup*Dashi,2*tablespoons*Soy Sauce,2*tablespoons*Mirin,1*tablespoon*Sugar,1*pound*White Fleshed Fish Fillets,0.25*cup*Starch,1*splash*Vegetable Oil,1*null*Egg Yolk,1*cup*Cold Water,0.25*cup*Ice Cubes,1.5*cups*Cake Flour</t>
+  </si>
+  <si>
+    <t>1. To prepare the sauce, combine the dashi, soy sauce, mirin, and sugar in a small pot over high heat and bring to a boil. Once boiling, turn off the heat and let it cool.||2. Prepare the fish by cutting it into bite-size pieces. If using fillets with skin, make shallow parallel cuts on the skin side about a quarter inch apart to help prevent fish from curling while frying.||3. Pat the fillets dry with paper towels, then coat generously with the starch and set aside.||4. Place a few inches of oil in a wide pot over medium heat and bring to 350 degrees Fahrenheit. While the oil is heating, place the egg yolk, water, and ice cubes in a small bowl and whisk well to combine.||5. Prepare your workstation by setting a paper towel–lined tray to one side of the stove, and place the fish and the flour within reach.||6. When the oil is hot, add the flour to the egg mixture and stir for about 20 seconds, until roughly combined. It’s OK if there are still some flour clumps in the batter; you just want it mostly mixed up.||7. It is critical to keep the oil temperature steady for the right texture, so fry only a few pieces at a time. Working with one fish piece at a time, quickly dip the fish in the batter, then immediately add it to the oil, letting it fry for a few seconds before adding another piece to the pan.||8. Fry for about 3 to 5 minutes, depending on the size of the pieces, until golden brown. Remove from the pan using a slotted spoon, then transfer to the paper towel-lined plate to drain. Between batches, skim and discard the crumbs left behind in the oil. Serve with Shuriken Senbei to honour the epic battle that Naruto and the other shinobi fought against the giant marlin from the Third Shinobi World War.</t>
+  </si>
+  <si>
+    <t>Eight Tails Tako Su</t>
+  </si>
+  <si>
+    <t>An octopus dish</t>
+  </si>
+  <si>
+    <t>3*tablespoons*Rice Vinegar,1*tablespoon*Sugar,1*tablespoon*Soy Sauce,0.25*inch*Ginger (fresh and grated),0.5*tablespoon*Dried Wakame,1*small*Cucumber,1*teaspoon*Salt,0.25*pound*Octopus (boiled, precooked and sliced)</t>
+  </si>
+  <si>
+    <t>1. Combine the rice vinegar, sugar, soy sauce, and ginger in a small bowl and stir to combine, then set aside.||2. Place the wakame in a small bowl of water and let sit for 15 minutes to allow the wakame to rehydrate.||3. Slice the cucumber thinly and place in a small bowl. Stir in the salt, and let it sit for 15 minutes.||4. Gently squeeze out the water from the cucumbers with your hands, taking a handful at a time and squeezing it between your palms, then place in a large bowl.||5. Add the sliced octopus, wakame, and seasoning and stir well to combine.||6. Serve chilled.</t>
+  </si>
+  <si>
+    <t>Infinite Tsukuyomi Tsukune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You will have to worry about while eating these chicken meatballs is getting lost in a world of flavour.</t>
+  </si>
+  <si>
+    <t>1*cup*Pineapple Juice,0.5*cup*Brown Sugar (packed),0.3*cup*Rice Vinegar,3*tablespoons*Ketchup,2*tablespoons*Soy Sauce,1*tablespoon*Cornstarch,1*tablespoon*Black Sesame Seeds,1*pound*Ground Chicken,1*small*Onion (grated),1*inch*Ginger (fresh and grated),3*cloves*Garlic (minced),1*large*Egg,0.5*cup*Breadcrumbs,1*splash*Sesame Oil</t>
+  </si>
+  <si>
+    <t>1. Prepare the bamboo skewers by placing them in a shallow bowl of water, then set aside until ready to use.||2. To make the sauce, combine the pineapple juice, brown sugar, vinegar, ketchup, and soy sauce in a small pan, then bring to a boil over high heat.||3. Once boiling, reduce the heat to low. Mix the cornstarch with a tablespoon or so of water to make a slurry, then add it to the pan and stir to combine. Let the sauce simmer for about 5 minutes, until it has thickened, then add the sesame seeds, remove from the heat, and set aside.||4. Preheat the oven by turning the broiler on high.||5. To prepare the tsukune, combine the ground chicken, onion, ginger, garlic, egg, and breadcrumbs in a small bowl. Knead with your hands for several minutes, an important step to help keep the meat on the skewer.||6. To shape, lightly coat your hands with sesame oil, then take a large spoonful of the mixture in your hands. Shape into a ball, then toss lightly from one hand to the other several times to help firm up the surface.||7. To grill, skewer two to four meatballs on each bamboo skewer, then cover the remaining wood with aluminium foil to prevent it from burning. Brush the surface with oil, then place on a greased-rimmed baking sheet. Place directly under the broiler, then cook for 3 minutes per side, rotating them as each side finishes cooking until a nice char develops on the surface. Remove from the oven and brush with the sauce, then return to the oven to broil for a few minutes more before serving.</t>
+  </si>
+  <si>
+    <t>Akamaru's Favourite Dog Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scrambled ground meat, called soboro in Japanese, is a dish that’s easy to prepare, has a great nutritional blend, and is perfect for all ninja, whether dog or human.</t>
+  </si>
+  <si>
+    <t>3*large*Eggs,1*teaspoon*Salt,2*tablespoons*Sesame Oil,1*pound*Ground Chicken,0.5*inch*Ginger (fresh and grated),2*tablespoons*Mirin,2*tablespoons*Soy Sauce,1*cup*Frozen Peas,4*servings*Rice (freshly cooked)</t>
+  </si>
+  <si>
+    <t>1. Whisk the eggs in a small bowl with the salt. Set aside for 10 minutes. (This helps transform the egg proteins and makes the eggs firmer.)||2. Place a wide skillet over medium heat. When hot, add 1 tablespoon of sesame oil, then add the eggs and cook until fully set, stirring constantly to create finely scrambled eggs. Remove from the pan and set aside.||3. Place the remaining 1 tablespoon of oil in the pan, then add the chicken, crumbling it apart with a spatula as it cooks. Cook for about 8 minutes, until mostly cooked through, then add the ginger, mirin, and soy sauce. Let cook for about 5 more minutes, until all the moisture has been evaporated. Remove from the heat and set aside.||4. Place a small pot of water over high heat and bring to a boil. Once boiling, add the peas and cook for about 3 minutes until parboiled, then drain in a colander and let cool.||5. To assemble, place the rice in four individual serving bowls. Place the scrambled egg on top of half of the rice, then place the scrambled chicken on the other. Arrange the peas down the middle of the bowls to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Pickled Cucumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple cucumber salad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*large*Cucumber,1*inch*Ginger (fresh),1*tablespoon*Salt </t>
+  </si>
+  <si>
+    <t>1. Using a mandoline or the slit side of a box grater, slice cucumber into thin strips. Use one of the finer sides to grate the ginger into a pulp.||2. Combine all the ingredients together in a small bowl, gently massaging it together to press the salt into the cucumber. Let sit for at least 15 minutes.||3. Use your hands to gently squeeze the cucumbers to remove excess moisture. Serve chilled or at room temperature.</t>
+  </si>
+  <si>
+    <t>1. Combine all the ingredients in a small pot and bring to a boil over high heat.||2. Turn the heat down to low and simmer until it’s reduced by at least half and a thick consistency is achieved. Remove from the heat and let cool.||3. Once cool, transfer to a plastic squeeze bottle to use. Or use it to decorate food using a clean watercolor brush.</t>
+  </si>
+  <si>
+    <t>0.5*teaspoon*Squid Ink,0.25*cup*Dashi,0.25*cup*Soy Sauce,0.25*cup*Mirin,2*tablespoons*Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its salty teriyaki flavour, this ink pairs well with lightly seasoned foods.</t>
+  </si>
+  <si>
+    <t>Sai's Edible Ink</t>
+  </si>
+  <si>
+    <t>Brock Lee Goma-ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This sesame-dressed salad is often made with spinach. But take a stalk of broccoli and dip its crown in soy sauce… does the slim, green, round-headed, dark-crowned shape remind you of anybody?</t>
+  </si>
+  <si>
+    <t>3*tablespoons*Sesame Seeds,0.5*tablespoon*Sugar,2*tablespoons*Soy Sauce,1*tablespoon*Dashi,2*cups*Broccoli Florets</t>
+  </si>
+  <si>
+    <t>1. Place the sesame seeds in a small pot over medium heat and toast until fragrant and lightly browned, stirring occasionally. Let cool, then place in a spice grinder or food processor and grind well.||2. Place the ground seeds in a small bowl. Add the sugar, soy sauce, and dashi and let sit for 15 minutes until the flavours combine.||3. Place a small pot full of water over medium heat and bring to a boil. Add the broccoli, then let simmer for about 3 minutes, until the colour just starts to turn a more vibrant green. Drain in the sink using a colander, then place under cool running water for a few minutes to prevent further cooking.||4. Using your hands, squeeze out any remaining water from the broccoli, then place it in a bowl and combine with the sesame sauce.</t>
+  </si>
+  <si>
+    <t>1. Prepare the tomatoes by bringing a large pot of water to a boil. Remove the stems from the tomatoes, then cut a shallow cross mark on the bottom of each. Add them to the water, then let boil for about 30 seconds, flip, and boil for 30 seconds more. Immediately remove the tomatoes from the pot and place them under running water to cool down.||2. While the tomatoes cool off, prepare the pickling jar. Add the dashi, vinegar, sugar, soy sauce, and salt to a small pot and bring to a boil. Stir until the sugar is melted, then remove from the heat and let cool.||3. Once the tomatoes are cool, gently remove the skin by peeling at the corners of the cross marks. The skin should come away easily, but you can rub it gently with your fingers to loosen it. Transfer the tomatoes to a small sealable container, then pour the pickling liquid on top.||4. Seal the container, then place it in the fridge to marinate for at least 12 hours. Slice the tomatoes to serve.</t>
+  </si>
+  <si>
+    <t>3*large*Tomatoes,0.6*cup*Dashi,1*cup*Rice Vinegar,3*tablespoons*Sugar,2*tablespoons*Soy Sauce,1*teaspoon*Salt</t>
+  </si>
+  <si>
+    <t>Sasuke twist on pickled tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasuke's Soy-Pickled Tomatoes </t>
+  </si>
+  <si>
+    <t>Sasuke's Favourite Onigiri</t>
+  </si>
+  <si>
+    <t>Hidden Leaf Highball</t>
+  </si>
+  <si>
+    <t>Whiskey and seltzer cocktail</t>
+  </si>
+  <si>
+    <t>0.5*cup*Cubed Ice,1.5*ounces*Japanese Whiskey,4.5*ounces*Seltzer Water,1*strip*Lemon Peel,1*sprig*Fresh Tarragon</t>
+  </si>
+  <si>
+    <t>1. Combine the ice, whiskey, and seltzer water in a highball glass and stir.||2. Take the lemon peel with both hands and twist it over the glass to express some of the oil, then rub the rim of the glass with it to add extra flavor.||3. To serve, garnish with the lemon peel and, if desired, a tarragon sprig in honor of the forest that hides Konohagakure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Rasengan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Packed with antioxidants and natural sweetness, this smoothie is the perfect thing to power up your day with a swirl of chakra!</t>
+  </si>
+  <si>
+    <t>1*null*Banana (roughly chopped),0.5*cup*Vanilla Yogurt (divided),1*cup*Soy Milk,0.6*cup*Frozen Raspberries,1*teaspoon*Matcha Powder,1*tablespoon*Honey,1*cup*Ice</t>
+  </si>
+  <si>
+    <t>1. Place the banana, a quarter of a cup of yogurt, the soy milk, raspberries, matcha, and honey in a blender, then blend on lowest speed until smooth, about 5 seconds.||2. Gradually add the ice while continuing to blend on low, adding it until the desired consistency is achieved. Then blend on high for another 15 seconds, until the mixture is velvety smooth.||3. To serve, pour the smoothie into a tall glass, then add the remaining quarter of a cup of yogurt on top and stir a little until a swirl is created.</t>
+  </si>
+  <si>
+    <t>Konoha Cosmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In Konohagakure, it’s said that drinking this cocktail is the first step to learning Drunken Fist taijutsu.</t>
+  </si>
+  <si>
+    <t>1*cup*Ice,2*ounces*Green Tea,1*ounce*Vodka,0.5*ounce*Orange Liqueur,1*ounce*Cranberry Juice,1*teaspoon*Lime Juice,1*strip*Lime Peel</t>
+  </si>
+  <si>
+    <t>1. Pour all the ingredients except the lime peel into a cocktail shaker. Shake vigorously for several seconds, then strain into a cocktail glass.||2. Take the lime peel with both hands and twist it over the glass to express some of the oil, then rub the rim of the glass with it to add extra flavor. Garnish with the lime peel and serve.</t>
+  </si>
+  <si>
+    <t>Kurenai's Shochu Martini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This drink uses Kurenai Sarutobi’s favorite shochu (distilled from rice and barley) instead of traditional gin or vodka for a martini that’s perfect for relaxing after a long day of training the next generation of shinobi.</t>
+  </si>
+  <si>
+    <t>1*cup*Ice,2*ounces*Shochu,2*ounces*dry Vermouth,1*teaspoon*Yuzu,1*strip*Lemon Peel</t>
+  </si>
+  <si>
+    <t>1. Combine the ice, shochu, vermouth, and yuzu juice in a cocktail shaker and shake well.||2. Strain and pour into a martini glass.||3. Take the lemon peel with both hands and twist it over the glass to express some of the oil, then rub the rim of the glass with it to add extra flavor. Garnish with the lemon peel and serve.</t>
   </si>
 </sst>
 </file>
@@ -2502,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="E193" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2568,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -2591,7 +2859,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2614,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -2637,7 +2905,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -2660,7 +2928,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -2683,7 +2951,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -2706,7 +2974,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -2729,7 +2997,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
@@ -2752,7 +3020,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
@@ -2775,7 +3043,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
@@ -2798,7 +3066,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
@@ -2821,7 +3089,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -2844,7 +3112,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
@@ -2867,7 +3135,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>65</v>
@@ -2890,7 +3158,7 @@
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
@@ -2936,7 +3204,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>79</v>
@@ -2959,7 +3227,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>83</v>
@@ -2982,7 +3250,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -3005,7 +3273,7 @@
         <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>91</v>
@@ -5544,24 +5812,30 @@
         <v>552</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>553</v>
+        <v>664</v>
+      </c>
+      <c r="F132" s="12">
+        <v>25</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C133" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="E133" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>558</v>
       </c>
       <c r="F133" s="14">
         <v>25</v>
@@ -5578,19 +5852,19 @@
     </row>
     <row r="134" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C134" s="15" t="s">
+      <c r="D134" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="E134" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>562</v>
       </c>
       <c r="F134" s="15">
         <v>30</v>
@@ -5611,7 +5885,7 @@
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
@@ -5624,19 +5898,19 @@
     </row>
     <row r="136" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C136" s="14" t="s">
+      <c r="D136" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="E136" s="14" t="s">
         <v>566</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>567</v>
       </c>
       <c r="F136" s="14">
         <v>30</v>
@@ -5653,19 +5927,19 @@
     </row>
     <row r="137" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C137" s="14" t="s">
+      <c r="D137" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="E137" s="14" t="s">
         <v>570</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>571</v>
       </c>
       <c r="F137" s="14">
         <v>15</v>
@@ -5682,19 +5956,19 @@
     </row>
     <row r="138" spans="1:13" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="B138" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C138" s="15" t="s">
+      <c r="D138" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="E138" s="15" t="s">
         <v>574</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>575</v>
       </c>
       <c r="F138" s="15">
         <v>25</v>
@@ -5741,19 +6015,19 @@
     </row>
     <row r="141" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C141" s="14" t="s">
+      <c r="D141" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="E141" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>579</v>
       </c>
       <c r="F141" s="14">
         <v>20</v>
@@ -5770,19 +6044,19 @@
     </row>
     <row r="142" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C142" s="15" t="s">
+      <c r="D142" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="E142" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>583</v>
       </c>
       <c r="F142" s="15">
         <v>10</v>
@@ -5803,7 +6077,7 @@
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
@@ -5816,19 +6090,19 @@
     </row>
     <row r="144" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C144" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C144" s="14" t="s">
+      <c r="D144" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="E144" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>588</v>
       </c>
       <c r="F144" s="14">
         <v>60</v>
@@ -5845,19 +6119,19 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="B145" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="D145" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="D145" s="15" t="s">
+      <c r="E145" s="14" t="s">
         <v>591</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>592</v>
       </c>
       <c r="F145" s="15">
         <v>30</v>
@@ -5878,7 +6152,7 @@
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
@@ -5891,19 +6165,19 @@
     </row>
     <row r="147" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="B147" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C147" s="15" t="s">
+      <c r="D147" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="E147" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>597</v>
       </c>
       <c r="F147" s="15">
         <v>115</v>
@@ -5924,7 +6198,7 @@
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
@@ -5937,19 +6211,19 @@
     </row>
     <row r="149" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C149" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="B149" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C149" s="14" t="s">
+      <c r="D149" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="E149" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>602</v>
       </c>
       <c r="F149" s="14">
         <v>80</v>
@@ -5966,19 +6240,19 @@
     </row>
     <row r="150" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C150" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B150" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C150" s="14" t="s">
+      <c r="D150" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="E150" s="14" t="s">
         <v>605</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>606</v>
       </c>
       <c r="F150" s="14">
         <v>35</v>
@@ -5995,19 +6269,19 @@
     </row>
     <row r="151" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C151" s="15" t="s">
+      <c r="D151" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="E151" s="14" t="s">
         <v>609</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>610</v>
       </c>
       <c r="F151" s="15">
         <v>70</v>
@@ -6028,7 +6302,7 @@
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
@@ -6041,19 +6315,19 @@
     </row>
     <row r="153" spans="1:13" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="D153" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="D153" s="15" t="s">
+      <c r="E153" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="F153" s="15">
         <v>210</v>
@@ -6100,19 +6374,19 @@
     </row>
     <row r="156" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C156" s="15" t="s">
+      <c r="D156" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="E156" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="F156" s="15">
         <v>90</v>
@@ -6159,19 +6433,19 @@
     </row>
     <row r="159" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B159" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C159" s="15" t="s">
+      <c r="D159" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="E159" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>623</v>
       </c>
       <c r="F159" s="15">
         <v>55</v>
@@ -6218,19 +6492,19 @@
     </row>
     <row r="162" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C162" s="14" t="s">
+      <c r="D162" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="E162" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>627</v>
       </c>
       <c r="F162" s="14">
         <v>40</v>
@@ -6247,19 +6521,19 @@
     </row>
     <row r="163" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="B163" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C163" s="15" t="s">
+      <c r="D163" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="E163" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>631</v>
       </c>
       <c r="F163" s="15">
         <v>20</v>
@@ -6306,19 +6580,19 @@
     </row>
     <row r="166" spans="1:13" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C166" s="15" t="s">
+      <c r="D166" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="E166" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="F166" s="15">
         <v>140</v>
@@ -6365,19 +6639,19 @@
     </row>
     <row r="169" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="B169" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C169" s="15" t="s">
+      <c r="D169" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="D169" s="15" t="s">
+      <c r="E169" s="14" t="s">
         <v>638</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>639</v>
       </c>
       <c r="F169" s="15">
         <v>340</v>
@@ -6398,7 +6672,7 @@
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
@@ -6415,7 +6689,7 @@
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
@@ -6428,19 +6702,19 @@
     </row>
     <row r="172" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="B172" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C172" s="14" t="s">
+      <c r="D172" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="E172" s="14" t="s">
         <v>644</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>645</v>
       </c>
       <c r="F172" s="14">
         <v>10</v>
@@ -6457,19 +6731,19 @@
     </row>
     <row r="173" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C173" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C173" s="14" t="s">
+      <c r="D173" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>648</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>649</v>
       </c>
       <c r="F173" s="14">
         <v>155</v>
@@ -6484,14 +6758,28 @@
       <c r="L173" s="14"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
+    <row r="174" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F174" s="14">
+        <v>35</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="14"/>
@@ -6499,14 +6787,28 @@
       <c r="L174" s="14"/>
       <c r="M174" s="14"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
+    <row r="175" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="F175" s="14">
+        <v>50</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
@@ -6514,14 +6816,28 @@
       <c r="L175" s="14"/>
       <c r="M175" s="14"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
+    <row r="176" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="F176" s="14">
+        <v>45</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="14"/>
@@ -6529,14 +6845,28 @@
       <c r="L176" s="14"/>
       <c r="M176" s="14"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
+    <row r="177" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F177" s="14">
+        <v>15</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -6544,14 +6874,28 @@
       <c r="L177" s="14"/>
       <c r="M177" s="14"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
+    <row r="178" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="F178" s="14">
+        <v>330</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="14"/>
@@ -6559,14 +6903,28 @@
       <c r="L178" s="14"/>
       <c r="M178" s="14"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
+    <row r="179" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+      <c r="A179" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="F179" s="14">
+        <v>740</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="14"/>
@@ -6574,14 +6932,28 @@
       <c r="L179" s="14"/>
       <c r="M179" s="14"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
+    <row r="180" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="F180" s="14">
+        <v>300</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="14"/>
@@ -6589,14 +6961,28 @@
       <c r="L180" s="14"/>
       <c r="M180" s="14"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
+    <row r="181" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F181" s="14">
+        <v>20</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -6604,14 +6990,28 @@
       <c r="L181" s="14"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
+    <row r="182" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A182" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F182" s="14">
+        <v>40</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -6619,14 +7019,28 @@
       <c r="L182" s="14"/>
       <c r="M182" s="14"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
+    <row r="183" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F183" s="14">
+        <v>35</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="14"/>
@@ -6634,14 +7048,28 @@
       <c r="L183" s="14"/>
       <c r="M183" s="14"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
+    <row r="184" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A184" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F184" s="14">
+        <v>30</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="14"/>
@@ -6649,14 +7077,28 @@
       <c r="L184" s="14"/>
       <c r="M184" s="14"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
+    <row r="185" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F185" s="14">
+        <v>15</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="14"/>
@@ -6664,14 +7106,28 @@
       <c r="L185" s="14"/>
       <c r="M185" s="14"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
+    <row r="186" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="F186" s="14">
+        <v>50</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="14"/>
@@ -6679,14 +7135,28 @@
       <c r="L186" s="14"/>
       <c r="M186" s="14"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
+    <row r="187" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="F187" s="14">
+        <v>40</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="14"/>
@@ -6694,81 +7164,246 @@
       <c r="L187" s="14"/>
       <c r="M187" s="14"/>
     </row>
+    <row r="188" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A188" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F188" s="14">
+        <v>15</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F189" s="14">
+        <v>20</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A190" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F190" s="14">
+        <v>25</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F191" s="14">
+        <v>10</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F192" s="14">
+        <v>5</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F193" s="14">
+        <v>5</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A194" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="D194" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F194" s="14">
+        <v>5</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A195" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F195" s="14">
+        <v>5</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="J169:J171"/>
-    <mergeCell ref="K169:K171"/>
-    <mergeCell ref="L169:L171"/>
-    <mergeCell ref="M169:M171"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="L166:L168"/>
-    <mergeCell ref="M166:M168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="M163:M165"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="G166:G168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="L163:L165"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="L159:L161"/>
-    <mergeCell ref="M159:M161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="M156:M158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:I158"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="L156:L158"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="I153:I155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="L153:L155"/>
-    <mergeCell ref="M153:M155"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="M138:M140"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="J142:J143"/>
+    <mergeCell ref="G138:G140"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I140"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="K138:K140"/>
+    <mergeCell ref="L138:L140"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="L142:L143"/>
+    <mergeCell ref="M142:M143"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="B153:B155"/>
     <mergeCell ref="C153:C155"/>
@@ -6792,60 +7427,79 @@
     <mergeCell ref="J147:J148"/>
     <mergeCell ref="K147:K148"/>
     <mergeCell ref="L147:L148"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="M138:M140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="G138:G140"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I140"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="K138:K140"/>
-    <mergeCell ref="L138:L140"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="M153:M155"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="M156:M158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:I158"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="M159:M161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="M163:M165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="G166:G168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="L163:L165"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="J169:J171"/>
+    <mergeCell ref="K169:K171"/>
+    <mergeCell ref="L169:L171"/>
+    <mergeCell ref="M169:M171"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="L166:L168"/>
+    <mergeCell ref="M166:M168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF571E9-03AF-430E-AADB-967B05C672D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF50B63-D54E-4EB5-8457-4B86CA72A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="761">
   <si>
     <t>Name</t>
   </si>
@@ -2303,6 +2303,30 @@
   </si>
   <si>
     <t>1. Combine the ice, shochu, vermouth, and yuzu juice in a cocktail shaker and shake well.||2. Strain and pour into a martini glass.||3. Take the lemon peel with both hands and twist it over the glass to express some of the oil, then rub the rim of the glass with it to add extra flavor. Garnish with the lemon peel and serve.</t>
+  </si>
+  <si>
+    <t>Narutomaki Sugar Cookies</t>
+  </si>
+  <si>
+    <t>A naruto inspired sugar cookie.</t>
+  </si>
+  <si>
+    <t>0.25*cup*Butter (softened),0.25*cup*Sugar,1*large*Egg,0.5*teaspoon*Vanilla Extract,0.75*cup*Flour,0.25*teaspoon*Salt,2*tablespoons*Matcha Powder,1*bowl*Coloured Sprinkles</t>
+  </si>
+  <si>
+    <t>1. Place the butter and sugar in a large bowl and stir until combined, then whisk in the egg and vanilla. Sift the flour and salt together, then add to the butter-sugar mixture and stir until well combined.||2. Place a sheet of plastic wrap on your work surface, then spread the mixture evenly on the wrap, making a roughly 9-by-9-inch square. Sprinkle the flavoring over the dough, keeping a 2-inch strip bare on one side.||3. Positioning the rectangle with the bare strip away from you, start at the near side and gently begin rolling up the dough into a cylinder. Use the plastic to guide the dough, and pull it away from the dough as it’s rolled. When the dough is rolled up, wrap it again in the plastic.||4. To create the crinkled narutomaki shape, wrap the dough log in a sushi rolling mat, pressing firmly once it’s fully wrapped to imprint the mat lines in the dough. Unwrap carefully so as to not lose any texture, then place in the freezer to firm up for at least 1 hour.||5. To bake, preheat the oven to 325 degrees Fahrenheit.||6. Unwrap the chilled dough and cut into quarter-inch slices. Arrange the cookies 1 inch apart on parchment-lined baking sheets, then bake for 11 to 14 minutes, until lightly golden.||7. Transfer to wire racks to cool.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 325 degrees F. Line an 8-by-4-inch loaf pan with parchment paper or grease with oil, then set aside.||2. In a large bowl, beat the eggs with a hand mixer set on high.||3. Add the sugar, and keep mixing at high speed for about 8 to 10 minutes until stiff peaks form in the batter. It will grow in size dramatically—this foam is what gives the cake lift! Take care not to overbeat it once the peaks are achieved, otherwise it could start to collapse. Turn the speed down to low, then mix in 3 tablespoons of honey and the salt.||4. Sift the flour into a separate bowl, then add about one-third of the flour to the egg mixture and beat on low speed until combined. Repeat this twice more until all the flour has been combined.||5. Pour half of the batter into a separate bowl. Add the cocoa powder to the second bowl and stir until combined.||6. To create the marble effect, first pour some of the plain batter into the prepared baking pan. Top it with some of the chocolate batter, then more of the plain. Repeat this process until you have about half a cup of each batter left. Draw a knife through the poured batter to create swirls in the cake, then carefully pour the remaining plain batter on top, smoothing it out over the center of the surface. To create the curse marks, pour three circles of the remaining chocolate batter, arranged in a small triangle, in the middle of the cake, then draw the knife through each circle in an outward motion, creating a comma shape with each one.||7. Bake on the middle rack for 40 minutes, until a skewer inserted into the center comes out clean. If not, continue baking for 5-minute intervals until the correct doneness is achieved.||8. Flip the cake over on the counter to remove from the pan, then immediately cover with plastic wrap. When cooled, remove the wrap and trim off the sides of the cake, exposing the marbled cake underneath.||9. Just before serving, mix the remaining 1 tablespoon of honey with 1 tablespoon of water and brush on the top.</t>
+  </si>
+  <si>
+    <t>4*large*Eggs (room temperature),0.5*cup*Sugar,4*tablespoons*Honey,0.125*teaspoon*Salt,0.6*cup*Bread Flour,1*tablespoon*Unsweetened Cocoa Powder</t>
+  </si>
+  <si>
+    <t>This honeyed sponge cake has a long history in Japan as well as in Konoha village. They’re traditionally served plain, but the chocolate marble in this variation serves to mimic Sasuke’s curse marks—though with a sweeter result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasuke's Curse Mark Castella </t>
   </si>
 </sst>
 </file>
@@ -2770,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E193" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7348,20 +7372,168 @@
         <v>11</v>
       </c>
     </row>
+    <row r="196" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F196" s="14">
+        <v>95</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F197" s="14">
+        <v>75</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="J169:J171"/>
+    <mergeCell ref="K169:K171"/>
+    <mergeCell ref="L169:L171"/>
+    <mergeCell ref="M169:M171"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="K166:K168"/>
+    <mergeCell ref="L166:L168"/>
+    <mergeCell ref="M166:M168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="M163:M165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="G166:G168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="I166:I168"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="L163:L165"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="L159:L161"/>
+    <mergeCell ref="M159:M161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="M156:M158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:I158"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="M153:M155"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="M142:M143"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
     <mergeCell ref="M138:M140"/>
     <mergeCell ref="A142:A143"/>
     <mergeCell ref="B142:B143"/>
@@ -7386,120 +7558,18 @@
     <mergeCell ref="F138:F140"/>
     <mergeCell ref="K142:K143"/>
     <mergeCell ref="L142:L143"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="I153:I155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="L153:L155"/>
-    <mergeCell ref="M153:M155"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="M156:M158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:I158"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="L156:L158"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="L159:L161"/>
-    <mergeCell ref="M159:M161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="M163:M165"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="G166:G168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="L163:L165"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="J169:J171"/>
-    <mergeCell ref="K169:K171"/>
-    <mergeCell ref="L169:L171"/>
-    <mergeCell ref="M169:M171"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="L166:L168"/>
-    <mergeCell ref="M166:M168"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF50B63-D54E-4EB5-8457-4B86CA72A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714913DF-813E-4B11-B28A-80CD90992704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="834">
   <si>
     <t>Name</t>
   </si>
@@ -2327,6 +2327,229 @@
   </si>
   <si>
     <t xml:space="preserve">Sasuke's Curse Mark Castella </t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>2.25*teaspoons*Active Dry Yeast,1.5*cups*Warm Water,3.5*cups*Flour,2*tablespoons*Salted Butter (melted),1*teaspoon*Kosher Salt,0.5*cup*Salted Butter (melted for topping),1*bunch*Assorted Toppings</t>
+  </si>
+  <si>
+    <t>Inventory Bread</t>
+  </si>
+  <si>
+    <t>Hoglins and Lava</t>
+  </si>
+  <si>
+    <t>Dragon's Breath</t>
+  </si>
+  <si>
+    <t>Smelted Nuggets</t>
+  </si>
+  <si>
+    <t>This recipe takes the concept of monkey bread, a delicious pull-apart dish perfect for parties, and turns it into a colorful collection of edible Minecraft blocks, a reminder of the great things we can craft from humble components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These real-life puff pastry sausage herds , topped with poppy seeds and a Buffalo sauce–inspired lava.</t>
+  </si>
+  <si>
+    <t>It’s a multiuse condiment that enhances salad, meats, veggies, and breads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Combine the yeast and ¼ cup warm water in the bowl of a stand mixer fitted with a dough hook. Let stand 10 minutes or until foamy.||2. Add the rest of the water, flour, butter, and kosher salt to the bowl. Mix with a dough hook attachment, slowly at first, then on medium speed once the flour is incorporated. Mix for 5 minutes or until a sticky dough forms. If you don’t have a mixer, mix the dough together by hand, then knead it on a floured surface for 5 minutes.||3. Move the dough into a large oiled bowl and cover with a damp towel. Let sit in a warm location for 1 hour, or until the dough has doubled in size.||4. While waiting for the dough to rise, prep your ingredients. Put each block’s seasoning mix on its own flat plate.||5. Transfer the dough to a floured surface, punch it down, and using a sharp knife or a pizza cutter, divide the dough into 32 separate cubes.||6. Dip each cube in melted butter (with the exception of the lava and moss stone variations), then roll in the seasonings of choice to create whatever block types you want. Place each cube in a greased 8-by-8-inch square pan so they’re lightly stacked on top of each other. Cover the pan with plastic wrap and let rise for 30 minutes or until doubled in size.||7. While waiting for the dough to rise, preheat your oven to 400 degrees Fahrenheit. Once risen, place the pan in the oven for 30 minutes or until the bread is golden brown.||8. Remove the pan from the oven and let cool for 5 minutes.||9. Take a spatula or butter knife and run it along the edges to loosen the bread, and remove. Serve with the top side up. The individual cubes will be stuck together into a larger block but can be pulled apart evenly.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 425 degrees Fahrenheit and cover a baking sheet with parchment paper. Set aside.||2. Sprinkle flour over a flat surface and roll out the thawed puff pastry sheet to a 10-by-14-inch rectangle.||3. Using a sharp knife or a pizza cutter, cut the pastry into 24 equally sized rectangles. Place one sausage at the base of each pastry rectangle (long side of the rectangle up) and roll up the sausage in the pastry. Pinch the seam closed.||4. Whisk the egg and water together and brush the top of each puff pastry sausage. Sprinkle a small line of poppy seeds in the centre of each top.||5. Bake for 20 to 25 minutes or until the puff pastry is golden brown and flaky.||6. While baking, make the lava dip: Combine the hot sauce, butter, vinegar, Worcestershire sauce, cayenne pepper, garlic powder, and paprika in a saucepan over medium heat. Whisk continuously until the mixture starts to boil (about 3 minutes). Mix together the cornstarch and water in a small bowl and add the slurry into the saucepan. Reduce heat to medium-low, cover, and let simmer for 5 minutes or until sauce has thickened.||7. Stir, remove from heat, and let cool for 5 minutes before serving.||8. Once the hoglins have finished baking, place them on a platter with a small bowl of the lava dip on the side.</t>
+  </si>
+  <si>
+    <t>1. Place the vinegar, sugar, and salt in a small saucepan over medium heat and stir while cooking until the sugar and salt dissolve, about 1 minute.||2. Remove the saucepan from the heat and add the onion. Set aside to pickle for 1 hour.||3. Place the olive oil, lemon juice, garlic cloves, red pepper, and black pepper in a 10-ounce mason jar, then add the pickled onions and vinegar. Seal the jar and shake for 20 seconds or until emulsified. Refrigerate and shake quickly before using.</t>
+  </si>
+  <si>
+    <t>1. Heat oil on high in a large saucepan or Dutch oven until it reaches 375 degrees Fahrenheit. Adjust the stove’s heat to medium and monitor the temperature of the oil, keeping it consistently at 375 degrees Fahrenheit.||2. Mix together the flour, baking soda, salt, pepper, and garlic powder in a large bowl, then add the buttermilk and egg. Whisk together until fully combined.||3. Place the cheese curds in the batter mixture, fully coating the curds, and fish them out with a slotted spoon.||4. Place 8 to 10 of the cheese curds in the hot oil at a time, being careful not to crowd.||5. Fry for 1 minute, flipping over halfway through, then remove, placing on a paper towel–lined plate to drain and cool.||6. Bring the oil back to 375 degrees Fahrenheit and fry the next batch. Continue with the rest of the cheese curds.</t>
+  </si>
+  <si>
+    <t>2*tablespoons*Flour,1*packet*Frozen Puff Pastry Sheet (thawed),24*mini*Cocktail Sausages,1*null*Egg,1*tablespoon*Water,1*packet*Poppy Seeds,1*cup*Cayenne Hot Sauce,0.5*cup*Unsalted Butter,2*tablespoons*White Vinegar,0.5*teaspoon*Worcestershire Sauce,0.5*teaspoon*Cayenne Pepper,0.5*teaspoon*Garlic Powder,0.25*teaspoon*Paprika,1*tablespoon*Cornstarch,1*tablespoon*Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25*cup*Red Wine Vinegar,1*tablespoon*Sugar,0.75*teaspoon*Kosher Salt,0.25*null*Red Onion (sliced thin),0.3*cup*Extra Virgin OilveOil,0.25*cup*Lemon Juice,10*cloves*Garlic,025*teaspoon*Red Pepper Flakes,0.25*teaspoon*Black Pepper </t>
+  </si>
+  <si>
+    <t>18*ounces*Vegetable Oil,1*cup*Flour,1*teaspoon*Baking Soda,0.5*teaspoon*Black Pepper,0.5*teaspoon*Garlic Powder,1*cup*Buttermilk,1*null*Egg,1*pound*Cheese Curds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warped Forest Flatbread Pizza </t>
+  </si>
+  <si>
+    <t>28*ounce*Can of Whole Peeled Tomatoes (San Marzano if possible),0.5*teaspoon*Kosher Salt,0.25*cup*Olive Oil,1*dash*Red Pepper Flakes,1.5*cups*Flour,0.5*teaspoon*Salt,0.5*teaspoon*Dried Rosemary,0.5*cup*Water,1.5*tablespoons*Olive Oil (dough),1*sprinkle*Cornmeal,6*ounces*Whole Milk Mozzarella (low moisture and cut into half-inch cubes),1.5*tablespoons*Sun-dried Tomatoes,2*null*Cremini Mushrooms (sliced thin),0.25*cup*Baby Arugula,1*bowl*Parmesan (grated)</t>
+  </si>
+  <si>
+    <t>1. Pour the contents of the can of tomatoes into a bowl and crush the tomatoes by hand until a chunky sauce forms. Whisk in the salt and olive oil until the olive oil and tomato sauce are fully emulsified, and incorporate red pepper flakes if you’d like the sauce to be spicy. Refrigerate until you’re ready to use. (You’ll have some sauce left over after this recipe.|| For the Flatbread: 1. Preheat the oven as high as it will go (most likely 500 degrees Fahrenheit to 550 degrees Fahrenheit). Place a baking sheet in the oven while it preheats.||2. Combine the flour, salt, and rosemary in a large bowl.||3. Add the water and the olive oil, mixing with your hands until fully combined.||4. Move the dough to a floured surface and knead for 1 minute, until the dough is smooth and elastic. (Add more flour 1 tablespoon at a time if the dough is too sticky.)||5. Roll the dough into a long, flat oval (about 16 by 8 inches).||6. Using oven mitts, remove the baking sheet and sprinkle with cornmeal. Place the dough oval on the baking sheet and set back in the oven, baking for 5 to 7 minutes or until the edges are starting to turn golden brown, but it’s not fully cooked. (You’ll continue baking after adding the toppings.)||7. Remove from the oven. Place 3 quarters of a cup of sauce in the middle of the flatbread and use the back of a spoon to lightly spread it around the rest of the crust, leaving a half-inch border around the edge. Sprinkle the mozzarella evenly on top of the sauce and top with the sun-dried tomatoes and mushrooms. Brush the crust edges with olive oil.||8. Bake for an additional 6 minutes, or until the crust is brown and the cheese is melted and beginning to brown.||9. Remove the flatbread from the oven and onto a cutting board. Let sit for a few minutes, then top with arugula. Shake grated Parmesan, some red pepper flakes, and a dash of oregano on top.||10. Cut into squares to serve.</t>
+  </si>
+  <si>
+    <t>Chicken Jockey Sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here’s a satisfying pesto and bacon-covered chicken sandwich, inspired by the rare but unforgettable sight of a zombified piglin on a chicken</t>
+  </si>
+  <si>
+    <t>4*slices*Bacon (thick-cut),1*null*Chicken Breast (boneless and skinless),0.25*teaspoon*Salt,0.25*teaspoon*Pepper,2*slice*Provolone Cheese,2*null*Brioche Buns (split),2*tablespoons*Mayonnaise,2*tablespoons*Pesto,2*slices*Tomato,2*pieces*Lettuce</t>
+  </si>
+  <si>
+    <t>1. Place the bacon slices in a large skillet on medium-high heat and cook for 3 minutes on each side, or until bacon is crispy. Remove the bacon and place on a paper towel–lined plate, leaving the bacon grease in the skillet.||2. Cut the chicken breast in half lengthwise, cover with parchment paper, and pound with a mallet (or another heavy, blunt utensil, like a rolling pin) until both pieces are of even thickness, about half inch. Salt and pepper both sides of the breast pieces and place them in the large skillet on medium-high heat. Cook the chicken for 3 to 4 minutes on each side, or until chicken is cooked through. (The chicken should feel firm to the touch and have an internal temperature of 165 degrees Fahrenheit.)||3. In the last minute of cooking, add the provolone cheese to the top of each chicken breast piece and let melt.||4. Toast brioche buns, then spread a light layer of mayo on the inside of each bun.||5. Place the chicken on the bottom buns, then spread a layer of pesto on top of the melted cheese.||6. Top with 2 slices of bacon for each sandwich, then tomato, lettuce, and the top bun.</t>
+  </si>
+  <si>
+    <t>Farmland Smorgastarta</t>
+  </si>
+  <si>
+    <t>4*null*Eggs (hard-boiled and minced),0.3*cup*Mayonnaise,1*null*Green Onion (minced),0.5*tablespoon*Dijon Mustard,0.5*teaspoon*Lemon Juice,0.25*teaspoon*Paprika,1*cup*Rotisserie Chicken (chopped),0.25*cup*Mayonnaise (chicken salad),1*stalk*Celery (chopped),1*null*Green Onion (minced for the chicken salad),0.5*teaspoon*Dijon Mustard (chicken salad),0.5*teaspoon*Dill,0.25*teaspoon*Salt,1*dash*Pepper,6*ounces*Cream Cheese,0.6*cup*Sour Cream,0.25*cup*Mayonnaise (smorgastarta),0.5*teaspoon*Dill (smorgastarta),1*dash*Salt (smorgastarta),1*dash*Pepper (smorgastarta),10*slices*White Bread,1*null*Cucumber,1*null*Radish</t>
+  </si>
+  <si>
+    <t>1. To make the individual salads: For the egg salad combine the eggs, mayonnaise, green onion, dijon mustard, lemon juice and paprika in a bowl and refrigerate until ready to use. For the chicken salad combine the chicken, mayonnaise, celery, green onion, dijon mustard, dill, salt and pepper in a bowl.||2. To make the smörgåstårta: Combine the cream cheese, sour cream, mayonnaise, dill, salt, and pepper in a bowl and mix until smooth.||3. Cut the crusts off of the bread slices, then place 2 slices side by side on a serving plate. Top one slice with egg salad, spread evenly and place a slice of bread on top.||4. Top the other slice with chicken salad, spread evenly, and place a slice of bread on top.||5. Repeat, this time putting egg salad atop the chicken salad side and vice versa. Top with bread and continue alternating salads and bread slices until you have a rectangular cake that’s 5 slices of bread and salad high and 2 slices wide.||6. Frost the bread cake’s top and sides with the cream cheese mixture. Slice the cucumber and radish thinly with a mandoline or a sharp knife, then decorate the sides and top of the cake with the sliced vegetables. Refrigerate for at least 30 minutes. Cut and serve just like you would cake!</t>
+  </si>
+  <si>
+    <t>1. Mix all ingredients together and place in a jar.||2. When time to prep meat, sprinkle on 2 tablespoons per pound of meat or vegetables and rub it in with your hands, making sure to cover the meat or vegetables evenly. Let rest for at least 15 minutes, then cook the meat as you would otherwise.</t>
+  </si>
+  <si>
+    <t>Redstone Dust Rub</t>
+  </si>
+  <si>
+    <t>A spicy, smoky, and sweet flavor—perfect for chicken, ribs, or anything you want to put on a grill.</t>
+  </si>
+  <si>
+    <t>Decorate the outside to look like your farmland and favorite plants, then cut into delicious slices of satisfying, layered sandwiches.</t>
+  </si>
+  <si>
+    <t>A fast flatbread pizza. Mushrooms, sun-dried tomatoes, and arugula represent crimson fungus, crimson roots, and warped nylium.</t>
+  </si>
+  <si>
+    <t>Breaded, melted cheese</t>
+  </si>
+  <si>
+    <t>0.25*cup*Dark Bronw Sugar,2*tablespoons*Smoked Paprika,2*tablespoons*Kosher Salt,1*tablespoons*Garlic Powder,1*tablespoon*Chili Powder,2*teaspoons*Black Pepper,1*teaspoon*Onion Powder,1*teaspoon*Cayenne Pepper,1*teaspoon*Cumin</t>
+  </si>
+  <si>
+    <t>Buried Treasure Pie</t>
+  </si>
+  <si>
+    <t>Cut through the flaky crust of this “treasure chest,” and you’ll be rewarded with deliciously cooked salmon. And although it’s not the heart of the sea, the salmon is sitting on a bed of spinach, which is good for your heart.</t>
+  </si>
+  <si>
+    <t>2*tablespoons*Salted Butter,1*null*Yellow Onion,6*cups*Baby Spinach,2*cloves*Garlic (minced),0.6*cup*Cream Cheese,0.25*cup*Dried Bread crumbs,0.25*cup*Parmesan (grated),0.75*teaspoon*Kosher Salt,0.5*teaspoon*Black Pepper,2*tablespoon*Flour,2*sheets*Frozen Puff Pastry (thawed),4*null*6 ounce Salmon Fillets (skin removed),0.5*null*Lemon Juice ,1*null*Egg,1*tablespoon*Water</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees Fahrenheit and line a baking sheet with parchment paper. Set aside.||2. Melt the butter in a large saucepan over medium heat and add the diced onion. Saute for 3 to 5 minutes or until the onions are soft and translucent.||3. Add the spinach and garlic and cook for 1 minute, or until the spinach begins to wilt. Add the cream cheese, and once it melts, add the bread crumbs, Parmesan, and a quarter teaspoon each of salt and pepper. Mix together and remove from heat.||4. Flour a cutting board, then unfold the pastry sheets and cut both sheets in half. Using a rolling pin, flatten each sheet to half its thickness. Season both sides of the salmon fillets with salt and pepper, then place one fillet, top side down, in the middle of each pastry sheet. Squeeze a small amount of lemon juice on each fillet.||5. Top the salmon with a quarter of the spinach mixture and spread so it covers the fillet evenly.||6. Fold up the edges of the puff pastry like you’re wrapping a present, then place the pastry packets on the parchment paper–covered baking sheet, seam side down.||7. Using a sharp knife, cut slits in the shape of an x in the middle of the pastry packets.||8. Make an egg wash by whisking the egg and water, then brush on the top of each pastry packet.||9. Bake for 30 minutes or until the pastry is golden and flaky.</t>
+  </si>
+  <si>
+    <t>Potion of Night Vision</t>
+  </si>
+  <si>
+    <t>The vitamins in this carrot cake–inspired smoothie improve your night vision</t>
+  </si>
+  <si>
+    <t>1*cup*Coconut Milk,0.5*cup*Frozen Carrots,1*null*Banana (frozen),0.25*cup*Vanilla Greek Yogurt,0.5*teaspoon*Vanilla Extract,0.25*teaspoon*Cinnamon,1*dash*Ginger,1*dash*Nutmeg</t>
+  </si>
+  <si>
+    <t>1. Place all ingredients in a blender and blend on high for 1 minute or until smooth.||2. Pour into a glass and top with another dash of nutmeg.</t>
+  </si>
+  <si>
+    <t>1. Muddle the blueberries and mint leaves at the bottom of a shaker.||2. Add ice, simple syrup, and lime juice, and shake until the shaker is frosted.||3. Strain into a glass with ice and pour the sparkling water on top.||4. Give a gentle stir and garnish with blueberries and mint on a skewer.</t>
+  </si>
+  <si>
+    <t>15*null*Blueberries,5*null*Mint Leaves (fresh),1*packet*Ice,1*ounce*Simple Syrup,1*ounce*Lime Juice,4*ounces*Sparkling Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The recipe uses blueberries instead of the namesake fruit and includes a bit of sparkling water to put a spring in your step—whether you want it there or not.</t>
+  </si>
+  <si>
+    <t>Chorus Fruit Spritzer</t>
+  </si>
+  <si>
+    <t>TNTea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brew a cup of this sweet and cinnamony black tea</t>
+  </si>
+  <si>
+    <t>1*teaspoon*Black Tea,0.25*teaspoon*Sparkling Sugar,0.25*teaspoon*Popping Candy,1*dash*Cinnamon</t>
+  </si>
+  <si>
+    <t>1. Mix together all ingredients in a small bowl, then place in a tea sachet. (If making more than one serving at a time, multiply the ingredient list accordingly, then scoop 1 and half  teaspoons of the mixture into each sachet.)||2. Place the sachet in hot water and steep for 3 to 5 minutes or until your desired strength is achieved.</t>
+  </si>
+  <si>
+    <t>Creeper Cleanse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Banish that creeper vibe from your mind with this green lemonade-like concoction, full of electrolytes, antioxidants, fruits, and veggies.</t>
+  </si>
+  <si>
+    <t>1*cup*Coconut Water,0.25*cup*Lemon Juice,1*cup*Packed Spinach,1*null*Green Apple (cored and sliced),1*stalk*Celery (trimmed and cut into 4 large pieces),1*small*Ginger Root Knob (peeled),1*tablespoon*Honey,5*null*Ice Cubes</t>
+  </si>
+  <si>
+    <t>1. Place all ingredients except for ice in a blender and blend for 2 minutes or until smooth.||2. Strain through a sieve and into an ice-filled glass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torch Shooter </t>
+  </si>
+  <si>
+    <t>7*large*Egg Yolks,0.6*cup*Sugar,3*cups*Heavy Whipping Cream,1*teaspoon*Vanilla Extract,0.5*cup*Semisweet Chocolate Chips,1*jug*Hot Water</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 300 degrees Fahrenheit.||2. Whisk the egg yolks with half a cup of sugar until light and fluffy.||3. Heat cream in a large saucepan for 3 minutes or until bubbles start to form along the edges. Remove from heat.||4. Incorporate a quarter cup of the hot cream into the egg yolk mixture, then transfer the yolk mixture into the large saucepan with the rest of the cream. Add in the vanilla and stir.||5. Place a third of the mixture into a separate bowl and set aside. Add the chocolate chips to the remaining custard in the saucepan. Stir until fully melted and combined.||6. Pour the chocolate custard mixture into the dessert shooters, filling each shooter halfway.||7. Pour the vanilla custard slowly over the back of a spoon to layer on top of the chocolate. Fill until the shooters are 3 quarters full.||8. Place the shooters in a tall-rimmed baking dish and fill the dish with hot water at least halfway up the sides of the shooters.||9. Place in the oven and bake for 35 minutes or until the creme brulee is set but still jiggly. Remove the shooters from the pan and let cool at room temperature for 15 minutes.||10. Move to the fridge and let chill for at least 1 hour.||11. Sprinkle a teaspoon of sugar on the top of each shooter and torch the sugar using a culinary torch until it is fully melted and caramelized.</t>
+  </si>
+  <si>
+    <t>A chocolate-and-vanilla-layered creme brulee is topped with sugar and flambéed with fire</t>
+  </si>
+  <si>
+    <t>Blocks of Clay Fudge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Although these look just like clay blocks, they taste more like your favorite cookies and cream ice cream.</t>
+  </si>
+  <si>
+    <t>4*cups*cream-filled Sandwich Cookies,14*ounce*Can Sweetened Condensed Milk,0.125*teaspoon*Salt,18*ounces*White Chocolate Chips,1*teaspoon*Vanilla Extract</t>
+  </si>
+  <si>
+    <t>1. Place half of the cookies in a blender or food processor and process for 10 seconds or until they make a fine crumb. Add the other half and pulse until the second half is coarsely chopped. Set aside.||2. Line an 8-by-8-inch square pan with parchment or wax paper and set aside.||3. Place the sweetened condensed milk and salt in a medium saucepan over medium-low heat until it begins to simmer, stirring often. Adjust the heat to low and add the white chocolate chips and vanilla extract, stirring until just starting to melt. Turn off the heat and continue to stir until fully melted.||4. Once fully melted and combined, stir in the cookie crumbs.||5. Place the fudge mixture in the parchment paper–lined square pan and spread evenly.||6. Chill in the refrigerator for at least 2 hours or until firm.
+7. Cut the fudge into 64 squares, about half an inch each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheep's Wool </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The pulled sugar makes thin strands reminiscent of wool, and much like the in-game sheep, you can dye this treat an assortment of colors.</t>
+  </si>
+  <si>
+    <t>1*cup*Water,5*drops*Food Colouring (of choice),2*drops*Flavouring (optional),2*cups*White Sugar,0.25*cup*Corn Starch,0.5*teaspoon*White Vinegar,1*cup*Cornstarch</t>
+  </si>
+  <si>
+    <t>1. Line a 9-by-9-inch baking dish with parchment paper and set aside.||2. Combine the sugar, honey, and water in a medium pot over high heat. Bring the mixture to a boil, stirring constantly.||3. Reduce the heat to medium-high and cook for 5 to 7 minutes, stirring often, until the mixture darkens and the candy thermometer reaches 300 degrees Fahrenheit.||4. Remove from heat and whisk in the baking soda. It will bubble up very quickly.||5. Pour the mixture into the baking dish, scraping it all out with a spatula. Slowly tilt the dish to even out the mixture if needed, but do not stir, or you will deflate the bubbles.||6. Let cool for 30 minutes or until the honey block has hardened. Cut into blocks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glazed Terracotta Cookies </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some preplanning and rolling of various colored doughs will give you artful cookies that almost look too good to eat.</t>
+  </si>
+  <si>
+    <t>1*cup*Unsalted Butter,1*cup*Granulated Sugar,1*null*Egg,1*teaspoon*Vanilla,3*cups*Flour,2*teaspoons*Baking Powder,0.5*teaspoon*Kosher Salt,1*packet*Gel Food Colouring (of choice)</t>
+  </si>
+  <si>
+    <t>1. Mix the butter and sugar in a mixer until it is light and creamy.||2. Add in the egg and vanilla, mixing fully in between each addition.||3. Mix the flour, baking powder, and salt together in a separate bowl, then slowly add into the wet mixture until everything is fully mixed.||4. Divide the dough into separate small bowls, one for each color you want to include in your tile. You might want to sketch out the design of your tile to guide you through the next steps. Or improvise and see what happens!||5. Place a few drops of gel food coloring into each bowl and mix with the dough until it reaches your desired color. (You may want to wear gloves to prevent your hands from getting stained!)||6. Roll each batch of colored dough into a long cylinder. You’re going to stack them together to form a single, thicker cylinder; slices of the cylinder will become your tiles. Consult your sketch, if you have one, and stack the tubes of dough on top of each other lengthwise so the colors line up where you want them. Look at the end of tube to see what the cross section will look like.||7. If you want your tile to include a specific shape in the center, you can roll one of the colored dough batches flat and cut out shapes with a cookie cutter. Stack the shapes on top of each other. Roll the other dough batches into long cylinders and use them to fill in the spaces around the cutout stack, creating a log with the cutout shape inside.||8. With the colors arranged correctly, press the dough together and form everything into a single cylinder.||9. Take the full log of dough and flatten it on four sides, creating a squared column. Wrap with plastic wrap and refrigerate for at least 1 hour.||10. Preheat the oven to 350 degrees Fahrenheit and line two baking sheets with parchment paper.||11. Take the log from the refrigerator and slice it into half-inch tiles. Place them on the baking sheets. Bake for 8 to 10 minutes or until set and barely golden on the edges. Let cool on the baking sheets for 5 minutes, then transfer to a wire rack to cool completely.</t>
+  </si>
+  <si>
+    <t>Cocoa Chunk Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These are large treats with crispy edges, a gooey middle, and flakes of salty crunch to complement the sugar and chocolate—everything the perfect cookie should be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*cup*Salted Butter,1*cup*Brown Sugar,0.5*cup*Sugar,2*null*Eggs,1*teaspoon*Vanilla,2.5*cups*Flour,1*teaspoon*Salt,0.75*teaspoon*Baking Soda,1.5*cups*Dark Chocolate Chunks,0.5*cup*Chopped Walnuts,1*dash*Flake Salt </t>
+  </si>
+  <si>
+    <t>1. Mix the butter in a mixer until it is light and creamy, then mix in both sugars.||2. Add in each egg one at a time, mixing in between each addition. Add the vanilla, and mix fully.||3. Mix the flour, salt, and baking soda together in a separate bowl, then slowly add into the wet mixture until everything is fully mixed.||4. Stir in the chocolate chunks. You may also add chopped walnuts.||5. Cover the top of the bowl of cookie dough with plastic wrap and refrigerate for 1 hour.||6. Preheat the oven to 375 degrees F, 15 minutes before removing the cookie dough from the fridge. Cover the cookie sheets with parchment paper.||7. Using the cookie scoop, drop round balls of cookie dough onto the cookie sheets, 2 inches apart from each other. Top each cookie with a small sprinkling of flake salt, lightly pressing into the tops.||8. Bake for 13 to 15 minutes, or until the edges of the cookies are light brown.|| 9. Cool for 5 minutes, then transfer to a wire rack to finish cooling.</t>
   </si>
 </sst>
 </file>
@@ -2794,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="B214" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7303,14 +7526,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
         <v>741</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="1" t="s">
         <v>742</v>
       </c>
       <c r="D193" s="14" t="s">
@@ -7326,14 +7549,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>745</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="1" t="s">
         <v>746</v>
       </c>
       <c r="D194" s="14" t="s">
@@ -7349,14 +7572,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>749</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="1" t="s">
         <v>750</v>
       </c>
       <c r="D195" s="14" t="s">
@@ -7372,7 +7595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>753</v>
       </c>
@@ -7395,14 +7618,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
         <v>760</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D197" s="14" t="s">
@@ -7417,6 +7640,2838 @@
       <c r="G197" s="14" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="198" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A198" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F198" s="14">
+        <v>150</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A199" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F199" s="14">
+        <v>30</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F200" s="14">
+        <v>65</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A201" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F201" s="14">
+        <v>10</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F202" s="1">
+        <v>25</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F203" s="1">
+        <v>20</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F204" s="1">
+        <v>30</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F205" s="1">
+        <v>5</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F206" s="1">
+        <v>50</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F207" s="1">
+        <v>5</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F208" s="1">
+        <v>5</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F209" s="1">
+        <v>5</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="F210" s="1">
+        <v>5</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F211" s="1">
+        <v>130</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F212" s="1">
+        <v>10</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F213" s="1">
+        <v>150</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="1:9" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F214" s="1">
+        <v>100</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="F215" s="1">
+        <v>90</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="13"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="13"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="13"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="12"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="12"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="12"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="12"/>
+      <c r="B323" s="12"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="12"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="12"/>
+      <c r="B325" s="12"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="12"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="12"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="12"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="12"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="12"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="12"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="12"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="12"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="12"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="12"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="12"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="12"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="12"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="12"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="12"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="12"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="12"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="12"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="12"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="12"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="12"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="12"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="12"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="12"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="12"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="12"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="12"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="12"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="12"/>
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="12"/>
+      <c r="B356" s="12"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="12"/>
+      <c r="B357" s="12"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="12"/>
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="12"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="12"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="12"/>
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="12"/>
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="12"/>
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="12"/>
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="12"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="12"/>
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="12"/>
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="12"/>
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="12"/>
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="12"/>
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="12"/>
+      <c r="B371" s="12"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="12"/>
+      <c r="B372" s="12"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="12"/>
+      <c r="B373" s="12"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="12"/>
+      <c r="B374" s="12"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="12"/>
+      <c r="B375" s="12"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="12"/>
+      <c r="B376" s="12"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="12"/>
+      <c r="B377" s="12"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="12"/>
+      <c r="B378" s="12"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="12"/>
+      <c r="B379" s="12"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="12"/>
+      <c r="B380" s="12"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="12"/>
+      <c r="B381" s="12"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="12"/>
+      <c r="B382" s="12"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="12"/>
+      <c r="B383" s="12"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="12"/>
+      <c r="B384" s="12"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="12"/>
+      <c r="B385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="12"/>
+      <c r="B386" s="12"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="12"/>
+      <c r="B387" s="12"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="12"/>
+      <c r="B388" s="12"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="12"/>
+      <c r="B389" s="12"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="12"/>
+      <c r="B390" s="12"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="12"/>
+      <c r="B391" s="12"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="12"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="12"/>
+      <c r="B392" s="12"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="12"/>
+      <c r="B393" s="12"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="12"/>
+      <c r="B394" s="12"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="12"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="12"/>
+      <c r="B395" s="12"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="12"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="12"/>
+      <c r="B396" s="12"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="12"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="12"/>
+      <c r="B397" s="12"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="12"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="12"/>
+      <c r="B398" s="12"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="12"/>
+      <c r="B399" s="12"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="12"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="12"/>
+      <c r="B400" s="12"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="12"/>
+      <c r="B401" s="12"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="12"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="12"/>
+      <c r="B402" s="12"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="12"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="12"/>
+      <c r="B403" s="12"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="12"/>
+      <c r="B404" s="12"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="12"/>
+      <c r="B405" s="12"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="12"/>
+      <c r="B406" s="12"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="12"/>
+      <c r="B407" s="12"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="12"/>
+      <c r="B408" s="12"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="12"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="12"/>
+      <c r="B409" s="12"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="12"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="12"/>
+      <c r="B410" s="12"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="12"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="12"/>
+      <c r="B411" s="12"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="12"/>
+      <c r="B412" s="12"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="12"/>
+      <c r="B413" s="12"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="12"/>
+      <c r="B414" s="12"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="12"/>
+      <c r="B415" s="12"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="12"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="12"/>
+      <c r="B416" s="12"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="12"/>
+      <c r="B417" s="12"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="12"/>
+      <c r="B418" s="12"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="12"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="12"/>
+      <c r="B419" s="12"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="12"/>
+      <c r="B420" s="12"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="12"/>
+      <c r="B421" s="12"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="12"/>
+      <c r="B422" s="12"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="12"/>
+      <c r="B423" s="12"/>
+      <c r="C423" s="12"/>
+      <c r="D423" s="12"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="12"/>
+      <c r="B424" s="12"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="12"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="12"/>
+      <c r="B425" s="12"/>
+      <c r="C425" s="12"/>
+      <c r="D425" s="12"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="12"/>
+      <c r="B426" s="12"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="12"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="12"/>
+      <c r="B427" s="12"/>
+      <c r="C427" s="12"/>
+      <c r="D427" s="12"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="12"/>
+      <c r="B428" s="12"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="12"/>
+      <c r="B429" s="12"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="12"/>
+      <c r="B430" s="12"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="12"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="12"/>
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="12"/>
+      <c r="B432" s="12"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="12"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="12"/>
+      <c r="B433" s="12"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="12"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="12"/>
+      <c r="B434" s="12"/>
+      <c r="C434" s="12"/>
+      <c r="D434" s="12"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="12"/>
+      <c r="B435" s="12"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="12"/>
+      <c r="B436" s="12"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="12"/>
+      <c r="B437" s="12"/>
+      <c r="C437" s="12"/>
+      <c r="D437" s="12"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="12"/>
+      <c r="B438" s="12"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="12"/>
+      <c r="B439" s="12"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="12"/>
+      <c r="B440" s="12"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="12"/>
+      <c r="B441" s="12"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="12"/>
+      <c r="B442" s="12"/>
+      <c r="C442" s="12"/>
+      <c r="D442" s="12"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="12"/>
+      <c r="B443" s="12"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="12"/>
+      <c r="B444" s="12"/>
+      <c r="C444" s="12"/>
+      <c r="D444" s="12"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="12"/>
+      <c r="B445" s="12"/>
+      <c r="C445" s="12"/>
+      <c r="D445" s="12"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="12"/>
+      <c r="B446" s="12"/>
+      <c r="C446" s="12"/>
+      <c r="D446" s="12"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="12"/>
+      <c r="B447" s="12"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="12"/>
+      <c r="B448" s="12"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="12"/>
+      <c r="B449" s="12"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="12"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="12"/>
+      <c r="B450" s="12"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="12"/>
+      <c r="B451" s="12"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="12"/>
+      <c r="B452" s="12"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="12"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="12"/>
+      <c r="B453" s="12"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="12"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="12"/>
+      <c r="B454" s="12"/>
+      <c r="C454" s="12"/>
+      <c r="D454" s="12"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="12"/>
+      <c r="B455" s="12"/>
+      <c r="C455" s="12"/>
+      <c r="D455" s="12"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="12"/>
+      <c r="B456" s="12"/>
+      <c r="C456" s="12"/>
+      <c r="D456" s="12"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="12"/>
+      <c r="B457" s="12"/>
+      <c r="C457" s="12"/>
+      <c r="D457" s="12"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="12"/>
+      <c r="B458" s="12"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="12"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="12"/>
+      <c r="B459" s="12"/>
+      <c r="C459" s="12"/>
+      <c r="D459" s="12"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="12"/>
+      <c r="B460" s="12"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="12"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="12"/>
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="12"/>
+      <c r="B462" s="12"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="12"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="12"/>
+      <c r="B463" s="12"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="12"/>
+      <c r="B464" s="12"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="12"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="12"/>
+      <c r="B465" s="12"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="12"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="12"/>
+      <c r="B466" s="12"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="12"/>
+      <c r="B467" s="12"/>
+      <c r="C467" s="12"/>
+      <c r="D467" s="12"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="12"/>
+      <c r="B468" s="12"/>
+      <c r="C468" s="12"/>
+      <c r="D468" s="12"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="12"/>
+      <c r="B469" s="12"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="12"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="12"/>
+      <c r="B470" s="12"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="12"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="12"/>
+      <c r="B471" s="12"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="12"/>
+      <c r="B472" s="12"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="12"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="12"/>
+      <c r="B473" s="12"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="12"/>
+      <c r="B474" s="12"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="12"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="12"/>
+      <c r="B475" s="12"/>
+      <c r="C475" s="12"/>
+      <c r="D475" s="12"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="12"/>
+      <c r="B476" s="12"/>
+      <c r="C476" s="12"/>
+      <c r="D476" s="12"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="12"/>
+      <c r="B477" s="12"/>
+      <c r="C477" s="12"/>
+      <c r="D477" s="12"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="12"/>
+      <c r="B478" s="12"/>
+      <c r="C478" s="12"/>
+      <c r="D478" s="12"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="12"/>
+      <c r="B479" s="12"/>
+      <c r="C479" s="12"/>
+      <c r="D479" s="12"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="12"/>
+      <c r="B480" s="12"/>
+      <c r="C480" s="12"/>
+      <c r="D480" s="12"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="12"/>
+      <c r="B481" s="12"/>
+      <c r="C481" s="12"/>
+      <c r="D481" s="12"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="12"/>
+      <c r="B482" s="12"/>
+      <c r="C482" s="12"/>
+      <c r="D482" s="12"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="12"/>
+      <c r="B483" s="12"/>
+      <c r="C483" s="12"/>
+      <c r="D483" s="12"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="12"/>
+      <c r="B484" s="12"/>
+      <c r="C484" s="12"/>
+      <c r="D484" s="12"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="12"/>
+      <c r="B485" s="12"/>
+      <c r="C485" s="12"/>
+      <c r="D485" s="12"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="12"/>
+      <c r="B486" s="12"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="12"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="12"/>
+      <c r="B487" s="12"/>
+      <c r="C487" s="12"/>
+      <c r="D487" s="12"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="12"/>
+      <c r="B488" s="12"/>
+      <c r="C488" s="12"/>
+      <c r="D488" s="12"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="12"/>
+      <c r="B489" s="12"/>
+      <c r="C489" s="12"/>
+      <c r="D489" s="12"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="12"/>
+      <c r="B490" s="12"/>
+      <c r="C490" s="12"/>
+      <c r="D490" s="12"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="12"/>
+      <c r="B491" s="12"/>
+      <c r="C491" s="12"/>
+      <c r="D491" s="12"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="12"/>
+      <c r="B492" s="12"/>
+      <c r="C492" s="12"/>
+      <c r="D492" s="12"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="12"/>
+      <c r="B493" s="12"/>
+      <c r="C493" s="12"/>
+      <c r="D493" s="12"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="12"/>
+      <c r="B494" s="12"/>
+      <c r="C494" s="12"/>
+      <c r="D494" s="12"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="12"/>
+      <c r="B495" s="12"/>
+      <c r="C495" s="12"/>
+      <c r="D495" s="12"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="12"/>
+      <c r="B496" s="12"/>
+      <c r="C496" s="12"/>
+      <c r="D496" s="12"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="12"/>
+      <c r="B497" s="12"/>
+      <c r="C497" s="12"/>
+      <c r="D497" s="12"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="12"/>
+      <c r="B498" s="12"/>
+      <c r="C498" s="12"/>
+      <c r="D498" s="12"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="12"/>
+      <c r="B499" s="12"/>
+      <c r="C499" s="12"/>
+      <c r="D499" s="12"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="12"/>
+      <c r="B500" s="12"/>
+      <c r="C500" s="12"/>
+      <c r="D500" s="12"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="12"/>
+      <c r="B501" s="12"/>
+      <c r="C501" s="12"/>
+      <c r="D501" s="12"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="12"/>
+      <c r="B502" s="12"/>
+      <c r="C502" s="12"/>
+      <c r="D502" s="12"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="12"/>
+      <c r="B503" s="12"/>
+      <c r="C503" s="12"/>
+      <c r="D503" s="12"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="12"/>
+      <c r="B504" s="12"/>
+      <c r="C504" s="12"/>
+      <c r="D504" s="12"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="12"/>
+      <c r="B505" s="12"/>
+      <c r="C505" s="12"/>
+      <c r="D505" s="12"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="12"/>
+      <c r="B506" s="12"/>
+      <c r="C506" s="12"/>
+      <c r="D506" s="12"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="12"/>
+      <c r="B507" s="12"/>
+      <c r="C507" s="12"/>
+      <c r="D507" s="12"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="12"/>
+      <c r="B508" s="12"/>
+      <c r="C508" s="12"/>
+      <c r="D508" s="12"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="12"/>
+      <c r="B509" s="12"/>
+      <c r="C509" s="12"/>
+      <c r="D509" s="12"/>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="12"/>
+      <c r="B510" s="12"/>
+      <c r="C510" s="12"/>
+      <c r="D510" s="12"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="12"/>
+      <c r="B511" s="12"/>
+      <c r="C511" s="12"/>
+      <c r="D511" s="12"/>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="12"/>
+      <c r="B512" s="12"/>
+      <c r="C512" s="12"/>
+      <c r="D512" s="12"/>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="12"/>
+      <c r="B513" s="12"/>
+      <c r="C513" s="12"/>
+      <c r="D513" s="12"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="12"/>
+      <c r="B514" s="12"/>
+      <c r="C514" s="12"/>
+      <c r="D514" s="12"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="12"/>
+      <c r="B515" s="12"/>
+      <c r="C515" s="12"/>
+      <c r="D515" s="12"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="12"/>
+      <c r="B516" s="12"/>
+      <c r="C516" s="12"/>
+      <c r="D516" s="12"/>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="12"/>
+      <c r="B517" s="12"/>
+      <c r="C517" s="12"/>
+      <c r="D517" s="12"/>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="12"/>
+      <c r="B518" s="12"/>
+      <c r="C518" s="12"/>
+      <c r="D518" s="12"/>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="12"/>
+      <c r="B519" s="12"/>
+      <c r="C519" s="12"/>
+      <c r="D519" s="12"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="12"/>
+      <c r="B520" s="12"/>
+      <c r="C520" s="12"/>
+      <c r="D520" s="12"/>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="12"/>
+      <c r="B521" s="12"/>
+      <c r="C521" s="12"/>
+      <c r="D521" s="12"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="12"/>
+      <c r="B522" s="12"/>
+      <c r="C522" s="12"/>
+      <c r="D522" s="12"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="12"/>
+      <c r="B523" s="12"/>
+      <c r="C523" s="12"/>
+      <c r="D523" s="12"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="12"/>
+      <c r="B524" s="12"/>
+      <c r="C524" s="12"/>
+      <c r="D524" s="12"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="12"/>
+      <c r="B525" s="12"/>
+      <c r="C525" s="12"/>
+      <c r="D525" s="12"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="12"/>
+      <c r="B526" s="12"/>
+      <c r="C526" s="12"/>
+      <c r="D526" s="12"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="12"/>
+      <c r="B527" s="12"/>
+      <c r="C527" s="12"/>
+      <c r="D527" s="12"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="12"/>
+      <c r="B528" s="12"/>
+      <c r="C528" s="12"/>
+      <c r="D528" s="12"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="12"/>
+      <c r="B529" s="12"/>
+      <c r="C529" s="12"/>
+      <c r="D529" s="12"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="12"/>
+      <c r="B530" s="12"/>
+      <c r="C530" s="12"/>
+      <c r="D530" s="12"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="12"/>
+      <c r="B531" s="12"/>
+      <c r="C531" s="12"/>
+      <c r="D531" s="12"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" s="12"/>
+      <c r="B532" s="12"/>
+      <c r="C532" s="12"/>
+      <c r="D532" s="12"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="12"/>
+      <c r="B533" s="12"/>
+      <c r="C533" s="12"/>
+      <c r="D533" s="12"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="12"/>
+      <c r="B534" s="12"/>
+      <c r="C534" s="12"/>
+      <c r="D534" s="12"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="12"/>
+      <c r="B535" s="12"/>
+      <c r="C535" s="12"/>
+      <c r="D535" s="12"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="12"/>
+      <c r="B536" s="12"/>
+      <c r="C536" s="12"/>
+      <c r="D536" s="12"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="12"/>
+      <c r="B537" s="12"/>
+      <c r="C537" s="12"/>
+      <c r="D537" s="12"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="12"/>
+      <c r="B538" s="12"/>
+      <c r="C538" s="12"/>
+      <c r="D538" s="12"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="12"/>
+      <c r="B539" s="12"/>
+      <c r="C539" s="12"/>
+      <c r="D539" s="12"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="12"/>
+      <c r="B540" s="12"/>
+      <c r="C540" s="12"/>
+      <c r="D540" s="12"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" s="12"/>
+      <c r="B541" s="12"/>
+      <c r="C541" s="12"/>
+      <c r="D541" s="12"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="12"/>
+      <c r="B542" s="12"/>
+      <c r="C542" s="12"/>
+      <c r="D542" s="12"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" s="12"/>
+      <c r="B543" s="12"/>
+      <c r="C543" s="12"/>
+      <c r="D543" s="12"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="12"/>
+      <c r="B544" s="12"/>
+      <c r="C544" s="12"/>
+      <c r="D544" s="12"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="12"/>
+      <c r="B545" s="12"/>
+      <c r="C545" s="12"/>
+      <c r="D545" s="12"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="12"/>
+      <c r="B546" s="12"/>
+      <c r="C546" s="12"/>
+      <c r="D546" s="12"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="12"/>
+      <c r="B547" s="12"/>
+      <c r="C547" s="12"/>
+      <c r="D547" s="12"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="12"/>
+      <c r="B548" s="12"/>
+      <c r="C548" s="12"/>
+      <c r="D548" s="12"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="12"/>
+      <c r="B549" s="12"/>
+      <c r="C549" s="12"/>
+      <c r="D549" s="12"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="12"/>
+      <c r="B550" s="12"/>
+      <c r="C550" s="12"/>
+      <c r="D550" s="12"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="12"/>
+      <c r="B551" s="12"/>
+      <c r="C551" s="12"/>
+      <c r="D551" s="12"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="12"/>
+      <c r="B552" s="12"/>
+      <c r="C552" s="12"/>
+      <c r="D552" s="12"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="12"/>
+      <c r="B553" s="12"/>
+      <c r="C553" s="12"/>
+      <c r="D553" s="12"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="12"/>
+      <c r="B554" s="12"/>
+      <c r="C554" s="12"/>
+      <c r="D554" s="12"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="12"/>
+      <c r="B555" s="12"/>
+      <c r="C555" s="12"/>
+      <c r="D555" s="12"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="12"/>
+      <c r="B556" s="12"/>
+      <c r="C556" s="12"/>
+      <c r="D556" s="12"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" s="12"/>
+      <c r="B557" s="12"/>
+      <c r="C557" s="12"/>
+      <c r="D557" s="12"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" s="12"/>
+      <c r="B558" s="12"/>
+      <c r="C558" s="12"/>
+      <c r="D558" s="12"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" s="12"/>
+      <c r="B559" s="12"/>
+      <c r="C559" s="12"/>
+      <c r="D559" s="12"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="12"/>
+      <c r="B560" s="12"/>
+      <c r="C560" s="12"/>
+      <c r="D560" s="12"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="12"/>
+      <c r="B561" s="12"/>
+      <c r="C561" s="12"/>
+      <c r="D561" s="12"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="12"/>
+      <c r="B562" s="12"/>
+      <c r="C562" s="12"/>
+      <c r="D562" s="12"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="12"/>
+      <c r="B563" s="12"/>
+      <c r="C563" s="12"/>
+      <c r="D563" s="12"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="12"/>
+      <c r="B564" s="12"/>
+      <c r="C564" s="12"/>
+      <c r="D564" s="12"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="12"/>
+      <c r="B565" s="12"/>
+      <c r="C565" s="12"/>
+      <c r="D565" s="12"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="12"/>
+      <c r="B566" s="12"/>
+      <c r="C566" s="12"/>
+      <c r="D566" s="12"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="12"/>
+      <c r="B567" s="12"/>
+      <c r="C567" s="12"/>
+      <c r="D567" s="12"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="12"/>
+      <c r="B568" s="12"/>
+      <c r="C568" s="12"/>
+      <c r="D568" s="12"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="12"/>
+      <c r="B569" s="12"/>
+      <c r="C569" s="12"/>
+      <c r="D569" s="12"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="12"/>
+      <c r="B570" s="12"/>
+      <c r="C570" s="12"/>
+      <c r="D570" s="12"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="12"/>
+      <c r="B571" s="12"/>
+      <c r="C571" s="12"/>
+      <c r="D571" s="12"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="12"/>
+      <c r="B572" s="12"/>
+      <c r="C572" s="12"/>
+      <c r="D572" s="12"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="12"/>
+      <c r="B573" s="12"/>
+      <c r="C573" s="12"/>
+      <c r="D573" s="12"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="12"/>
+      <c r="B574" s="12"/>
+      <c r="C574" s="12"/>
+      <c r="D574" s="12"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="12"/>
+      <c r="B575" s="12"/>
+      <c r="C575" s="12"/>
+      <c r="D575" s="12"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" s="12"/>
+      <c r="B576" s="12"/>
+      <c r="C576" s="12"/>
+      <c r="D576" s="12"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" s="12"/>
+      <c r="B577" s="12"/>
+      <c r="C577" s="12"/>
+      <c r="D577" s="12"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="12"/>
+      <c r="B578" s="12"/>
+      <c r="C578" s="12"/>
+      <c r="D578" s="12"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="12"/>
+      <c r="B579" s="12"/>
+      <c r="C579" s="12"/>
+      <c r="D579" s="12"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="12"/>
+      <c r="B580" s="12"/>
+      <c r="C580" s="12"/>
+      <c r="D580" s="12"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="12"/>
+      <c r="B581" s="12"/>
+      <c r="C581" s="12"/>
+      <c r="D581" s="12"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="12"/>
+      <c r="B582" s="12"/>
+      <c r="C582" s="12"/>
+      <c r="D582" s="12"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" s="12"/>
+      <c r="B583" s="12"/>
+      <c r="C583" s="12"/>
+      <c r="D583" s="12"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" s="12"/>
+      <c r="B584" s="12"/>
+      <c r="C584" s="12"/>
+      <c r="D584" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -7434,7 +10489,8 @@
     <mergeCell ref="D169:D171"/>
     <mergeCell ref="F169:F171"/>
     <mergeCell ref="G169:G171"/>
-    <mergeCell ref="M163:M165"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="I169:I171"/>
     <mergeCell ref="A166:A168"/>
     <mergeCell ref="B166:B168"/>
     <mergeCell ref="C166:C168"/>
@@ -7444,14 +10500,6 @@
     <mergeCell ref="G166:G168"/>
     <mergeCell ref="H166:H168"/>
     <mergeCell ref="I166:I168"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="L163:L165"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
     <mergeCell ref="J159:J161"/>
     <mergeCell ref="K159:K161"/>
     <mergeCell ref="L159:L161"/>
@@ -7462,6 +10510,13 @@
     <mergeCell ref="D163:D165"/>
     <mergeCell ref="E163:E165"/>
     <mergeCell ref="F163:F165"/>
+    <mergeCell ref="M163:M165"/>
+    <mergeCell ref="G163:G165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="K163:K165"/>
+    <mergeCell ref="L163:L165"/>
     <mergeCell ref="L151:L152"/>
     <mergeCell ref="M151:M152"/>
     <mergeCell ref="M156:M158"/>

--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkish\Downloads\Realm-of-Feasts\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714913DF-813E-4B11-B28A-80CD90992704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{869F6E1F-D6DE-4737-8782-AE8B06CA0C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipesTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="826">
   <si>
     <t>Name</t>
   </si>
@@ -1691,10 +1691,6 @@
     <t>Naruto</t>
   </si>
   <si>
-    <t xml:space="preserve">
-This recipe is said to be a favorite of Kakashi Hatake. Perhaps that’s because, like him, eggplant is a humble ingredient, yet versatile enough to be effective in a variety of situations.</t>
-  </si>
-  <si>
     <t>4*cups *Dashi,1*small*Japanese Eggplant (cubedd),2*sheets*Aburaage (cut into strips),3*tablespoons*Miso,1*bunch*Green Onions (finely chopped)</t>
   </si>
   <si>
@@ -1722,12 +1718,6 @@
     <t>1*pound*Steak (2 inch thick cut),1*medium*Sweet Onion,1*fistful*Shiitake Mushrooms,1*teaspoon*Thyme,1*null*Salt,1*null*Pepper,0.33*cup*Olive Oil,2*tablespoons*Butter</t>
   </si>
   <si>
-    <t>1. To start, pour 1/3 cup of olive oil into a cast iron skillet. Set the burner on high, so the oil will get smoking hot. While this heats up, you can slice your onions.||2. Season your steak with salt and pepper right before adding it to the oil (no more than two minutes early!). Be sure to season REALLY well!||3. Using tongs, lay your steak slowly on the hot oil. It should sizzle violently, so watch out for oil splatter!||4. Once your steak starts to develop a brown crust, add 2 tbsp of butter to the oil. This will enhance the colour and add some great flavour.||5. After the butter, add your onions and mushrooms. I sprinkled a little thyme over the onions and mushrooms (but not the meat) for an extra flavour boost.||6. For the final few minutes of cooking, you can baste the steak between flips.</t>
-  </si>
-  <si>
-    <t>||7. When the meat has reached the desired "doneness," remove the steak to a warm plate and allow it to rest for 5 minutes or half its cooking time (whichever is longer). Place the thymed-up onions and mushrooms on top while it rests, to trap heat and infuse a little more flavour.||8. Enjoy this sizzling, succulent miracle while debating house-elf rights with your friends!</t>
-  </si>
-  <si>
     <t>Leeky Cauldron</t>
   </si>
   <si>
@@ -1749,9 +1739,6 @@
     <t>1*gammon*Bacom,1*tablespoon*Lard,2*large*Eggs,1*sprinkle*Salt,1*sprinkle*Pepper</t>
   </si>
   <si>
-    <t>1. To pan-fry the bacon, heat a skillet or saute pan over medium-high heat. Lay the bacon carefully in the pan. Let the bacon cook for 2 minutes; then, using a pair of tongs or a fork, turn the bacon and cook for 2 minutes more. Continue cooking and turning every 30 seconds until the bacon reaches the desired crispness. Remove the bacon and let it drain on paper towels. Drain all but 1 tablespoon of fat from the pan.||2. Reduce the heat to medium low. Break the eggs into a small bowl. When the fat begins to sizzle, add the eggs and season with salt and pepper.||3. Fried eggs are served by a degree of doneness: sunny side up, over-easy, over-medium, or over-hard. For sunny side up, cook the eggs for 4 minutes or until the white is set and firm. For “over” eggs, add the eggs to the pan and let cook for 3 minutes. Carefully flip the eggs using a spatula and cook as follows: over-easy for 2 minutes on the second side; over-medium, for 2 minutes, 15 seconds; over-hard, for 2 minutes, 30 seconds or until the yolk is completely firm. You can also break the yolk before turning for over-hard.</t>
-  </si>
-  <si>
     <t>Double Chocolate Ice Cream Cones</t>
   </si>
   <si>
@@ -1773,9 +1760,6 @@
     <t>1*zest*Lemon,3*tablespoons*Lemon Juice,7*tablespoons*Granulated Sugar,1.75*cups*Water,0.5*teaspoon*Lemon Extract</t>
   </si>
   <si>
-    <t>1. Place the lemon zest, lemon juice, sugar, and water in a saucepan and heat, stirring frequently, just until beginning to simmer. Remove from the heat and stir in the lemon extract. Pour into ice pop moulds.||2.  Freeze until solid, about 5 hours.||3. These lemon pops get their bright lemon flavour from three sources — grated lemon zest, lemon juice, and lemon extract — hence the name -Triple Power.</t>
-  </si>
-  <si>
     <t>Knickerbocker Glory</t>
   </si>
   <si>
@@ -1785,12 +1769,6 @@
     <t>2*cups*Custard,1*can*Whipped Cream,2*cups*Jell-O (any flavor prepared in advance),1*cup*Nuts (toasted and chopped),2*cups*Fresh Fruit (chopped peaches or berries),1*pint*Vanilla Ice Cream,1*bottle*Chocolate Syrup</t>
   </si>
   <si>
-    <t>1. Prepare the custard, whipped cream, and Jell-O in advance; chop and toast the nuts ahead as well.||2. Wash, and if necessary, peel and chop the fruit you are using.</t>
-  </si>
-  <si>
-    <t>||3. Set out six tall sundae glasses. Divide half a pint of the ice cream into the bottom of the six glasses. Evenly divide 1 cup of the fruit into the glasses. Then evenly divide 1 cup of the Jell-O over the fruit and 1 cup of the custard over the Jell-O. Repeat the layering once with the remaining ice cream, fruit, Jell-O, and custard.||4. Top with the whipped cream, toasted nuts, and chocolate syrup.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old Fashioned Chocolate Buttermilk Sheet Cake </t>
   </si>
   <si>
@@ -1800,9 +1778,6 @@
     <t>2*ounces*Bittersweet Chocolate (chopped),1*tablespoon*Instant Coffee,1.25*cups*Boiling Water,2.75*cups*Flour,2,75*cups*Granulated Sugar,0.75*cup*Unsweetened Cocoa Powder,0.5*teaspoon*Salt,2*teaspoons*Baking Soda,1*teaspoon*Baking Powder,1*cup*Vegetable Oil,1.25*cups*Buttermilk,4*large*Eggs,2*teaspoons*Pure Vanilla Extract</t>
   </si>
   <si>
-    <t>1. Preheat the oven to 350 degrees Fahrenheit. Grease and flour a 9inch × 13inch cake pan.||2. Place the chocolate and coffee in a small bowl. Pour the boiling water over the chocolate and coffee and let it stand for 5 minutes. Whisk until smooth.||3. Using an electric mixer, combine the flour, sugar, cocoa powder, salt, baking soda, and baking powder in a large bowl. Mix on low speed until well combined. Add the oil and buttermilk and mix well, scraping down the sides as needed. Add the eggs one at a time, beating after each until incorporated. Add the chocolate-coffee mixture very carefully, on the lowest speed, as it will slosh around the bowl. Add the vanilla. Finish by scraping the bowl down and mixing all the batter with a rubber spatula.||4. Scrape the batter into the prepared pan and bake for about 45 minutes, until the cake feels firm when touched lightly in the centre or a toothpick inserted in the centre comes out with a few moist crumbs attached. If the toothpick comes out clean, the cake is over baked.</t>
-  </si>
-  <si>
     <t>Paddington Burgers</t>
   </si>
   <si>
@@ -1812,12 +1787,6 @@
     <t>1.5*pounds*Ground Beef (extra-lean),2*large*Eggs,1*null*Onion (chopped and sauteed until well browned),1*cup*Fresh Breadcrumbs,0.5*cup*Tomato Sauce,1*tablespoon*Onion Powder,0.5*teaspoon*Garlic Powder,0.5*teaspoon*Salt,0.25*teaspoon*Freshly Ground Black Pepper,2*sauteed*Sliced Onions,1*bottle*English Mustard,1*small*Lettuce,1*pack*Tomatoes (sliced)</t>
   </si>
   <si>
-    <t>1. Combine all the ingredients in a large mixing bowl and mix well.</t>
-  </si>
-  <si>
-    <t>||2. Spray a skillet with cooking spray and heat the skillet. Form the mixture into patties and cook on both sides over medium-high heat until well-browned. Transfer to a paper-towel-lined plate and repeat until the beef mixture is used up. Or cook on a grill until well done.||3. Serve in toasted hamburger buns with sautéed sliced onions, English mustard, lettuce, and tomato.</t>
-  </si>
-  <si>
     <t>Pumpkin Pasties</t>
   </si>
   <si>
@@ -1827,12 +1796,6 @@
     <t>1*null*Pasty Crust,1.25*cups*FLour,1*tablespoon*Granulated Sugar,0.25*teaspoon*Salt,5*tablespoons*Butter (cold and cut into chunks),3*tablespoons*Vegetable Shortening (chilled and cut into chunks),6*tablespoons*Ice Water,1*cup*Canned Pumpkin,0.25*cup*Granulated Sugar (filling),0.125*teaspoon *Ground Nutmeg,0.125*teaspoon*Ground Cinnamon</t>
   </si>
   <si>
-    <t>1. Place the flour, sugar, and salt in the bowl of a food processor. Pulse a few times to combine. Scatter the butter and shortening over the flour mixture. Pulse about 15 times until the mixture resembles a coarse yellow meal, with no white powdery bits remaining.</t>
-  </si>
-  <si>
-    <t>||2. Transfer the mixture to a large mixing bowl. Sprinkle 4 tablespoons of cold water over the mixture. Toss the mixture together with a spatula until it starts clumping together. If it's too dry, add more water 1 tablespoon at a time (better too wet than too dry). Gather the dough into a ball and pat it into a disk. Wrap it in plastic wrap and refrigerate it for at least 1 hour.||3. Combine the pumpkin, sugar, nutmeg, and cinnamon in a mixing bowl. Mix well. Preheat the oven to 400 degrees Fahrenheit. Roll out the dough 1/8-inch thick. Use a saucer to cut out 6-inch circles.||4. Put 2 to 3 tablespoons of filling in the centre of each circle of dough. Moisten the edges with water, fold the dough over the filling, and crimp with a fork to seal the edges. Cut slits to make vents. Bake on an ungreased cookie sheet for 30 minutes or until browned.</t>
-  </si>
-  <si>
     <t>Roast Pheasant</t>
   </si>
   <si>
@@ -1866,12 +1829,6 @@
     <t>4*medium*Onions,4*tablespoons*Butter (melted),1*null*Baguette,0.5*cup*Parmesan Cheese (grated),1*teaspoon*Salt,0.25*teaspoon*Freshly Ground Black Pepper,0.25*teaspoon*Sugar,1*tablespoon*Flour,6*cups*Beef Stock</t>
   </si>
   <si>
-    <t>1. Preheat the oven to 350 degrees Fahrenheit. Peel the onions, cut them in half from pole to pole, and slice as thinly as possible. In a heavy soup pot, heat the butter. Remove the pot from the heat.||2. Remove one end of the baguette and slice six 1-inch-thick slices for the croutons. Cover the cut end of the bread and save for the end. Dip a pastry brush into the hot butter that is in the pot and brush one side of each slice with the butter. Place the slices butter-side up on a baking sheet and sprinkle with the cheese. Toast the bread in the oven for about 10 minutes or until browned.||3. While the bread toasts, return the pot to the heat and add the onions. Season with salt and pepper. Stir in the sugar and continue to stir over medium-high heat until the onions have browned about 15 minutes.||4. Blend in the flour. Gradually add the stock while stirring and bring the soup to a boil. Reduce the heat to a simmer and cook uncovered for 30 minutes.||5. Ladle the soup into warmed bowls and float a cheesy crouton in the centre, then sprinkle cheese</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> around the crouton.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beef Stew with Herb Dumplings </t>
   </si>
   <si>
@@ -1941,9 +1898,6 @@
     <t>1*medium*Onion (sliced),6*cloves*Garlic (peeled),1*3pound*Chicken,2*tablespoons*Butter (softened),1*teaspoon*Ground Thyme,0.25*teaspoon*Ground Sage,1*tablespoon*Fresh Parsley (chopped),1*sprinkle*Salt,1*sprinkle*Fresh Ground Pepper,0.5*cup*Water,2.5*pounds*Yukon Gold Potatoes (peeled and quartered),2*tablespoons*Vegetable Oil,1*medium*Onion (chopped for mash),2*cloves*Garlic (minced for mash),0.5*cup*Vegetable Oil,1*cup*Chicken Broth,1*sprinkle*Salt (mash),1*sprinkle*Fresh Ground Pepper (mash)</t>
   </si>
   <si>
-    <t>1. Preheat the oven to 375 degrees Fahrenheit and lay the onion slices and garlic cloves in a baking dish. Rinse the chicken and pat it dry.||2. Mix the butter or margarine with the thyme, sage, and parsley and spread it under the skin of the breasts and thighs; you will need to loosen the skin first by lifting up the flap of the skin and sliding your fingers under it. Lay the chicken in the pan, breast-side up, on top of the onions and garlic and sprinkle with salt and pepper. Pour the water into the pan.||3. Bake for 50 minutes. Rotate the pan, raise the temperature to 450 degrees Fahrenheit, and bake for another 30 minutes or until an instant-read thermometer inserted into the thigh reads 170 degrees Fahrenheit.||4.  While the chicken is roasting, prepare the mashed potatoes. Cover the potatoes with water in a large saucepan and bring to a boil. Reduce the heat and let it simmer until tender, about 25 minutes.||5. Heat the 2 tablespoons oil in a skillet and add the 4 onions. Cook the onions over medium heat, stirring frequently, until nicely browned, about 10 minutes. Add the garlic and cook until fragrant, about 15 seconds. Remove from the heat.||6. Drain the potatoes. Add the onion-garlic mixture, ½ cup oil, chicken broth, and salt and pepper. Mash with a potato masher.</t>
-  </si>
-  <si>
     <t>Melton Mowbray Pork Pies</t>
   </si>
   <si>
@@ -1953,15 +1907,6 @@
     <t>3*pounds*Pork Bones,3*cups*Water,1*teaspoon*Fresh Sage,1*tablespoon*Fresh Thyme,1*null*Bay Leaf,1*null*Onion (quartered),2*cups*Flour,2*pinches*Kosher Salt,4*tablespoons*Lard,0.25*cup*Whole Milk,0.25*cup*Water (crust),2*pounds*Pork Shoulder (2 thirds lean and a third fat),6*slices*Bacon (diced),1*teaspoon*Fresh Sage (filling),1*null*Anchovy Fillet (minced),0.5*teaspoon*Ground Allspice,1*sprinkle*Salt (filling),1*sprinkle*Pepper (filling),1*null*Egg,1*tablespoon*Unflavoured Gelatin,1*serving*English Mustard</t>
   </si>
   <si>
-    <t>1. To make the stock, combine all the stock ingredients in a heavy saucepan. Bring to a boil. Cover and reduce to a simmer for 1 hour. Strain the solids and return the liquid to the pan. Bring to a boil and reduce the total volume to 1 and a quarter cups. Set aside to cool.</t>
-  </si>
-  <si>
-    <t>||2. To make the pastry, combine the flour and salt in a large mixing bowl. Place the lard or vegetable shortening in a saucepan along with the milk and water; set the saucepan over high heat until the fat melts. Bring to a boil. Stir the fat and liquids together and pour into the bowl with the flour. Mix well. Turn the dough out onto a flour dusted work surface. Form the dough into a ball and dust it with flour. Knead for 5 minutes. Wrap in plastic wrap and let rest for 30 minutes.||3. For the filling, dice the pork into quarter-inch pieces or place chunks of pork into a food processor and pulse to coarsely chop. Place the pork in a large mixing bowl with the diced bacon, sage, minced anchovy or anchovy oil, and allspice. Add a quarter cup of the stock and mix well. Test the seasoning by heating a small amount of water in a sauté pan to a boil and cook a small amount of the pork mixture (1 teaspoon) in it. Taste the filling and adjust the salt and pepper as desired.</t>
-  </si>
-  <si>
-    <t>||4. To assemble the pies, preheat the oven to 400 degrees Fahrenheit, then decide on the size of the finished pies desired. This recipe can be made in a muffin pan, popover pan, or 4-ounce ceramic ramekins. Cut off 3 quarters of the dough and place on a flour-dusted work surface. Roll it out 1/8-inch thick. To make the bottom crust, cut 4-inch circles for a muffin or popover pan and 4½-inch circles for the ramekins. Place the dough circles in the cups or ramekins and press the dough into the bottom and sides of each.|5. Fill the pastry-lined moulds up to the rim. Fold any excess dough from the sides onto the top of the filling. Roll out the remaining dough and cut 3-inch circles to fit into the tops of the muffin or popover pan or ramekins. Place the tops onto the filling and press down lightly to seal. Cut a small hole in the centre of each top. Reroll any excess dough. Using small pastry cutters, cut out shapes and decorate the tops. Brush the top of each pie with the beaten egg. Bake the pies for 20 minutes. Reduce the heat to 350 degrees Fahrenheit and bake for 2 hours.||6. Remove the pies from the oven, brush with the beaten egg again, and bake for 10 minutes longer. Remove and let cool in the pan.||7. Bring the reduced stock back to a boil, remove from the heat, add the gelatin, and stir to dissolve. Using a funnel, spoon the stock mixture into the hole at the top of each pie, dividing the stock evenly among the pies. This is a slow process, and all of the liquid should be used. Chill overnight.||8. To serve, remove from the pan and serve with good English mustard.</t>
-  </si>
-  <si>
     <t>Kippers</t>
   </si>
   <si>
@@ -1986,9 +1931,6 @@
     <t>1. Grease 8 tartlet moulds or a muffin pan and set aside. Put half a cup of the milk in a bowl and sprinkle gelatin over it. Set aside.||2. Heat the remaining milk and the cream, sugar, and almonds in a small saucepan until hot but not simmering. Pour the mixture through a sieve and discard the almonds. Stir in the gelatin-milk mixture until gelatin is dissolved (if necessary, place over medium heat and stir until gelatin is dissolved; do not simmer or let boil). Stir in the almond extract.||3. Fill the moulds to the very top and refrigerate until firm, about 2 hours. Place a plate over the mould and invert to unmold. If you're having trouble unmolding, wrap a hot towel around the mould for a few seconds. Serve with Strawberry Sauce.||4. To make the Strawberry Sauce, place the strawberries and sugar in a blender or food processor and pulse until completely blended.</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Studio Ghibli: Ponyo</t>
   </si>
   <si>
@@ -2031,9 +1973,6 @@
     <t>Studio Ghibli: Secret World of the Arrietty</t>
   </si>
   <si>
-    <t>1. Add the dashi to a small pot over medium heat and bring to a boil. Add the eggplant and aburaage and let simmer for about 10 minutes, until the eggplant is softened.||2. Turn the heat down to low, then ladle a small scoop of the broth into a small bowl. Add the miso to the bowl, then stir well with a spoon until the miso is completely dissolved, using the spoon to mash the miso against the sides of the bowl as you go.||3. Pour the broth mix back into the pot and stir to combine, taking care not to let the pot reach a boil again. You don’t want your miso to get grainy!||4. Just before serving, add the green onions to the pot and let simmer for about 1 minute, then portion into bowls to serve.</t>
-  </si>
-  <si>
     <t>Tsunade Healing Zosui</t>
   </si>
   <si>
@@ -2052,26 +1991,15 @@
     <t>1*tablespoon*Sea Slat,1*sheet*Nori,1*packet*Instant Ramen Powdered Seasoning,1*tablespoon*Salt,1*tablespoon*Sesame Seeds (toasted),1*teaspoon*Garlic Powder,1*pound*Russet Potatoes,1*quart*Ice Water,1*splash*Vegetable Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Place ingredients for your desired seasoning mix into a spice grinder or food processor and blend until finely ground (not necessary if youre using ramen seasoning). Set aside.||2. Prepare the chips by using a mandoline or the wide edge of a box cutter to slice the potatoes to a thickness of an eighth inch. Place them in a large bowl with enough of ice water to cover them and let them soak for at least 30 minutes. Drain the potatoes using a colander or strainer, then pat dry thoroughly with paper towels.||3. Heat approximately 2 inches of oil in a wide pot to 375 degrees F.||4. Use tongs or a slotted spoon to place a handful of slices in the oil at a time, taking care not to crowd the pan too much to prevent the temperature from dropping. Fry for about 4 minutes, until a golden color is achieved, stirring frequently to ensure even cooking. You know theyre close when the potatoes start bubbling less.||5. Remove the potatoes from the oil with a slotted spoon and transfer to paper towels to dry. If necessary, add more oil and wait for the oil to come back up to temperature before frying another batch. ||6. While the subsequent batches are frying, pat down the freshly fried chips to remove as much oil as possible, then immediately transfer them to a large bowl and sprinkle some of the seasoning on top.||7. Continue adding more chips to the top of the bowl after theyre done frying and have been patted dry, then season them. Letting excess seasoning fall onto the chips below maximises flavour!||8. Repeat until all slices have been cooked, dried, and seasoned.||9. The chips are best enjoyed fresh but can be stored in an airtight container for up to 3 days.</t>
-  </si>
-  <si>
     <t>1. Cut the radishes into quarter -inch slices, then trim them down into a diamond shape.||2. Place half a  cup of dashi in a small pot over high heat and bring to a boil. When boiling, add the radishes, then turn off the heat and let cool. If preparing in advance, transfer the radishes and liquid to a sealed container, then store in the fridge until ready to use. Otherwise, transfer the radishes to a small bowl and discard the broth.||3. When ready to prepare the soup, place 3 cups of dashi in a wide pot over medium heat and bring to a boil.||4. Add the chicken and carrot to the boiling dashi, then cover and turn the heat down to medium low. Cook for 5 minutes, then add the mushrooms, rice, and soy sauce. Cover and continue cooking for about 10 minutes.||5. Whisk the egg in a small bowl, then slowly drizzle the beaten egg into the pot. Add the green onion, sesame seeds, and pepper on top, then cover and let cook for a few minutes, just enough for the egg to set.||6. When ready to serve, portion out into individual bowls and top each with a simmered radish diamond.</t>
   </si>
   <si>
     <t>Shuriken Senbei</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Shuriken shaped rice crackers</t>
-  </si>
-  <si>
     <t>0.5*cup*Mochiko Rice Flour,1*cup*Japanese Rice (cooked),0.25*tablespoon*Salr,0.25*teaspoon*Baking Powder,1*tablespoon*Sesame Oil,0.25*cup*Water,2*tablespoons*Sesame Seeds,1*splash*Vegetable Oil</t>
   </si>
   <si>
-    <t>1. To make the dough, place the rice flour, rice, salt, baking powder and oil in a food processor. Run until finely ground. Add the water, then pulse the processor until the water is fully incorporated. It will still be dry, but the dough should clump together when pressed. If not, add a tablespoon of water at a time until the right consistency is achieved.||2. Scoop out the dough into a small bowl, then add sesame seeds and work them into the dough until they are evenly distributed.||3. Roll the dough out on a sheet of parchment paper to a thickness of about a quarter inch or thinner, then cut into shuriken shapes. A four-pointed star, besides being a favourite of a shinobi, is more likely to hold together than more complex shapes. For bonus points, cut out a hole in the middle using a straw or knife.||4. To fry the senbei, heat about 2 inches of oil to 375 degrees Fahrenheit in a small, deep pot. Once it’s hot, gently place a few crackers at a time in the oil, taking care not to overcrowd the pan. Fry for about 3 to 5 minutes, flipping occasionally to ensure even browning. Once a golden colour is achieved, remove from the oil with a slotted spoon and place it on paper towels to absorb excess oil.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Portable, easily customized rice snack is a delicious and sensible choice.</t>
   </si>
   <si>
@@ -2093,9 +2021,6 @@
     <t>1. Place the beans and 2 cups of water in a small pot over high heat. Bring to a boil, then cook for about 5 minutes. Strain the beans, discarding the water.||2. Return the beans to the pot and add the remaining 2 cups of water. Cover loosely and bring to a  simmer over high heat. Reduce the heat to low and let simmer for about 30 minutes, until the beans are soft and break when pressed between your fingers.||3. Drain the beans, reserving the cooking liquid in a separate container. Set both the beans and liquid aside.||4. Polish the rice, then place in a small pot along with cooked beans, salt, and 2 cups of the reserved bean liquid. Cover with a tight-fitting lid, then turn the heat to high and bring just to boiling.||4. Immediately turn the heat down to low and leave the rice to steam for about 15 minutes, until you see small, even dimples across the surface of the rice and all the water has been absorbed.||5. Turn the heat to high for 1 more minute to allow any last bit of water to evaporate, then remove from the heat. Cover, leaving the lid cracked open, and leave to rest for 10 minutes.||6. To serve, gently fluff the rice with a spatula or rice paddle, then garnish with the sesame seeds arranged in the shape of the Sand Village logo.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tasty pickled onion–topped treats</t>
-  </si>
-  <si>
     <t>1*small*Red Onion (quartered and thinly sliced),0.5*cup*Rice Vinegar,0.5*cup*Water,2*tablespoons*Sugar,0.5*tablespoon*Salt,8*null*Aburaage Squares,3*tablespoons*Soy Sauce,3*tablespoons*Sugar (inarizushi),1*cup*Dashi,2*cups*Water (inarizushi),3*cups*Sushi Rice,1*tablespoon*Sesame Seeds</t>
   </si>
   <si>
@@ -2111,9 +2036,6 @@
     <t xml:space="preserve">Homemade  udon noodles </t>
   </si>
   <si>
-    <t>1. Combine the flour and salt in a large bowl and mix well to combine.||2. Pour the contents out into the shape of a mound on your work surface, then use your fingers to make a small indentation in the middle.||3. Pour the water and egg yolk into the indentation, then work the liquid into the mixture using your hands. Depending on the flour, you may need to add more water.Add just enough to get the flour to combine but not be too sticky.||4. Knead vigorously until the dough is smooth but firm, like your earlobe being the traditional Japanese guidance.||5. Roll the dough into a ball and wrap with plastic wrap, then set aside for at least 2 hours at room  temperature or 8 hours in the fridge.||6. When ready to cut the noodles, unwrap the dough and place on a lightly floured work surface. Roll out into a rectangular shape eighth inch thick. Dust the top with starch, then, taking the short sides of the rectangle, fold them inward, as if you were folding a letter to fit in an envelope.||7. With the long side of the folded dough facing you, hold a sharp knife or cleaver perpendicular to the long side and cut the dough into strips eigth inch wide, resulting in thin, narrow strips when the pieces are unfolded.||8. Gently loosen the noodles to unfold them, then lightly dust with starch to prevent them from clumping. Divide them into four portions for easier cooking.||9. When ready to cook, bring a large pot of water to a boil, making sure there’s enough water that the noodles won’t be crowded and water can circulate freely. Add the noodles one portion at a time, waiting for the water to reach full boiling again before adding the next portion. Stir constantly to keep the noodles from sticking to the bottom. Once all the noodles are added to the water, cook for 2 to 3 more minutes.||10. Place a colander in the sink and carefully pour the contents of the pot into the colander, then rinse under cool or cold running water briefly to remove any surface starch.||11. Serve immediately in any recipe calling for cooked noodles.</t>
-  </si>
-  <si>
     <t>Kurama's Nine-Tails Kitsune Udon</t>
   </si>
   <si>
@@ -2123,9 +2045,6 @@
     <t>1*tablespoon*Soy Sauce,2*tablespoons*Mirin,1*tablespoon*Sugar,0.5*cup*Dashi,2*null*Aburaage Rectangles,4*cups*Dashi (noodles and broth),4*tablespoons*Soy Sauce (noodles and broth),3*tablespoons*Mirin (noodles and broth),1*tablespoon*Sugar (noodles and broth),2*servings*Udon (cooked),2*null*Green Onions (finely chopped)</t>
   </si>
   <si>
-    <t>1. To prepare the seasoned aburaage, combine the soy sauce, mirin, sugar, and dashi in a small pot over medium heat. Add the aburaage, then let simmer until all the liquid has been absorbed. Let cool and set aside, then cut each rectangle into nine long strips.||2. In a large pot, bring the dashi just to a boil over medium heat. Add the soy sauce, mirin, and sugar, then cook until the sugar is dissolved.||3. Place the noodles in serving bowls, then divide the broth between the bowls. Arrange the strips of the aburaage on each bowl, fanned out from the center like Kurama’s tails. Sprinkle with the green onions to serve.</t>
-  </si>
-  <si>
     <t>1. To make the tenkasu, combine the flour and water, then divide into two bowls. Add food coloring to one bowl to create a black batter.||2.  Add a few cups of oil to a small pot over medium heat and bring to 350 degrees Fahrenheit. Using a fork to scoop the batter, let the batter drip off the forks tines and into the oil, creating batter droplets. Once the droplets float to the surface and start browning, remove from the oil and place on paper towels to drain. Continue frying until all the batter is used up.||3. To make the noodles, in a large pot, bring the dashi just to a boil over medium heat. Add the soy sauce, mirin, and sugar, then cook until the sugar is dissolved.||4.Place the noodles in serving bowls, then divide the broth between the bowls. Portion the tenkasu and green onions on top of both bowls, then sprinkle with shichimi togarashi to serve.</t>
   </si>
   <si>
@@ -2156,16 +2075,9 @@
     <t>Sea Monster Tempura</t>
   </si>
   <si>
-    <t xml:space="preserve">
-A versatile technique that works well with a wide variety of fish (and vegetables, meats, and pretty much anything else), this tempura recipe will give you perfection in fried form.</t>
-  </si>
-  <si>
     <t>0.75*cup*Dashi,2*tablespoons*Soy Sauce,2*tablespoons*Mirin,1*tablespoon*Sugar,1*pound*White Fleshed Fish Fillets,0.25*cup*Starch,1*splash*Vegetable Oil,1*null*Egg Yolk,1*cup*Cold Water,0.25*cup*Ice Cubes,1.5*cups*Cake Flour</t>
   </si>
   <si>
-    <t>1. To prepare the sauce, combine the dashi, soy sauce, mirin, and sugar in a small pot over high heat and bring to a boil. Once boiling, turn off the heat and let it cool.||2. Prepare the fish by cutting it into bite-size pieces. If using fillets with skin, make shallow parallel cuts on the skin side about a quarter inch apart to help prevent fish from curling while frying.||3. Pat the fillets dry with paper towels, then coat generously with the starch and set aside.||4. Place a few inches of oil in a wide pot over medium heat and bring to 350 degrees Fahrenheit. While the oil is heating, place the egg yolk, water, and ice cubes in a small bowl and whisk well to combine.||5. Prepare your workstation by setting a paper towel–lined tray to one side of the stove, and place the fish and the flour within reach.||6. When the oil is hot, add the flour to the egg mixture and stir for about 20 seconds, until roughly combined. It’s OK if there are still some flour clumps in the batter; you just want it mostly mixed up.||7. It is critical to keep the oil temperature steady for the right texture, so fry only a few pieces at a time. Working with one fish piece at a time, quickly dip the fish in the batter, then immediately add it to the oil, letting it fry for a few seconds before adding another piece to the pan.||8. Fry for about 3 to 5 minutes, depending on the size of the pieces, until golden brown. Remove from the pan using a slotted spoon, then transfer to the paper towel-lined plate to drain. Between batches, skim and discard the crumbs left behind in the oil. Serve with Shuriken Senbei to honour the epic battle that Naruto and the other shinobi fought against the giant marlin from the Third Shinobi World War.</t>
-  </si>
-  <si>
     <t>Eight Tails Tako Su</t>
   </si>
   <si>
@@ -2193,9 +2105,6 @@
     <t>Akamaru's Favourite Dog Food</t>
   </si>
   <si>
-    <t xml:space="preserve"> Scrambled ground meat, called soboro in Japanese, is a dish that’s easy to prepare, has a great nutritional blend, and is perfect for all ninja, whether dog or human.</t>
-  </si>
-  <si>
     <t>3*large*Eggs,1*teaspoon*Salt,2*tablespoons*Sesame Oil,1*pound*Ground Chicken,0.5*inch*Ginger (fresh and grated),2*tablespoons*Mirin,2*tablespoons*Soy Sauce,1*cup*Frozen Peas,4*servings*Rice (freshly cooked)</t>
   </si>
   <si>
@@ -2214,9 +2123,6 @@
     <t>1. Using a mandoline or the slit side of a box grater, slice cucumber into thin strips. Use one of the finer sides to grate the ginger into a pulp.||2. Combine all the ingredients together in a small bowl, gently massaging it together to press the salt into the cucumber. Let sit for at least 15 minutes.||3. Use your hands to gently squeeze the cucumbers to remove excess moisture. Serve chilled or at room temperature.</t>
   </si>
   <si>
-    <t>1. Combine all the ingredients in a small pot and bring to a boil over high heat.||2. Turn the heat down to low and simmer until it’s reduced by at least half and a thick consistency is achieved. Remove from the heat and let cool.||3. Once cool, transfer to a plastic squeeze bottle to use. Or use it to decorate food using a clean watercolor brush.</t>
-  </si>
-  <si>
     <t>0.5*teaspoon*Squid Ink,0.25*cup*Dashi,0.25*cup*Soy Sauce,0.25*cup*Mirin,2*tablespoons*Sugar</t>
   </si>
   <si>
@@ -2229,10 +2135,6 @@
     <t>Brock Lee Goma-ae</t>
   </si>
   <si>
-    <t xml:space="preserve">
-This sesame-dressed salad is often made with spinach. But take a stalk of broccoli and dip its crown in soy sauce… does the slim, green, round-headed, dark-crowned shape remind you of anybody?</t>
-  </si>
-  <si>
     <t>3*tablespoons*Sesame Seeds,0.5*tablespoon*Sugar,2*tablespoons*Soy Sauce,1*tablespoon*Dashi,2*cups*Broccoli Florets</t>
   </si>
   <si>
@@ -2269,10 +2171,6 @@
     <t xml:space="preserve">Raspberry Rasengan </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Packed with antioxidants and natural sweetness, this smoothie is the perfect thing to power up your day with a swirl of chakra!</t>
-  </si>
-  <si>
     <t>1*null*Banana (roughly chopped),0.5*cup*Vanilla Yogurt (divided),1*cup*Soy Milk,0.6*cup*Frozen Raspberries,1*teaspoon*Matcha Powder,1*tablespoon*Honey,1*cup*Ice</t>
   </si>
   <si>
@@ -2282,10 +2180,6 @@
     <t>Konoha Cosmo</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In Konohagakure, it’s said that drinking this cocktail is the first step to learning Drunken Fist taijutsu.</t>
-  </si>
-  <si>
     <t>1*cup*Ice,2*ounces*Green Tea,1*ounce*Vodka,0.5*ounce*Orange Liqueur,1*ounce*Cranberry Juice,1*teaspoon*Lime Juice,1*strip*Lime Peel</t>
   </si>
   <si>
@@ -2295,10 +2189,6 @@
     <t>Kurenai's Shochu Martini</t>
   </si>
   <si>
-    <t xml:space="preserve">
-This drink uses Kurenai Sarutobi’s favorite shochu (distilled from rice and barley) instead of traditional gin or vodka for a martini that’s perfect for relaxing after a long day of training the next generation of shinobi.</t>
-  </si>
-  <si>
     <t>1*cup*Ice,2*ounces*Shochu,2*ounces*dry Vermouth,1*teaspoon*Yuzu,1*strip*Lemon Peel</t>
   </si>
   <si>
@@ -2314,18 +2204,9 @@
     <t>0.25*cup*Butter (softened),0.25*cup*Sugar,1*large*Egg,0.5*teaspoon*Vanilla Extract,0.75*cup*Flour,0.25*teaspoon*Salt,2*tablespoons*Matcha Powder,1*bowl*Coloured Sprinkles</t>
   </si>
   <si>
-    <t>1. Place the butter and sugar in a large bowl and stir until combined, then whisk in the egg and vanilla. Sift the flour and salt together, then add to the butter-sugar mixture and stir until well combined.||2. Place a sheet of plastic wrap on your work surface, then spread the mixture evenly on the wrap, making a roughly 9-by-9-inch square. Sprinkle the flavoring over the dough, keeping a 2-inch strip bare on one side.||3. Positioning the rectangle with the bare strip away from you, start at the near side and gently begin rolling up the dough into a cylinder. Use the plastic to guide the dough, and pull it away from the dough as it’s rolled. When the dough is rolled up, wrap it again in the plastic.||4. To create the crinkled narutomaki shape, wrap the dough log in a sushi rolling mat, pressing firmly once it’s fully wrapped to imprint the mat lines in the dough. Unwrap carefully so as to not lose any texture, then place in the freezer to firm up for at least 1 hour.||5. To bake, preheat the oven to 325 degrees Fahrenheit.||6. Unwrap the chilled dough and cut into quarter-inch slices. Arrange the cookies 1 inch apart on parchment-lined baking sheets, then bake for 11 to 14 minutes, until lightly golden.||7. Transfer to wire racks to cool.</t>
-  </si>
-  <si>
-    <t>1. Preheat the oven to 325 degrees F. Line an 8-by-4-inch loaf pan with parchment paper or grease with oil, then set aside.||2. In a large bowl, beat the eggs with a hand mixer set on high.||3. Add the sugar, and keep mixing at high speed for about 8 to 10 minutes until stiff peaks form in the batter. It will grow in size dramatically—this foam is what gives the cake lift! Take care not to overbeat it once the peaks are achieved, otherwise it could start to collapse. Turn the speed down to low, then mix in 3 tablespoons of honey and the salt.||4. Sift the flour into a separate bowl, then add about one-third of the flour to the egg mixture and beat on low speed until combined. Repeat this twice more until all the flour has been combined.||5. Pour half of the batter into a separate bowl. Add the cocoa powder to the second bowl and stir until combined.||6. To create the marble effect, first pour some of the plain batter into the prepared baking pan. Top it with some of the chocolate batter, then more of the plain. Repeat this process until you have about half a cup of each batter left. Draw a knife through the poured batter to create swirls in the cake, then carefully pour the remaining plain batter on top, smoothing it out over the center of the surface. To create the curse marks, pour three circles of the remaining chocolate batter, arranged in a small triangle, in the middle of the cake, then draw the knife through each circle in an outward motion, creating a comma shape with each one.||7. Bake on the middle rack for 40 minutes, until a skewer inserted into the center comes out clean. If not, continue baking for 5-minute intervals until the correct doneness is achieved.||8. Flip the cake over on the counter to remove from the pan, then immediately cover with plastic wrap. When cooled, remove the wrap and trim off the sides of the cake, exposing the marbled cake underneath.||9. Just before serving, mix the remaining 1 tablespoon of honey with 1 tablespoon of water and brush on the top.</t>
-  </si>
-  <si>
     <t>4*large*Eggs (room temperature),0.5*cup*Sugar,4*tablespoons*Honey,0.125*teaspoon*Salt,0.6*cup*Bread Flour,1*tablespoon*Unsweetened Cocoa Powder</t>
   </si>
   <si>
-    <t>This honeyed sponge cake has a long history in Japan as well as in Konoha village. They’re traditionally served plain, but the chocolate marble in this variation serves to mimic Sasuke’s curse marks—though with a sweeter result.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sasuke's Curse Mark Castella </t>
   </si>
   <si>
@@ -2350,25 +2231,12 @@
     <t>This recipe takes the concept of monkey bread, a delicious pull-apart dish perfect for parties, and turns it into a colorful collection of edible Minecraft blocks, a reminder of the great things we can craft from humble components.</t>
   </si>
   <si>
-    <t xml:space="preserve"> These real-life puff pastry sausage herds , topped with poppy seeds and a Buffalo sauce–inspired lava.</t>
-  </si>
-  <si>
-    <t>It’s a multiuse condiment that enhances salad, meats, veggies, and breads.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Combine the yeast and ¼ cup warm water in the bowl of a stand mixer fitted with a dough hook. Let stand 10 minutes or until foamy.||2. Add the rest of the water, flour, butter, and kosher salt to the bowl. Mix with a dough hook attachment, slowly at first, then on medium speed once the flour is incorporated. Mix for 5 minutes or until a sticky dough forms. If you don’t have a mixer, mix the dough together by hand, then knead it on a floured surface for 5 minutes.||3. Move the dough into a large oiled bowl and cover with a damp towel. Let sit in a warm location for 1 hour, or until the dough has doubled in size.||4. While waiting for the dough to rise, prep your ingredients. Put each block’s seasoning mix on its own flat plate.||5. Transfer the dough to a floured surface, punch it down, and using a sharp knife or a pizza cutter, divide the dough into 32 separate cubes.||6. Dip each cube in melted butter (with the exception of the lava and moss stone variations), then roll in the seasonings of choice to create whatever block types you want. Place each cube in a greased 8-by-8-inch square pan so they’re lightly stacked on top of each other. Cover the pan with plastic wrap and let rise for 30 minutes or until doubled in size.||7. While waiting for the dough to rise, preheat your oven to 400 degrees Fahrenheit. Once risen, place the pan in the oven for 30 minutes or until the bread is golden brown.||8. Remove the pan from the oven and let cool for 5 minutes.||9. Take a spatula or butter knife and run it along the edges to loosen the bread, and remove. Serve with the top side up. The individual cubes will be stuck together into a larger block but can be pulled apart evenly.</t>
-  </si>
-  <si>
     <t>1. Preheat the oven to 425 degrees Fahrenheit and cover a baking sheet with parchment paper. Set aside.||2. Sprinkle flour over a flat surface and roll out the thawed puff pastry sheet to a 10-by-14-inch rectangle.||3. Using a sharp knife or a pizza cutter, cut the pastry into 24 equally sized rectangles. Place one sausage at the base of each pastry rectangle (long side of the rectangle up) and roll up the sausage in the pastry. Pinch the seam closed.||4. Whisk the egg and water together and brush the top of each puff pastry sausage. Sprinkle a small line of poppy seeds in the centre of each top.||5. Bake for 20 to 25 minutes or until the puff pastry is golden brown and flaky.||6. While baking, make the lava dip: Combine the hot sauce, butter, vinegar, Worcestershire sauce, cayenne pepper, garlic powder, and paprika in a saucepan over medium heat. Whisk continuously until the mixture starts to boil (about 3 minutes). Mix together the cornstarch and water in a small bowl and add the slurry into the saucepan. Reduce heat to medium-low, cover, and let simmer for 5 minutes or until sauce has thickened.||7. Stir, remove from heat, and let cool for 5 minutes before serving.||8. Once the hoglins have finished baking, place them on a platter with a small bowl of the lava dip on the side.</t>
   </si>
   <si>
     <t>1. Place the vinegar, sugar, and salt in a small saucepan over medium heat and stir while cooking until the sugar and salt dissolve, about 1 minute.||2. Remove the saucepan from the heat and add the onion. Set aside to pickle for 1 hour.||3. Place the olive oil, lemon juice, garlic cloves, red pepper, and black pepper in a 10-ounce mason jar, then add the pickled onions and vinegar. Seal the jar and shake for 20 seconds or until emulsified. Refrigerate and shake quickly before using.</t>
   </si>
   <si>
-    <t>1. Heat oil on high in a large saucepan or Dutch oven until it reaches 375 degrees Fahrenheit. Adjust the stove’s heat to medium and monitor the temperature of the oil, keeping it consistently at 375 degrees Fahrenheit.||2. Mix together the flour, baking soda, salt, pepper, and garlic powder in a large bowl, then add the buttermilk and egg. Whisk together until fully combined.||3. Place the cheese curds in the batter mixture, fully coating the curds, and fish them out with a slotted spoon.||4. Place 8 to 10 of the cheese curds in the hot oil at a time, being careful not to crowd.||5. Fry for 1 minute, flipping over halfway through, then remove, placing on a paper towel–lined plate to drain and cool.||6. Bring the oil back to 375 degrees Fahrenheit and fry the next batch. Continue with the rest of the cheese curds.</t>
-  </si>
-  <si>
     <t>2*tablespoons*Flour,1*packet*Frozen Puff Pastry Sheet (thawed),24*mini*Cocktail Sausages,1*null*Egg,1*tablespoon*Water,1*packet*Poppy Seeds,1*cup*Cayenne Hot Sauce,0.5*cup*Unsalted Butter,2*tablespoons*White Vinegar,0.5*teaspoon*Worcestershire Sauce,0.5*teaspoon*Cayenne Pepper,0.5*teaspoon*Garlic Powder,0.25*teaspoon*Paprika,1*tablespoon*Cornstarch,1*tablespoon*Water</t>
   </si>
   <si>
@@ -2384,40 +2252,24 @@
     <t>28*ounce*Can of Whole Peeled Tomatoes (San Marzano if possible),0.5*teaspoon*Kosher Salt,0.25*cup*Olive Oil,1*dash*Red Pepper Flakes,1.5*cups*Flour,0.5*teaspoon*Salt,0.5*teaspoon*Dried Rosemary,0.5*cup*Water,1.5*tablespoons*Olive Oil (dough),1*sprinkle*Cornmeal,6*ounces*Whole Milk Mozzarella (low moisture and cut into half-inch cubes),1.5*tablespoons*Sun-dried Tomatoes,2*null*Cremini Mushrooms (sliced thin),0.25*cup*Baby Arugula,1*bowl*Parmesan (grated)</t>
   </si>
   <si>
-    <t>1. Pour the contents of the can of tomatoes into a bowl and crush the tomatoes by hand until a chunky sauce forms. Whisk in the salt and olive oil until the olive oil and tomato sauce are fully emulsified, and incorporate red pepper flakes if you’d like the sauce to be spicy. Refrigerate until you’re ready to use. (You’ll have some sauce left over after this recipe.|| For the Flatbread: 1. Preheat the oven as high as it will go (most likely 500 degrees Fahrenheit to 550 degrees Fahrenheit). Place a baking sheet in the oven while it preheats.||2. Combine the flour, salt, and rosemary in a large bowl.||3. Add the water and the olive oil, mixing with your hands until fully combined.||4. Move the dough to a floured surface and knead for 1 minute, until the dough is smooth and elastic. (Add more flour 1 tablespoon at a time if the dough is too sticky.)||5. Roll the dough into a long, flat oval (about 16 by 8 inches).||6. Using oven mitts, remove the baking sheet and sprinkle with cornmeal. Place the dough oval on the baking sheet and set back in the oven, baking for 5 to 7 minutes or until the edges are starting to turn golden brown, but it’s not fully cooked. (You’ll continue baking after adding the toppings.)||7. Remove from the oven. Place 3 quarters of a cup of sauce in the middle of the flatbread and use the back of a spoon to lightly spread it around the rest of the crust, leaving a half-inch border around the edge. Sprinkle the mozzarella evenly on top of the sauce and top with the sun-dried tomatoes and mushrooms. Brush the crust edges with olive oil.||8. Bake for an additional 6 minutes, or until the crust is brown and the cheese is melted and beginning to brown.||9. Remove the flatbread from the oven and onto a cutting board. Let sit for a few minutes, then top with arugula. Shake grated Parmesan, some red pepper flakes, and a dash of oregano on top.||10. Cut into squares to serve.</t>
-  </si>
-  <si>
     <t>Chicken Jockey Sandwich</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Here’s a satisfying pesto and bacon-covered chicken sandwich, inspired by the rare but unforgettable sight of a zombified piglin on a chicken</t>
-  </si>
-  <si>
     <t>4*slices*Bacon (thick-cut),1*null*Chicken Breast (boneless and skinless),0.25*teaspoon*Salt,0.25*teaspoon*Pepper,2*slice*Provolone Cheese,2*null*Brioche Buns (split),2*tablespoons*Mayonnaise,2*tablespoons*Pesto,2*slices*Tomato,2*pieces*Lettuce</t>
   </si>
   <si>
-    <t>1. Place the bacon slices in a large skillet on medium-high heat and cook for 3 minutes on each side, or until bacon is crispy. Remove the bacon and place on a paper towel–lined plate, leaving the bacon grease in the skillet.||2. Cut the chicken breast in half lengthwise, cover with parchment paper, and pound with a mallet (or another heavy, blunt utensil, like a rolling pin) until both pieces are of even thickness, about half inch. Salt and pepper both sides of the breast pieces and place them in the large skillet on medium-high heat. Cook the chicken for 3 to 4 minutes on each side, or until chicken is cooked through. (The chicken should feel firm to the touch and have an internal temperature of 165 degrees Fahrenheit.)||3. In the last minute of cooking, add the provolone cheese to the top of each chicken breast piece and let melt.||4. Toast brioche buns, then spread a light layer of mayo on the inside of each bun.||5. Place the chicken on the bottom buns, then spread a layer of pesto on top of the melted cheese.||6. Top with 2 slices of bacon for each sandwich, then tomato, lettuce, and the top bun.</t>
-  </si>
-  <si>
     <t>Farmland Smorgastarta</t>
   </si>
   <si>
     <t>4*null*Eggs (hard-boiled and minced),0.3*cup*Mayonnaise,1*null*Green Onion (minced),0.5*tablespoon*Dijon Mustard,0.5*teaspoon*Lemon Juice,0.25*teaspoon*Paprika,1*cup*Rotisserie Chicken (chopped),0.25*cup*Mayonnaise (chicken salad),1*stalk*Celery (chopped),1*null*Green Onion (minced for the chicken salad),0.5*teaspoon*Dijon Mustard (chicken salad),0.5*teaspoon*Dill,0.25*teaspoon*Salt,1*dash*Pepper,6*ounces*Cream Cheese,0.6*cup*Sour Cream,0.25*cup*Mayonnaise (smorgastarta),0.5*teaspoon*Dill (smorgastarta),1*dash*Salt (smorgastarta),1*dash*Pepper (smorgastarta),10*slices*White Bread,1*null*Cucumber,1*null*Radish</t>
   </si>
   <si>
-    <t>1. To make the individual salads: For the egg salad combine the eggs, mayonnaise, green onion, dijon mustard, lemon juice and paprika in a bowl and refrigerate until ready to use. For the chicken salad combine the chicken, mayonnaise, celery, green onion, dijon mustard, dill, salt and pepper in a bowl.||2. To make the smörgåstårta: Combine the cream cheese, sour cream, mayonnaise, dill, salt, and pepper in a bowl and mix until smooth.||3. Cut the crusts off of the bread slices, then place 2 slices side by side on a serving plate. Top one slice with egg salad, spread evenly and place a slice of bread on top.||4. Top the other slice with chicken salad, spread evenly, and place a slice of bread on top.||5. Repeat, this time putting egg salad atop the chicken salad side and vice versa. Top with bread and continue alternating salads and bread slices until you have a rectangular cake that’s 5 slices of bread and salad high and 2 slices wide.||6. Frost the bread cake’s top and sides with the cream cheese mixture. Slice the cucumber and radish thinly with a mandoline or a sharp knife, then decorate the sides and top of the cake with the sliced vegetables. Refrigerate for at least 30 minutes. Cut and serve just like you would cake!</t>
-  </si>
-  <si>
     <t>1. Mix all ingredients together and place in a jar.||2. When time to prep meat, sprinkle on 2 tablespoons per pound of meat or vegetables and rub it in with your hands, making sure to cover the meat or vegetables evenly. Let rest for at least 15 minutes, then cook the meat as you would otherwise.</t>
   </si>
   <si>
     <t>Redstone Dust Rub</t>
   </si>
   <si>
-    <t>A spicy, smoky, and sweet flavor—perfect for chicken, ribs, or anything you want to put on a grill.</t>
-  </si>
-  <si>
     <t>Decorate the outside to look like your farmland and favorite plants, then cut into delicious slices of satisfying, layered sandwiches.</t>
   </si>
   <si>
@@ -2433,21 +2285,12 @@
     <t>Buried Treasure Pie</t>
   </si>
   <si>
-    <t>Cut through the flaky crust of this “treasure chest,” and you’ll be rewarded with deliciously cooked salmon. And although it’s not the heart of the sea, the salmon is sitting on a bed of spinach, which is good for your heart.</t>
-  </si>
-  <si>
     <t>2*tablespoons*Salted Butter,1*null*Yellow Onion,6*cups*Baby Spinach,2*cloves*Garlic (minced),0.6*cup*Cream Cheese,0.25*cup*Dried Bread crumbs,0.25*cup*Parmesan (grated),0.75*teaspoon*Kosher Salt,0.5*teaspoon*Black Pepper,2*tablespoon*Flour,2*sheets*Frozen Puff Pastry (thawed),4*null*6 ounce Salmon Fillets (skin removed),0.5*null*Lemon Juice ,1*null*Egg,1*tablespoon*Water</t>
   </si>
   <si>
-    <t>1. Preheat the oven to 400 degrees Fahrenheit and line a baking sheet with parchment paper. Set aside.||2. Melt the butter in a large saucepan over medium heat and add the diced onion. Saute for 3 to 5 minutes or until the onions are soft and translucent.||3. Add the spinach and garlic and cook for 1 minute, or until the spinach begins to wilt. Add the cream cheese, and once it melts, add the bread crumbs, Parmesan, and a quarter teaspoon each of salt and pepper. Mix together and remove from heat.||4. Flour a cutting board, then unfold the pastry sheets and cut both sheets in half. Using a rolling pin, flatten each sheet to half its thickness. Season both sides of the salmon fillets with salt and pepper, then place one fillet, top side down, in the middle of each pastry sheet. Squeeze a small amount of lemon juice on each fillet.||5. Top the salmon with a quarter of the spinach mixture and spread so it covers the fillet evenly.||6. Fold up the edges of the puff pastry like you’re wrapping a present, then place the pastry packets on the parchment paper–covered baking sheet, seam side down.||7. Using a sharp knife, cut slits in the shape of an x in the middle of the pastry packets.||8. Make an egg wash by whisking the egg and water, then brush on the top of each pastry packet.||9. Bake for 30 minutes or until the pastry is golden and flaky.</t>
-  </si>
-  <si>
     <t>Potion of Night Vision</t>
   </si>
   <si>
-    <t>The vitamins in this carrot cake–inspired smoothie improve your night vision</t>
-  </si>
-  <si>
     <t>1*cup*Coconut Milk,0.5*cup*Frozen Carrots,1*null*Banana (frozen),0.25*cup*Vanilla Greek Yogurt,0.5*teaspoon*Vanilla Extract,0.25*teaspoon*Cinnamon,1*dash*Ginger,1*dash*Nutmeg</t>
   </si>
   <si>
@@ -2460,9 +2303,6 @@
     <t>15*null*Blueberries,5*null*Mint Leaves (fresh),1*packet*Ice,1*ounce*Simple Syrup,1*ounce*Lime Juice,4*ounces*Sparkling Water</t>
   </si>
   <si>
-    <t xml:space="preserve"> The recipe uses blueberries instead of the namesake fruit and includes a bit of sparkling water to put a spring in your step—whether you want it there or not.</t>
-  </si>
-  <si>
     <t>Chorus Fruit Spritzer</t>
   </si>
   <si>
@@ -2475,9 +2315,6 @@
     <t>1*teaspoon*Black Tea,0.25*teaspoon*Sparkling Sugar,0.25*teaspoon*Popping Candy,1*dash*Cinnamon</t>
   </si>
   <si>
-    <t>1. Mix together all ingredients in a small bowl, then place in a tea sachet. (If making more than one serving at a time, multiply the ingredient list accordingly, then scoop 1 and half  teaspoons of the mixture into each sachet.)||2. Place the sachet in hot water and steep for 3 to 5 minutes or until your desired strength is achieved.</t>
-  </si>
-  <si>
     <t>Creeper Cleanse</t>
   </si>
   <si>
@@ -2499,23 +2336,12 @@
     <t>1. Preheat the oven to 300 degrees Fahrenheit.||2. Whisk the egg yolks with half a cup of sugar until light and fluffy.||3. Heat cream in a large saucepan for 3 minutes or until bubbles start to form along the edges. Remove from heat.||4. Incorporate a quarter cup of the hot cream into the egg yolk mixture, then transfer the yolk mixture into the large saucepan with the rest of the cream. Add in the vanilla and stir.||5. Place a third of the mixture into a separate bowl and set aside. Add the chocolate chips to the remaining custard in the saucepan. Stir until fully melted and combined.||6. Pour the chocolate custard mixture into the dessert shooters, filling each shooter halfway.||7. Pour the vanilla custard slowly over the back of a spoon to layer on top of the chocolate. Fill until the shooters are 3 quarters full.||8. Place the shooters in a tall-rimmed baking dish and fill the dish with hot water at least halfway up the sides of the shooters.||9. Place in the oven and bake for 35 minutes or until the creme brulee is set but still jiggly. Remove the shooters from the pan and let cool at room temperature for 15 minutes.||10. Move to the fridge and let chill for at least 1 hour.||11. Sprinkle a teaspoon of sugar on the top of each shooter and torch the sugar using a culinary torch until it is fully melted and caramelized.</t>
   </si>
   <si>
-    <t>A chocolate-and-vanilla-layered creme brulee is topped with sugar and flambéed with fire</t>
-  </si>
-  <si>
     <t>Blocks of Clay Fudge</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Although these look just like clay blocks, they taste more like your favorite cookies and cream ice cream.</t>
-  </si>
-  <si>
     <t>4*cups*cream-filled Sandwich Cookies,14*ounce*Can Sweetened Condensed Milk,0.125*teaspoon*Salt,18*ounces*White Chocolate Chips,1*teaspoon*Vanilla Extract</t>
   </si>
   <si>
-    <t>1. Place half of the cookies in a blender or food processor and process for 10 seconds or until they make a fine crumb. Add the other half and pulse until the second half is coarsely chopped. Set aside.||2. Line an 8-by-8-inch square pan with parchment or wax paper and set aside.||3. Place the sweetened condensed milk and salt in a medium saucepan over medium-low heat until it begins to simmer, stirring often. Adjust the heat to low and add the white chocolate chips and vanilla extract, stirring until just starting to melt. Turn off the heat and continue to stir until fully melted.||4. Once fully melted and combined, stir in the cookie crumbs.||5. Place the fudge mixture in the parchment paper–lined square pan and spread evenly.||6. Chill in the refrigerator for at least 2 hours or until firm.
-7. Cut the fudge into 64 squares, about half an inch each.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheep's Wool </t>
   </si>
   <si>
@@ -2537,19 +2363,157 @@
     <t>1*cup*Unsalted Butter,1*cup*Granulated Sugar,1*null*Egg,1*teaspoon*Vanilla,3*cups*Flour,2*teaspoons*Baking Powder,0.5*teaspoon*Kosher Salt,1*packet*Gel Food Colouring (of choice)</t>
   </si>
   <si>
-    <t>1. Mix the butter and sugar in a mixer until it is light and creamy.||2. Add in the egg and vanilla, mixing fully in between each addition.||3. Mix the flour, baking powder, and salt together in a separate bowl, then slowly add into the wet mixture until everything is fully mixed.||4. Divide the dough into separate small bowls, one for each color you want to include in your tile. You might want to sketch out the design of your tile to guide you through the next steps. Or improvise and see what happens!||5. Place a few drops of gel food coloring into each bowl and mix with the dough until it reaches your desired color. (You may want to wear gloves to prevent your hands from getting stained!)||6. Roll each batch of colored dough into a long cylinder. You’re going to stack them together to form a single, thicker cylinder; slices of the cylinder will become your tiles. Consult your sketch, if you have one, and stack the tubes of dough on top of each other lengthwise so the colors line up where you want them. Look at the end of tube to see what the cross section will look like.||7. If you want your tile to include a specific shape in the center, you can roll one of the colored dough batches flat and cut out shapes with a cookie cutter. Stack the shapes on top of each other. Roll the other dough batches into long cylinders and use them to fill in the spaces around the cutout stack, creating a log with the cutout shape inside.||8. With the colors arranged correctly, press the dough together and form everything into a single cylinder.||9. Take the full log of dough and flatten it on four sides, creating a squared column. Wrap with plastic wrap and refrigerate for at least 1 hour.||10. Preheat the oven to 350 degrees Fahrenheit and line two baking sheets with parchment paper.||11. Take the log from the refrigerator and slice it into half-inch tiles. Place them on the baking sheets. Bake for 8 to 10 minutes or until set and barely golden on the edges. Let cool on the baking sheets for 5 minutes, then transfer to a wire rack to cool completely.</t>
-  </si>
-  <si>
     <t>Cocoa Chunk Cookies</t>
   </si>
   <si>
-    <t xml:space="preserve"> These are large treats with crispy edges, a gooey middle, and flakes of salty crunch to complement the sugar and chocolate—everything the perfect cookie should be</t>
-  </si>
-  <si>
     <t xml:space="preserve">1*cup*Salted Butter,1*cup*Brown Sugar,0.5*cup*Sugar,2*null*Eggs,1*teaspoon*Vanilla,2.5*cups*Flour,1*teaspoon*Salt,0.75*teaspoon*Baking Soda,1.5*cups*Dark Chocolate Chunks,0.5*cup*Chopped Walnuts,1*dash*Flake Salt </t>
   </si>
   <si>
     <t>1. Mix the butter in a mixer until it is light and creamy, then mix in both sugars.||2. Add in each egg one at a time, mixing in between each addition. Add the vanilla, and mix fully.||3. Mix the flour, salt, and baking soda together in a separate bowl, then slowly add into the wet mixture until everything is fully mixed.||4. Stir in the chocolate chunks. You may also add chopped walnuts.||5. Cover the top of the bowl of cookie dough with plastic wrap and refrigerate for 1 hour.||6. Preheat the oven to 375 degrees F, 15 minutes before removing the cookie dough from the fridge. Cover the cookie sheets with parchment paper.||7. Using the cookie scoop, drop round balls of cookie dough onto the cookie sheets, 2 inches apart from each other. Top each cookie with a small sprinkling of flake salt, lightly pressing into the tops.||8. Bake for 13 to 15 minutes, or until the edges of the cookies are light brown.|| 9. Cool for 5 minutes, then transfer to a wire rack to finish cooling.</t>
+  </si>
+  <si>
+    <t>1. Add the dashi to a small pot over medium heat and bring to a boil. Add the eggplant and aburaage and let simmer for about 10 minutes, until the eggplant is softened.||2. Turn the heat down to low, then ladle a small scoop of the broth into a small bowl. Add the miso to the bowl, then stir well with a spoon until the miso is completely dissolved, using the spoon to mash the miso against the sides of the bowl as you go.||3. Pour the broth mix back into the pot and stir to combine, taking care not to let the pot reach a boil again. You don't want your miso to get grainy!||4. Just before serving, add the green onions to the pot and let simmer for about 1 minute, then portion into bowls to serve.</t>
+  </si>
+  <si>
+    <t>1. To make the dough, place the rice flour, rice, salt, baking powder and oil in a food processor. Run until finely ground. Add the water, then pulse the processor until the water is fully incorporated. It will still be dry, but the dough should clump together when pressed. If not, add a tablespoon of water at a time until the right consistency is achieved.||2. Scoop out the dough into a small bowl, then add sesame seeds and work them into the dough until they are evenly distributed.||3. Roll the dough out on a sheet of parchment paper to a thickness of about a quarter inch or thinner, then cut into shuriken shapes. A four-pointed star, besides being a favourite of a shinobi, is more likely to hold together than more complex shapes. For bonus points, cut out a hole in the middle using a straw or knife.||4. To fry the senbei, heat about 2 inches of oil to 375 degrees Fahrenheit in a small, deep pot. Once it's hot, gently place a few crackers at a time in the oil, taking care not to overcrowd the pan. Fry for about 3 to 5 minutes, flipping occasionally to ensure even browning. Once a golden colour is achieved, remove from the oil with a slotted spoon and place it on paper towels to absorb excess oil.</t>
+  </si>
+  <si>
+    <t>1. Combine the flour and salt in a large bowl and mix well to combine.||2. Pour the contents out into the shape of a mound on your work surface, then use your fingers to make a small indentation in the middle.||3. Pour the water and egg yolk into the indentation, then work the liquid into the mixture using your hands. Depending on the flour, you may need to add more water.Add just enough to get the flour to combine but not be too sticky.||4. Knead vigorously until the dough is smooth but firm, like your earlobe being the traditional Japanese guidance.||5. Roll the dough into a ball and wrap with plastic wrap, then set aside for at least 2 hours at room  temperature or 8 hours in the fridge.||6. When ready to cut the noodles, unwrap the dough and place on a lightly floured work surface. Roll out into a rectangular shape eighth inch thick. Dust the top with starch, then, taking the short sides of the rectangle, fold them inward, as if you were folding a letter to fit in an envelope.||7. With the long side of the folded dough facing you, hold a sharp knife or cleaver perpendicular to the long side and cut the dough into strips eigth inch wide, resulting in thin, narrow strips when the pieces are unfolded.||8. Gently loosen the noodles to unfold them, then lightly dust with starch to prevent them from clumping. Divide them into four portions for easier cooking.||9. When ready to cook, bring a large pot of water to a boil, making sure there's enough water that the noodles won't be crowded and water can circulate freely. Add the noodles one portion at a time, waiting for the water to reach full boiling again before adding the next portion. Stir constantly to keep the noodles from sticking to the bottom. Once all the noodles are added to the water, cook for 2 to 3 more minutes.||10. Place a colander in the sink and carefully pour the contents of the pot into the colander, then rinse under cool or cold running water briefly to remove any surface starch.||11. Serve immediately in any recipe calling for cooked noodles.</t>
+  </si>
+  <si>
+    <t>1. To prepare the seasoned aburaage, combine the soy sauce, mirin, sugar, and dashi in a small pot over medium heat. Add the aburaage, then let simmer until all the liquid has been absorbed. Let cool and set aside, then cut each rectangle into nine long strips.||2. In a large pot, bring the dashi just to a boil over medium heat. Add the soy sauce, mirin, and sugar, then cook until the sugar is dissolved.||3. Place the noodles in serving bowls, then divide the broth between the bowls. Arrange the strips of the aburaage on each bowl, fanned out from the center like Kurama's tails. Sprinkle with the green onions to serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scrambled ground meat, called soboro in Japanese, is a dish that's easy to prepare, has a great nutritional blend, and is perfect for all ninja, whether dog or human.</t>
+  </si>
+  <si>
+    <t>1. Combine all the ingredients in a small pot and bring to a boil over high heat.||2. Turn the heat down to low and simmer until it's reduced by at least half and a thick consistency is achieved. Remove from the heat and let cool.||3. Once cool, transfer to a plastic squeeze bottle to use. Or use it to decorate food using a clean watercolor brush.</t>
+  </si>
+  <si>
+    <t>1. Place the butter and sugar in a large bowl and stir until combined, then whisk in the egg and vanilla. Sift the flour and salt together, then add to the butter-sugar mixture and stir until well combined.||2. Place a sheet of plastic wrap on your work surface, then spread the mixture evenly on the wrap, making a roughly 9-by-9-inch square. Sprinkle the flavoring over the dough, keeping a 2-inch strip bare on one side.||3. Positioning the rectangle with the bare strip away from you, start at the near side and gently begin rolling up the dough into a cylinder. Use the plastic to guide the dough, and pull it away from the dough as it's rolled. When the dough is rolled up, wrap it again in the plastic.||4. To create the crinkled narutomaki shape, wrap the dough log in a sushi rolling mat, pressing firmly once it's fully wrapped to imprint the mat lines in the dough. Unwrap carefully so as to not lose any texture, then place in the freezer to firm up for at least 1 hour.||5. To bake, preheat the oven to 325 degrees Fahrenheit.||6. Unwrap the chilled dough and cut into quarter-inch slices. Arrange the cookies 1 inch apart on parchment-lined baking sheets, then bake for 11 to 14 minutes, until lightly golden.||7. Transfer to wire racks to cool.</t>
+  </si>
+  <si>
+    <t>It's a multiuse condiment that enhances salad, meats, veggies, and breads.</t>
+  </si>
+  <si>
+    <t>1. Pour the contents of the can of tomatoes into a bowl and crush the tomatoes by hand until a chunky sauce forms. Whisk in the salt and olive oil until the olive oil and tomato sauce are fully emulsified, and incorporate red pepper flakes if you'd like the sauce to be spicy. Refrigerate until you're ready to use. (You'll have some sauce left over after this recipe.|| For the Flatbread: 1. Preheat the oven as high as it will go (most likely 500 degrees Fahrenheit to 550 degrees Fahrenheit). Place a baking sheet in the oven while it preheats.||2. Combine the flour, salt, and rosemary in a large bowl.||3. Add the water and the olive oil, mixing with your hands until fully combined.||4. Move the dough to a floured surface and knead for 1 minute, until the dough is smooth and elastic. (Add more flour 1 tablespoon at a time if the dough is too sticky.)||5. Roll the dough into a long, flat oval (about 16 by 8 inches).||6. Using oven mitts, remove the baking sheet and sprinkle with cornmeal. Place the dough oval on the baking sheet and set back in the oven, baking for 5 to 7 minutes or until the edges are starting to turn golden brown, but it's not fully cooked. (You'll continue baking after adding the toppings.)||7. Remove from the oven. Place 3 quarters of a cup of sauce in the middle of the flatbread and use the back of a spoon to lightly spread it around the rest of the crust, leaving a half-inch border around the edge. Sprinkle the mozzarella evenly on top of the sauce and top with the sun-dried tomatoes and mushrooms. Brush the crust edges with olive oil.||8. Bake for an additional 6 minutes, or until the crust is brown and the cheese is melted and beginning to brown.||9. Remove the flatbread from the oven and onto a cutting board. Let sit for a few minutes, then top with arugula. Shake grated Parmesan, some red pepper flakes, and a dash of oregano on top.||10. Cut into squares to serve.</t>
+  </si>
+  <si>
+    <t>1. Mix the butter and sugar in a mixer until it is light and creamy.||2. Add in the egg and vanilla, mixing fully in between each addition.||3. Mix the flour, baking powder, and salt together in a separate bowl, then slowly add into the wet mixture until everything is fully mixed.||4. Divide the dough into separate small bowls, one for each color you want to include in your tile. You might want to sketch out the design of your tile to guide you through the next steps. Or improvise and see what happens!||5. Place a few drops of gel food coloring into each bowl and mix with the dough until it reaches your desired color. (You may want to wear gloves to prevent your hands from getting stained!)||6. Roll each batch of colored dough into a long cylinder. You're going to stack them together to form a single, thicker cylinder; slices of the cylinder will become your tiles. Consult your sketch, if you have one, and stack the tubes of dough on top of each other lengthwise so the colors line up where you want them. Look at the end of tube to see what the cross section will look like.||7. If you want your tile to include a specific shape in the center, you can roll one of the colored dough batches flat and cut out shapes with a cookie cutter. Stack the shapes on top of each other. Roll the other dough batches into long cylinders and use them to fill in the spaces around the cutout stack, creating a log with the cutout shape inside.||8. With the colors arranged correctly, press the dough together and form everything into a single cylinder.||9. Take the full log of dough and flatten it on four sides, creating a squared column. Wrap with plastic wrap and refrigerate for at least 1 hour.||10. Preheat the oven to 350 degrees Fahrenheit and line two baking sheets with parchment paper.||11. Take the log from the refrigerator and slice it into half-inch tiles. Place them on the baking sheets. Bake for 8 to 10 minutes or until set and barely golden on the edges. Let cool on the baking sheets for 5 minutes, then transfer to a wire rack to cool completely.</t>
+  </si>
+  <si>
+    <t>1. Place the lemon zest, lemon juice, sugar, and water in a saucepan and heat, stirring frequently, just until beginning to simmer. Remove from the heat and stir in the lemon extract. Pour into ice pop moulds.||2.  Freeze until solid, about 5 hours.||3. These lemon pops get their bright lemon flavour from three sources - grated lemon zest, lemon juice, and lemon extract - hence the name -Triple Power.</t>
+  </si>
+  <si>
+    <t>This honeyed sponge cake has a long history in Japan as well as in Konoha village. They're traditionally served plain, but the chocolate marble in this variation serves to mimic Sasuke's curse marks-though with a sweeter result.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 325 degrees F. Line an 8-by-4-inch loaf pan with parchment paper or grease with oil, then set aside.||2. In a large bowl, beat the eggs with a hand mixer set on high.||3. Add the sugar, and keep mixing at high speed for about 8 to 10 minutes until stiff peaks form in the batter. It will grow in size dramatically-this foam is what gives the cake lift! Take care not to overbeat it once the peaks are achieved, otherwise it could start to collapse. Turn the speed down to low, then mix in 3 tablespoons of honey and the salt.||4. Sift the flour into a separate bowl, then add about one-third of the flour to the egg mixture and beat on low speed until combined. Repeat this twice more until all the flour has been combined.||5. Pour half of the batter into a separate bowl. Add the cocoa powder to the second bowl and stir until combined.||6. To create the marble effect, first pour some of the plain batter into the prepared baking pan. Top it with some of the chocolate batter, then more of the plain. Repeat this process until you have about half a cup of each batter left. Draw a knife through the poured batter to create swirls in the cake, then carefully pour the remaining plain batter on top, smoothing it out over the center of the surface. To create the curse marks, pour three circles of the remaining chocolate batter, arranged in a small triangle, in the middle of the cake, then draw the knife through each circle in an outward motion, creating a comma shape with each one.||7. Bake on the middle rack for 40 minutes, until a skewer inserted into the center comes out clean. If not, continue baking for 5-minute intervals until the correct doneness is achieved.||8. Flip the cake over on the counter to remove from the pan, then immediately cover with plastic wrap. When cooled, remove the wrap and trim off the sides of the cake, exposing the marbled cake underneath.||9. Just before serving, mix the remaining 1 tablespoon of honey with 1 tablespoon of water and brush on the top.</t>
+  </si>
+  <si>
+    <t>A spicy, smoky, and sweet flavor-perfect for chicken, ribs, or anything you want to put on a grill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The recipe uses blueberries instead of the namesake fruit and includes a bit of sparkling water to put a spring in your step-whether you want it there or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These are large treats with crispy edges, a gooey middle, and flakes of salty crunch to complement the sugar and chocolate-everything the perfect cookie should be</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tasty pickled onion-topped treats</t>
+  </si>
+  <si>
+    <t>1. To prepare the sauce, combine the dashi, soy sauce, mirin, and sugar in a small pot over high heat and bring to a boil. Once boiling, turn off the heat and let it cool.||2. Prepare the fish by cutting it into bite-size pieces. If using fillets with skin, make shallow parallel cuts on the skin side about a quarter inch apart to help prevent fish from curling while frying.||3. Pat the fillets dry with paper towels, then coat generously with the starch and set aside.||4. Place a few inches of oil in a wide pot over medium heat and bring to 350 degrees Fahrenheit. While the oil is heating, place the egg yolk, water, and ice cubes in a small bowl and whisk well to combine.||5. Prepare your workstation by setting a paper towel-lined tray to one side of the stove, and place the fish and the flour within reach.||6. When the oil is hot, add the flour to the egg mixture and stir for about 20 seconds, until roughly combined. It's OK if there are still some flour clumps in the batter; you just want it mostly mixed up.||7. It is critical to keep the oil temperature steady for the right texture, so fry only a few pieces at a time. Working with one fish piece at a time, quickly dip the fish in the batter, then immediately add it to the oil, letting it fry for a few seconds before adding another piece to the pan.||8. Fry for about 3 to 5 minutes, depending on the size of the pieces, until golden brown. Remove from the pan using a slotted spoon, then transfer to the paper towel-lined plate to drain. Between batches, skim and discard the crumbs left behind in the oil. Serve with Shuriken Senbei to honour the epic battle that Naruto and the other shinobi fought against the giant marlin from the Third Shinobi World War.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These real-life puff pastry sausage herds , topped with poppy seeds and a Buffalo sauce-inspired lava.</t>
+  </si>
+  <si>
+    <t>1. Heat oil on high in a large saucepan or Dutch oven until it reaches 375 degrees Fahrenheit. Adjust the stove's heat to medium and monitor the temperature of the oil, keeping it consistently at 375 degrees Fahrenheit.||2. Mix together the flour, baking soda, salt, pepper, and garlic powder in a large bowl, then add the buttermilk and egg. Whisk together until fully combined.||3. Place the cheese curds in the batter mixture, fully coating the curds, and fish them out with a slotted spoon.||4. Place 8 to 10 of the cheese curds in the hot oil at a time, being careful not to crowd.||5. Fry for 1 minute, flipping over halfway through, then remove, placing on a paper towel-lined plate to drain and cool.||6. Bring the oil back to 375 degrees Fahrenheit and fry the next batch. Continue with the rest of the cheese curds.</t>
+  </si>
+  <si>
+    <t>1. Place the bacon slices in a large skillet on medium-high heat and cook for 3 minutes on each side, or until bacon is crispy. Remove the bacon and place on a paper towel-lined plate, leaving the bacon grease in the skillet.||2. Cut the chicken breast in half lengthwise, cover with parchment paper, and pound with a mallet (or another heavy, blunt utensil, like a rolling pin) until both pieces are of even thickness, about half inch. Salt and pepper both sides of the breast pieces and place them in the large skillet on medium-high heat. Cook the chicken for 3 to 4 minutes on each side, or until chicken is cooked through. (The chicken should feel firm to the touch and have an internal temperature of 165 degrees Fahrenheit.)||3. In the last minute of cooking, add the provolone cheese to the top of each chicken breast piece and let melt.||4. Toast brioche buns, then spread a light layer of mayo on the inside of each bun.||5. Place the chicken on the bottom buns, then spread a layer of pesto on top of the melted cheese.||6. Top with 2 slices of bacon for each sandwich, then tomato, lettuce, and the top bun.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 400 degrees Fahrenheit and line a baking sheet with parchment paper. Set aside.||2. Melt the butter in a large saucepan over medium heat and add the diced onion. Saute for 3 to 5 minutes or until the onions are soft and translucent.||3. Add the spinach and garlic and cook for 1 minute, or until the spinach begins to wilt. Add the cream cheese, and once it melts, add the bread crumbs, Parmesan, and a quarter teaspoon each of salt and pepper. Mix together and remove from heat.||4. Flour a cutting board, then unfold the pastry sheets and cut both sheets in half. Using a rolling pin, flatten each sheet to half its thickness. Season both sides of the salmon fillets with salt and pepper, then place one fillet, top side down, in the middle of each pastry sheet. Squeeze a small amount of lemon juice on each fillet.||5. Top the salmon with a quarter of the spinach mixture and spread so it covers the fillet evenly.||6. Fold up the edges of the puff pastry like you're wrapping a present, then place the pastry packets on the parchment paper-covered baking sheet, seam side down.||7. Using a sharp knife, cut slits in the shape of an x in the middle of the pastry packets.||8. Make an egg wash by whisking the egg and water, then brush on the top of each pastry packet.||9. Bake for 30 minutes or until the pastry is golden and flaky.</t>
+  </si>
+  <si>
+    <t>The vitamins in this carrot cake-inspired smoothie improve your night vision</t>
+  </si>
+  <si>
+    <t>A chocolate-and-vanilla-layered creme brulee is topped with sugar and flambeed with fire</t>
+  </si>
+  <si>
+    <t>1. To pan-fry the bacon, heat a skillet or saute pan over medium-high heat. Lay the bacon carefully in the pan. Let the bacon cook for 2 minutes; then, using a pair of tongs or a fork, turn the bacon and cook for 2 minutes more. Continue cooking and turning every 30 seconds until the bacon reaches the desired crispness. Remove the bacon and let it drain on paper towels. Drain all but 1 tablespoon of fat from the pan.||2. Reduce the heat to medium low. Break the eggs into a small bowl. When the fat begins to sizzle, add the eggs and season with salt and pepper.||3. Fried eggs are served by a degree of doneness: sunny side up, over-easy, over-medium, or over-hard. For sunny side up, cook the eggs for 4 minutes or until the white is set and firm. For 'over' eggs, add the eggs to the pan and let cook for 3 minutes. Carefully flip the eggs using a spatula and cook as follows: over-easy for 2 minutes on the second side; over-medium, for 2 minutes, 15 seconds; over-hard, for 2 minutes, 30 seconds or until the yolk is completely firm. You can also break the yolk before turning for over-hard.</t>
+  </si>
+  <si>
+    <t>Cut through the flaky crust of this 'treasure chest,' and you'll be rewarded with deliciously cooked salmon. And although it's not the heart of the sea, the salmon is sitting on a bed of spinach, which is good for your heart.</t>
+  </si>
+  <si>
+    <t>1. Mix together all ingredients in a small bowl, then place in a tea sachet. (If making more than one serving at a time, multiply the ingredient list accordingly, then scoop 1 and half  teaspoons of the mixture into each sachet.)||2. Place the sachet in hot water and steep for 3 to 5 minutes or until your desired strength is achieved.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit. Grease and flour a 9inch x 13inch cake pan.||2. Place the chocolate and coffee in a small bowl. Pour the boiling water over the chocolate and coffee and let it stand for 5 minutes. Whisk until smooth.||3. Using an electric mixer, combine the flour, sugar, cocoa powder, salt, baking soda, and baking powder in a large bowl. Mix on low speed until well combined. Add the oil and buttermilk and mix well, scraping down the sides as needed. Add the eggs one at a time, beating after each until incorporated. Add the chocolate-coffee mixture very carefully, on the lowest speed, as it will slosh around the bowl. Add the vanilla. Finish by scraping the bowl down and mixing all the batter with a rubber spatula.||4. Scrape the batter into the prepared pan and bake for about 45 minutes, until the cake feels firm when touched lightly in the centre or a toothpick inserted in the centre comes out with a few moist crumbs attached. If the toothpick comes out clean, the cake is over baked.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 375 degrees Fahrenheit and lay the onion slices and garlic cloves in a baking dish. Rinse the chicken and pat it dry.||2. Mix the butter or margarine with the thyme, sage, and parsley and spread it under the skin of the breasts and thighs; you will need to loosen the skin first by lifting up the flap of the skin and sliding your fingers under it. Lay the chicken in the pan, breast-side up, on top of the onions and garlic and sprinkle with salt and pepper. Pour the water into the pan.||3. Bake for 50 minutes. Rotate the pan, raise the temperature to 450 degrees Fahrenheit, and bake for another 30 minutes or until an instant-read thermometer inserted into the thigh reads 170 degrees Fahrenheit.||4.  While the chicken is roasting, prepare the mashed potatoes. Cover the potatoes with water in a large saucepan and bring to a boil. Reduce the heat and let it simmer until tender, about 25 minutes.||5. Heat the 2 tablespoons oil in a skillet and add the 4 onions. Cook the onions over medium heat, stirring frequently, until nicely browned, about 10 minutes. Add the garlic and cook until fragrant, about 15 seconds. Remove from the heat.||6. Drain the potatoes. Add the onion-garlic mixture, 1/2 cup oil, chicken broth, and salt and pepper. Mash with a potato masher.</t>
+  </si>
+  <si>
+    <t>1. To make the individual salads: For the egg salad combine the eggs, mayonnaise, green onion, dijon mustard, lemon juice and paprika in a bowl and refrigerate until ready to use. For the chicken salad combine the chicken, mayonnaise, celery, green onion, dijon mustard, dill, salt and pepper in a bowl.||2. To make the smorgastarta: Combine the cream cheese, sour cream, mayonnaise, dill, salt, and pepper in a bowl and mix until smooth.||3. Cut the crusts off of the bread slices, then place 2 slices side by side on a serving plate. Top one slice with egg salad, spread evenly and place a slice of bread on top.||4. Top the other slice with chicken salad, spread evenly, and place a slice of bread on top.||5. Repeat, this time putting egg salad atop the chicken salad side and vice versa. Top with bread and continue alternating salads and bread slices until you have a rectangular cake that's 5 slices of bread and salad high and 2 slices wide.||6. Frost the bread cake's top and sides with the cream cheese mixture. Slice the cucumber and radish thinly with a mandoline or a sharp knife, then decorate the sides and top of the cake with the sliced vegetables. Refrigerate for at least 30 minutes. Cut and serve just like you would cake!</t>
+  </si>
+  <si>
+    <t>This recipe is said to be a favorite of Kakashi Hatake. Perhaps that's because, like him, eggplant is a humble ingredient, yet versatile enough to be effective in a variety of situations.</t>
+  </si>
+  <si>
+    <t>1. Place ingredients for your desired seasoning mix into a spice grinder or food processor and blend until finely ground (not necessary if youre using ramen seasoning). Set aside.||2. Prepare the chips by using a mandoline or the wide edge of a box cutter to slice the potatoes to a thickness of an eighth inch. Place them in a large bowl with enough of ice water to cover them and let them soak for at least 30 minutes. Drain the potatoes using a colander or strainer, then pat dry thoroughly with paper towels.||3. Heat approximately 2 inches of oil in a wide pot to 375 degrees F.||4. Use tongs or a slotted spoon to place a handful of slices in the oil at a time, taking care not to crowd the pan too much to prevent the temperature from dropping. Fry for about 4 minutes, until a golden color is achieved, stirring frequently to ensure even cooking. You know theyre close when the potatoes start bubbling less.||5. Remove the potatoes from the oil with a slotted spoon and transfer to paper towels to dry. If necessary, add more oil and wait for the oil to come back up to temperature before frying another batch. ||6. While the subsequent batches are frying, pat down the freshly fried chips to remove as much oil as possible, then immediately transfer them to a large bowl and sprinkle some of the seasoning on top.||7. Continue adding more chips to the top of the bowl after theyre done frying and have been patted dry, then season them. Letting excess seasoning fall onto the chips below maximises flavour!||8. Repeat until all slices have been cooked, dried, and seasoned.||9. The chips are best enjoyed fresh but can be stored in an airtight container for up to 3 days.</t>
+  </si>
+  <si>
+    <t>Shuriken shaped rice crackers</t>
+  </si>
+  <si>
+    <t>A versatile technique that works well with a wide variety of fish (and vegetables, meats, and pretty much anything else), this tempura recipe will give you perfection in fried form.</t>
+  </si>
+  <si>
+    <t>This sesame-dressed salad is often made with spinach. But take a stalk of broccoli and dip its crown in soy sauce... does the slim, green, round-headed, dark-crowned shape remind you of anybody?</t>
+  </si>
+  <si>
+    <t>Packed with antioxidants and natural sweetness, this smoothie is the perfect thing to power up your day with a swirl of chakra!</t>
+  </si>
+  <si>
+    <t>In Konohagakure, it's said that drinking this cocktail is the first step to learning Drunken Fist taijutsu.</t>
+  </si>
+  <si>
+    <t>This drink uses Kurenai Sarutobi's favorite shochu (distilled from rice and barley) instead of traditional gin or vodka for a martini that's perfect for relaxing after a long day of training the next generation of shinobi.</t>
+  </si>
+  <si>
+    <t>1. Combine the yeast and 1/4 cup warm water in the bowl of a stand mixer fitted with a dough hook. Let stand 10 minutes or until foamy.||2. Add the rest of the water, flour, butter, and kosher salt to the bowl. Mix with a dough hook attachment, slowly at first, then on medium speed once the flour is incorporated. Mix for 5 minutes or until a sticky dough forms. If you don't have a mixer, mix the dough together by hand, then knead it on a floured surface for 5 minutes.||3. Move the dough into a large oiled bowl and cover with a damp towel. Let sit in a warm location for 1 hour, or until the dough has doubled in size.||4. While waiting for the dough to rise, prep your ingredients. Put each block's seasoning mix on its own flat plate.||5. Transfer the dough to a floured surface, punch it down, and using a sharp knife or a pizza cutter, divide the dough into 32 separate cubes.||6. Dip each cube in melted butter (with the exception of the lava and moss stone variations), then roll in the seasonings of choice to create whatever block types you want. Place each cube in a greased 8-by-8-inch square pan so they're lightly stacked on top of each other. Cover the pan with plastic wrap and let rise for 30 minutes or until doubled in size.||7. While waiting for the dough to rise, preheat your oven to 400 degrees Fahrenheit. Once risen, place the pan in the oven for 30 minutes or until the bread is golden brown.||8. Remove the pan from the oven and let cool for 5 minutes.||9. Take a spatula or butter knife and run it along the edges to loosen the bread, and remove. Serve with the top side up. The individual cubes will be stuck together into a larger block but can be pulled apart evenly.</t>
+  </si>
+  <si>
+    <t>Here's a satisfying pesto and bacon-covered chicken sandwich, inspired by the rare but unforgettable sight of a zombified piglin on a chicken</t>
+  </si>
+  <si>
+    <t>Although these look just like clay blocks, they taste more like your favorite cookies and cream ice cream.</t>
+  </si>
+  <si>
+    <t>1. Place half of the cookies in a blender or food processor and process for 10 seconds or until they make a fine crumb. Add the other half and pulse until the second half is coarsely chopped. Set aside.||2. Line an 8-by-8-inch square pan with parchment or wax paper and set aside.||3. Place the sweetened condensed milk and salt in a medium saucepan over medium-low heat until it begins to simmer, stirring often. Adjust the heat to low and add the white chocolate chips and vanilla extract, stirring until just starting to melt. Turn off the heat and continue to stir until fully melted.||4. Once fully melted and combined, stir in the cookie crumbs.||5. Place the fudge mixture in the parchment paper-lined square pan and spread evenly.||6. Chill in the refrigerator for at least 2 hours or until firm.7. Cut the fudge into 64 squares, about half an inch each.</t>
+  </si>
+  <si>
+    <t>1. To start, pour 1/3 cup of olive oil into a cast iron skillet. Set the burner on high, so the oil will get smoking hot. While this heats up, you can slice your onions.||2. Season your steak with salt and pepper right before adding it to the oil (no more than two minutes early!). Be sure to season REALLY well!||3. Using tongs, lay your steak slowly on the hot oil. It should sizzle violently, so watch out for oil splatter!||4. Once your steak starts to develop a brown crust, add 2 tbsp of butter to the oil. This will enhance the colour and add some great flavour.||5. After the butter, add your onions and mushrooms. I sprinkled a little thyme over the onions and mushrooms (but not the meat) for an extra flavour boost.||6. For the final few minutes of cooking, you can baste the steak between flips.||7. When the meat has reached the desired "doneness," remove the steak to a warm plate and allow it to rest for 5 minutes or half its cooking time (whichever is longer). Place the thymed-up onions and mushrooms on top while it rests, to trap heat and infuse a little more flavour.||8. Enjoy this sizzling, succulent miracle while debating house-elf rights with your friends!</t>
+  </si>
+  <si>
+    <t>1. Prepare the custard, whipped cream, and Jell-O in advance; chop and toast the nuts ahead as well.||2. Wash, and if necessary, peel and chop the fruit you are using.||3. Set out six tall sundae glasses. Divide half a pint of the ice cream into the bottom of the six glasses. Evenly divide 1 cup of the fruit into the glasses. Then evenly divide 1 cup of the Jell-O over the fruit and 1 cup of the custard over the Jell-O. Repeat the layering once with the remaining ice cream, fruit, Jell-O, and custard.||4. Top with the whipped cream, toasted nuts, and chocolate syrup.</t>
+  </si>
+  <si>
+    <t>1. Combine all the ingredients in a large mixing bowl and mix well.||2. Spray a skillet with cooking spray and heat the skillet. Form the mixture into patties and cook on both sides over medium-high heat until well-browned. Transfer to a paper-towel-lined plate and repeat until the beef mixture is used up. Or cook on a grill until well done.||3. Serve in toasted hamburger buns with sauteed sliced onions, English mustard, lettuce, and tomato.</t>
+  </si>
+  <si>
+    <t>1. Place the flour, sugar, and salt in the bowl of a food processor. Pulse a few times to combine. Scatter the butter and shortening over the flour mixture. Pulse about 15 times until the mixture resembles a coarse yellow meal, with no white powdery bits remaining.||2. Transfer the mixture to a large mixing bowl. Sprinkle 4 tablespoons of cold water over the mixture. Toss the mixture together with a spatula until it starts clumping together. If it's too dry, add more water 1 tablespoon at a time (better too wet than too dry). Gather the dough into a ball and pat it into a disk. Wrap it in plastic wrap and refrigerate it for at least 1 hour.||3. Combine the pumpkin, sugar, nutmeg, and cinnamon in a mixing bowl. Mix well. Preheat the oven to 400 degrees Fahrenheit. Roll out the dough 1/8-inch thick. Use a saucer to cut out 6-inch circles.||4. Put 2 to 3 tablespoons of filling in the centre of each circle of dough. Moisten the edges with water, fold the dough over the filling, and crimp with a fork to seal the edges. Cut slits to make vents. Bake on an ungreased cookie sheet for 30 minutes or until browned.</t>
+  </si>
+  <si>
+    <t>1. Preheat the oven to 350 degrees Fahrenheit. Peel the onions, cut them in half from pole to pole, and slice as thinly as possible. In a heavy soup pot, heat the butter. Remove the pot from the heat.||2. Remove one end of the baguette and slice six 1-inch-thick slices for the croutons. Cover the cut end of the bread and save for the end. Dip a pastry brush into the hot butter that is in the pot and brush one side of each slice with the butter. Place the slices butter-side up on a baking sheet and sprinkle with the cheese. Toast the bread in the oven for about 10 minutes or until browned.||3. While the bread toasts, return the pot to the heat and add the onions. Season with salt and pepper. Stir in the sugar and continue to stir over medium-high heat until the onions have browned about 15 minutes.||4. Blend in the flour. Gradually add the stock while stirring and bring the soup to a boil. Reduce the heat to a simmer and cook uncovered for 30 minutes.||5. Ladle the soup into warmed bowls and float a cheesy crouton in the centre, then sprinkle cheese around the crouton.</t>
+  </si>
+  <si>
+    <t>1. To make the stock, combine all the stock ingredients in a heavy saucepan. Bring to a boil. Cover and reduce to a simmer for 1 hour. Strain the solids and return the liquid to the pan. Bring to a boil and reduce the total volume to 1 and a quarter cups. Set aside to cool.||2. To make the pastry, combine the flour and salt in a large mixing bowl. Place the lard or vegetable shortening in a saucepan along with the milk and water; set the saucepan over high heat until the fat melts. Bring to a boil. Stir the fat and liquids together and pour into the bowl with the flour. Mix well. Turn the dough out onto a flour dusted work surface. Form the dough into a ball and dust it with flour. Knead for 5 minutes. Wrap in plastic wrap and let rest for 30 minutes.||3. For the filling, dice the pork into quarter-inch pieces or place chunks of pork into a food processor and pulse to coarsely chop. Place the pork in a large mixing bowl with the diced bacon, sage, minced anchovy or anchovy oil, and allspice. Add a quarter cup of the stock and mix well. Test the seasoning by heating a small amount of water in a saute pan to a boil and cook a small amount of the pork mixture (1 teaspoon) in it. Taste the filling and adjust the salt and pepper as desired.||4. To assemble the pies, preheat the oven to 400 degrees Fahrenheit, then decide on the size of the finished pies desired. This recipe can be made in a muffin pan, popover pan, or 4-ounce ceramic ramekins. Cut off 3 quarters of the dough and place on a flour-dusted work surface. Roll it out 1/8-inch thick. To make the bottom crust, cut 4-inch circles for a muffin or popover pan and 41/2-inch circles for the ramekins. Place the dough circles in the cups or ramekins and press the dough into the bottom and sides of each.|5. Fill the pastry-lined moulds up to the rim. Fold any excess dough from the sides onto the top of the filling. Roll out the remaining dough and cut 3-inch circles to fit into the tops of the muffin or popover pan or ramekins. Place the tops onto the filling and press down lightly to seal. Cut a small hole in the centre of each top. Reroll any excess dough. Using small pastry cutters, cut out shapes and decorate the tops. Brush the top of each pie with the beaten egg. Bake the pies for 20 minutes. Reduce the heat to 350 degrees Fahrenheit and bake for 2 hours.||6. Remove the pies from the oven, brush with the beaten egg again, and bake for 10 minutes longer. Remove and let cool in the pan.||7. Bring the reduced stock back to a boil, remove from the heat, add the gelatin, and stir to dissolve. Using a funnel, spoon the stock mixture into the hole at the top of each pie, dividing the stock evenly among the pies. This is a slow process, and all of the liquid should be used. Chill overnight.||8. To serve, remove from the pan and serve with good English mustard.</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2672,9 +2636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3017,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
-  <dimension ref="A1:M584"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B214" zoomScale="95" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -3083,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -3106,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3129,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -3152,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -3175,7 +3136,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -3198,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -3221,7 +3182,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -3244,7 +3205,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
@@ -3267,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
@@ -3290,7 +3251,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
@@ -3313,7 +3274,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
@@ -3336,7 +3297,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -3359,7 +3320,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
@@ -3377,12 +3338,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>65</v>
@@ -3405,7 +3366,7 @@
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
@@ -3451,7 +3412,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>79</v>
@@ -3474,7 +3435,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>83</v>
@@ -3497,7 +3458,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -3520,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>91</v>
@@ -4044,7 +4005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
@@ -4113,7 +4074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>182</v>
       </c>
@@ -4159,7 +4120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>187</v>
       </c>
@@ -4251,7 +4212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>198</v>
       </c>
@@ -4274,7 +4235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -5976,7 +5937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>503</v>
       </c>
@@ -5999,7 +5960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>504</v>
       </c>
@@ -6022,7 +5983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>505</v>
       </c>
@@ -6045,7 +6006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>549</v>
       </c>
@@ -6053,13 +6014,13 @@
         <v>550</v>
       </c>
       <c r="C132" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E132" s="3" t="s">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="F132" s="12">
         <v>25</v>
@@ -6068,21 +6029,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>649</v>
-      </c>
       <c r="C133" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="E133" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="F133" s="14">
         <v>25</v>
@@ -6090,94 +6051,82 @@
       <c r="G133" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-    </row>
-    <row r="134" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="15" t="s">
+    </row>
+    <row r="134" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C134" s="15" t="s">
+      <c r="D134" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="E134" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F134" s="14">
+        <v>30</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="B135" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="F134" s="15">
+      <c r="D135" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="F135" s="14">
         <v>30</v>
       </c>
-      <c r="G134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-    </row>
-    <row r="135" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-    </row>
-    <row r="136" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="G135" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>566</v>
+        <v>802</v>
       </c>
       <c r="F136" s="14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-    </row>
-    <row r="137" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>567</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>568</v>
@@ -6189,4443 +6138,1371 @@
         <v>570</v>
       </c>
       <c r="F137" s="14">
+        <v>25</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="F138" s="14">
+        <v>20</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="F139" s="14">
+        <v>10</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F140" s="14">
+        <v>60</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="F141" s="14">
+        <v>30</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="F142" s="14">
+        <v>115</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="F143" s="14">
+        <v>80</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F144" s="14">
+        <v>35</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F145" s="14">
+        <v>70</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A146" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F146" s="14">
+        <v>210</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="F147" s="14">
+        <v>90</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F148" s="14">
+        <v>55</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="F149" s="14">
+        <v>40</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F150" s="14">
+        <v>20</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="F151" s="14">
+        <v>140</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="F152" s="14">
+        <v>340</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="F153" s="14">
+        <v>10</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A154" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F154" s="14">
+        <v>155</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="F155" s="14">
+        <v>35</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="F156" s="14">
+        <v>50</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="F157" s="14">
+        <v>45</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="F158" s="14">
         <v>15</v>
       </c>
-      <c r="G137" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-    </row>
-    <row r="138" spans="1:13" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F138" s="15">
+      <c r="G158" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="F159" s="14">
+        <v>330</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A160" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="F160" s="14">
+        <v>740</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F161" s="14">
+        <v>300</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="F162" s="14">
+        <v>20</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F163" s="14">
+        <v>40</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F164" s="14">
+        <v>35</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A165" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F165" s="14">
+        <v>30</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="F166" s="14">
+        <v>15</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F167" s="14">
+        <v>50</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="F168" s="14">
+        <v>40</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F169" s="14">
+        <v>15</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F170" s="14">
+        <v>20</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F171" s="14">
         <v>25</v>
       </c>
-      <c r="G138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-    </row>
-    <row r="141" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A141" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="F141" s="14">
-        <v>20</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-    </row>
-    <row r="142" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F142" s="15">
-        <v>10</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-    </row>
-    <row r="143" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-    </row>
-    <row r="144" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="F144" s="14">
-        <v>60</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
-      <c r="L144" s="14"/>
-      <c r="M144" s="14"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="F145" s="15">
-        <v>30</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-    </row>
-    <row r="146" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-    </row>
-    <row r="147" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F147" s="15">
-        <v>115</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-    </row>
-    <row r="148" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-    </row>
-    <row r="149" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="F149" s="14">
-        <v>80</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
-      <c r="L149" s="14"/>
-      <c r="M149" s="14"/>
-    </row>
-    <row r="150" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="F150" s="14">
-        <v>35</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="14"/>
-      <c r="M150" s="14"/>
-    </row>
-    <row r="151" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="F151" s="15">
-        <v>70</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-    </row>
-    <row r="153" spans="1:13" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="F153" s="15">
-        <v>210</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-    </row>
-    <row r="156" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="F156" s="15">
-        <v>90</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="15"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-    </row>
-    <row r="159" spans="1:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="F159" s="15">
-        <v>55</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-    </row>
-    <row r="162" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="F162" s="14">
-        <v>40</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="14"/>
-      <c r="L162" s="14"/>
-      <c r="M162" s="14"/>
-    </row>
-    <row r="163" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="F163" s="15">
-        <v>20</v>
-      </c>
-      <c r="G163" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
-    </row>
-    <row r="166" spans="1:13" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="F166" s="15">
-        <v>140</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
-    </row>
-    <row r="169" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A169" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="F169" s="15">
-        <v>340</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="15"/>
-    </row>
-    <row r="170" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
-      <c r="M170" s="15"/>
-    </row>
-    <row r="171" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="15"/>
-      <c r="M171" s="15"/>
-    </row>
-    <row r="172" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G171" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>641</v>
+        <v>704</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>642</v>
+        <v>703</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>644</v>
+        <v>702</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="F172" s="14">
         <v>10</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-    </row>
-    <row r="173" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>645</v>
+        <v>706</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>646</v>
+        <v>707</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>648</v>
+        <v>708</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="F173" s="14">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
-      <c r="K173" s="14"/>
-      <c r="L173" s="14"/>
-      <c r="M173" s="14"/>
-    </row>
-    <row r="174" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C174" s="14" t="s">
-        <v>666</v>
+      <c r="C174" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>672</v>
+        <v>711</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="F174" s="14">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
-      <c r="K174" s="14"/>
-      <c r="L174" s="14"/>
-      <c r="M174" s="14"/>
-    </row>
-    <row r="175" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>669</v>
+      <c r="C175" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>671</v>
+        <v>714</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="F175" s="14">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
-      <c r="K175" s="14"/>
-      <c r="L175" s="14"/>
-      <c r="M175" s="14"/>
-    </row>
-    <row r="176" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C176" s="14" t="s">
-        <v>674</v>
+      <c r="C176" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>676</v>
+        <v>717</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="F176" s="14">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G176" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-    </row>
-    <row r="177" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C177" s="14" t="s">
-        <v>677</v>
+      <c r="C177" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>679</v>
+        <v>721</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="F177" s="14">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="14"/>
-      <c r="K177" s="14"/>
-      <c r="L177" s="14"/>
-      <c r="M177" s="14"/>
-    </row>
-    <row r="178" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>681</v>
+        <v>724</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>683</v>
+        <v>722</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="F178" s="14">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="K178" s="14"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="14"/>
-    </row>
-    <row r="179" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>684</v>
+        <v>724</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>686</v>
+        <v>725</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="F179" s="14">
+        <v>150</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A180" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F180" s="14">
+        <v>30</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F181" s="14">
+        <v>65</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A182" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F182" s="14">
+        <v>10</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F183" s="1">
+        <v>25</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F184" s="1">
+        <v>20</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="G179" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
-      <c r="K179" s="14"/>
-      <c r="L179" s="14"/>
-      <c r="M179" s="14"/>
-    </row>
-    <row r="180" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C180" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="F180" s="14">
-        <v>300</v>
-      </c>
-      <c r="G180" s="14" t="s">
+      <c r="B185" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F185" s="1">
+        <v>30</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F186" s="1">
+        <v>5</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F187" s="1">
+        <v>50</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F188" s="1">
+        <v>5</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F189" s="1">
+        <v>5</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F190" s="1">
+        <v>5</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F191" s="1">
+        <v>5</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F192" s="1">
+        <v>130</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F193" s="1">
+        <v>10</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F194" s="1">
+        <v>150</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F195" s="1">
+        <v>100</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F196" s="1">
+        <v>90</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-    </row>
-    <row r="181" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="F181" s="14">
-        <v>20</v>
-      </c>
-      <c r="G181" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="K181" s="14"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-    </row>
-    <row r="182" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="D182" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="E182" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="F182" s="14">
-        <v>40</v>
-      </c>
-      <c r="G182" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
-      <c r="K182" s="14"/>
-      <c r="L182" s="14"/>
-      <c r="M182" s="14"/>
-    </row>
-    <row r="183" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C183" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="F183" s="14">
-        <v>35</v>
-      </c>
-      <c r="G183" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="K183" s="14"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-    </row>
-    <row r="184" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="E184" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="F184" s="14">
-        <v>30</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
-      <c r="K184" s="14"/>
-      <c r="L184" s="14"/>
-      <c r="M184" s="14"/>
-    </row>
-    <row r="185" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="F185" s="14">
-        <v>15</v>
-      </c>
-      <c r="G185" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14"/>
-      <c r="M185" s="14"/>
-    </row>
-    <row r="186" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="F186" s="14">
-        <v>50</v>
-      </c>
-      <c r="G186" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14"/>
-      <c r="M186" s="14"/>
-    </row>
-    <row r="187" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="F187" s="14">
-        <v>40</v>
-      </c>
-      <c r="G187" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14"/>
-      <c r="M187" s="14"/>
-    </row>
-    <row r="188" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A188" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="D188" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="F188" s="14">
-        <v>15</v>
-      </c>
-      <c r="G188" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="F189" s="14">
-        <v>20</v>
-      </c>
-      <c r="G189" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A190" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="D190" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="F190" s="14">
-        <v>25</v>
-      </c>
-      <c r="G190" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="F191" s="14">
-        <v>10</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="F192" s="14">
-        <v>5</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="F193" s="14">
-        <v>5</v>
-      </c>
-      <c r="G193" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A194" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="F194" s="14">
-        <v>5</v>
-      </c>
-      <c r="G194" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A195" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F195" s="14">
-        <v>5</v>
-      </c>
-      <c r="G195" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="F196" s="14">
-        <v>95</v>
-      </c>
-      <c r="G196" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F197" s="14">
-        <v>75</v>
-      </c>
-      <c r="G197" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A198" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D198" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="F198" s="14">
-        <v>150</v>
-      </c>
-      <c r="G198" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A199" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F199" s="14">
-        <v>30</v>
-      </c>
-      <c r="G199" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="F200" s="14">
-        <v>65</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="F201" s="14">
-        <v>10</v>
-      </c>
-      <c r="G201" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="F202" s="1">
-        <v>25</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-    </row>
-    <row r="203" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="F203" s="1">
-        <v>20</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
-    </row>
-    <row r="204" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="F204" s="1">
-        <v>30</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-    </row>
-    <row r="205" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="F205" s="1">
-        <v>5</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
-    </row>
-    <row r="206" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="F206" s="1">
-        <v>50</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
-    </row>
-    <row r="207" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F207" s="1">
-        <v>5</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-    </row>
-    <row r="208" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F208" s="1">
-        <v>5</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
-    </row>
-    <row r="209" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F209" s="1">
-        <v>5</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
-    </row>
-    <row r="210" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F210" s="1">
-        <v>5</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
-    </row>
-    <row r="211" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F211" s="1">
-        <v>130</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
-    </row>
-    <row r="212" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="F212" s="1">
-        <v>10</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
-    </row>
-    <row r="213" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F213" s="1">
-        <v>150</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-    </row>
-    <row r="214" spans="1:9" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F214" s="1">
-        <v>100</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
-    </row>
-    <row r="215" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="F215" s="1">
-        <v>90</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="12"/>
-      <c r="I242" s="12"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="13"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="F247" s="13"/>
-      <c r="G247" s="13"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="F248" s="13"/>
-      <c r="G248" s="13"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="F249" s="13"/>
-      <c r="G249" s="13"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="13"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="F251" s="13"/>
-      <c r="G251" s="13"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="F252" s="13"/>
-      <c r="G252" s="13"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="F253" s="13"/>
-      <c r="G253" s="13"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="13"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="F257" s="13"/>
-      <c r="G257" s="13"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="F258" s="13"/>
-      <c r="G258" s="13"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="F259" s="13"/>
-      <c r="G259" s="13"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="F260" s="13"/>
-      <c r="G260" s="13"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="13"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="F262" s="13"/>
-      <c r="G262" s="13"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="F263" s="13"/>
-      <c r="G263" s="13"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="F264" s="13"/>
-      <c r="G264" s="13"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="F265" s="13"/>
-      <c r="G265" s="13"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="13"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="13"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="13"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="F269" s="13"/>
-      <c r="G269" s="13"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="F270" s="13"/>
-      <c r="G270" s="13"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="13"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="F272" s="13"/>
-      <c r="G272" s="13"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="F273" s="13"/>
-      <c r="G273" s="13"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="12"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="12"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="12"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="12"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="12"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="12"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="12"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="12"/>
-      <c r="D296" s="12"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="12"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="12"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="12"/>
-      <c r="D298" s="12"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="12"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="12"/>
-      <c r="D299" s="12"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="12"/>
-      <c r="B300" s="12"/>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="12"/>
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="12"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="12"/>
-      <c r="B304" s="12"/>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="12"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
-      <c r="D307" s="12"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
-      <c r="D309" s="12"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="12"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
-      <c r="D312" s="12"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="12"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
-      <c r="D313" s="12"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="12"/>
-      <c r="B314" s="12"/>
-      <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="12"/>
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
-      <c r="D315" s="12"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="12"/>
-      <c r="B316" s="12"/>
-      <c r="C316" s="12"/>
-      <c r="D316" s="12"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="12"/>
-      <c r="B317" s="12"/>
-      <c r="C317" s="12"/>
-      <c r="D317" s="12"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="12"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
-      <c r="D318" s="12"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="12"/>
-      <c r="B319" s="12"/>
-      <c r="C319" s="12"/>
-      <c r="D319" s="12"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="12"/>
-      <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
-      <c r="D320" s="12"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="12"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="12"/>
-      <c r="D321" s="12"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="12"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="12"/>
-      <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
-      <c r="D323" s="12"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="12"/>
-      <c r="B324" s="12"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="12"/>
-      <c r="B325" s="12"/>
-      <c r="C325" s="12"/>
-      <c r="D325" s="12"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="12"/>
-      <c r="B326" s="12"/>
-      <c r="C326" s="12"/>
-      <c r="D326" s="12"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="12"/>
-      <c r="B327" s="12"/>
-      <c r="C327" s="12"/>
-      <c r="D327" s="12"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="12"/>
-      <c r="B329" s="12"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="12"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="12"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="12"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="12"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="12"/>
-      <c r="B334" s="12"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="12"/>
-      <c r="B335" s="12"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="12"/>
-      <c r="B336" s="12"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="12"/>
-      <c r="B337" s="12"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="12"/>
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="12"/>
-      <c r="B340" s="12"/>
-      <c r="C340" s="12"/>
-      <c r="D340" s="12"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="12"/>
-      <c r="B341" s="12"/>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="12"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
-      <c r="D342" s="12"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="12"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
-      <c r="D343" s="12"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="12"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
-      <c r="D344" s="12"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="12"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="12"/>
-      <c r="D345" s="12"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="12"/>
-      <c r="B346" s="12"/>
-      <c r="C346" s="12"/>
-      <c r="D346" s="12"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="12"/>
-      <c r="B347" s="12"/>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="12"/>
-      <c r="B348" s="12"/>
-      <c r="C348" s="12"/>
-      <c r="D348" s="12"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="12"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="12"/>
-      <c r="B351" s="12"/>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="12"/>
-      <c r="B352" s="12"/>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="12"/>
-      <c r="B353" s="12"/>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="12"/>
-      <c r="B354" s="12"/>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="12"/>
-      <c r="B355" s="12"/>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="12"/>
-      <c r="B356" s="12"/>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="12"/>
-      <c r="B357" s="12"/>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="12"/>
-      <c r="B358" s="12"/>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="12"/>
-      <c r="B359" s="12"/>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="12"/>
-      <c r="B360" s="12"/>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="12"/>
-      <c r="B361" s="12"/>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="12"/>
-      <c r="B362" s="12"/>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="12"/>
-      <c r="B363" s="12"/>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="12"/>
-      <c r="B364" s="12"/>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="12"/>
-      <c r="B365" s="12"/>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="12"/>
-      <c r="B367" s="12"/>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="12"/>
-      <c r="B368" s="12"/>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="12"/>
-      <c r="B369" s="12"/>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="12"/>
-      <c r="B370" s="12"/>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="12"/>
-      <c r="B371" s="12"/>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="12"/>
-      <c r="B372" s="12"/>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="12"/>
-      <c r="B373" s="12"/>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="12"/>
-      <c r="B374" s="12"/>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="12"/>
-      <c r="B375" s="12"/>
-      <c r="C375" s="12"/>
-      <c r="D375" s="12"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="12"/>
-      <c r="B376" s="12"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="12"/>
-      <c r="B377" s="12"/>
-      <c r="C377" s="12"/>
-      <c r="D377" s="12"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="12"/>
-      <c r="B378" s="12"/>
-      <c r="C378" s="12"/>
-      <c r="D378" s="12"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" s="12"/>
-      <c r="B379" s="12"/>
-      <c r="C379" s="12"/>
-      <c r="D379" s="12"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="12"/>
-      <c r="B380" s="12"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="12"/>
-      <c r="B381" s="12"/>
-      <c r="C381" s="12"/>
-      <c r="D381" s="12"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="12"/>
-      <c r="B382" s="12"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" s="12"/>
-      <c r="B384" s="12"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" s="12"/>
-      <c r="B385" s="12"/>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" s="12"/>
-      <c r="B386" s="12"/>
-      <c r="C386" s="12"/>
-      <c r="D386" s="12"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="12"/>
-      <c r="B387" s="12"/>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388" s="12"/>
-      <c r="B388" s="12"/>
-      <c r="C388" s="12"/>
-      <c r="D388" s="12"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="12"/>
-      <c r="B389" s="12"/>
-      <c r="C389" s="12"/>
-      <c r="D389" s="12"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" s="12"/>
-      <c r="B390" s="12"/>
-      <c r="C390" s="12"/>
-      <c r="D390" s="12"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" s="12"/>
-      <c r="B391" s="12"/>
-      <c r="C391" s="12"/>
-      <c r="D391" s="12"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="12"/>
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="12"/>
-      <c r="B393" s="12"/>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="12"/>
-      <c r="B394" s="12"/>
-      <c r="C394" s="12"/>
-      <c r="D394" s="12"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="12"/>
-      <c r="B395" s="12"/>
-      <c r="C395" s="12"/>
-      <c r="D395" s="12"/>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="12"/>
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
-      <c r="D396" s="12"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="12"/>
-      <c r="B397" s="12"/>
-      <c r="C397" s="12"/>
-      <c r="D397" s="12"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="12"/>
-      <c r="B398" s="12"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="12"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="12"/>
-      <c r="B399" s="12"/>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="12"/>
-      <c r="B400" s="12"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="12"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" s="12"/>
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="12"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402" s="12"/>
-      <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="12"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403" s="12"/>
-      <c r="B403" s="12"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405" s="12"/>
-      <c r="B405" s="12"/>
-      <c r="C405" s="12"/>
-      <c r="D405" s="12"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406" s="12"/>
-      <c r="B406" s="12"/>
-      <c r="C406" s="12"/>
-      <c r="D406" s="12"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A407" s="12"/>
-      <c r="B407" s="12"/>
-      <c r="C407" s="12"/>
-      <c r="D407" s="12"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408" s="12"/>
-      <c r="B408" s="12"/>
-      <c r="C408" s="12"/>
-      <c r="D408" s="12"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="12"/>
-      <c r="B409" s="12"/>
-      <c r="C409" s="12"/>
-      <c r="D409" s="12"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410" s="12"/>
-      <c r="B410" s="12"/>
-      <c r="C410" s="12"/>
-      <c r="D410" s="12"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411" s="12"/>
-      <c r="B411" s="12"/>
-      <c r="C411" s="12"/>
-      <c r="D411" s="12"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412" s="12"/>
-      <c r="B412" s="12"/>
-      <c r="C412" s="12"/>
-      <c r="D412" s="12"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413" s="12"/>
-      <c r="B413" s="12"/>
-      <c r="C413" s="12"/>
-      <c r="D413" s="12"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A414" s="12"/>
-      <c r="B414" s="12"/>
-      <c r="C414" s="12"/>
-      <c r="D414" s="12"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415" s="12"/>
-      <c r="B415" s="12"/>
-      <c r="C415" s="12"/>
-      <c r="D415" s="12"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A416" s="12"/>
-      <c r="B416" s="12"/>
-      <c r="C416" s="12"/>
-      <c r="D416" s="12"/>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" s="12"/>
-      <c r="B418" s="12"/>
-      <c r="C418" s="12"/>
-      <c r="D418" s="12"/>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419" s="12"/>
-      <c r="B419" s="12"/>
-      <c r="C419" s="12"/>
-      <c r="D419" s="12"/>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420" s="12"/>
-      <c r="B420" s="12"/>
-      <c r="C420" s="12"/>
-      <c r="D420" s="12"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" s="12"/>
-      <c r="B421" s="12"/>
-      <c r="C421" s="12"/>
-      <c r="D421" s="12"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" s="12"/>
-      <c r="B422" s="12"/>
-      <c r="C422" s="12"/>
-      <c r="D422" s="12"/>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" s="12"/>
-      <c r="B423" s="12"/>
-      <c r="C423" s="12"/>
-      <c r="D423" s="12"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" s="12"/>
-      <c r="B424" s="12"/>
-      <c r="C424" s="12"/>
-      <c r="D424" s="12"/>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" s="12"/>
-      <c r="B425" s="12"/>
-      <c r="C425" s="12"/>
-      <c r="D425" s="12"/>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" s="12"/>
-      <c r="B426" s="12"/>
-      <c r="C426" s="12"/>
-      <c r="D426" s="12"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427" s="12"/>
-      <c r="B427" s="12"/>
-      <c r="C427" s="12"/>
-      <c r="D427" s="12"/>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" s="12"/>
-      <c r="B428" s="12"/>
-      <c r="C428" s="12"/>
-      <c r="D428" s="12"/>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429" s="12"/>
-      <c r="B429" s="12"/>
-      <c r="C429" s="12"/>
-      <c r="D429" s="12"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A430" s="12"/>
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
-      <c r="D430" s="12"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A431" s="12"/>
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A432" s="12"/>
-      <c r="B432" s="12"/>
-      <c r="C432" s="12"/>
-      <c r="D432" s="12"/>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433" s="12"/>
-      <c r="B433" s="12"/>
-      <c r="C433" s="12"/>
-      <c r="D433" s="12"/>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434" s="12"/>
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
-      <c r="D434" s="12"/>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435" s="12"/>
-      <c r="B435" s="12"/>
-      <c r="C435" s="12"/>
-      <c r="D435" s="12"/>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="12"/>
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="12"/>
-      <c r="B438" s="12"/>
-      <c r="C438" s="12"/>
-      <c r="D438" s="12"/>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A439" s="12"/>
-      <c r="B439" s="12"/>
-      <c r="C439" s="12"/>
-      <c r="D439" s="12"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A440" s="12"/>
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
-      <c r="D440" s="12"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A441" s="12"/>
-      <c r="B441" s="12"/>
-      <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A442" s="12"/>
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
-      <c r="D442" s="12"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A443" s="12"/>
-      <c r="B443" s="12"/>
-      <c r="C443" s="12"/>
-      <c r="D443" s="12"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444" s="12"/>
-      <c r="B444" s="12"/>
-      <c r="C444" s="12"/>
-      <c r="D444" s="12"/>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445" s="12"/>
-      <c r="B445" s="12"/>
-      <c r="C445" s="12"/>
-      <c r="D445" s="12"/>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" s="12"/>
-      <c r="B446" s="12"/>
-      <c r="C446" s="12"/>
-      <c r="D446" s="12"/>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A447" s="12"/>
-      <c r="B447" s="12"/>
-      <c r="C447" s="12"/>
-      <c r="D447" s="12"/>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" s="12"/>
-      <c r="B448" s="12"/>
-      <c r="C448" s="12"/>
-      <c r="D448" s="12"/>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="12"/>
-      <c r="B449" s="12"/>
-      <c r="C449" s="12"/>
-      <c r="D449" s="12"/>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="12"/>
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
-      <c r="D450" s="12"/>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="12"/>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="12"/>
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
-      <c r="D452" s="12"/>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="12"/>
-      <c r="B453" s="12"/>
-      <c r="C453" s="12"/>
-      <c r="D453" s="12"/>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" s="12"/>
-      <c r="B454" s="12"/>
-      <c r="C454" s="12"/>
-      <c r="D454" s="12"/>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" s="12"/>
-      <c r="B455" s="12"/>
-      <c r="C455" s="12"/>
-      <c r="D455" s="12"/>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" s="12"/>
-      <c r="B456" s="12"/>
-      <c r="C456" s="12"/>
-      <c r="D456" s="12"/>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457" s="12"/>
-      <c r="B457" s="12"/>
-      <c r="C457" s="12"/>
-      <c r="D457" s="12"/>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" s="12"/>
-      <c r="B458" s="12"/>
-      <c r="C458" s="12"/>
-      <c r="D458" s="12"/>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" s="12"/>
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
-      <c r="D459" s="12"/>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" s="12"/>
-      <c r="B460" s="12"/>
-      <c r="C460" s="12"/>
-      <c r="D460" s="12"/>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" s="12"/>
-      <c r="B461" s="12"/>
-      <c r="C461" s="12"/>
-      <c r="D461" s="12"/>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" s="12"/>
-      <c r="B462" s="12"/>
-      <c r="C462" s="12"/>
-      <c r="D462" s="12"/>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A463" s="12"/>
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
-      <c r="D463" s="12"/>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A464" s="12"/>
-      <c r="B464" s="12"/>
-      <c r="C464" s="12"/>
-      <c r="D464" s="12"/>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A465" s="12"/>
-      <c r="B465" s="12"/>
-      <c r="C465" s="12"/>
-      <c r="D465" s="12"/>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A466" s="12"/>
-      <c r="B466" s="12"/>
-      <c r="C466" s="12"/>
-      <c r="D466" s="12"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A467" s="12"/>
-      <c r="B467" s="12"/>
-      <c r="C467" s="12"/>
-      <c r="D467" s="12"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A468" s="12"/>
-      <c r="B468" s="12"/>
-      <c r="C468" s="12"/>
-      <c r="D468" s="12"/>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469" s="12"/>
-      <c r="B469" s="12"/>
-      <c r="C469" s="12"/>
-      <c r="D469" s="12"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470" s="12"/>
-      <c r="B470" s="12"/>
-      <c r="C470" s="12"/>
-      <c r="D470" s="12"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471" s="12"/>
-      <c r="B471" s="12"/>
-      <c r="C471" s="12"/>
-      <c r="D471" s="12"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473" s="12"/>
-      <c r="B473" s="12"/>
-      <c r="C473" s="12"/>
-      <c r="D473" s="12"/>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" s="12"/>
-      <c r="B474" s="12"/>
-      <c r="C474" s="12"/>
-      <c r="D474" s="12"/>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475" s="12"/>
-      <c r="B475" s="12"/>
-      <c r="C475" s="12"/>
-      <c r="D475" s="12"/>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" s="12"/>
-      <c r="B476" s="12"/>
-      <c r="C476" s="12"/>
-      <c r="D476" s="12"/>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" s="12"/>
-      <c r="B477" s="12"/>
-      <c r="C477" s="12"/>
-      <c r="D477" s="12"/>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" s="12"/>
-      <c r="B478" s="12"/>
-      <c r="C478" s="12"/>
-      <c r="D478" s="12"/>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" s="12"/>
-      <c r="B479" s="12"/>
-      <c r="C479" s="12"/>
-      <c r="D479" s="12"/>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" s="12"/>
-      <c r="B480" s="12"/>
-      <c r="C480" s="12"/>
-      <c r="D480" s="12"/>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" s="12"/>
-      <c r="B481" s="12"/>
-      <c r="C481" s="12"/>
-      <c r="D481" s="12"/>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482" s="12"/>
-      <c r="B482" s="12"/>
-      <c r="C482" s="12"/>
-      <c r="D482" s="12"/>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" s="12"/>
-      <c r="B483" s="12"/>
-      <c r="C483" s="12"/>
-      <c r="D483" s="12"/>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484" s="12"/>
-      <c r="B484" s="12"/>
-      <c r="C484" s="12"/>
-      <c r="D484" s="12"/>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" s="12"/>
-      <c r="B485" s="12"/>
-      <c r="C485" s="12"/>
-      <c r="D485" s="12"/>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486" s="12"/>
-      <c r="B486" s="12"/>
-      <c r="C486" s="12"/>
-      <c r="D486" s="12"/>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487" s="12"/>
-      <c r="B487" s="12"/>
-      <c r="C487" s="12"/>
-      <c r="D487" s="12"/>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488" s="12"/>
-      <c r="B488" s="12"/>
-      <c r="C488" s="12"/>
-      <c r="D488" s="12"/>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489" s="12"/>
-      <c r="B489" s="12"/>
-      <c r="C489" s="12"/>
-      <c r="D489" s="12"/>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A490" s="12"/>
-      <c r="B490" s="12"/>
-      <c r="C490" s="12"/>
-      <c r="D490" s="12"/>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A491" s="12"/>
-      <c r="B491" s="12"/>
-      <c r="C491" s="12"/>
-      <c r="D491" s="12"/>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
-      <c r="D492" s="12"/>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A493" s="12"/>
-      <c r="B493" s="12"/>
-      <c r="C493" s="12"/>
-      <c r="D493" s="12"/>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A494" s="12"/>
-      <c r="B494" s="12"/>
-      <c r="C494" s="12"/>
-      <c r="D494" s="12"/>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A495" s="12"/>
-      <c r="B495" s="12"/>
-      <c r="C495" s="12"/>
-      <c r="D495" s="12"/>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A496" s="12"/>
-      <c r="B496" s="12"/>
-      <c r="C496" s="12"/>
-      <c r="D496" s="12"/>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A497" s="12"/>
-      <c r="B497" s="12"/>
-      <c r="C497" s="12"/>
-      <c r="D497" s="12"/>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A498" s="12"/>
-      <c r="B498" s="12"/>
-      <c r="C498" s="12"/>
-      <c r="D498" s="12"/>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A499" s="12"/>
-      <c r="B499" s="12"/>
-      <c r="C499" s="12"/>
-      <c r="D499" s="12"/>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A500" s="12"/>
-      <c r="B500" s="12"/>
-      <c r="C500" s="12"/>
-      <c r="D500" s="12"/>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A501" s="12"/>
-      <c r="B501" s="12"/>
-      <c r="C501" s="12"/>
-      <c r="D501" s="12"/>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A502" s="12"/>
-      <c r="B502" s="12"/>
-      <c r="C502" s="12"/>
-      <c r="D502" s="12"/>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A503" s="12"/>
-      <c r="B503" s="12"/>
-      <c r="C503" s="12"/>
-      <c r="D503" s="12"/>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A505" s="12"/>
-      <c r="B505" s="12"/>
-      <c r="C505" s="12"/>
-      <c r="D505" s="12"/>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A506" s="12"/>
-      <c r="B506" s="12"/>
-      <c r="C506" s="12"/>
-      <c r="D506" s="12"/>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A507" s="12"/>
-      <c r="B507" s="12"/>
-      <c r="C507" s="12"/>
-      <c r="D507" s="12"/>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A508" s="12"/>
-      <c r="B508" s="12"/>
-      <c r="C508" s="12"/>
-      <c r="D508" s="12"/>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A509" s="12"/>
-      <c r="B509" s="12"/>
-      <c r="C509" s="12"/>
-      <c r="D509" s="12"/>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A510" s="12"/>
-      <c r="B510" s="12"/>
-      <c r="C510" s="12"/>
-      <c r="D510" s="12"/>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A511" s="12"/>
-      <c r="B511" s="12"/>
-      <c r="C511" s="12"/>
-      <c r="D511" s="12"/>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A512" s="12"/>
-      <c r="B512" s="12"/>
-      <c r="C512" s="12"/>
-      <c r="D512" s="12"/>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A513" s="12"/>
-      <c r="B513" s="12"/>
-      <c r="C513" s="12"/>
-      <c r="D513" s="12"/>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A514" s="12"/>
-      <c r="B514" s="12"/>
-      <c r="C514" s="12"/>
-      <c r="D514" s="12"/>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A515" s="12"/>
-      <c r="B515" s="12"/>
-      <c r="C515" s="12"/>
-      <c r="D515" s="12"/>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A516" s="12"/>
-      <c r="B516" s="12"/>
-      <c r="C516" s="12"/>
-      <c r="D516" s="12"/>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A517" s="12"/>
-      <c r="B517" s="12"/>
-      <c r="C517" s="12"/>
-      <c r="D517" s="12"/>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A518" s="12"/>
-      <c r="B518" s="12"/>
-      <c r="C518" s="12"/>
-      <c r="D518" s="12"/>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A519" s="12"/>
-      <c r="B519" s="12"/>
-      <c r="C519" s="12"/>
-      <c r="D519" s="12"/>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A520" s="12"/>
-      <c r="B520" s="12"/>
-      <c r="C520" s="12"/>
-      <c r="D520" s="12"/>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A521" s="12"/>
-      <c r="B521" s="12"/>
-      <c r="C521" s="12"/>
-      <c r="D521" s="12"/>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A522" s="12"/>
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
-      <c r="D522" s="12"/>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A523" s="12"/>
-      <c r="B523" s="12"/>
-      <c r="C523" s="12"/>
-      <c r="D523" s="12"/>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A524" s="12"/>
-      <c r="B524" s="12"/>
-      <c r="C524" s="12"/>
-      <c r="D524" s="12"/>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A525" s="12"/>
-      <c r="B525" s="12"/>
-      <c r="C525" s="12"/>
-      <c r="D525" s="12"/>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A526" s="12"/>
-      <c r="B526" s="12"/>
-      <c r="C526" s="12"/>
-      <c r="D526" s="12"/>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A527" s="12"/>
-      <c r="B527" s="12"/>
-      <c r="C527" s="12"/>
-      <c r="D527" s="12"/>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A528" s="12"/>
-      <c r="B528" s="12"/>
-      <c r="C528" s="12"/>
-      <c r="D528" s="12"/>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A529" s="12"/>
-      <c r="B529" s="12"/>
-      <c r="C529" s="12"/>
-      <c r="D529" s="12"/>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A530" s="12"/>
-      <c r="B530" s="12"/>
-      <c r="C530" s="12"/>
-      <c r="D530" s="12"/>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A531" s="12"/>
-      <c r="B531" s="12"/>
-      <c r="C531" s="12"/>
-      <c r="D531" s="12"/>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A532" s="12"/>
-      <c r="B532" s="12"/>
-      <c r="C532" s="12"/>
-      <c r="D532" s="12"/>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A533" s="12"/>
-      <c r="B533" s="12"/>
-      <c r="C533" s="12"/>
-      <c r="D533" s="12"/>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A534" s="12"/>
-      <c r="B534" s="12"/>
-      <c r="C534" s="12"/>
-      <c r="D534" s="12"/>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A535" s="12"/>
-      <c r="B535" s="12"/>
-      <c r="C535" s="12"/>
-      <c r="D535" s="12"/>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A536" s="12"/>
-      <c r="B536" s="12"/>
-      <c r="C536" s="12"/>
-      <c r="D536" s="12"/>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A537" s="12"/>
-      <c r="B537" s="12"/>
-      <c r="C537" s="12"/>
-      <c r="D537" s="12"/>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A538" s="12"/>
-      <c r="B538" s="12"/>
-      <c r="C538" s="12"/>
-      <c r="D538" s="12"/>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A539" s="12"/>
-      <c r="B539" s="12"/>
-      <c r="C539" s="12"/>
-      <c r="D539" s="12"/>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A540" s="12"/>
-      <c r="B540" s="12"/>
-      <c r="C540" s="12"/>
-      <c r="D540" s="12"/>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A541" s="12"/>
-      <c r="B541" s="12"/>
-      <c r="C541" s="12"/>
-      <c r="D541" s="12"/>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A542" s="12"/>
-      <c r="B542" s="12"/>
-      <c r="C542" s="12"/>
-      <c r="D542" s="12"/>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A543" s="12"/>
-      <c r="B543" s="12"/>
-      <c r="C543" s="12"/>
-      <c r="D543" s="12"/>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A544" s="12"/>
-      <c r="B544" s="12"/>
-      <c r="C544" s="12"/>
-      <c r="D544" s="12"/>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A545" s="12"/>
-      <c r="B545" s="12"/>
-      <c r="C545" s="12"/>
-      <c r="D545" s="12"/>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A546" s="12"/>
-      <c r="B546" s="12"/>
-      <c r="C546" s="12"/>
-      <c r="D546" s="12"/>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A547" s="12"/>
-      <c r="B547" s="12"/>
-      <c r="C547" s="12"/>
-      <c r="D547" s="12"/>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A548" s="12"/>
-      <c r="B548" s="12"/>
-      <c r="C548" s="12"/>
-      <c r="D548" s="12"/>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A549" s="12"/>
-      <c r="B549" s="12"/>
-      <c r="C549" s="12"/>
-      <c r="D549" s="12"/>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A550" s="12"/>
-      <c r="B550" s="12"/>
-      <c r="C550" s="12"/>
-      <c r="D550" s="12"/>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A551" s="12"/>
-      <c r="B551" s="12"/>
-      <c r="C551" s="12"/>
-      <c r="D551" s="12"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A552" s="12"/>
-      <c r="B552" s="12"/>
-      <c r="C552" s="12"/>
-      <c r="D552" s="12"/>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A553" s="12"/>
-      <c r="B553" s="12"/>
-      <c r="C553" s="12"/>
-      <c r="D553" s="12"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A554" s="12"/>
-      <c r="B554" s="12"/>
-      <c r="C554" s="12"/>
-      <c r="D554" s="12"/>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A555" s="12"/>
-      <c r="B555" s="12"/>
-      <c r="C555" s="12"/>
-      <c r="D555" s="12"/>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A556" s="12"/>
-      <c r="B556" s="12"/>
-      <c r="C556" s="12"/>
-      <c r="D556" s="12"/>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A557" s="12"/>
-      <c r="B557" s="12"/>
-      <c r="C557" s="12"/>
-      <c r="D557" s="12"/>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A558" s="12"/>
-      <c r="B558" s="12"/>
-      <c r="C558" s="12"/>
-      <c r="D558" s="12"/>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A559" s="12"/>
-      <c r="B559" s="12"/>
-      <c r="C559" s="12"/>
-      <c r="D559" s="12"/>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A560" s="12"/>
-      <c r="B560" s="12"/>
-      <c r="C560" s="12"/>
-      <c r="D560" s="12"/>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A561" s="12"/>
-      <c r="B561" s="12"/>
-      <c r="C561" s="12"/>
-      <c r="D561" s="12"/>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A562" s="12"/>
-      <c r="B562" s="12"/>
-      <c r="C562" s="12"/>
-      <c r="D562" s="12"/>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A563" s="12"/>
-      <c r="B563" s="12"/>
-      <c r="C563" s="12"/>
-      <c r="D563" s="12"/>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A564" s="12"/>
-      <c r="B564" s="12"/>
-      <c r="C564" s="12"/>
-      <c r="D564" s="12"/>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A565" s="12"/>
-      <c r="B565" s="12"/>
-      <c r="C565" s="12"/>
-      <c r="D565" s="12"/>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A566" s="12"/>
-      <c r="B566" s="12"/>
-      <c r="C566" s="12"/>
-      <c r="D566" s="12"/>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A567" s="12"/>
-      <c r="B567" s="12"/>
-      <c r="C567" s="12"/>
-      <c r="D567" s="12"/>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A568" s="12"/>
-      <c r="B568" s="12"/>
-      <c r="C568" s="12"/>
-      <c r="D568" s="12"/>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A569" s="12"/>
-      <c r="B569" s="12"/>
-      <c r="C569" s="12"/>
-      <c r="D569" s="12"/>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A570" s="12"/>
-      <c r="B570" s="12"/>
-      <c r="C570" s="12"/>
-      <c r="D570" s="12"/>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A571" s="12"/>
-      <c r="B571" s="12"/>
-      <c r="C571" s="12"/>
-      <c r="D571" s="12"/>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A572" s="12"/>
-      <c r="B572" s="12"/>
-      <c r="C572" s="12"/>
-      <c r="D572" s="12"/>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A573" s="12"/>
-      <c r="B573" s="12"/>
-      <c r="C573" s="12"/>
-      <c r="D573" s="12"/>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A574" s="12"/>
-      <c r="B574" s="12"/>
-      <c r="C574" s="12"/>
-      <c r="D574" s="12"/>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A575" s="12"/>
-      <c r="B575" s="12"/>
-      <c r="C575" s="12"/>
-      <c r="D575" s="12"/>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A576" s="12"/>
-      <c r="B576" s="12"/>
-      <c r="C576" s="12"/>
-      <c r="D576" s="12"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A577" s="12"/>
-      <c r="B577" s="12"/>
-      <c r="C577" s="12"/>
-      <c r="D577" s="12"/>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A578" s="12"/>
-      <c r="B578" s="12"/>
-      <c r="C578" s="12"/>
-      <c r="D578" s="12"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579" s="12"/>
-      <c r="B579" s="12"/>
-      <c r="C579" s="12"/>
-      <c r="D579" s="12"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="12"/>
-      <c r="B580" s="12"/>
-      <c r="C580" s="12"/>
-      <c r="D580" s="12"/>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581" s="12"/>
-      <c r="B581" s="12"/>
-      <c r="C581" s="12"/>
-      <c r="D581" s="12"/>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A582" s="12"/>
-      <c r="B582" s="12"/>
-      <c r="C582" s="12"/>
-      <c r="D582" s="12"/>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583" s="12"/>
-      <c r="B583" s="12"/>
-      <c r="C583" s="12"/>
-      <c r="D583" s="12"/>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A584" s="12"/>
-      <c r="B584" s="12"/>
-      <c r="C584" s="12"/>
-      <c r="D584" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="J169:J171"/>
-    <mergeCell ref="K169:K171"/>
-    <mergeCell ref="L169:L171"/>
-    <mergeCell ref="M169:M171"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="K166:K168"/>
-    <mergeCell ref="L166:L168"/>
-    <mergeCell ref="M166:M168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="G166:G168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="I166:I168"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="L159:L161"/>
-    <mergeCell ref="M159:M161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="M163:M165"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="K163:K165"/>
-    <mergeCell ref="L163:L165"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="M156:M158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:I158"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="L156:L158"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="I153:I155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="L153:L155"/>
-    <mergeCell ref="M153:M155"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="M138:M140"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="G138:G140"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I140"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="K138:K140"/>
-    <mergeCell ref="L138:L140"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/COSC345_Recipes.xlsx
+++ b/database/COSC345_Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natas\Downloads\COSC345\Realm-of-Feasts\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869F6E1F-D6DE-4737-8782-AE8B06CA0C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D6CBD0E-4F00-48EA-BB8A-946A946E69B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D48BFF6E-7DE3-47B5-ADE0-6EAA34E0C134}"/>
   </bookViews>
@@ -1775,9 +1775,6 @@
     <t xml:space="preserve">Chocolate Cake Delicacy </t>
   </si>
   <si>
-    <t>2*ounces*Bittersweet Chocolate (chopped),1*tablespoon*Instant Coffee,1.25*cups*Boiling Water,2.75*cups*Flour,2,75*cups*Granulated Sugar,0.75*cup*Unsweetened Cocoa Powder,0.5*teaspoon*Salt,2*teaspoons*Baking Soda,1*teaspoon*Baking Powder,1*cup*Vegetable Oil,1.25*cups*Buttermilk,4*large*Eggs,2*teaspoons*Pure Vanilla Extract</t>
-  </si>
-  <si>
     <t>Paddington Burgers</t>
   </si>
   <si>
@@ -1835,9 +1832,6 @@
     <t>Stewed beef with a side of dumpling</t>
   </si>
   <si>
-    <t>1*cup*FLour,0.25*teaspoon*Salt,1*teaspoon*Baking Powder,0.25*teaspoon*Freshly Ground Black Pepper,0.25*teaspoon*Ground Sage,0.25*teaspoon*Ground Thyme,0.25*teaspoon*Dried Marjoram,2*tablespoons*Fresh Parsley (chopped),4*tablespoons*Butter (chilled and cut into small pieces),2*tablespoons*Milk,1*null*Egg,3*tablespoons*Vegetable Oil,1.5*pounds*Chuck Steak (trimmed and cut into half inch cubes),1*null*Onion (chopped),1*tablespoon*Flour,1*14ounce*Chicken Broth Can,1*sprinkle*Salt,1*sprinkle*Freshly Ground Black Pepper,2*null*Carrots (cut into 1 inch pieces),2*null*Celery Ribs (cut into 1 inch pieces),4*null*Red Skinned Potatoes (unpeeled, scrubbed, and cut into 1 inch cubes)</t>
-  </si>
-  <si>
     <t>1. To make the dumplings, whisk together the flour, salt, baking powder, black pepper, and herbs. Add the pieces of butter and rub with your fingertips until the mixture resembles a coarse meal and no powdery bits remain.||2. Whisk the milk and egg together and add to the flour mixture. Toss with a rubber spatula until the mixture begins to clump together. Press plastic wrap down on top of the dough and refrigerate until needed.||3. To make the stew, heat 1 tablespoon of the oil in a Dutch oven or wide pot and add the meat in batches, searing on both sides over high heat for 4 to 5 minutes until crusty brown, and transferring each batch to a dinner plate. Add the remaining 2 tablespoons of oil to the skillet. Add the chopped onion and cook over medium-low heat until softened, scraping up the fond (browned bits) from the bottom of the pot with a wooden spoon.||4. Add the flour to the pot and stir until combined. Pour in the chicken broth and stir until well combined. Add the salt and pepper and the meat along with its accumulated juices to the pot and cook over medium-high heat, stirring occasionally, until thickened and bubbling. Reduce to a simmer and simmer the meat for 1 and half hours.||5. Add the carrots, celery, and potatoes to the pot and simmer for 1 hour, stirring occasionally. Remove the dumpling dough from the refrigerator. Wet your hands and form the dumplings into 1-inch balls, dropping them onto the hot stew in the pot as you form them. Wet your hands as needed to prevent sticking. Cover the pot and simmer another 30 minutes until the dumplings have puffed up and feel set when pressed lightly with the fingertips, though they will be very soft.</t>
   </si>
   <si>
@@ -1979,9 +1973,6 @@
     <t xml:space="preserve"> A classic rice soup, a Japanese version of chicken noodle soup</t>
   </si>
   <si>
-    <t>6*null*Radishes (sliced and simmered),3.5*cups*Dashi (divided),2*null*Chicken Thighs ( boneless, skinless and chopped),1*null*Carrot (sliced),3*null*Shiitake Mushrooms (chopped),1.5*cups*Japanese Rice (cooked),1*tablespoon*Soy Sauce,1*large*Egg,3*null*Green Onions (chopped),1*teaspoon*Sesame Seeds ( toasted),0.25*teaspoon*Pepper</t>
-  </si>
-  <si>
     <t>Chojis Chips</t>
   </si>
   <si>
@@ -2084,9 +2075,6 @@
     <t>An octopus dish</t>
   </si>
   <si>
-    <t>3*tablespoons*Rice Vinegar,1*tablespoon*Sugar,1*tablespoon*Soy Sauce,0.25*inch*Ginger (fresh and grated),0.5*tablespoon*Dried Wakame,1*small*Cucumber,1*teaspoon*Salt,0.25*pound*Octopus (boiled, precooked and sliced)</t>
-  </si>
-  <si>
     <t>1. Combine the rice vinegar, sugar, soy sauce, and ginger in a small bowl and stir to combine, then set aside.||2. Place the wakame in a small bowl of water and let sit for 15 minutes to allow the wakame to rehydrate.||3. Slice the cucumber thinly and place in a small bowl. Stir in the salt, and let it sit for 15 minutes.||4. Gently squeeze out the water from the cucumbers with your hands, taking a handful at a time and squeezing it between your palms, then place in a large bowl.||5. Add the sliced octopus, wakame, and seasoning and stir well to combine.||6. Serve chilled.</t>
   </si>
   <si>
@@ -2514,6 +2502,18 @@
   </si>
   <si>
     <t>1. To make the stock, combine all the stock ingredients in a heavy saucepan. Bring to a boil. Cover and reduce to a simmer for 1 hour. Strain the solids and return the liquid to the pan. Bring to a boil and reduce the total volume to 1 and a quarter cups. Set aside to cool.||2. To make the pastry, combine the flour and salt in a large mixing bowl. Place the lard or vegetable shortening in a saucepan along with the milk and water; set the saucepan over high heat until the fat melts. Bring to a boil. Stir the fat and liquids together and pour into the bowl with the flour. Mix well. Turn the dough out onto a flour dusted work surface. Form the dough into a ball and dust it with flour. Knead for 5 minutes. Wrap in plastic wrap and let rest for 30 minutes.||3. For the filling, dice the pork into quarter-inch pieces or place chunks of pork into a food processor and pulse to coarsely chop. Place the pork in a large mixing bowl with the diced bacon, sage, minced anchovy or anchovy oil, and allspice. Add a quarter cup of the stock and mix well. Test the seasoning by heating a small amount of water in a saute pan to a boil and cook a small amount of the pork mixture (1 teaspoon) in it. Taste the filling and adjust the salt and pepper as desired.||4. To assemble the pies, preheat the oven to 400 degrees Fahrenheit, then decide on the size of the finished pies desired. This recipe can be made in a muffin pan, popover pan, or 4-ounce ceramic ramekins. Cut off 3 quarters of the dough and place on a flour-dusted work surface. Roll it out 1/8-inch thick. To make the bottom crust, cut 4-inch circles for a muffin or popover pan and 41/2-inch circles for the ramekins. Place the dough circles in the cups or ramekins and press the dough into the bottom and sides of each.|5. Fill the pastry-lined moulds up to the rim. Fold any excess dough from the sides onto the top of the filling. Roll out the remaining dough and cut 3-inch circles to fit into the tops of the muffin or popover pan or ramekins. Place the tops onto the filling and press down lightly to seal. Cut a small hole in the centre of each top. Reroll any excess dough. Using small pastry cutters, cut out shapes and decorate the tops. Brush the top of each pie with the beaten egg. Bake the pies for 20 minutes. Reduce the heat to 350 degrees Fahrenheit and bake for 2 hours.||6. Remove the pies from the oven, brush with the beaten egg again, and bake for 10 minutes longer. Remove and let cool in the pan.||7. Bring the reduced stock back to a boil, remove from the heat, add the gelatin, and stir to dissolve. Using a funnel, spoon the stock mixture into the hole at the top of each pie, dividing the stock evenly among the pies. This is a slow process, and all of the liquid should be used. Chill overnight.||8. To serve, remove from the pan and serve with good English mustard.</t>
+  </si>
+  <si>
+    <t>2*ounces*Bittersweet Chocolate (chopped),1*tablespoon*Instant Coffee,1.25*cups*Boiling Water,2.75*cups*Flour,2.75*cups*Granulated Sugar,0.75*cup*Unsweetened Cocoa Powder,0.5*teaspoon*Salt,2*teaspoons*Baking Soda,1*teaspoon*Baking Powder,1*cup*Vegetable Oil,1.25*cups*Buttermilk,4*large*Eggs,2*teaspoons*Pure Vanilla Extract</t>
+  </si>
+  <si>
+    <t>1*cup*FLour,0.25*teaspoon*Salt,1*teaspoon*Baking Powder,0.25*teaspoon*Freshly Ground Black Pepper,0.25*teaspoon*Ground Sage,0.25*teaspoon*Ground Thyme,0.25*teaspoon*Dried Marjoram,2*tablespoons*Fresh Parsley (chopped),4*tablespoons*Butter (chilled and cut into small pieces),2*tablespoons*Milk,1*null*Egg,3*tablespoons*Vegetable Oil,1.5*pounds*Chuck Steak (trimmed and cut into half inch cubes),1*null*Onion (chopped),1*tablespoon*Flour,1*14ounce*Chicken Broth Can,1*sprinkle*Salt,1*sprinkle*Freshly Ground Black Pepper,2*null*Carrots (cut into 1 inch pieces),2*null*Celery Ribs (cut into 1 inch pieces),4*null*Red Skinned Potatoes (unpeeled - scrubbed - and cut into 1 inch cubes)</t>
+  </si>
+  <si>
+    <t>3*tablespoons*Rice Vinegar,1*tablespoon*Sugar,1*tablespoon*Soy Sauce,0.25*inch*Ginger (fresh and grated),0.5*tablespoon*Dried Wakame,1*small*Cucumber,1*teaspoon*Salt,0.25*pound*Octopus (boiled - precooked and sliced)</t>
+  </si>
+  <si>
+    <t>6*null*Radishes (sliced and simmered),3.5*cups*Dashi (divided),2*null*Chicken Thighs ( boneless - skinless and chopped),1*null*Carrot (sliced),3*null*Shiitake Mushrooms (chopped),1.5*cups*Japanese Rice (cooked),1*tablespoon*Soy Sauce,1*large*Egg,3*null*Green Onions (chopped),1*teaspoon*Sesame Seeds ( toasted),0.25*teaspoon*Pepper</t>
   </si>
 </sst>
 </file>
@@ -2980,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3E378D-9781-4302-9477-07B2B463A36A}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3021,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -3044,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -3067,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3090,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -3113,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -3136,7 +3136,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -3159,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -3182,7 +3182,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -3205,7 +3205,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
@@ -3228,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>45</v>
@@ -3251,7 +3251,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
@@ -3274,7 +3274,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
@@ -3297,7 +3297,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -3320,7 +3320,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
@@ -3343,7 +3343,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>65</v>
@@ -3366,7 +3366,7 @@
         <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
@@ -3412,7 +3412,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>79</v>
@@ -3435,7 +3435,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>83</v>
@@ -3458,7 +3458,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -3481,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>91</v>
@@ -6014,13 +6014,13 @@
         <v>550</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F132" s="12">
         <v>25</v>
@@ -6066,7 +6066,7 @@
         <v>559</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F134" s="14">
         <v>30</v>
@@ -6112,7 +6112,7 @@
         <v>566</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F136" s="14">
         <v>15</v>
@@ -6158,7 +6158,7 @@
         <v>573</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F138" s="14">
         <v>20</v>
@@ -6181,7 +6181,7 @@
         <v>576</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F139" s="14">
         <v>10</v>
@@ -6201,10 +6201,10 @@
         <v>578</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>579</v>
+        <v>822</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F140" s="14">
         <v>60</v>
@@ -6215,19 +6215,19 @@
     </row>
     <row r="141" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C141" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="D141" s="14" t="s">
-        <v>582</v>
-      </c>
       <c r="E141" s="14" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F141" s="14">
         <v>30</v>
@@ -6238,19 +6238,19 @@
     </row>
     <row r="142" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C142" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D142" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>585</v>
-      </c>
       <c r="E142" s="14" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F142" s="14">
         <v>115</v>
@@ -6261,19 +6261,19 @@
     </row>
     <row r="143" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C143" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="D143" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="E143" s="14" t="s">
         <v>588</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>589</v>
       </c>
       <c r="F143" s="14">
         <v>80</v>
@@ -6284,19 +6284,19 @@
     </row>
     <row r="144" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C144" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="E144" s="14" t="s">
         <v>592</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>593</v>
       </c>
       <c r="F144" s="14">
         <v>35</v>
@@ -6307,19 +6307,19 @@
     </row>
     <row r="145" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D145" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="D145" s="14" t="s">
-        <v>596</v>
-      </c>
       <c r="E145" s="14" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F145" s="14">
         <v>70</v>
@@ -6330,19 +6330,19 @@
     </row>
     <row r="146" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C146" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="E146" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>600</v>
       </c>
       <c r="F146" s="14">
         <v>210</v>
@@ -6353,19 +6353,19 @@
     </row>
     <row r="147" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C147" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E147" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>604</v>
       </c>
       <c r="F147" s="14">
         <v>90</v>
@@ -6376,19 +6376,19 @@
     </row>
     <row r="148" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C148" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E148" s="14" t="s">
         <v>606</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>608</v>
       </c>
       <c r="F148" s="14">
         <v>55</v>
@@ -6399,19 +6399,19 @@
     </row>
     <row r="149" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C149" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E149" s="14" t="s">
         <v>610</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>612</v>
       </c>
       <c r="F149" s="14">
         <v>40</v>
@@ -6422,19 +6422,19 @@
     </row>
     <row r="150" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C150" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="E150" s="14" t="s">
         <v>614</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>616</v>
       </c>
       <c r="F150" s="14">
         <v>20</v>
@@ -6445,19 +6445,19 @@
     </row>
     <row r="151" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F151" s="14">
         <v>140</v>
@@ -6468,19 +6468,19 @@
     </row>
     <row r="152" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F152" s="14">
         <v>340</v>
@@ -6491,19 +6491,19 @@
     </row>
     <row r="153" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>553</v>
       </c>
       <c r="C153" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E153" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>626</v>
       </c>
       <c r="F153" s="14">
         <v>10</v>
@@ -6514,19 +6514,19 @@
     </row>
     <row r="154" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C154" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="E154" s="14" t="s">
         <v>628</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>630</v>
       </c>
       <c r="F154" s="14">
         <v>155</v>
@@ -6537,19 +6537,19 @@
     </row>
     <row r="155" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>647</v>
+        <v>825</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F155" s="14">
         <v>35</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="156" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F156" s="14">
         <v>50</v>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="157" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F157" s="14">
         <v>45</v>
@@ -6606,19 +6606,19 @@
     </row>
     <row r="158" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F158" s="14">
         <v>15</v>
@@ -6629,19 +6629,19 @@
     </row>
     <row r="159" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F159" s="14">
         <v>330</v>
@@ -6652,19 +6652,19 @@
     </row>
     <row r="160" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F160" s="14">
         <v>740</v>
@@ -6675,19 +6675,19 @@
     </row>
     <row r="161" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F161" s="14">
         <v>300</v>
@@ -6698,19 +6698,19 @@
     </row>
     <row r="162" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F162" s="14">
         <v>20</v>
@@ -6721,19 +6721,19 @@
     </row>
     <row r="163" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F163" s="14">
         <v>40</v>
@@ -6744,19 +6744,19 @@
     </row>
     <row r="164" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F164" s="14">
         <v>35</v>
@@ -6767,19 +6767,19 @@
     </row>
     <row r="165" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F165" s="14">
         <v>30</v>
@@ -6790,19 +6790,19 @@
     </row>
     <row r="166" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>682</v>
+        <v>824</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F166" s="14">
         <v>15</v>
@@ -6813,19 +6813,19 @@
     </row>
     <row r="167" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F167" s="14">
         <v>50</v>
@@ -6836,19 +6836,19 @@
     </row>
     <row r="168" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F168" s="14">
         <v>40</v>
@@ -6859,19 +6859,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F169" s="14">
         <v>15</v>
@@ -6882,19 +6882,19 @@
     </row>
     <row r="170" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F170" s="14">
         <v>20</v>
@@ -6905,19 +6905,19 @@
     </row>
     <row r="171" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F171" s="14">
         <v>25</v>
@@ -6928,19 +6928,19 @@
     </row>
     <row r="172" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F172" s="14">
         <v>10</v>
@@ -6951,19 +6951,19 @@
     </row>
     <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F173" s="14">
         <v>5</v>
@@ -6974,19 +6974,19 @@
     </row>
     <row r="174" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F174" s="14">
         <v>5</v>
@@ -6997,19 +6997,19 @@
     </row>
     <row r="175" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F175" s="14">
         <v>5</v>
@@ -7020,19 +7020,19 @@
     </row>
     <row r="176" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F176" s="14">
         <v>5</v>
@@ -7043,19 +7043,19 @@
     </row>
     <row r="177" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>550</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F177" s="14">
         <v>95</v>
@@ -7066,19 +7066,19 @@
     </row>
     <row r="178" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F178" s="14">
         <v>75</v>
@@ -7089,19 +7089,19 @@
     </row>
     <row r="179" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B179" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="D179" s="14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F179" s="14">
         <v>150</v>
@@ -7112,19 +7112,19 @@
     </row>
     <row r="180" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="F180" s="14">
         <v>30</v>
@@ -7135,19 +7135,19 @@
     </row>
     <row r="181" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="F181" s="14">
         <v>65</v>
@@ -7158,19 +7158,19 @@
     </row>
     <row r="182" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F182" s="14">
         <v>10</v>
@@ -7181,19 +7181,19 @@
     </row>
     <row r="183" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F183" s="1">
         <v>25</v>
@@ -7204,19 +7204,19 @@
     </row>
     <row r="184" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F184" s="1">
         <v>20</v>
@@ -7227,19 +7227,19 @@
     </row>
     <row r="185" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="D185" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F185" s="1">
         <v>30</v>
@@ -7250,19 +7250,19 @@
     </row>
     <row r="186" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="E186" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F186" s="1">
         <v>5</v>
@@ -7273,19 +7273,19 @@
     </row>
     <row r="187" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F187" s="1">
         <v>50</v>
@@ -7296,19 +7296,19 @@
     </row>
     <row r="188" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F188" s="1">
         <v>5</v>
@@ -7319,19 +7319,19 @@
     </row>
     <row r="189" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F189" s="1">
         <v>5</v>
@@ -7342,19 +7342,19 @@
     </row>
     <row r="190" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F190" s="1">
         <v>5</v>
@@ -7365,19 +7365,19 @@
     </row>
     <row r="191" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F191" s="1">
         <v>5</v>
@@ -7388,19 +7388,19 @@
     </row>
     <row r="192" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F192" s="1">
         <v>130</v>
@@ -7411,19 +7411,19 @@
     </row>
     <row r="193" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F193" s="1">
         <v>10</v>
@@ -7434,19 +7434,19 @@
     </row>
     <row r="194" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F194" s="1">
         <v>150</v>
@@ -7457,19 +7457,19 @@
     </row>
     <row r="195" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F195" s="1">
         <v>100</v>
@@ -7480,19 +7480,19 @@
     </row>
     <row r="196" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F196" s="1">
         <v>90</v>
